--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1244,7 +1244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="159">
   <si>
     <r>
       <rPr>
@@ -8403,6 +8403,343 @@
         <family val="2"/>
       </rPr>
       <t/>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고도화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리서치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nitial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취합</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9115,10 +9452,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="82" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="82" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9197,7 +9534,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="62">
-        <f t="shared" ref="E6:E51" si="0">C6-B6-(D6/24/60)</f>
+        <f t="shared" ref="E6:E54" si="0">C6-B6-(D6/24/60)</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="F6" s="36" t="s">
@@ -10285,6 +10622,78 @@
       </c>
       <c r="G51" s="105" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="91">
+        <v>43775</v>
+      </c>
+      <c r="B52" s="55">
+        <v>0.625</v>
+      </c>
+      <c r="C52" s="55">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D52" s="36">
+        <v>0</v>
+      </c>
+      <c r="E52" s="62">
+        <f t="shared" si="0"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="F52" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="91">
+        <v>43776</v>
+      </c>
+      <c r="B53" s="55">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C53" s="55">
+        <v>0.75</v>
+      </c>
+      <c r="D53" s="36">
+        <v>50</v>
+      </c>
+      <c r="E53" s="62">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444406E-2</v>
+      </c>
+      <c r="F53" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="105" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="91">
+        <v>43776</v>
+      </c>
+      <c r="B54" s="55">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C54" s="55">
+        <v>1.1180555555555556</v>
+      </c>
+      <c r="D54" s="36">
+        <v>110</v>
+      </c>
+      <c r="E54" s="62">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="F54" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="105" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587928D3-9350-4D33-AF73-E71E5D6A1742}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1176" windowWidth="21600" windowHeight="11388"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
     <sheet name="팀 통합" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,31 +34,33 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -77,6 +80,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -95,6 +99,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -113,6 +118,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -131,6 +137,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -149,6 +156,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -167,6 +175,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -185,6 +194,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -206,31 +216,33 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -250,6 +262,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -268,6 +281,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -286,6 +300,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -304,6 +319,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -322,6 +338,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -340,6 +357,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -358,6 +376,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -379,31 +398,33 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -423,6 +444,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -441,6 +463,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -459,6 +482,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -477,6 +501,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -495,6 +520,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -513,6 +539,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -531,6 +558,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -552,31 +580,33 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -596,6 +626,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -614,6 +645,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -632,6 +664,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -650,6 +683,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -668,6 +702,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -686,6 +721,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -704,6 +740,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -725,31 +762,33 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -769,6 +808,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -787,6 +827,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -805,6 +846,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -823,6 +865,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -841,6 +884,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -859,6 +903,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -877,6 +922,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -898,31 +944,33 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -942,6 +990,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -960,6 +1009,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -978,6 +1028,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -996,6 +1047,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1014,6 +1066,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -1032,6 +1085,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1050,6 +1104,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1071,31 +1126,33 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -1115,6 +1172,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -1133,6 +1191,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1151,6 +1210,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1169,6 +1229,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1187,6 +1248,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -1205,6 +1267,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1223,6 +1286,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1244,13 +1308,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="166">
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">UC Spec </t>
     </r>
@@ -1269,6 +1334,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1287,6 +1353,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 1</t>
     </r>
@@ -1305,6 +1372,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Prototyping </t>
     </r>
@@ -1323,6 +1391,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1343,6 +1412,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Initial Data Set </t>
     </r>
@@ -1361,6 +1431,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1379,6 +1450,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1397,6 +1469,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1415,6 +1488,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1425,6 +1499,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Entity Class Diagram </t>
     </r>
@@ -1443,6 +1518,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1461,6 +1537,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1479,6 +1556,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1489,6 +1567,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">UC Spec </t>
     </r>
@@ -1507,6 +1586,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1525,6 +1605,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
@@ -1543,6 +1624,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Prototyping </t>
     </r>
@@ -1561,6 +1643,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1581,6 +1664,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>P</t>
     </r>
@@ -1589,6 +1673,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">rototyping </t>
     </r>
@@ -1607,6 +1692,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Coding Guideline </t>
     </r>
@@ -1627,6 +1713,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">UC Spec </t>
     </r>
@@ -1645,6 +1732,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1663,6 +1751,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
@@ -1681,6 +1770,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Prototyping </t>
     </r>
@@ -1699,6 +1789,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1719,6 +1810,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Entity Class Diagram </t>
     </r>
@@ -1737,6 +1829,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1755,6 +1848,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1773,6 +1867,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1783,6 +1878,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Entity Class Diagram </t>
     </r>
@@ -1801,6 +1897,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1819,6 +1916,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1837,6 +1935,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1847,6 +1946,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Entity Class Diagram </t>
     </r>
@@ -1865,6 +1965,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1883,6 +1984,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1901,6 +2003,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1919,6 +2022,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> task </t>
     </r>
@@ -1937,6 +2041,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1950,6 +2055,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Initial Data Set </t>
     </r>
@@ -1968,6 +2074,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1986,6 +2093,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -2004,6 +2112,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2022,6 +2131,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2040,6 +2150,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2058,6 +2169,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -2076,6 +2188,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2094,6 +2207,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2104,6 +2218,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">GridView, SQLite </t>
     </r>
@@ -2122,6 +2237,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Read </t>
     </r>
@@ -2140,6 +2256,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2158,6 +2275,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2176,6 +2294,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> invisible)</t>
     </r>
@@ -2186,6 +2305,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Specification 1.0 </t>
     </r>
@@ -2204,6 +2324,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -2222,6 +2343,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2240,6 +2362,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">), PMP </t>
     </r>
@@ -2260,6 +2383,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Specification </t>
     </r>
@@ -2278,6 +2402,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -2296,6 +2421,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2314,6 +2440,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2332,6 +2459,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2350,6 +2478,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -2368,6 +2497,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2386,6 +2516,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2396,6 +2527,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Target App Ideation (2</t>
     </r>
@@ -2414,6 +2546,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2432,6 +2565,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2450,6 +2584,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2460,6 +2595,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">GridView, SQLite </t>
     </r>
@@ -2478,6 +2614,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Read </t>
     </r>
@@ -2498,6 +2635,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Initial Data Set </t>
     </r>
@@ -2516,6 +2654,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -2534,6 +2673,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2552,6 +2692,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2562,6 +2703,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Entity Class Diagram </t>
     </r>
@@ -2580,6 +2722,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -2598,6 +2741,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2616,6 +2760,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2629,6 +2774,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SRS 1.0 </t>
     </r>
@@ -2647,6 +2793,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2665,6 +2812,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2683,6 +2831,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2701,6 +2850,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2719,6 +2869,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -2737,6 +2888,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2747,6 +2899,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Target App Ideation (1</t>
     </r>
@@ -2765,6 +2918,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2783,6 +2937,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2801,6 +2956,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2811,6 +2967,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ListView</t>
     </r>
@@ -2829,6 +2986,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2847,6 +3005,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> DB </t>
     </r>
@@ -2865,6 +3024,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2883,6 +3043,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2901,6 +3062,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2933,6 +3095,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Initial Data Set(</t>
     </r>
@@ -2951,6 +3114,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2969,6 +3133,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2987,6 +3152,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -3005,6 +3171,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
@@ -3035,6 +3202,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3053,6 +3221,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3071,6 +3240,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3089,6 +3259,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -3107,6 +3278,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3125,6 +3297,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">), PMP </t>
     </r>
@@ -3151,6 +3324,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Target App Ideation (3</t>
     </r>
@@ -3169,6 +3343,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3187,6 +3362,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3205,6 +3381,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3215,6 +3392,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Sequence Diagram 구상</t>
     </r>
@@ -3235,6 +3413,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SRS 1.0 </t>
     </r>
@@ -3253,6 +3432,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -3271,6 +3451,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3289,6 +3470,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, XD </t>
     </r>
@@ -3307,6 +3489,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3323,6 +3506,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Github </t>
     </r>
@@ -3341,6 +3525,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3359,6 +3544,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, Android Studio </t>
     </r>
@@ -3377,6 +3563,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3397,6 +3584,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Initial Data Set 구성을</t>
     </r>
@@ -3417,6 +3605,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Create </t>
     </r>
@@ -3435,6 +3624,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Error </t>
     </r>
@@ -3453,6 +3643,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">(table column </t>
     </r>
@@ -3471,6 +3662,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3481,6 +3673,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DB browser</t>
     </r>
@@ -3499,6 +3692,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3517,6 +3711,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> DB </t>
     </r>
@@ -3535,6 +3730,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3553,6 +3749,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3571,6 +3768,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3589,6 +3787,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3612,6 +3811,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -3630,6 +3830,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -3648,6 +3849,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3666,6 +3868,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> UC </t>
     </r>
@@ -3684,6 +3887,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3700,6 +3904,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Code Refactoring(Databases Class </t>
     </r>
@@ -3718,6 +3923,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, DatabaseController </t>
     </r>
@@ -3737,6 +3943,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">DB Read </t>
     </r>
@@ -3755,6 +3962,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, Create </t>
     </r>
@@ -3773,6 +3981,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Read </t>
     </r>
@@ -3791,6 +4000,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, Coding Guideline </t>
     </r>
@@ -3821,6 +4031,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Prototyping Sample </t>
     </r>
@@ -3839,6 +4050,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3859,6 +4071,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Diagram </t>
     </r>
@@ -3877,6 +4090,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -3895,6 +4109,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3913,6 +4128,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3929,6 +4145,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">UC Diagram + UC Spec </t>
     </r>
@@ -3947,6 +4164,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -3965,6 +4183,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3983,6 +4202,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4001,6 +4221,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4019,6 +4240,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, UC </t>
     </r>
@@ -4037,6 +4259,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -4055,6 +4278,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4073,6 +4297,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -4083,6 +4308,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Specification 1.0 </t>
     </r>
@@ -4101,6 +4327,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (1</t>
     </r>
@@ -4119,6 +4346,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4137,6 +4365,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4155,6 +4384,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - </t>
     </r>
@@ -4173,6 +4403,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -4191,6 +4422,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -4201,6 +4433,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">UC Spec </t>
     </r>
@@ -4219,6 +4452,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> GUI </t>
     </r>
@@ -4239,6 +4473,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Cae Outline </t>
     </r>
@@ -4259,6 +4494,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Code Refactoring </t>
     </r>
@@ -4282,6 +4518,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Application </t>
     </r>
@@ -4300,6 +4537,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> DB </t>
     </r>
@@ -4320,6 +4558,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -4340,6 +4579,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SAD - Create 부분</t>
     </r>
@@ -4360,6 +4600,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Diagram </t>
     </r>
@@ -4380,6 +4621,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Prototyping </t>
     </r>
@@ -4398,6 +4640,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4428,6 +4671,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, PMP </t>
     </r>
@@ -4446,6 +4690,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4466,6 +4711,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SQLite </t>
     </r>
@@ -4484,6 +4730,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> DB </t>
     </r>
@@ -4507,6 +4754,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SRS 1.0 </t>
     </r>
@@ -4525,6 +4773,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -4543,6 +4792,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4561,6 +4811,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -4571,6 +4822,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GridView 세부</t>
     </r>
@@ -4594,6 +4846,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -4612,6 +4865,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -4630,6 +4884,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4648,6 +4903,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4666,6 +4922,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4684,6 +4941,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> UC </t>
     </r>
@@ -4702,6 +4960,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -4712,6 +4971,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -4730,6 +4990,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -4748,6 +5009,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4766,6 +5028,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4784,6 +5047,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4802,6 +5066,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> UC </t>
     </r>
@@ -4820,6 +5085,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -4836,6 +5102,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Initial Data Set </t>
     </r>
@@ -4854,6 +5121,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4872,6 +5140,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -4890,6 +5159,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4908,6 +5178,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4926,6 +5197,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -4944,6 +5216,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -4954,6 +5227,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">GridView, SQLite </t>
     </r>
@@ -4972,6 +5246,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Read </t>
     </r>
@@ -4990,6 +5265,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -5008,6 +5284,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5026,6 +5303,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -5042,6 +5320,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -5060,6 +5339,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -5078,6 +5358,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5096,6 +5377,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5114,6 +5396,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> UC </t>
     </r>
@@ -5132,6 +5415,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -5142,18 +5426,133 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>GridView, ListView</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의 XML 디자인 &amp; 데이터베이스 연동</t>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UC Diagram + UC Spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도식화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, UC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동기화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">), Entity Diagram </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
     </r>
   </si>
   <si>
@@ -5162,42 +5561,16 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">UC Diagram + UC Spec </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>메뉴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Use Case Specificaiton</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5209,79 +5582,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>추천</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로직</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>도식화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">, UC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>동기화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">), Entity Diagram </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
+      <t>작성</t>
     </r>
   </si>
   <si>
@@ -5290,14 +5591,26 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>Use Case Specificaiton</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5309,7 +5622,111 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>작성</t>
+      <t>준비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설문조사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -5318,24 +5735,45 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Initial Data Set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제작</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UC Diagram + UC Spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피드백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5347,87 +5785,16 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>준비</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설문조사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>폼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제작</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>메뉴추천</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> UC Spec </t>
     </r>
     <r>
       <rPr>
@@ -5444,88 +5811,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">UC Diagram + UC Spec </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>피드백</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기반</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> UC Spec </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -5552,6 +5838,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5570,6 +5857,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5588,6 +5876,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5606,6 +5895,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5626,6 +5916,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">API </t>
     </r>
@@ -5644,6 +5935,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5662,6 +5954,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5682,6 +5975,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>P</t>
     </r>
@@ -5690,6 +5984,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>rototyping</t>
     </r>
@@ -5700,6 +5995,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>P</t>
     </r>
@@ -5708,6 +6004,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">MP, PSP </t>
     </r>
@@ -5728,6 +6025,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -5746,6 +6044,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 25</t>
     </r>
@@ -5764,6 +6063,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5795,6 +6095,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -5828,6 +6129,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -5861,6 +6163,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -5894,6 +6197,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -5927,6 +6231,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -5960,6 +6265,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -5991,6 +6297,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6009,6 +6316,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6039,6 +6347,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6057,6 +6366,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6075,6 +6385,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6095,6 +6406,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SAD 1.0 </t>
     </r>
@@ -6115,6 +6427,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Specification </t>
     </r>
@@ -6133,6 +6446,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -6151,6 +6465,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -6161,6 +6476,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SRS 1.0 </t>
     </r>
@@ -6179,6 +6495,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6197,6 +6514,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6215,6 +6533,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -6233,6 +6552,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> SRS </t>
     </r>
@@ -6251,6 +6571,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -6261,6 +6582,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Initial Data Set </t>
     </r>
@@ -6279,6 +6601,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -6297,6 +6620,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -6315,6 +6639,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6333,6 +6658,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -6351,6 +6677,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6369,6 +6696,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -6379,6 +6707,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Android Studio </t>
     </r>
@@ -6397,6 +6726,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6415,6 +6745,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Setting, </t>
     </r>
@@ -6433,6 +6764,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6451,6 +6783,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6481,6 +6814,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6499,6 +6833,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6517,6 +6852,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Data Creation </t>
     </r>
@@ -6535,6 +6871,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6553,6 +6890,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6571,6 +6909,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6589,6 +6928,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6609,6 +6949,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Specification 1.0 </t>
     </r>
@@ -6627,6 +6968,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -6645,6 +6987,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6663,6 +7006,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6681,6 +7025,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -6691,6 +7036,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Entity Class Diagram </t>
     </r>
@@ -6709,6 +7055,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -6727,6 +7074,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6745,6 +7093,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6763,6 +7112,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6781,6 +7131,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -6809,6 +7160,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -6819,6 +7171,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -6852,6 +7205,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -6870,6 +7224,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 28</t>
     </r>
@@ -6893,6 +7248,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -6911,6 +7267,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 19</t>
     </r>
@@ -6962,6 +7319,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6988,6 +7346,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -7006,6 +7365,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 20</t>
     </r>
@@ -7026,6 +7386,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -7044,6 +7405,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 1</t>
     </r>
@@ -7064,6 +7426,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -7082,6 +7445,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 27</t>
     </r>
@@ -7102,6 +7466,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -7120,6 +7485,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 24</t>
     </r>
@@ -7140,6 +7506,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -7158,6 +7525,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 7</t>
     </r>
@@ -7178,6 +7546,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -7186,6 +7555,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1</t>
     </r>
@@ -7204,6 +7574,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
@@ -7224,6 +7595,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -7242,6 +7614,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 25</t>
     </r>
@@ -7262,6 +7635,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -7280,6 +7654,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 12</t>
     </r>
@@ -7300,6 +7675,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -7318,6 +7694,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 26</t>
     </r>
@@ -7351,6 +7728,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7369,6 +7747,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7387,6 +7766,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7405,6 +7785,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -7423,6 +7804,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7441,6 +7823,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7459,6 +7842,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -7479,6 +7863,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7497,6 +7882,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7515,6 +7901,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7533,6 +7920,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -7551,6 +7939,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7569,6 +7958,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -7579,6 +7969,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GridView</t>
     </r>
@@ -7597,6 +7988,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7615,6 +8007,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Read </t>
     </r>
@@ -7647,6 +8040,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">RelativeLayout </t>
     </r>
@@ -7665,6 +8059,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7685,6 +8080,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Prototyping - Read </t>
     </r>
@@ -7705,6 +8101,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Table Design (</t>
     </r>
@@ -7723,6 +8120,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7741,6 +8139,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -7754,6 +8153,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -7772,6 +8172,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -7790,6 +8191,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7808,6 +8210,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -7818,6 +8221,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SRS 1.0 </t>
     </r>
@@ -7836,6 +8240,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7854,6 +8259,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7872,6 +8278,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7890,6 +8297,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7920,6 +8328,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7938,6 +8347,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -7956,6 +8366,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> ui </t>
     </r>
@@ -7974,6 +8385,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7992,6 +8404,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8010,6 +8423,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8028,6 +8442,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8048,6 +8463,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Specification </t>
     </r>
@@ -8081,6 +8497,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8099,6 +8516,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8117,6 +8535,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8135,6 +8554,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -8153,6 +8573,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8171,6 +8592,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8189,6 +8611,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8207,6 +8630,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8225,6 +8649,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -8283,6 +8708,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
@@ -8415,6 +8841,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8433,6 +8860,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8451,6 +8879,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8741,13 +9170,99 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software Architecture Document 1.0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GridView, ListView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의 XML 디자인 &amp; 데이터베이스 연동</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 환경 샘플 파일 및 프레젠테이션 준비</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototyping</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Initial Data Set 중식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 메뉴 추가</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GUI 샘플</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 적용 및 하단 네비게이션 바 (탭 아이템) 레이아웃 구현</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>클래스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 내 함수 Refinement</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototyping Application 통합</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -8764,18 +9279,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF800080"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -8803,6 +9321,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -8899,7 +9418,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -9138,13 +9657,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3"/>
+    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9450,12 +9974,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="82" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView topLeftCell="A25" zoomScale="82" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9487,11 +10011,11 @@
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="79"/>
       <c r="D3" s="80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="81"/>
       <c r="F3" s="43"/>
@@ -9499,25 +10023,25 @@
     <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>106</v>
-      </c>
       <c r="C5" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="66" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9541,7 +10065,7 @@
         <v>53</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9565,7 +10089,7 @@
         <v>53</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9613,7 +10137,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9658,7 +10182,7 @@
         <v>5.555555555555558E-2</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>20</v>
@@ -9682,7 +10206,7 @@
         <v>4.861111111111116E-2</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>14</v>
@@ -9706,10 +10230,10 @@
         <v>4.5138888888888867E-2</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -9730,7 +10254,7 @@
         <v>4.513888888888884E-2</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>30</v>
@@ -9754,7 +10278,7 @@
         <v>4.8611111111111202E-2</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G15" s="43" t="s">
         <v>27</v>
@@ -9829,7 +10353,7 @@
         <v>51</v>
       </c>
       <c r="G18" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -9850,10 +10374,10 @@
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9874,10 +10398,10 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="F20" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" s="50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9898,10 +10422,10 @@
         <v>6.9444444444444364E-2</v>
       </c>
       <c r="F21" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9922,10 +10446,10 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="F22" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -9946,7 +10470,7 @@
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="F23" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" s="53" t="s">
         <v>49</v>
@@ -9970,10 +10494,10 @@
         <v>0.12152777777777779</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9994,7 +10518,7 @@
         <v>3.4722222222222217E-2</v>
       </c>
       <c r="F25" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" s="50" t="s">
         <v>12</v>
@@ -10045,7 +10569,7 @@
         <v>67</v>
       </c>
       <c r="G27" s="53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -10117,7 +10641,7 @@
         <v>67</v>
       </c>
       <c r="G30" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10141,7 +10665,7 @@
         <v>67</v>
       </c>
       <c r="G31" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10189,7 +10713,7 @@
         <v>41</v>
       </c>
       <c r="G33" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10261,7 +10785,7 @@
         <v>67</v>
       </c>
       <c r="G36" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10285,7 +10809,7 @@
         <v>67</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10381,7 +10905,7 @@
         <v>67</v>
       </c>
       <c r="G41" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10498,10 +11022,10 @@
         <v>0.13888888888888884</v>
       </c>
       <c r="F46" s="82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G46" s="53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -10530,7 +11054,7 @@
     </row>
     <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B48" s="55">
         <v>0.4375</v>
@@ -10554,7 +11078,7 @@
     </row>
     <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B49" s="55">
         <v>0.56944444444444442</v>
@@ -10573,7 +11097,7 @@
         <v>41</v>
       </c>
       <c r="G49" s="53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -10597,7 +11121,7 @@
         <v>41</v>
       </c>
       <c r="G50" s="105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -10621,7 +11145,7 @@
         <v>41</v>
       </c>
       <c r="G51" s="105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -10645,7 +11169,7 @@
         <v>41</v>
       </c>
       <c r="G52" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -10669,7 +11193,7 @@
         <v>41</v>
       </c>
       <c r="G53" s="105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -10693,7 +11217,7 @@
         <v>41</v>
       </c>
       <c r="G54" s="105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -10708,7 +11232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
@@ -10744,11 +11268,11 @@
     </row>
     <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="58"/>
       <c r="D3" s="65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -10756,30 +11280,30 @@
     <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:10" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>106</v>
-      </c>
       <c r="C5" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="66" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="55">
         <v>0.5</v>
@@ -10803,7 +11327,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="60">
         <v>0.4375</v>
@@ -10819,7 +11343,7 @@
         <v>5.555555555555558E-2</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>20</v>
@@ -10827,7 +11351,7 @@
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="55">
         <v>0.57291666666666663</v>
@@ -10843,7 +11367,7 @@
         <v>4.861111111111116E-2</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>14</v>
@@ -10851,7 +11375,7 @@
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="55">
         <v>0.72916666666666663</v>
@@ -10867,7 +11391,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>30</v>
@@ -10875,7 +11399,7 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="55">
         <v>0.57291666666666663</v>
@@ -10899,7 +11423,7 @@
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="55">
         <v>0.39583333333333331</v>
@@ -10923,7 +11447,7 @@
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="55">
         <v>0.67708333333333337</v>
@@ -10939,16 +11463,16 @@
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="55">
         <v>0.64583333333333337</v>
@@ -10964,15 +11488,15 @@
         <v>6.9444444444444364E-2</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="93" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="55">
         <v>0.5625</v>
@@ -10988,7 +11512,7 @@
         <v>0.14583333333333329</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G14" s="31" t="s">
         <v>13</v>
@@ -11012,7 +11536,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G15" s="53" t="s">
         <v>0</v>
@@ -11036,7 +11560,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="53" t="s">
         <v>5</v>
@@ -11060,7 +11584,7 @@
         <v>6.9444444444444406E-2</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="53" t="s">
         <v>3</v>
@@ -11084,10 +11608,10 @@
         <v>0.12152777777777779</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -11111,7 +11635,7 @@
         <v>67</v>
       </c>
       <c r="G19" s="53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -11140,7 +11664,7 @@
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="55">
         <v>0.64583333333333337</v>
@@ -11255,7 +11779,7 @@
         <v>67</v>
       </c>
       <c r="G25" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11276,7 +11800,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="F26" s="104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G26" s="53" t="s">
         <v>2</v>
@@ -11284,7 +11808,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="61">
         <v>0.5</v>
@@ -11300,10 +11824,10 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F27" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="105" t="s">
         <v>152</v>
-      </c>
-      <c r="G27" s="105" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11480,12 +12004,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11516,11 +12040,11 @@
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="58"/>
       <c r="D3" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="70"/>
       <c r="F3"/>
@@ -11528,25 +12052,25 @@
     <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>106</v>
-      </c>
       <c r="C5" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="66" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11563,7 +12087,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="72">
-        <f t="shared" ref="E6:E36" si="0">C6-B6-(D6/24/60)</f>
+        <f t="shared" ref="E6:E41" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F6" s="16" t="s">
@@ -11591,7 +12115,7 @@
         <v>5.555555555555558E-2</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>20</v>
@@ -11615,7 +12139,7 @@
         <v>4.861111111111116E-2</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>14</v>
@@ -11639,7 +12163,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>30</v>
@@ -11687,7 +12211,7 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>42</v>
@@ -11711,7 +12235,7 @@
         <v>0.12499999999999997</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>68</v>
@@ -11735,7 +12259,7 @@
         <v>0.13194444444444436</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>33</v>
@@ -11759,10 +12283,10 @@
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -11783,10 +12307,10 @@
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11807,10 +12331,10 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11831,10 +12355,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11855,7 +12379,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" s="40" t="s">
         <v>44</v>
@@ -11879,7 +12403,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="53" t="s">
         <v>0</v>
@@ -11903,7 +12427,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G20" s="53" t="s">
         <v>5</v>
@@ -11927,7 +12451,7 @@
         <v>6.9444444444444406E-2</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G21" s="53" t="s">
         <v>3</v>
@@ -11951,10 +12475,10 @@
         <v>0.12152777777777779</v>
       </c>
       <c r="F22" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
@@ -11975,7 +12499,7 @@
         <v>4.1666666666666671E-2</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" s="38" t="s">
         <v>31</v>
@@ -11999,7 +12523,7 @@
         <v>6.2500000000000014E-2</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>9</v>
@@ -12023,7 +12547,7 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G25" s="38" t="s">
         <v>9</v>
@@ -12047,10 +12571,10 @@
         <v>3.125E-2</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -12074,7 +12598,7 @@
         <v>67</v>
       </c>
       <c r="G27" s="53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -12263,10 +12787,10 @@
         <v>0.37500000000000011</v>
       </c>
       <c r="F35" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="G35" s="53" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="G35" s="109" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12287,56 +12811,131 @@
         <v>0.125</v>
       </c>
       <c r="F36" s="67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G36" s="53" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="4"/>
+      <c r="A37" s="14">
+        <v>43775</v>
+      </c>
+      <c r="B37" s="55">
+        <v>0.75</v>
+      </c>
+      <c r="C37" s="55">
+        <v>0.875</v>
+      </c>
+      <c r="D37" s="36">
+        <v>0</v>
+      </c>
+      <c r="E37" s="62">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="F37" s="108" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="109" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="4"/>
+      <c r="A38" s="14">
+        <v>43777</v>
+      </c>
+      <c r="B38" s="55">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C38" s="55">
+        <v>0.125</v>
+      </c>
+      <c r="D38" s="36">
+        <v>0</v>
+      </c>
+      <c r="E38" s="62">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F38" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" s="109" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="4"/>
+      <c r="A39" s="14">
+        <v>43778</v>
+      </c>
+      <c r="B39" s="55">
+        <v>0.75</v>
+      </c>
+      <c r="C39" s="55">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D39" s="36">
+        <v>0</v>
+      </c>
+      <c r="E39" s="62">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="F39" s="108" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="109" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="4"/>
+      <c r="A40" s="14">
+        <v>43779</v>
+      </c>
+      <c r="B40" s="55">
+        <v>0.375</v>
+      </c>
+      <c r="C40" s="55">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D40" s="36">
+        <v>0</v>
+      </c>
+      <c r="E40" s="62">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="F40" s="108" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="109" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="14">
+        <v>43779</v>
+      </c>
+      <c r="B41" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="C41" s="55">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D41" s="36">
+        <v>0</v>
+      </c>
+      <c r="E41" s="62">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="F41" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="110" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
@@ -12373,6 +12972,159 @@
       <c r="E45" s="62"/>
       <c r="F45" s="9"/>
       <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="43"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="43"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="43"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="43"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="43"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="43"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="43"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="43"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="43"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="43"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="43"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="43"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="43"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="43"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="43"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="43"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="43"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="43"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="43"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="43"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="43"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="43"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="43"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="43"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="43"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="43"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="43"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="43"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="43"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="43"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="43"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="43"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="43"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -12386,11 +13138,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
@@ -12422,11 +13174,11 @@
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="58"/>
       <c r="D3" s="65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="70"/>
       <c r="F3"/>
@@ -12434,30 +13186,30 @@
     <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>106</v>
-      </c>
       <c r="C5" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="66" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="92" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="60">
         <v>0.4375</v>
@@ -12473,7 +13225,7 @@
         <v>5.555555555555558E-2</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>20</v>
@@ -12481,7 +13233,7 @@
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="55">
         <v>0.57291666666666663</v>
@@ -12497,7 +13249,7 @@
         <v>4.861111111111116E-2</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>14</v>
@@ -12505,7 +13257,7 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="55">
         <v>0.72916666666666663</v>
@@ -12521,7 +13273,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>30</v>
@@ -12529,7 +13281,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="55">
         <v>0.57291666666666663</v>
@@ -12553,7 +13305,7 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="55">
         <v>0.70833333333333337</v>
@@ -12577,7 +13329,7 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="55">
         <v>0.67708333333333337</v>
@@ -12593,10 +13345,10 @@
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
@@ -12617,7 +13369,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G12" s="53" t="s">
         <v>0</v>
@@ -12641,7 +13393,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13" s="53" t="s">
         <v>5</v>
@@ -12665,7 +13417,7 @@
         <v>6.9444444444444406E-2</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G14" s="53" t="s">
         <v>3</v>
@@ -12689,15 +13441,15 @@
         <v>0.12152777777777779</v>
       </c>
       <c r="F15" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="55">
         <v>0.91666666666666663</v>
@@ -12716,7 +13468,7 @@
         <v>47</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -12764,12 +13516,12 @@
         <v>67</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="55">
         <v>0.66666666666666663</v>
@@ -12793,7 +13545,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="98" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" s="55">
         <v>0.39583333333333331</v>
@@ -12812,7 +13564,7 @@
         <v>67</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12841,7 +13593,7 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" s="55">
         <v>0.66666666666666663</v>
@@ -12908,7 +13660,7 @@
         <v>67</v>
       </c>
       <c r="G24" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13133,11 +13885,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -13169,11 +13921,11 @@
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="58"/>
       <c r="D3" s="65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="70"/>
       <c r="F3"/>
@@ -13181,25 +13933,25 @@
     <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>106</v>
-      </c>
       <c r="C5" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="66" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -13244,7 +13996,7 @@
         <v>5.555555555555558E-2</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>20</v>
@@ -13268,7 +14020,7 @@
         <v>4.861111111111116E-2</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>14</v>
@@ -13292,7 +14044,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>30</v>
@@ -13300,7 +14052,7 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="55">
         <v>0.57291666666666663</v>
@@ -13340,10 +14092,10 @@
         <v>0.16666666666666669</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -13364,7 +14116,7 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>60</v>
@@ -13388,7 +14140,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="33" t="s">
         <v>35</v>
@@ -13412,7 +14164,7 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>54</v>
@@ -13436,10 +14188,10 @@
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -13460,7 +14212,7 @@
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16" s="33" t="s">
         <v>21</v>
@@ -13484,7 +14236,7 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>38</v>
@@ -13508,7 +14260,7 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" s="33" t="s">
         <v>58</v>
@@ -13532,7 +14284,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="53" t="s">
         <v>0</v>
@@ -13556,7 +14308,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G20" s="53" t="s">
         <v>5</v>
@@ -13580,7 +14332,7 @@
         <v>6.9444444444444406E-2</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G21" s="53" t="s">
         <v>3</v>
@@ -13604,10 +14356,10 @@
         <v>0.12152777777777779</v>
       </c>
       <c r="F22" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G22" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -13628,7 +14380,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" s="38" t="s">
         <v>52</v>
@@ -13652,7 +14404,7 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>50</v>
@@ -13676,7 +14428,7 @@
         <v>5.2083333333333343E-2</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G25" s="38" t="s">
         <v>28</v>
@@ -13700,7 +14452,7 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>71</v>
@@ -13724,7 +14476,7 @@
         <v>0.12152777777777779</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G27" s="50" t="s">
         <v>15</v>
@@ -13748,7 +14500,7 @@
         <v>0.12152777777777779</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G28" s="49" t="s">
         <v>15</v>
@@ -13772,7 +14524,7 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G29" s="47" t="s">
         <v>15</v>
@@ -13796,7 +14548,7 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G30" s="49" t="s">
         <v>15</v>
@@ -13820,7 +14572,7 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="F31" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G31" s="49" t="s">
         <v>11</v>
@@ -13847,7 +14599,7 @@
         <v>67</v>
       </c>
       <c r="G32" s="53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -13868,7 +14620,7 @@
         <v>5.902777777777779E-2</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G33" s="49" t="s">
         <v>11</v>
@@ -13940,7 +14692,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G36" s="50" t="s">
         <v>37</v>
@@ -13988,7 +14740,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="F38" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G38" s="49" t="s">
         <v>70</v>
@@ -14036,10 +14788,10 @@
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G40" s="53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14063,7 +14815,7 @@
         <v>41</v>
       </c>
       <c r="G41" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14111,7 +14863,7 @@
         <v>41</v>
       </c>
       <c r="G43" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -14156,7 +14908,7 @@
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="F45" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G45" s="106" t="s">
         <v>43</v>
@@ -14685,11 +15437,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -14721,11 +15473,11 @@
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="58"/>
       <c r="D3" s="65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" s="70"/>
       <c r="F3"/>
@@ -14733,30 +15485,30 @@
     <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="59" t="s">
-        <v>106</v>
-      </c>
       <c r="C5" s="59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="66" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="55">
         <v>0.5</v>
@@ -14780,7 +15532,7 @@
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="92" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="60">
         <v>0.4375</v>
@@ -14796,7 +15548,7 @@
         <v>5.555555555555558E-2</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>20</v>
@@ -14804,7 +15556,7 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="55">
         <v>0.57291666666666663</v>
@@ -14820,7 +15572,7 @@
         <v>4.861111111111116E-2</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>14</v>
@@ -14828,7 +15580,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="55">
         <v>0.72916666666666663</v>
@@ -14844,7 +15596,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>30</v>
@@ -14852,7 +15604,7 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="55">
         <v>0.57291666666666663</v>
@@ -14876,7 +15628,7 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="60">
         <v>0.83333333333333337</v>
@@ -14900,7 +15652,7 @@
     </row>
     <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="55">
         <v>0.67708333333333337</v>
@@ -14916,15 +15668,15 @@
         <v>5.2083333333333259E-2</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="55">
         <v>0.41666666666666669</v>
@@ -14948,7 +15700,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="55">
         <v>0.45833333333333331</v>
@@ -14988,7 +15740,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G15" s="53" t="s">
         <v>0</v>
@@ -15012,7 +15764,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="53" t="s">
         <v>5</v>
@@ -15036,7 +15788,7 @@
         <v>6.9444444444444406E-2</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="53" t="s">
         <v>3</v>
@@ -15060,15 +15812,15 @@
         <v>0.12152777777777779</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="55">
         <v>0.79166666666666663</v>
@@ -15092,7 +15844,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="55">
         <v>0.79166666666666663</v>
@@ -15135,7 +15887,7 @@
         <v>67</v>
       </c>
       <c r="G21" s="53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -15183,12 +15935,12 @@
         <v>67</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="99" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="55">
         <v>0.75</v>
@@ -15207,7 +15959,7 @@
         <v>47</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15236,7 +15988,7 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" s="55">
         <v>0.66666666666666663</v>
@@ -15255,7 +16007,7 @@
         <v>67</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15303,7 +16055,7 @@
         <v>67</v>
       </c>
       <c r="G28" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15332,7 +16084,7 @@
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B30" s="55">
         <v>0.91666666666666663</v>
@@ -15351,7 +16103,7 @@
         <v>41</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -15510,7 +16262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -15546,11 +16298,11 @@
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2"/>
       <c r="D3" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -15558,25 +16310,25 @@
     <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:7" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>106</v>
-      </c>
       <c r="C5" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587928D3-9350-4D33-AF73-E71E5D6A1742}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAA53EF-3D11-4A7E-8AA8-42E17AB6C927}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1308,7 +1308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="170">
   <si>
     <r>
       <rPr>
@@ -9256,6 +9256,34 @@
   </si>
   <si>
     <t>Prototyping Application 통합</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target App Refinement</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천로직 회의, 안드로이드 스튜디오 튜토리얼, 프로젝트 타임라인 회의</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototyping</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Code Refactoring (C&amp;R 1차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 구현 완료, GUI 반영)</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9418,7 +9446,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -9651,17 +9679,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -12009,7 +12040,7 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12087,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="72">
-        <f t="shared" ref="E6:E41" si="0">C6-B6-(D6/24/60)</f>
+        <f t="shared" ref="E6:E43" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F6" s="16" t="s">
@@ -12789,7 +12820,7 @@
       <c r="F35" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="109" t="s">
+      <c r="G35" s="107" t="s">
         <v>159</v>
       </c>
     </row>
@@ -12834,10 +12865,10 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="F37" s="108" t="s">
+      <c r="F37" s="106" t="s">
         <v>161</v>
       </c>
-      <c r="G37" s="109" t="s">
+      <c r="G37" s="107" t="s">
         <v>164</v>
       </c>
     </row>
@@ -12858,10 +12889,10 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F38" s="108" t="s">
+      <c r="F38" s="106" t="s">
         <v>158</v>
       </c>
-      <c r="G38" s="109" t="s">
+      <c r="G38" s="107" t="s">
         <v>162</v>
       </c>
     </row>
@@ -12882,10 +12913,10 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="F39" s="108" t="s">
+      <c r="F39" s="106" t="s">
         <v>161</v>
       </c>
-      <c r="G39" s="109" t="s">
+      <c r="G39" s="107" t="s">
         <v>163</v>
       </c>
     </row>
@@ -12906,10 +12937,10 @@
         <f t="shared" si="0"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="F40" s="108" t="s">
+      <c r="F40" s="106" t="s">
         <v>161</v>
       </c>
-      <c r="G40" s="109" t="s">
+      <c r="G40" s="107" t="s">
         <v>165</v>
       </c>
     </row>
@@ -12930,30 +12961,60 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F41" s="108" t="s">
+      <c r="F41" s="106" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="110" t="s">
+      <c r="G41" s="108" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="4"/>
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="14">
+        <v>43779</v>
+      </c>
+      <c r="B42" s="55">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C42" s="55">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D42" s="36">
+        <v>10</v>
+      </c>
+      <c r="E42" s="62">
+        <f t="shared" si="0"/>
+        <v>0.15972222222222229</v>
+      </c>
+      <c r="F42" s="106" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" s="108" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="4"/>
+      <c r="A43" s="14">
+        <v>43780</v>
+      </c>
+      <c r="B43" s="55">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C43" s="55">
+        <v>0.94444444444444453</v>
+      </c>
+      <c r="D43" s="36">
+        <v>60</v>
+      </c>
+      <c r="E43" s="62">
+        <f t="shared" si="0"/>
+        <v>0.11111111111111124</v>
+      </c>
+      <c r="F43" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="G43" s="107" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
@@ -14910,7 +14971,7 @@
       <c r="F45" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="G45" s="106" t="s">
+      <c r="G45" s="109" t="s">
         <v>43</v>
       </c>
     </row>
@@ -14934,7 +14995,7 @@
       <c r="F46" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="107"/>
+      <c r="G46" s="110"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1062,7 +1062,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="179">
   <si>
     <r>
       <rPr>
@@ -9169,6 +9169,299 @@
       </rPr>
       <t>작성</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SAD 1.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>준비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고도화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문서화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>C&amp;R 기능 구현 마무리, Coding Guideline 최종본 작성</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입/로그인/회원정보관리 개발</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -9320,14 +9613,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -9567,6 +9854,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -9883,1406 +10180,1454 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="89" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="34" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="60" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" style="41" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="87" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="51" customWidth="1"/>
+    <col min="3" max="3" width="7" style="51" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="58" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" style="39" customWidth="1"/>
     <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91"/>
+      <c r="A2" s="89"/>
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="D3" s="78" t="s">
+      <c r="B3" s="75"/>
+      <c r="D3" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="41"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="89">
+      <c r="A6" s="87">
         <v>43714</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="51">
         <v>0.625</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="51">
         <v>0.75</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <v>20</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="58">
         <f t="shared" ref="E6:E37" si="0">C6-B6-(D6/24/60)</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="37" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="97">
+      <c r="A7" s="95">
         <v>43714</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="51">
         <v>0.75</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="51">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="32">
         <v>10</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="58">
         <f t="shared" si="0"/>
         <v>1.3888888888888926E-2</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="37" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89">
+      <c r="A8" s="87">
         <v>43715</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="51">
         <v>0.5</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="51">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="32">
         <v>0</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="58">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="37" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89">
+      <c r="A9" s="87">
         <v>43716</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="51">
         <v>0.97430555555555554</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="51">
         <v>0.99861111111111101</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="32">
         <v>0</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="58">
         <f t="shared" si="0"/>
         <v>2.4305555555555469E-2</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="37" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="97">
+      <c r="A10" s="95">
         <v>43717</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="51">
         <v>0.52777777777777779</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="51">
         <v>0.67361111111111116</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="32">
         <v>95</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="58">
         <f t="shared" si="0"/>
         <v>7.9861111111111147E-2</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="39" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="90">
+      <c r="A11" s="88">
         <v>43727</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="56">
         <v>0.4375</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="56">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>0</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="58">
         <f t="shared" si="0"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89">
+      <c r="A12" s="87">
         <v>43727</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="51">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="51">
         <v>0.62152777777777779</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="32">
         <v>0</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="58">
         <f t="shared" si="0"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="90">
+      <c r="A13" s="88">
         <v>43728</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="51">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="51">
         <v>0.40625</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="32">
         <v>10</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="58">
         <f t="shared" si="0"/>
         <v>4.5138888888888867E-2</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="89">
+      <c r="A14" s="87">
         <v>43728</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="51">
         <v>0.73611111111111116</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="51">
         <v>0.78125</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="32">
         <v>0</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="58">
         <f t="shared" si="0"/>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89">
+      <c r="A15" s="87">
         <v>43729</v>
       </c>
-      <c r="B15" s="53">
+      <c r="B15" s="51">
         <v>0.50694444444444442</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="51">
         <v>0.57638888888888895</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="32">
         <v>30</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="58">
         <f t="shared" si="0"/>
         <v>4.8611111111111202E-2</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="41" t="s">
+      <c r="G15" s="39" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89">
+      <c r="A16" s="87">
         <v>43732</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="51">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="32">
         <v>0</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="58">
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="49" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89">
+      <c r="A17" s="87">
         <v>43736</v>
       </c>
-      <c r="B17" s="53">
+      <c r="B17" s="51">
         <v>0.69791666666666663</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="51">
         <v>0.75</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="32">
         <v>15</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="58">
         <f t="shared" si="0"/>
         <v>4.1666666666666706E-2</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89">
+      <c r="A18" s="87">
         <v>43737</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="51">
         <v>0.5625</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="51">
         <v>0.68055555555555547</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="32">
         <v>30</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="58">
         <f t="shared" si="0"/>
         <v>9.722222222222214E-2</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="39" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="89">
+      <c r="A19" s="87">
         <v>43739</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="51">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="51">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="32">
         <v>0</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="58">
         <f t="shared" si="0"/>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="39" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="91">
+      <c r="A20" s="89">
         <v>43742</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B20" s="51">
         <v>0.6875</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="51">
         <v>0.84027777777777779</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="32">
         <v>10</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="58">
         <f t="shared" si="0"/>
         <v>0.14583333333333334</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="46" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="91">
+      <c r="A21" s="89">
         <v>43742</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="51">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="51">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="32">
         <v>20</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="58">
         <f t="shared" si="0"/>
         <v>6.9444444444444364E-2</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="37" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="91">
+      <c r="A22" s="89">
         <v>43746</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="51">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="51">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="32">
         <v>20</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="58">
         <f t="shared" si="0"/>
         <v>0.14583333333333334</v>
       </c>
-      <c r="F22" s="65" t="s">
+      <c r="F22" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="46" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="91">
+      <c r="A23" s="89">
         <v>43748</v>
       </c>
-      <c r="B23" s="53">
+      <c r="B23" s="51">
         <v>0.13194444444444445</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="51">
         <v>0.1875</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="32">
         <v>10</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="58">
         <f t="shared" si="0"/>
         <v>4.8611111111111105E-2</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="49" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="97">
+      <c r="A24" s="95">
         <v>43749</v>
       </c>
-      <c r="B24" s="53">
+      <c r="B24" s="51">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="51">
         <v>1.0173611111111112</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="32">
         <v>0</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="58">
         <f t="shared" si="0"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="91">
+      <c r="A25" s="89">
         <v>43751</v>
       </c>
-      <c r="B25" s="53">
+      <c r="B25" s="51">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="51">
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="32">
         <v>20</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="58">
         <f t="shared" si="0"/>
         <v>3.4722222222222217E-2</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="48" t="s">
+      <c r="G25" s="46" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="91">
+      <c r="A26" s="89">
         <v>43755</v>
       </c>
-      <c r="B26" s="53">
+      <c r="B26" s="51">
         <v>0.375</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="51">
         <v>0.43402777777777773</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="32">
         <v>0</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="58">
         <f t="shared" si="0"/>
         <v>5.9027777777777735E-2</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="48" t="s">
+      <c r="G26" s="46" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="91">
+      <c r="A27" s="89">
         <v>43755</v>
       </c>
-      <c r="B27" s="53">
+      <c r="B27" s="51">
         <v>0.4375</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="51">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="32">
         <v>0</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="58">
         <f t="shared" si="0"/>
         <v>5.2083333333333315E-2</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G27" s="49" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="91">
+      <c r="A28" s="89">
         <v>43755</v>
       </c>
-      <c r="B28" s="53">
+      <c r="B28" s="51">
         <v>0.5625</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="32">
         <v>0</v>
       </c>
-      <c r="E28" s="60">
+      <c r="E28" s="58">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="51" t="s">
+      <c r="G28" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="91">
+      <c r="A29" s="89">
         <v>43761</v>
       </c>
-      <c r="B29" s="53">
+      <c r="B29" s="51">
         <v>0</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="51">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="32">
         <v>0</v>
       </c>
-      <c r="E29" s="60">
+      <c r="E29" s="58">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="46" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="91">
+      <c r="A30" s="89">
         <v>43762</v>
       </c>
-      <c r="B30" s="53">
+      <c r="B30" s="51">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="51">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="32">
         <v>0</v>
       </c>
-      <c r="E30" s="60">
+      <c r="E30" s="58">
         <f t="shared" si="0"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="48" t="s">
+      <c r="G30" s="46" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="91">
+      <c r="A31" s="89">
         <v>43762</v>
       </c>
-      <c r="B31" s="53">
+      <c r="B31" s="51">
         <v>0.67361111111111116</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="51">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="32">
         <v>10</v>
       </c>
-      <c r="E31" s="60">
+      <c r="E31" s="58">
         <f t="shared" si="0"/>
         <v>4.1666666666666602E-2</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="48" t="s">
+      <c r="G31" s="46" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="91">
+      <c r="A32" s="89">
         <v>43763</v>
       </c>
-      <c r="B32" s="53">
+      <c r="B32" s="51">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C32" s="53">
+      <c r="C32" s="51">
         <v>0.69444444444444453</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="32">
         <v>20</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="58">
         <f t="shared" si="0"/>
         <v>9.7222222222222265E-2</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="51" t="s">
+      <c r="G32" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="91">
+      <c r="A33" s="89">
         <v>43763</v>
       </c>
-      <c r="B33" s="53">
+      <c r="B33" s="51">
         <v>0.69444444444444453</v>
       </c>
-      <c r="C33" s="53">
+      <c r="C33" s="51">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="32">
         <v>10</v>
       </c>
-      <c r="E33" s="60">
+      <c r="E33" s="58">
         <f t="shared" si="0"/>
         <v>6.9444444444444392E-2</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="41" t="s">
+      <c r="G33" s="39" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="91">
+      <c r="A34" s="89">
         <v>43764</v>
       </c>
-      <c r="B34" s="53">
+      <c r="B34" s="51">
         <v>0.5625</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="51">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="32">
         <v>0</v>
       </c>
-      <c r="E34" s="60">
+      <c r="E34" s="58">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="48" t="s">
+      <c r="G34" s="46" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="91">
+      <c r="A35" s="89">
         <v>43764</v>
       </c>
-      <c r="B35" s="53">
+      <c r="B35" s="51">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C35" s="53">
+      <c r="C35" s="51">
         <v>0.6875</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="32">
         <v>0</v>
       </c>
-      <c r="E35" s="60">
+      <c r="E35" s="58">
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="39" t="s">
+      <c r="G35" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="91">
+      <c r="A36" s="89">
         <v>43764</v>
       </c>
-      <c r="B36" s="53">
+      <c r="B36" s="51">
         <v>0.875</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="51">
         <v>1.1145833333333333</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="32">
         <v>90</v>
       </c>
-      <c r="E36" s="60">
+      <c r="E36" s="58">
         <f t="shared" si="0"/>
         <v>0.17708333333333326</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G36" s="48" t="s">
+      <c r="G36" s="46" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="91">
+      <c r="A37" s="89">
         <v>43765</v>
       </c>
-      <c r="B37" s="53">
+      <c r="B37" s="51">
         <v>0.51388888888888895</v>
       </c>
-      <c r="C37" s="53">
+      <c r="C37" s="51">
         <v>0.81944444444444453</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="32">
         <v>20</v>
       </c>
-      <c r="E37" s="60">
+      <c r="E37" s="58">
         <f t="shared" si="0"/>
         <v>0.29166666666666669</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="37" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="91">
+      <c r="A38" s="89">
         <v>43765</v>
       </c>
-      <c r="B38" s="53">
+      <c r="B38" s="51">
         <v>43765.881944444445</v>
       </c>
-      <c r="C38" s="53">
+      <c r="C38" s="51">
         <v>43765.993055555555</v>
       </c>
-      <c r="D38" s="65">
+      <c r="D38" s="63">
         <v>20</v>
       </c>
-      <c r="E38" s="60">
-        <f t="shared" ref="E38:E69" si="1">C38-B38-(D38/24/60)</f>
+      <c r="E38" s="58">
+        <f t="shared" ref="E38:E62" si="1">C38-B38-(D38/24/60)</f>
         <v>9.7222222220605337E-2</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G38" s="39" t="s">
+      <c r="G38" s="37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="97">
+      <c r="A39" s="95">
         <v>43766</v>
       </c>
-      <c r="B39" s="59">
+      <c r="B39" s="57">
         <v>43766.972222222219</v>
       </c>
-      <c r="C39" s="53">
+      <c r="C39" s="51">
         <v>43767.076388888891</v>
       </c>
-      <c r="D39" s="34">
+      <c r="D39" s="32">
         <v>0</v>
       </c>
-      <c r="E39" s="60">
+      <c r="E39" s="58">
         <f t="shared" si="1"/>
         <v>0.10416666667151731</v>
       </c>
-      <c r="F39" s="34" t="s">
+      <c r="F39" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="51" t="s">
+      <c r="G39" s="49" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="97">
+      <c r="A40" s="95">
         <v>43767</v>
       </c>
-      <c r="B40" s="59">
+      <c r="B40" s="57">
         <v>0.4375</v>
       </c>
-      <c r="C40" s="53">
+      <c r="C40" s="51">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="32">
         <v>0</v>
       </c>
-      <c r="E40" s="60">
+      <c r="E40" s="58">
         <f t="shared" si="1"/>
         <v>3.4722222222222265E-2</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="51" t="s">
+      <c r="G40" s="49" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="97">
+      <c r="A41" s="95">
         <v>43769</v>
       </c>
-      <c r="B41" s="59">
+      <c r="B41" s="57">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C41" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D41" s="34">
+      <c r="D41" s="32">
         <v>0</v>
       </c>
-      <c r="E41" s="60">
+      <c r="E41" s="58">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="F41" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G41" s="51" t="s">
+      <c r="G41" s="49" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="97">
+      <c r="A42" s="95">
         <v>43769</v>
       </c>
-      <c r="B42" s="53">
+      <c r="B42" s="51">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C42" s="53">
+      <c r="C42" s="51">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="32">
         <v>0</v>
       </c>
-      <c r="E42" s="60">
+      <c r="E42" s="58">
         <f t="shared" si="1"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="51" t="s">
+      <c r="G42" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="97">
+      <c r="A43" s="95">
         <v>43769</v>
       </c>
-      <c r="B43" s="53">
+      <c r="B43" s="51">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C43" s="53">
+      <c r="C43" s="51">
         <v>0.96875</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="32">
         <v>0</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E43" s="58">
         <f t="shared" si="1"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F43" s="46" t="s">
+      <c r="F43" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="51" t="s">
+      <c r="G43" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="89">
+      <c r="A44" s="87">
         <v>43770</v>
       </c>
-      <c r="B44" s="53">
+      <c r="B44" s="51">
         <v>0.55555555555555558</v>
       </c>
-      <c r="C44" s="53">
+      <c r="C44" s="51">
         <v>0.57638888888888895</v>
       </c>
-      <c r="D44" s="34">
+      <c r="D44" s="32">
         <v>0</v>
       </c>
-      <c r="E44" s="60">
+      <c r="E44" s="58">
         <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="51" t="s">
+      <c r="G44" s="49" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="89">
+      <c r="A45" s="87">
         <v>43770</v>
       </c>
-      <c r="B45" s="53">
+      <c r="B45" s="51">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C45" s="53">
+      <c r="C45" s="51">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="32">
         <v>0</v>
       </c>
-      <c r="E45" s="60">
+      <c r="E45" s="58">
         <f t="shared" si="1"/>
         <v>7.638888888888884E-2</v>
       </c>
-      <c r="F45" s="46" t="s">
+      <c r="F45" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="51" t="s">
+      <c r="G45" s="49" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="89">
+      <c r="A46" s="87">
         <v>43770</v>
       </c>
-      <c r="B46" s="53">
+      <c r="B46" s="51">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C46" s="53">
+      <c r="C46" s="51">
         <v>0.86805555555555547</v>
       </c>
-      <c r="D46" s="34">
+      <c r="D46" s="32">
         <v>0</v>
       </c>
-      <c r="E46" s="60">
+      <c r="E46" s="58">
         <f t="shared" si="1"/>
         <v>0.13888888888888884</v>
       </c>
-      <c r="F46" s="80" t="s">
+      <c r="F46" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="G46" s="51" t="s">
+      <c r="G46" s="49" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="89">
+      <c r="A47" s="87">
         <v>43770</v>
       </c>
-      <c r="B47" s="53">
+      <c r="B47" s="51">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C47" s="53">
+      <c r="C47" s="51">
         <v>0.97222222222222221</v>
       </c>
-      <c r="D47" s="34">
+      <c r="D47" s="32">
         <v>0</v>
       </c>
-      <c r="E47" s="60">
+      <c r="E47" s="58">
         <f t="shared" si="1"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F47" s="46" t="s">
+      <c r="F47" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="51" t="s">
+      <c r="G47" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="97" t="s">
+      <c r="A48" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="53">
+      <c r="B48" s="51">
         <v>0.4375</v>
       </c>
-      <c r="C48" s="53">
+      <c r="C48" s="51">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D48" s="34">
+      <c r="D48" s="32">
         <v>0</v>
       </c>
-      <c r="E48" s="60">
+      <c r="E48" s="58">
         <f t="shared" si="1"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="51" t="s">
+      <c r="G48" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="101" t="s">
+      <c r="A49" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="B49" s="53">
+      <c r="B49" s="51">
         <v>0.56944444444444442</v>
       </c>
-      <c r="C49" s="53">
+      <c r="C49" s="51">
         <v>0.625</v>
       </c>
-      <c r="D49" s="34">
+      <c r="D49" s="32">
         <v>10</v>
       </c>
-      <c r="E49" s="60">
+      <c r="E49" s="58">
         <f t="shared" si="1"/>
         <v>4.8611111111111133E-2</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="51" t="s">
+      <c r="G49" s="49" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="89">
+      <c r="A50" s="87">
         <v>43774</v>
       </c>
-      <c r="B50" s="53">
+      <c r="B50" s="51">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C50" s="53">
+      <c r="C50" s="51">
         <v>0.75</v>
       </c>
-      <c r="D50" s="34">
+      <c r="D50" s="32">
         <v>20</v>
       </c>
-      <c r="E50" s="60">
+      <c r="E50" s="58">
         <f t="shared" si="1"/>
         <v>9.0277777777777735E-2</v>
       </c>
-      <c r="F50" s="65" t="s">
+      <c r="F50" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="111" t="s">
+      <c r="G50" s="109" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="89">
+      <c r="A51" s="87">
         <v>43774</v>
       </c>
-      <c r="B51" s="53">
+      <c r="B51" s="51">
         <v>0.4375</v>
       </c>
-      <c r="C51" s="53">
+      <c r="C51" s="51">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D51" s="34">
+      <c r="D51" s="32">
         <v>0</v>
       </c>
-      <c r="E51" s="60">
+      <c r="E51" s="58">
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F51" s="65" t="s">
+      <c r="F51" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="103" t="s">
+      <c r="G51" s="101" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="89">
+      <c r="A52" s="87">
         <v>43775</v>
       </c>
-      <c r="B52" s="53">
+      <c r="B52" s="51">
         <v>0.625</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C52" s="51">
         <v>0.65277777777777779</v>
       </c>
-      <c r="D52" s="34">
+      <c r="D52" s="32">
         <v>0</v>
       </c>
-      <c r="E52" s="60">
+      <c r="E52" s="58">
         <f t="shared" si="1"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="F52" s="65" t="s">
+      <c r="F52" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="39" t="s">
+      <c r="G52" s="37" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="89">
+      <c r="A53" s="87">
         <v>43776</v>
       </c>
-      <c r="B53" s="53">
+      <c r="B53" s="51">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C53" s="53">
+      <c r="C53" s="51">
         <v>0.75</v>
       </c>
-      <c r="D53" s="34">
+      <c r="D53" s="32">
         <v>50</v>
       </c>
-      <c r="E53" s="60">
+      <c r="E53" s="58">
         <f t="shared" si="1"/>
         <v>6.9444444444444406E-2</v>
       </c>
-      <c r="F53" s="65" t="s">
+      <c r="F53" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="103" t="s">
+      <c r="G53" s="101" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="89">
+      <c r="A54" s="87">
         <v>43776</v>
       </c>
-      <c r="B54" s="53">
+      <c r="B54" s="51">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C54" s="53">
+      <c r="C54" s="51">
         <v>1.1180555555555556</v>
       </c>
-      <c r="D54" s="34">
+      <c r="D54" s="32">
         <v>110</v>
       </c>
-      <c r="E54" s="60">
+      <c r="E54" s="58">
         <f t="shared" si="1"/>
         <v>0.20833333333333331</v>
       </c>
-      <c r="F54" s="65" t="s">
+      <c r="F54" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="103" t="s">
+      <c r="G54" s="101" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="89">
+      <c r="A55" s="87">
         <v>43778</v>
       </c>
-      <c r="B55" s="53">
+      <c r="B55" s="51">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C55" s="53">
+      <c r="C55" s="51">
         <v>1.0833333333333333</v>
       </c>
-      <c r="D55" s="34">
+      <c r="D55" s="32">
         <v>30</v>
       </c>
-      <c r="E55" s="60">
+      <c r="E55" s="58">
         <f t="shared" si="1"/>
         <v>0.14583333333333329</v>
       </c>
-      <c r="F55" s="65" t="s">
+      <c r="F55" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="105" t="s">
+      <c r="G55" s="103" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="89">
+      <c r="A56" s="87">
         <v>43779</v>
       </c>
-      <c r="B56" s="53">
+      <c r="B56" s="51">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C56" s="53">
+      <c r="C56" s="51">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D56" s="34">
+      <c r="D56" s="32">
         <v>10</v>
       </c>
-      <c r="E56" s="60">
+      <c r="E56" s="58">
         <f t="shared" si="1"/>
         <v>0.15972222222222229</v>
       </c>
-      <c r="F56" s="108" t="s">
+      <c r="F56" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="G56" s="105" t="s">
+      <c r="G56" s="103" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="89">
+      <c r="A57" s="87">
         <v>43780</v>
       </c>
-      <c r="B57" s="53">
+      <c r="B57" s="51">
         <v>0.78472222222222221</v>
       </c>
-      <c r="C57" s="53">
+      <c r="C57" s="51">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D57" s="34">
+      <c r="D57" s="32">
         <v>10</v>
       </c>
-      <c r="E57" s="60">
+      <c r="E57" s="58">
         <f t="shared" si="1"/>
         <v>6.2499999999999972E-2</v>
       </c>
-      <c r="F57" s="65" t="s">
+      <c r="F57" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="103" t="s">
+      <c r="G57" s="101" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="89">
+      <c r="A58" s="87">
         <v>43781</v>
       </c>
-      <c r="B58" s="53">
+      <c r="B58" s="51">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C58" s="53">
+      <c r="C58" s="51">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D58" s="34">
+      <c r="D58" s="32">
         <v>0</v>
       </c>
-      <c r="E58" s="60">
+      <c r="E58" s="58">
         <f t="shared" si="1"/>
         <v>4.8611111111111105E-2</v>
       </c>
-      <c r="F58" s="65" t="s">
+      <c r="F58" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="105" t="s">
+      <c r="G58" s="103" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="89">
+      <c r="A59" s="87">
         <v>43781</v>
       </c>
-      <c r="B59" s="53">
+      <c r="B59" s="51">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C59" s="53">
+      <c r="C59" s="51">
         <v>0.94444444444444453</v>
       </c>
-      <c r="D59" s="34">
+      <c r="D59" s="32">
         <v>40</v>
       </c>
-      <c r="E59" s="60">
+      <c r="E59" s="58">
         <f t="shared" si="1"/>
         <v>0.12500000000000011</v>
       </c>
-      <c r="F59" s="104" t="s">
+      <c r="F59" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="111" t="s">
+      <c r="G59" s="109" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="89">
+      <c r="A60" s="87">
         <v>43781</v>
       </c>
-      <c r="B60" s="53">
+      <c r="B60" s="51">
         <v>0.97916666666666663</v>
       </c>
-      <c r="C60" s="53">
+      <c r="C60" s="51">
         <v>1.1458333333333333</v>
       </c>
-      <c r="D60" s="34">
+      <c r="D60" s="32">
         <v>30</v>
       </c>
-      <c r="E60" s="60">
+      <c r="E60" s="58">
         <f t="shared" si="1"/>
         <v>0.14583333333333329</v>
       </c>
-      <c r="F60" s="104" t="s">
+      <c r="F60" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="111" t="s">
+      <c r="G60" s="109" t="s">
         <v>171</v>
       </c>
     </row>
+    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="87">
+        <v>43782</v>
+      </c>
+      <c r="B61" s="51">
+        <v>0.6875</v>
+      </c>
+      <c r="C61" s="51">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D61" s="32">
+        <v>20</v>
+      </c>
+      <c r="E61" s="58">
+        <f t="shared" si="1"/>
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="F61" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="87">
+        <v>43782</v>
+      </c>
+      <c r="B62" s="112">
+        <v>1.0138888888888888</v>
+      </c>
+      <c r="C62" s="51">
+        <v>1.0972222222222221</v>
+      </c>
+      <c r="D62" s="32">
+        <v>0</v>
+      </c>
+      <c r="E62" s="58">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="F62" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="37" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="72" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N72" s="109">
+      <c r="N72" s="107">
         <v>43783</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"돋움,Regular"&amp;8Adapted from &amp;"돋움,Italic"A Discipline for Software Engineering,&amp;"돋움,Regular"by Watts Humphrey. Addison-Wesley Publishing Company, 1995</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11292,775 +11637,790 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="87" customWidth="1"/>
-    <col min="2" max="3" width="7" style="55" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10" style="85" customWidth="1"/>
+    <col min="2" max="3" width="7" style="53" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" style="5" customWidth="1"/>
     <col min="7" max="7" width="55.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
+      <c r="A2" s="92"/>
     </row>
     <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="54"/>
+      <c r="D3" s="61" t="s">
         <v>104</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+    <row r="5" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="51">
         <v>0.5</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="51">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <v>0</v>
       </c>
-      <c r="E6" s="70">
-        <f t="shared" ref="E6:E28" si="0">C6-B6-(D6/24/60)</f>
+      <c r="E6" s="68">
+        <f t="shared" ref="E6:E29" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="56">
         <v>0.4375</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="56">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>0</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="68">
         <f t="shared" si="0"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="51">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="51">
         <v>0.62152777777777779</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="32">
         <v>0</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="68">
         <f t="shared" si="0"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="51">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="51">
         <v>0.78125</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="32">
         <v>0</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="68">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="51">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="32">
         <v>0</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="68">
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="51">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="51">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="32">
         <v>20</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="68">
         <f t="shared" si="0"/>
         <v>6.9444444444444475E-2</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="51">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="51">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="32">
         <v>0</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="68">
         <f t="shared" si="0"/>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="20"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="51">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="51">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="32">
         <v>20</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="68">
         <f t="shared" si="0"/>
         <v>6.9444444444444364E-2</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="27" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="51">
         <v>0.5625</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="51">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="32">
         <v>30</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="68">
         <f t="shared" si="0"/>
         <v>0.14583333333333329</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="91">
+      <c r="A15" s="89">
         <v>43746</v>
       </c>
-      <c r="B15" s="53">
+      <c r="B15" s="51">
         <v>0.5625</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="32">
         <v>0</v>
       </c>
-      <c r="E15" s="70">
+      <c r="E15" s="68">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" s="91">
+      <c r="A16" s="89">
         <v>43748</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="51">
         <v>0.5625</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="32">
         <v>0</v>
       </c>
-      <c r="E16" s="70">
+      <c r="E16" s="68">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="49" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="89">
+      <c r="A17" s="87">
         <v>43749</v>
       </c>
-      <c r="B17" s="53">
+      <c r="B17" s="51">
         <v>0.6875</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="51">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="32">
         <v>5</v>
       </c>
-      <c r="E17" s="70">
+      <c r="E17" s="68">
         <f t="shared" si="0"/>
         <v>6.9444444444444406E-2</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="52">
+      <c r="A18" s="50">
         <v>43749</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="51">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="51">
         <v>1.0173611111111112</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="32">
         <v>0</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="58">
         <f t="shared" si="0"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="49">
+      <c r="A19" s="47">
         <v>43755</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="51">
         <v>0.4375</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="51">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="32">
         <v>0</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="58">
         <f t="shared" si="0"/>
         <v>5.2083333333333315E-2</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="49" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
+      <c r="A20" s="47">
         <v>43755</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B20" s="51">
         <v>0.5625</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="32">
         <v>0</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="58">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="51">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="51">
         <v>0.69444444444444442</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="32">
         <v>10</v>
       </c>
-      <c r="E21" s="70">
+      <c r="E21" s="68">
         <f t="shared" si="0"/>
         <v>4.1666666666666602E-2</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49">
+      <c r="A22" s="47">
         <v>43764</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="51">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="51">
         <v>0.6875</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="32">
         <v>0</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="58">
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49">
+      <c r="A23" s="47">
         <v>43765</v>
       </c>
-      <c r="B23" s="53">
+      <c r="B23" s="51">
         <v>0.625</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="51">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="32">
         <v>0</v>
       </c>
-      <c r="E23" s="70">
+      <c r="E23" s="68">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52">
+      <c r="A24" s="50">
         <v>43767</v>
       </c>
-      <c r="B24" s="59">
+      <c r="B24" s="57">
         <v>0.4375</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="51">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="32">
         <v>0</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="58">
         <f t="shared" si="0"/>
         <v>3.4722222222222265E-2</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="49" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52">
+      <c r="A25" s="50">
         <v>43769</v>
       </c>
-      <c r="B25" s="59">
+      <c r="B25" s="57">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="32">
         <v>0</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="58">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="49" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
+      <c r="A26" s="50">
         <v>43769</v>
       </c>
-      <c r="B26" s="53">
+      <c r="B26" s="51">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="51">
         <v>0.96875</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="32">
         <v>0</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="58">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F26" s="102" t="s">
+      <c r="F26" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A27" s="101" t="s">
+      <c r="A27" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="59">
+      <c r="B27" s="57">
         <v>0.5</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="51">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="32">
         <v>0</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="58">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F27" s="102" t="s">
+      <c r="F27" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="103" t="s">
+      <c r="G27" s="101" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="89">
+      <c r="A28" s="87">
         <v>43779</v>
       </c>
-      <c r="B28" s="53">
+      <c r="B28" s="51">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="51">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="32">
         <v>10</v>
       </c>
-      <c r="E28" s="60">
+      <c r="E28" s="58">
         <f t="shared" si="0"/>
         <v>0.15972222222222229</v>
       </c>
-      <c r="F28" s="108" t="s">
+      <c r="F28" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="G28" s="105" t="s">
+      <c r="G28" s="103" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="89"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="4"/>
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="87">
+        <v>43782</v>
+      </c>
+      <c r="B29" s="51">
+        <v>0.6875</v>
+      </c>
+      <c r="C29" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="113">
+        <v>0</v>
+      </c>
+      <c r="E29" s="58">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F29" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="4"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="4"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="4"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="4"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="4"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="4"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="4"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="89"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="4"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="89"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="4"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="89"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="4"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="89"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="4"/>
+      <c r="A40" s="87"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="89"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="4"/>
+      <c r="A41" s="87"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="89"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="4"/>
+      <c r="A42" s="87"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="89"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="4"/>
+      <c r="A43" s="87"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="93"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="4"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="93"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="4"/>
+      <c r="A45" s="91"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -12079,1152 +12439,1167 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="7" style="55" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="67" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" style="7" customWidth="1"/>
+    <col min="2" max="3" width="7" style="53" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" style="5" customWidth="1"/>
     <col min="7" max="7" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
+      <c r="A2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="54"/>
+      <c r="D3" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="68"/>
+      <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>43715</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="51">
         <v>0.5</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="51">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <v>0</v>
       </c>
-      <c r="E6" s="70">
-        <f t="shared" ref="E6:E43" si="0">C6-B6-(D6/24/60)</f>
+      <c r="E6" s="68">
+        <f t="shared" ref="E6:E44" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>43727</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="56">
         <v>0.4375</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="56">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>0</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="68">
         <f t="shared" si="0"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>43727</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="51">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="51">
         <v>0.62152777777777779</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="32">
         <v>0</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="68">
         <f t="shared" si="0"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>43728</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="51">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="51">
         <v>0.78125</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="32">
         <v>0</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="68">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+      <c r="A10" s="35">
         <v>43732</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="51">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="32">
         <v>0</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="58">
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="49" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="A11" s="20">
         <v>43735</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="79">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="79">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="44">
         <v>60</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="68">
         <f t="shared" si="0"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="21">
         <v>43736</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B12" s="80">
         <v>0.625</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="80">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="28">
         <v>60</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="68">
         <f t="shared" si="0"/>
         <v>0.12499999999999997</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="25" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="20">
         <v>43737</v>
       </c>
-      <c r="B13" s="81">
+      <c r="B13" s="79">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="79">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="44">
         <v>20</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="68">
         <f t="shared" si="0"/>
         <v>0.13194444444444436</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="24" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="10">
         <v>43739</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="51">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="51">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="32">
         <v>0</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="68">
         <f t="shared" si="0"/>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
+      <c r="A15" s="35">
         <v>43739</v>
       </c>
-      <c r="B15" s="53">
+      <c r="B15" s="51">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="51">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="32">
         <v>0</v>
       </c>
-      <c r="E15" s="70">
+      <c r="E15" s="68">
         <f t="shared" si="0"/>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="36" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="37">
+      <c r="A16" s="35">
         <v>43743</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="51">
         <v>0.75</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="51">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="32">
         <v>0</v>
       </c>
-      <c r="E16" s="70">
+      <c r="E16" s="68">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="36" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="37">
+      <c r="A17" s="35">
         <v>43744</v>
       </c>
-      <c r="B17" s="53">
+      <c r="B17" s="51">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="51">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="32">
         <v>0</v>
       </c>
-      <c r="E17" s="70">
+      <c r="E17" s="68">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37">
+      <c r="A18" s="35">
         <v>43745</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="51">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="51">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="32">
         <v>0</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="68">
         <f t="shared" si="0"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="91">
+      <c r="A19" s="89">
         <v>43746</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="51">
         <v>0.5625</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="32">
         <v>0</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="68">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="91">
+      <c r="A20" s="89">
         <v>43748</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B20" s="51">
         <v>0.5625</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="32">
         <v>0</v>
       </c>
-      <c r="E20" s="70">
+      <c r="E20" s="68">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="49" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="89">
+      <c r="A21" s="87">
         <v>43749</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="51">
         <v>0.6875</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="51">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="32">
         <v>5</v>
       </c>
-      <c r="E21" s="70">
+      <c r="E21" s="68">
         <f t="shared" si="0"/>
         <v>6.9444444444444406E-2</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="52">
+      <c r="A22" s="50">
         <v>43749</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="51">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="51">
         <v>1.0173611111111112</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="32">
         <v>0</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="58">
         <f t="shared" si="0"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="F22" s="65" t="s">
+      <c r="F22" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A23" s="37">
+      <c r="A23" s="35">
         <v>43750</v>
       </c>
-      <c r="B23" s="53">
+      <c r="B23" s="51">
         <v>0.9375</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="51">
         <v>1</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="32">
         <v>30</v>
       </c>
-      <c r="E23" s="70">
+      <c r="E23" s="68">
         <f t="shared" si="0"/>
         <v>4.1666666666666671E-2</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="34" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37">
+      <c r="A24" s="35">
         <v>43751</v>
       </c>
-      <c r="B24" s="53">
+      <c r="B24" s="51">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="51">
         <v>0.125</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="32">
         <v>30</v>
       </c>
-      <c r="E24" s="70">
+      <c r="E24" s="68">
         <f t="shared" si="0"/>
         <v>6.2500000000000014E-2</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37">
+      <c r="A25" s="35">
         <v>43751</v>
       </c>
-      <c r="B25" s="53">
+      <c r="B25" s="51">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="51">
         <v>0.625</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="32">
         <v>0</v>
       </c>
-      <c r="E25" s="70">
+      <c r="E25" s="68">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37">
+      <c r="A26" s="35">
         <v>43753</v>
       </c>
-      <c r="B26" s="53">
+      <c r="B26" s="51">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="51">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="32">
         <v>0</v>
       </c>
-      <c r="E26" s="70">
+      <c r="E26" s="68">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="38" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="49">
+      <c r="A27" s="47">
         <v>43755</v>
       </c>
-      <c r="B27" s="53">
+      <c r="B27" s="51">
         <v>0.4375</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="51">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="32">
         <v>0</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="58">
         <f t="shared" si="0"/>
         <v>5.2083333333333315E-2</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G27" s="49" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="49">
+      <c r="A28" s="47">
         <v>43755</v>
       </c>
-      <c r="B28" s="53">
+      <c r="B28" s="51">
         <v>0.5625</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="32">
         <v>0</v>
       </c>
-      <c r="E28" s="60">
+      <c r="E28" s="58">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="51" t="s">
+      <c r="G28" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="10">
         <v>43760</v>
       </c>
-      <c r="B29" s="53">
+      <c r="B29" s="51">
         <v>0.5</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="51">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="32">
         <v>0</v>
       </c>
-      <c r="E29" s="70">
+      <c r="E29" s="68">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="48" t="s">
+      <c r="G29" s="46" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49">
+      <c r="A30" s="47">
         <v>43764</v>
       </c>
-      <c r="B30" s="53">
+      <c r="B30" s="51">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="51">
         <v>0.6875</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="32">
         <v>0</v>
       </c>
-      <c r="E30" s="60">
+      <c r="E30" s="58">
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="10">
         <v>43765</v>
       </c>
-      <c r="B31" s="53">
+      <c r="B31" s="51">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="51">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="32">
         <v>30</v>
       </c>
-      <c r="E31" s="70">
+      <c r="E31" s="68">
         <f t="shared" si="0"/>
         <v>0.10416666666666667</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="48" t="s">
+      <c r="G31" s="46" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52">
+      <c r="A32" s="50">
         <v>43767</v>
       </c>
-      <c r="B32" s="59">
+      <c r="B32" s="57">
         <v>0.4375</v>
       </c>
-      <c r="C32" s="53">
+      <c r="C32" s="51">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="32">
         <v>0</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="58">
         <f t="shared" si="0"/>
         <v>3.4722222222222265E-2</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="51" t="s">
+      <c r="G32" s="49" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52">
+      <c r="A33" s="50">
         <v>43769</v>
       </c>
-      <c r="B33" s="53">
+      <c r="B33" s="51">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C33" s="53">
+      <c r="C33" s="51">
         <v>0.96875</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="32">
         <v>0</v>
       </c>
-      <c r="E33" s="60">
+      <c r="E33" s="58">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="51" t="s">
+      <c r="G33" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="37">
+      <c r="A34" s="35">
         <v>43770</v>
       </c>
-      <c r="B34" s="53">
+      <c r="B34" s="51">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="51">
         <v>0.97222222222222221</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="32">
         <v>0</v>
       </c>
-      <c r="E34" s="60">
+      <c r="E34" s="58">
         <f t="shared" si="0"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="A35" s="10">
         <v>43771</v>
       </c>
-      <c r="B35" s="53">
+      <c r="B35" s="51">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C35" s="53">
+      <c r="C35" s="51">
         <v>1</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="32">
         <v>240</v>
       </c>
-      <c r="E35" s="60">
+      <c r="E35" s="58">
         <f t="shared" si="0"/>
         <v>0.37500000000000011</v>
       </c>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="G35" s="105" t="s">
+      <c r="G35" s="103" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="A36" s="10">
         <v>43772</v>
       </c>
-      <c r="B36" s="53">
+      <c r="B36" s="51">
         <v>0</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="51">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="32">
         <v>60</v>
       </c>
-      <c r="E36" s="60">
+      <c r="E36" s="58">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="F36" s="65" t="s">
+      <c r="F36" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="G36" s="51" t="s">
+      <c r="G36" s="49" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+      <c r="A37" s="10">
         <v>43775</v>
       </c>
-      <c r="B37" s="53">
+      <c r="B37" s="51">
         <v>0.75</v>
       </c>
-      <c r="C37" s="53">
+      <c r="C37" s="51">
         <v>0.875</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="32">
         <v>0</v>
       </c>
-      <c r="E37" s="60">
+      <c r="E37" s="58">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="F37" s="104" t="s">
+      <c r="F37" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="105" t="s">
+      <c r="G37" s="103" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="A38" s="10">
         <v>43777</v>
       </c>
-      <c r="B38" s="53">
+      <c r="B38" s="51">
         <v>6.25E-2</v>
       </c>
-      <c r="C38" s="53">
+      <c r="C38" s="51">
         <v>0.125</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="32">
         <v>0</v>
       </c>
-      <c r="E38" s="60">
+      <c r="E38" s="58">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F38" s="104" t="s">
+      <c r="F38" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="105" t="s">
+      <c r="G38" s="103" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="10">
         <v>43778</v>
       </c>
-      <c r="B39" s="53">
+      <c r="B39" s="51">
         <v>0.75</v>
       </c>
-      <c r="C39" s="53">
+      <c r="C39" s="51">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D39" s="34">
+      <c r="D39" s="32">
         <v>0</v>
       </c>
-      <c r="E39" s="60">
+      <c r="E39" s="58">
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="F39" s="104" t="s">
+      <c r="F39" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="105" t="s">
+      <c r="G39" s="103" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
+      <c r="A40" s="10">
         <v>43779</v>
       </c>
-      <c r="B40" s="53">
+      <c r="B40" s="51">
         <v>0.375</v>
       </c>
-      <c r="C40" s="53">
+      <c r="C40" s="51">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="32">
         <v>0</v>
       </c>
-      <c r="E40" s="60">
+      <c r="E40" s="58">
         <f t="shared" si="0"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="F40" s="104" t="s">
+      <c r="F40" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="G40" s="105" t="s">
+      <c r="G40" s="103" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="12">
+      <c r="A41" s="10">
         <v>43779</v>
       </c>
-      <c r="B41" s="53">
+      <c r="B41" s="51">
         <v>0.5</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C41" s="51">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D41" s="34">
+      <c r="D41" s="32">
         <v>0</v>
       </c>
-      <c r="E41" s="60">
+      <c r="E41" s="58">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F41" s="104" t="s">
+      <c r="F41" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="106" t="s">
+      <c r="G41" s="104" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="89">
+      <c r="A42" s="87">
         <v>43779</v>
       </c>
-      <c r="B42" s="53">
+      <c r="B42" s="51">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C42" s="53">
+      <c r="C42" s="51">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="32">
         <v>10</v>
       </c>
-      <c r="E42" s="60">
+      <c r="E42" s="58">
         <f t="shared" si="0"/>
         <v>0.15972222222222229</v>
       </c>
-      <c r="F42" s="108" t="s">
+      <c r="F42" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="G42" s="105" t="s">
+      <c r="G42" s="103" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
+      <c r="A43" s="10">
         <v>43780</v>
       </c>
-      <c r="B43" s="53">
+      <c r="B43" s="51">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C43" s="53">
+      <c r="C43" s="51">
         <v>0.94444444444444453</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="32">
         <v>60</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E43" s="58">
         <f t="shared" si="0"/>
         <v>0.11111111111111124</v>
       </c>
-      <c r="F43" s="107" t="s">
+      <c r="F43" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="G43" s="105" t="s">
+      <c r="G43" s="103" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="4"/>
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="87">
+        <v>43782</v>
+      </c>
+      <c r="B44" s="51">
+        <v>0.6875</v>
+      </c>
+      <c r="C44" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="D44" s="113">
+        <v>0</v>
+      </c>
+      <c r="E44" s="58">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F44" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="37" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="4"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="41"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="39"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="41"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="39"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="41"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="39"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="41"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="39"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="41"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="39"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="41"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="39"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="41"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="39"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="41"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="39"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="41"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="39"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="41"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="39"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="41"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="39"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="41"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="39"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="41"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="39"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="41"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="39"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="41"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="39"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="41"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="39"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="41"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -13248,745 +13623,745 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="87" customWidth="1"/>
-    <col min="2" max="3" width="7" style="55" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="67" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10" style="85" customWidth="1"/>
+    <col min="2" max="3" width="7" style="53" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="65" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
+      <c r="A2" s="92"/>
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="54"/>
+      <c r="D3" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="68"/>
+      <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="56">
         <v>0.4375</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="56">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>0</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="69">
         <f t="shared" ref="E6:E27" si="0">C6-B6-(D6/24/60)</f>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="51">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="51">
         <v>0.62152777777777779</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="32">
         <v>0</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="69">
         <f t="shared" si="0"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="51">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="51">
         <v>0.78125</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="32">
         <v>0</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="69">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="51">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="32">
         <v>0</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="69">
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="51">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="51">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="32">
         <v>0</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="69">
         <f t="shared" si="0"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="51">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="51">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="32">
         <v>0</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="69">
         <f t="shared" si="0"/>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="39" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="91">
+      <c r="A12" s="89">
         <v>43746</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="51">
         <v>0.5625</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="32">
         <v>0</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="68">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="91">
+      <c r="A13" s="89">
         <v>43748</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="51">
         <v>0.5625</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="32">
         <v>0</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="68">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="51" t="s">
+      <c r="G13" s="49" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="89">
+      <c r="A14" s="87">
         <v>43749</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="51">
         <v>0.6875</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="51">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="32">
         <v>5</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="68">
         <f t="shared" si="0"/>
         <v>6.9444444444444406E-2</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="52">
+      <c r="A15" s="50">
         <v>43749</v>
       </c>
-      <c r="B15" s="53">
+      <c r="B15" s="51">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="51">
         <v>1.0173611111111112</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="32">
         <v>0</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="58">
         <f t="shared" si="0"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="51">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C16" s="83">
+      <c r="C16" s="81">
         <v>0.98958333333333337</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="32">
         <v>0</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="69">
         <f t="shared" si="0"/>
         <v>7.2916666666666741E-2</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="48" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="49">
+      <c r="A17" s="47">
         <v>43755</v>
       </c>
-      <c r="B17" s="53">
+      <c r="B17" s="51">
         <v>0.5625</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="32">
         <v>0</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="58">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+      <c r="A18" s="47">
         <v>43762</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="51">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="51">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="32">
         <v>0</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="58">
         <f t="shared" si="0"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="46" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="51">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="51">
         <v>0.75</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="32">
         <v>0</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="69">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="37" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B20" s="51">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="51">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="32">
         <v>0</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="69">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="37" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
+      <c r="A21" s="47">
         <v>43764</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="51">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="51">
         <v>0.6875</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="32">
         <v>0</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="58">
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="51">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="51">
         <v>0.75</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="32">
         <v>0</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="69">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="37" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52">
+      <c r="A23" s="50">
         <v>43767</v>
       </c>
-      <c r="B23" s="59">
+      <c r="B23" s="57">
         <v>0.4375</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="51">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="32">
         <v>0</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="58">
         <f t="shared" si="0"/>
         <v>3.4722222222222265E-2</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="49" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52">
+      <c r="A24" s="50">
         <v>43769</v>
       </c>
-      <c r="B24" s="59">
+      <c r="B24" s="57">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="32">
         <v>0</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="58">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="49" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52">
+      <c r="A25" s="50">
         <v>43769</v>
       </c>
-      <c r="B25" s="53">
+      <c r="B25" s="51">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="51">
         <v>0.96875</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="32">
         <v>0</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="58">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="37">
+      <c r="A26" s="35">
         <v>43770</v>
       </c>
-      <c r="B26" s="53">
+      <c r="B26" s="51">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="51">
         <v>0.97222222222222221</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="32">
         <v>0</v>
       </c>
-      <c r="E26" s="60">
+      <c r="E26" s="58">
         <f t="shared" si="0"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="89">
+      <c r="A27" s="87">
         <v>43779</v>
       </c>
-      <c r="B27" s="53">
+      <c r="B27" s="51">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="51">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="32">
         <v>10</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="58">
         <f t="shared" si="0"/>
         <v>0.15972222222222229</v>
       </c>
-      <c r="F27" s="108" t="s">
+      <c r="F27" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="G27" s="105" t="s">
+      <c r="G27" s="103" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="4"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="89"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="4"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="4"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="4"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="4"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="4"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="4"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="4"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="4"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="89"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="4"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="89"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="4"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="89"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="4"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="89"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="4"/>
+      <c r="A40" s="87"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="89"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="4"/>
+      <c r="A41" s="87"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="89"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="4"/>
+      <c r="A42" s="87"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="93"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="4"/>
+      <c r="A43" s="91"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="93"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="4"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -14004,1553 +14379,1568 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="87" customWidth="1"/>
-    <col min="2" max="3" width="7" style="55" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="67" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="85" customWidth="1"/>
+    <col min="2" max="3" width="7" style="53" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
+      <c r="A2" s="83"/>
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="54"/>
+      <c r="D3" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="68"/>
+      <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="89">
+      <c r="A6" s="87">
         <v>43715</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="51">
         <v>0.5</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="51">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <v>0</v>
       </c>
-      <c r="E6" s="70">
-        <f t="shared" ref="E6:E47" si="0">C6-B6-(D6/24/60)</f>
+      <c r="E6" s="68">
+        <f t="shared" ref="E6:E48" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="90">
+      <c r="A7" s="88">
         <v>43727</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="56">
         <v>0.4375</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="56">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>0</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="68">
         <f t="shared" si="0"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="89">
+      <c r="A8" s="87">
         <v>43727</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="51">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="51">
         <v>0.62152777777777779</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="32">
         <v>0</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="68">
         <f t="shared" si="0"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="89">
+      <c r="A9" s="87">
         <v>43728</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="51">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="51">
         <v>0.78125</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="32">
         <v>0</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="68">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="51">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="32">
         <v>0</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="69">
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="39" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="89">
+      <c r="A11" s="87">
         <v>43735</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="51">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="51">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="32">
         <v>120</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="68">
         <f t="shared" si="0"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="89">
+      <c r="A12" s="87">
         <v>43737</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="51">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="51">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="32">
         <v>30</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="68">
         <f t="shared" si="0"/>
         <v>0.10416666666666667</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="29" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="89">
+      <c r="A13" s="87">
         <v>43738</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="51">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="51">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="32">
         <v>0</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="68">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="29" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="89">
+      <c r="A14" s="87">
         <v>43739</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="51">
         <v>0.46875</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="51">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="32">
         <v>0</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="68">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="29" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="91">
+      <c r="A15" s="89">
         <v>43739</v>
       </c>
-      <c r="B15" s="53">
+      <c r="B15" s="51">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="51">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="32">
         <v>0</v>
       </c>
-      <c r="E15" s="70">
+      <c r="E15" s="68">
         <f t="shared" si="0"/>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="27" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="89">
+      <c r="A16" s="87">
         <v>43744</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="51">
         <v>0.375</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="51">
         <v>0.40277777777777773</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="32">
         <v>0</v>
       </c>
-      <c r="E16" s="70">
+      <c r="E16" s="68">
         <f t="shared" si="0"/>
         <v>2.7777777777777735E-2</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="89">
+      <c r="A17" s="87">
         <v>43744</v>
       </c>
-      <c r="B17" s="53">
+      <c r="B17" s="51">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="51">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="32">
         <v>0</v>
       </c>
-      <c r="E17" s="70">
+      <c r="E17" s="68">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="89">
+      <c r="A18" s="87">
         <v>43744</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="51">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="51">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="32">
         <v>0</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="68">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="91">
+      <c r="A19" s="89">
         <v>43746</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="51">
         <v>0.5625</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="32">
         <v>0</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="68">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="91">
+      <c r="A20" s="89">
         <v>43748</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B20" s="51">
         <v>0.5625</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="32">
         <v>0</v>
       </c>
-      <c r="E20" s="70">
+      <c r="E20" s="68">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="49" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="89">
+      <c r="A21" s="87">
         <v>43749</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="51">
         <v>0.6875</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="51">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="32">
         <v>5</v>
       </c>
-      <c r="E21" s="70">
+      <c r="E21" s="68">
         <f t="shared" si="0"/>
         <v>6.9444444444444406E-2</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="52">
+      <c r="A22" s="50">
         <v>43749</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="51">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="51">
         <v>1.0173611111111112</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="32">
         <v>0</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="58">
         <f t="shared" si="0"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="F22" s="65" t="s">
+      <c r="F22" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="89">
+      <c r="A23" s="87">
         <v>43751</v>
       </c>
-      <c r="B23" s="53">
+      <c r="B23" s="51">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="51">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="32">
         <v>0</v>
       </c>
-      <c r="E23" s="70">
+      <c r="E23" s="68">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="34" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A24" s="89">
+      <c r="A24" s="87">
         <v>43751</v>
       </c>
-      <c r="B24" s="53">
+      <c r="B24" s="51">
         <v>0.86111111111111116</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="51">
         <v>0.90277777777777779</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="32">
         <v>0</v>
       </c>
-      <c r="E24" s="70">
+      <c r="E24" s="68">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="34" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="89">
+      <c r="A25" s="87">
         <v>43752</v>
       </c>
-      <c r="B25" s="53">
+      <c r="B25" s="51">
         <v>0.75</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="51">
         <v>0.80902777777777779</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="32">
         <v>10</v>
       </c>
-      <c r="E25" s="70">
+      <c r="E25" s="68">
         <f t="shared" si="0"/>
         <v>5.2083333333333343E-2</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="34" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="89">
+      <c r="A26" s="87">
         <v>43752</v>
       </c>
-      <c r="B26" s="53">
+      <c r="B26" s="51">
         <v>0.90625</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="51">
         <v>0.93402777777777779</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="32">
         <v>0</v>
       </c>
-      <c r="E26" s="70">
+      <c r="E26" s="68">
         <f t="shared" si="0"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="34" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="89">
+      <c r="A27" s="87">
         <v>43753</v>
       </c>
-      <c r="B27" s="53">
+      <c r="B27" s="51">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="51">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="32">
         <v>20</v>
       </c>
-      <c r="E27" s="70">
+      <c r="E27" s="68">
         <f t="shared" si="0"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="G27" s="48" t="s">
+      <c r="G27" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="92">
+      <c r="A28" s="90">
         <v>43753</v>
       </c>
-      <c r="B28" s="84">
+      <c r="B28" s="82">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C28" s="84">
+      <c r="C28" s="82">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="41">
         <v>20</v>
       </c>
-      <c r="E28" s="70">
+      <c r="E28" s="68">
         <f t="shared" si="0"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="45" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="92">
+      <c r="A29" s="90">
         <v>43754</v>
       </c>
-      <c r="B29" s="84">
+      <c r="B29" s="82">
         <v>0.875</v>
       </c>
-      <c r="C29" s="84">
+      <c r="C29" s="82">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="41">
         <v>0</v>
       </c>
-      <c r="E29" s="70">
+      <c r="E29" s="68">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G29" s="43" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="92">
+      <c r="A30" s="90">
         <v>43754</v>
       </c>
-      <c r="B30" s="84">
+      <c r="B30" s="82">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C30" s="84">
+      <c r="C30" s="82">
         <v>1</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="41">
         <v>0</v>
       </c>
-      <c r="E30" s="70">
+      <c r="E30" s="68">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="45" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="92">
+      <c r="A31" s="90">
         <v>43755</v>
       </c>
-      <c r="B31" s="84">
+      <c r="B31" s="82">
         <v>0.3888888888888889</v>
       </c>
-      <c r="C31" s="84">
+      <c r="C31" s="82">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="41">
         <v>0</v>
       </c>
-      <c r="E31" s="70">
+      <c r="E31" s="68">
         <f t="shared" si="0"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="45" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="49">
+      <c r="A32" s="47">
         <v>43755</v>
       </c>
-      <c r="B32" s="53">
+      <c r="B32" s="51">
         <v>0.4375</v>
       </c>
-      <c r="C32" s="53">
+      <c r="C32" s="51">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="32">
         <v>0</v>
       </c>
-      <c r="E32" s="60">
+      <c r="E32" s="58">
         <f t="shared" si="0"/>
         <v>5.2083333333333315E-2</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="51" t="s">
+      <c r="G32" s="49" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="92">
+      <c r="A33" s="90">
         <v>43755</v>
       </c>
-      <c r="B33" s="84">
+      <c r="B33" s="82">
         <v>0.49305555555555558</v>
       </c>
-      <c r="C33" s="84">
+      <c r="C33" s="82">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="41">
         <v>0</v>
       </c>
-      <c r="E33" s="70">
+      <c r="E33" s="68">
         <f t="shared" si="0"/>
         <v>5.902777777777779E-2</v>
       </c>
-      <c r="F33" s="44" t="s">
+      <c r="F33" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="G33" s="45" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="49">
+      <c r="A34" s="47">
         <v>43755</v>
       </c>
-      <c r="B34" s="53">
+      <c r="B34" s="51">
         <v>0.5625</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="32">
         <v>0</v>
       </c>
-      <c r="E34" s="60">
+      <c r="E34" s="58">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89">
+      <c r="A35" s="87">
         <v>43760</v>
       </c>
-      <c r="B35" s="53">
+      <c r="B35" s="51">
         <v>0.6875</v>
       </c>
-      <c r="C35" s="53">
+      <c r="C35" s="51">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="32">
         <v>0</v>
       </c>
-      <c r="E35" s="70">
+      <c r="E35" s="68">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="F35" s="46" t="s">
+      <c r="F35" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="51" t="s">
+      <c r="G35" s="49" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89">
+      <c r="A36" s="87">
         <v>43762</v>
       </c>
-      <c r="B36" s="53">
+      <c r="B36" s="51">
         <v>0.47222222222222227</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="51">
         <v>0.51388888888888895</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="32">
         <v>0</v>
       </c>
-      <c r="E36" s="70">
+      <c r="E36" s="68">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="F36" s="42" t="s">
+      <c r="F36" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="G36" s="48" t="s">
+      <c r="G36" s="46" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49">
+      <c r="A37" s="47">
         <v>43764</v>
       </c>
-      <c r="B37" s="53">
+      <c r="B37" s="51">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C37" s="53">
+      <c r="C37" s="51">
         <v>0.6875</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="32">
         <v>0</v>
       </c>
-      <c r="E37" s="60">
+      <c r="E37" s="58">
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="89">
+      <c r="A38" s="87">
         <v>43765</v>
       </c>
-      <c r="B38" s="53">
+      <c r="B38" s="51">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C38" s="53">
+      <c r="C38" s="51">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="32">
         <v>0</v>
       </c>
-      <c r="E38" s="70">
+      <c r="E38" s="68">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G38" s="47" t="s">
+      <c r="G38" s="45" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52">
+      <c r="A39" s="50">
         <v>43767</v>
       </c>
-      <c r="B39" s="59">
+      <c r="B39" s="57">
         <v>0.4375</v>
       </c>
-      <c r="C39" s="53">
+      <c r="C39" s="51">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D39" s="34">
+      <c r="D39" s="32">
         <v>0</v>
       </c>
-      <c r="E39" s="60">
+      <c r="E39" s="58">
         <f t="shared" si="0"/>
         <v>3.4722222222222265E-2</v>
       </c>
-      <c r="F39" s="34" t="s">
+      <c r="F39" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G39" s="51" t="s">
+      <c r="G39" s="49" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="89">
+      <c r="A40" s="87">
         <v>43768</v>
       </c>
-      <c r="B40" s="53">
+      <c r="B40" s="51">
         <v>0.375</v>
       </c>
-      <c r="C40" s="53">
+      <c r="C40" s="51">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="32">
         <v>0</v>
       </c>
-      <c r="E40" s="70">
+      <c r="E40" s="68">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="G40" s="51" t="s">
+      <c r="G40" s="49" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="89">
+      <c r="A41" s="87">
         <v>43768</v>
       </c>
-      <c r="B41" s="53">
+      <c r="B41" s="51">
         <v>0.94444444444444453</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C41" s="51">
         <v>0.97222222222222221</v>
       </c>
-      <c r="D41" s="34">
+      <c r="D41" s="32">
         <v>0</v>
       </c>
-      <c r="E41" s="70">
+      <c r="E41" s="68">
         <f t="shared" si="0"/>
         <v>2.7777777777777679E-2</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="51" t="s">
+      <c r="G41" s="49" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52">
+      <c r="A42" s="50">
         <v>43769</v>
       </c>
-      <c r="B42" s="53">
+      <c r="B42" s="51">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C42" s="53">
+      <c r="C42" s="51">
         <v>0.96875</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="32">
         <v>0</v>
       </c>
-      <c r="E42" s="60">
+      <c r="E42" s="58">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="51" t="s">
+      <c r="G42" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37">
+      <c r="A43" s="35">
         <v>43770</v>
       </c>
-      <c r="B43" s="53">
+      <c r="B43" s="51">
         <v>0.6875</v>
       </c>
-      <c r="C43" s="53">
+      <c r="C43" s="51">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="32">
         <v>0</v>
       </c>
-      <c r="E43" s="60">
+      <c r="E43" s="58">
         <f t="shared" si="0"/>
         <v>3.472222222222221E-2</v>
       </c>
-      <c r="F43" s="46" t="s">
+      <c r="F43" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="51" t="s">
+      <c r="G43" s="49" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="37">
+      <c r="A44" s="35">
         <v>43770</v>
       </c>
-      <c r="B44" s="53">
+      <c r="B44" s="51">
         <v>0.94097222222222221</v>
       </c>
-      <c r="C44" s="53">
+      <c r="C44" s="51">
         <v>0.97222222222222221</v>
       </c>
-      <c r="D44" s="34">
+      <c r="D44" s="32">
         <v>0</v>
       </c>
-      <c r="E44" s="60">
+      <c r="E44" s="58">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="51" t="s">
+      <c r="G44" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="37">
+      <c r="A45" s="35">
         <v>43772</v>
       </c>
-      <c r="B45" s="53">
+      <c r="B45" s="51">
         <v>0.625</v>
       </c>
-      <c r="C45" s="53">
+      <c r="C45" s="51">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="32">
         <v>30</v>
       </c>
-      <c r="E45" s="60">
+      <c r="E45" s="58">
         <f t="shared" si="0"/>
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="F45" s="65" t="s">
+      <c r="F45" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="110" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="37">
+      <c r="A46" s="35">
         <v>43772</v>
       </c>
-      <c r="B46" s="53">
+      <c r="B46" s="51">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C46" s="53">
+      <c r="C46" s="51">
         <v>1</v>
       </c>
-      <c r="D46" s="34">
+      <c r="D46" s="32">
         <v>30</v>
       </c>
-      <c r="E46" s="60">
+      <c r="E46" s="58">
         <f t="shared" si="0"/>
         <v>0.20833333333333329</v>
       </c>
-      <c r="F46" s="65" t="s">
+      <c r="F46" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="111"/>
     </row>
     <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="89">
+      <c r="A47" s="87">
         <v>43779</v>
       </c>
-      <c r="B47" s="53">
+      <c r="B47" s="51">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C47" s="53">
+      <c r="C47" s="51">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D47" s="34">
+      <c r="D47" s="32">
         <v>10</v>
       </c>
-      <c r="E47" s="60">
+      <c r="E47" s="58">
         <f t="shared" si="0"/>
         <v>0.15972222222222229</v>
       </c>
-      <c r="F47" s="108" t="s">
+      <c r="F47" s="106" t="s">
         <v>143</v>
       </c>
-      <c r="G47" s="105" t="s">
+      <c r="G47" s="103" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="51"/>
+    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="87">
+        <v>43782</v>
+      </c>
+      <c r="B48" s="51">
+        <v>0.6875</v>
+      </c>
+      <c r="C48" s="51">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D48" s="32">
+        <v>120</v>
+      </c>
+      <c r="E48" s="58">
+        <f t="shared" si="0"/>
+        <v>0.18750000000000006</v>
+      </c>
+      <c r="F48" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="37" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="51"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="51"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="51"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="51"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="51"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="51"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="49"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="51"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="49"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="51"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="49"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="51"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="49"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="51"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="49"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="51"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="49"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="51"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="49"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="51"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="49"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="51"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="49"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="51"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="49"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="51"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="49"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="51"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="49"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="51"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="49"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="51"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="49"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="51"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="49"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="51"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="49"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="51"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="49"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="51"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="49"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="51"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="49"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="51"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="49"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="46"/>
-      <c r="G74" s="51"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="49"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="51"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="49"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="51"/>
+      <c r="A76" s="35"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="49"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="51"/>
+      <c r="A77" s="35"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="49"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="37"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="51"/>
+      <c r="A78" s="35"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="49"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="37"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="51"/>
+      <c r="A79" s="35"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="49"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="37"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="51"/>
+      <c r="A80" s="35"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="49"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
-      <c r="B81" s="53"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="60"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="51"/>
+      <c r="A81" s="35"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="58"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="49"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="51"/>
+      <c r="A82" s="35"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="49"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="37"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="51"/>
+      <c r="A83" s="35"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="49"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="51"/>
+      <c r="A84" s="35"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="49"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="51"/>
+      <c r="A85" s="35"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="49"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="51"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="49"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="37"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="46"/>
-      <c r="G87" s="51"/>
+      <c r="A87" s="35"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="49"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="51"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="49"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="46"/>
-      <c r="G89" s="51"/>
+      <c r="A89" s="35"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="49"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="37"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="51"/>
+      <c r="A90" s="35"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="49"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="37"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="46"/>
-      <c r="G91" s="51"/>
+      <c r="A91" s="35"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="49"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="37"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="46"/>
-      <c r="G92" s="51"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="58"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="49"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="37"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="46"/>
-      <c r="G93" s="51"/>
+      <c r="A93" s="35"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="49"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="46"/>
-      <c r="G94" s="51"/>
+      <c r="A94" s="35"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="49"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="51"/>
+      <c r="A95" s="35"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="58"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="49"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="60"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="51"/>
+      <c r="A96" s="35"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="58"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="49"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="37"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="46"/>
-      <c r="G97" s="51"/>
+      <c r="A97" s="35"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="58"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="49"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="37"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="60"/>
-      <c r="F98" s="46"/>
-      <c r="G98" s="51"/>
+      <c r="A98" s="35"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="49"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="37"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="60"/>
-      <c r="F99" s="46"/>
-      <c r="G99" s="51"/>
+      <c r="A99" s="35"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="49"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="37"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="46"/>
-      <c r="G100" s="51"/>
+      <c r="A100" s="35"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15572,841 +15962,856 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="87" customWidth="1"/>
-    <col min="2" max="3" width="7" style="55" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="67" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10" style="85" customWidth="1"/>
+    <col min="2" max="3" width="7" style="53" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
+      <c r="A2" s="92"/>
     </row>
     <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="D3" s="63" t="s">
+      <c r="B3" s="54"/>
+      <c r="D3" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="68"/>
+      <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="51">
         <v>0.5</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="51">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <v>0</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="68">
         <f t="shared" ref="E6:E30" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="56">
         <v>0.4375</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="56">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>0</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="68">
         <f t="shared" si="0"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="51">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="51">
         <v>0.62152777777777779</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="32">
         <v>0</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="68">
         <f t="shared" si="0"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="51">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="51">
         <v>0.78125</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="32">
         <v>0</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="68">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="51">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="32">
         <v>0</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="68">
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="56">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="56">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>0</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="68">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="51">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="51">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="32">
         <v>0</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="68">
         <f t="shared" si="0"/>
         <v>5.2083333333333259E-2</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="51">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="51">
         <v>0.75</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="32">
         <v>180</v>
       </c>
-      <c r="E13" s="70">
+      <c r="E13" s="68">
         <f t="shared" si="0"/>
         <v>0.20833333333333331</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="51">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="51">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="32">
         <v>60</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="68">
         <f t="shared" si="0"/>
         <v>4.166666666666665E-2</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="91">
+      <c r="A15" s="89">
         <v>43746</v>
       </c>
-      <c r="B15" s="53">
+      <c r="B15" s="51">
         <v>0.5625</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="32">
         <v>0</v>
       </c>
-      <c r="E15" s="70">
+      <c r="E15" s="68">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" s="91">
+      <c r="A16" s="89">
         <v>43748</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="51">
         <v>0.5625</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="32">
         <v>0</v>
       </c>
-      <c r="E16" s="70">
+      <c r="E16" s="68">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="49" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="89">
+      <c r="A17" s="87">
         <v>43749</v>
       </c>
-      <c r="B17" s="53">
+      <c r="B17" s="51">
         <v>0.6875</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="51">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="32">
         <v>5</v>
       </c>
-      <c r="E17" s="70">
+      <c r="E17" s="68">
         <f t="shared" si="0"/>
         <v>6.9444444444444406E-2</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="97">
+      <c r="A18" s="95">
         <v>43749</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="51">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="51">
         <v>1.0173611111111112</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="32">
         <v>0</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="58">
         <f t="shared" si="0"/>
         <v>0.12152777777777779</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="51">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="51">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="32">
         <v>60</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="68">
         <f t="shared" si="0"/>
         <v>0.12500000000000008</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B20" s="51">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="51">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="32">
         <v>60</v>
       </c>
-      <c r="E20" s="70">
+      <c r="E20" s="68">
         <f t="shared" si="0"/>
         <v>0.12500000000000008</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
+      <c r="A21" s="47">
         <v>43755</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="51">
         <v>0.4375</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="51">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="32">
         <v>0</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="58">
         <f t="shared" si="0"/>
         <v>5.2083333333333315E-2</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="49" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="49">
+      <c r="A22" s="47">
         <v>43755</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="51">
         <v>0.5625</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="32">
         <v>0</v>
       </c>
-      <c r="E22" s="60">
+      <c r="E22" s="58">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49">
+      <c r="A23" s="47">
         <v>43762</v>
       </c>
-      <c r="B23" s="53">
+      <c r="B23" s="51">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="51">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="32">
         <v>0</v>
       </c>
-      <c r="E23" s="60">
+      <c r="E23" s="58">
         <f t="shared" si="0"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="G23" s="46" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="53">
+      <c r="B24" s="51">
         <v>0.75</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="51">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="32">
         <v>30</v>
       </c>
-      <c r="E24" s="70">
+      <c r="E24" s="68">
         <f t="shared" si="0"/>
         <v>6.2500000000000042E-2</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49">
+      <c r="A25" s="47">
         <v>43764</v>
       </c>
-      <c r="B25" s="53">
+      <c r="B25" s="51">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="51">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="32">
         <v>0</v>
       </c>
-      <c r="E25" s="60">
+      <c r="E25" s="58">
         <f t="shared" si="0"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="53">
+      <c r="B26" s="51">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="51">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="32">
         <v>20</v>
       </c>
-      <c r="E26" s="70">
+      <c r="E26" s="68">
         <f t="shared" si="0"/>
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="15" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52">
+      <c r="A27" s="50">
         <v>43767</v>
       </c>
-      <c r="B27" s="59">
+      <c r="B27" s="57">
         <v>0.4375</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="51">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="32">
         <v>0</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="58">
         <f t="shared" si="0"/>
         <v>3.4722222222222265E-2</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G27" s="49" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52">
+      <c r="A28" s="50">
         <v>43769</v>
       </c>
-      <c r="B28" s="59">
+      <c r="B28" s="57">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="51">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="32">
         <v>0</v>
       </c>
-      <c r="E28" s="60">
+      <c r="E28" s="58">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="51" t="s">
+      <c r="G28" s="49" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52">
+      <c r="A29" s="50">
         <v>43769</v>
       </c>
-      <c r="B29" s="53">
+      <c r="B29" s="51">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="51">
         <v>0.96875</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="32">
         <v>0</v>
       </c>
-      <c r="E29" s="60">
+      <c r="E29" s="58">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="53">
+      <c r="B30" s="51">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="51">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="32">
         <v>20</v>
       </c>
-      <c r="E30" s="60">
+      <c r="E30" s="58">
         <f t="shared" si="0"/>
         <v>2.7777777777777853E-2</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="53">
+      <c r="B31" s="51">
         <v>0.875</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="51">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="13">
         <v>20</v>
       </c>
-      <c r="E31" s="110">
+      <c r="E31" s="108">
         <v>40</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="B32" s="53">
+      <c r="B32" s="51">
         <v>0.5</v>
       </c>
-      <c r="C32" s="53">
+      <c r="C32" s="51">
         <v>0.625</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="13">
         <v>30</v>
       </c>
-      <c r="E32" s="110">
+      <c r="E32" s="108">
         <v>150</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="4"/>
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="87">
+        <v>43782</v>
+      </c>
+      <c r="B33" s="51">
+        <v>0.6875</v>
+      </c>
+      <c r="C33" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="113">
+        <v>0</v>
+      </c>
+      <c r="E33" s="58">
+        <f t="shared" ref="E33" si="1">C33-B33-(D33/24/60)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F33" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="4"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="4"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="4"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="89"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="4"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="89"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="4"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="89"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="4"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="89"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="4"/>
+      <c r="A40" s="87"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="89"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="4"/>
+      <c r="A41" s="87"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="89"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="4"/>
+      <c r="A42" s="87"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="89"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="4"/>
+      <c r="A43" s="87"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="89"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="4"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="93"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="4"/>
+      <c r="A45" s="91"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="93"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="4"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최재영\Desktop\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26832" windowHeight="12012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26835" windowHeight="12015" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -36,6 +36,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
@@ -49,6 +50,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -68,6 +70,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -86,6 +89,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -104,6 +108,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -122,6 +127,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -140,6 +146,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -158,6 +165,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -176,6 +184,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -209,6 +218,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
@@ -222,6 +232,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -241,6 +252,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -259,6 +271,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -277,6 +290,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -295,6 +309,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -313,6 +328,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -331,6 +347,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -349,6 +366,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -382,6 +400,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
@@ -395,6 +414,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -414,6 +434,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -432,6 +453,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -450,6 +472,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -468,6 +491,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -486,6 +510,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -504,6 +529,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -522,6 +548,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -555,6 +582,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
@@ -568,6 +596,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -587,6 +616,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -605,6 +635,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -623,6 +654,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -641,6 +673,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -659,6 +692,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -677,6 +711,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -695,6 +730,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -728,6 +764,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
@@ -741,6 +778,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -760,6 +798,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -778,6 +817,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -796,6 +836,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -814,6 +855,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -832,6 +874,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -850,6 +893,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -868,6 +912,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -901,6 +946,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Soojin Park:
 작업하다가 중간에 interrupt가 걸린 시간을 뜻함</t>
@@ -914,6 +960,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Soojin Park:
 </t>
@@ -933,6 +980,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> interrupt </t>
         </r>
@@ -951,6 +999,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -969,6 +1018,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -987,6 +1037,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1005,6 +1056,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>. 10</t>
         </r>
@@ -1023,6 +1075,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1041,6 +1094,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1062,13 +1116,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="179">
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="181">
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Specification 1.0 </t>
     </r>
@@ -1087,6 +1142,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1105,6 +1161,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1123,6 +1180,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">), PMP </t>
     </r>
@@ -1143,6 +1201,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">GridView, SQLite </t>
     </r>
@@ -1161,6 +1220,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Read </t>
     </r>
@@ -1179,6 +1239,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1197,6 +1258,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1215,6 +1277,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> invisible)</t>
     </r>
@@ -1225,6 +1288,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Initial Data Set </t>
     </r>
@@ -1243,6 +1307,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1261,6 +1326,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1279,6 +1345,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1297,6 +1364,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1315,6 +1383,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1333,6 +1402,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1351,6 +1421,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1369,6 +1440,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1379,6 +1451,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Specification </t>
     </r>
@@ -1397,6 +1470,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1415,6 +1489,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1433,6 +1508,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1451,6 +1527,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1469,6 +1546,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1487,6 +1565,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1505,6 +1584,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1515,6 +1595,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Entity Class Diagram </t>
     </r>
@@ -1533,6 +1614,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1551,6 +1633,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1569,6 +1652,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1587,6 +1671,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> task </t>
     </r>
@@ -1605,6 +1690,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1618,6 +1704,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>I</t>
     </r>
@@ -1626,6 +1713,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">nitial Data Set </t>
     </r>
@@ -1644,6 +1732,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (200</t>
     </r>
@@ -1662,6 +1751,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1680,6 +1770,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1698,6 +1789,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1708,6 +1800,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Entity Class Diagram </t>
     </r>
@@ -1726,6 +1819,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1744,6 +1838,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1762,6 +1857,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1772,6 +1868,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">UC Spec </t>
     </r>
@@ -1790,6 +1887,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1808,6 +1906,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
@@ -1826,6 +1925,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Prototyping </t>
     </r>
@@ -1844,6 +1944,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1864,6 +1965,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Initial Data Set 구성을</t>
     </r>
@@ -1884,6 +1986,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Entity Class Diagram </t>
     </r>
@@ -1902,6 +2005,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -1920,6 +2024,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1938,6 +2043,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1948,6 +2054,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Github </t>
     </r>
@@ -1966,6 +2073,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1984,6 +2092,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, Android Studio </t>
     </r>
@@ -2002,6 +2111,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2025,6 +2135,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -2043,6 +2154,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -2061,6 +2173,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2079,6 +2192,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> UC </t>
     </r>
@@ -2097,6 +2211,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2110,6 +2225,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Entity Class Diagram </t>
     </r>
@@ -2128,6 +2244,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -2146,6 +2263,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2164,6 +2282,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2174,6 +2293,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">UC Spec </t>
     </r>
@@ -2192,6 +2312,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2210,6 +2331,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 1</t>
     </r>
@@ -2228,6 +2350,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Prototyping </t>
     </r>
@@ -2246,6 +2369,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2266,6 +2390,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Create </t>
     </r>
@@ -2284,6 +2409,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Error </t>
     </r>
@@ -2302,6 +2428,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">(table column </t>
     </r>
@@ -2320,6 +2447,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2330,6 +2458,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DB browser</t>
     </r>
@@ -2348,6 +2477,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2366,6 +2496,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> DB </t>
     </r>
@@ -2384,6 +2515,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2402,6 +2534,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2420,6 +2553,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2438,6 +2572,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2458,6 +2593,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">UC Spec </t>
     </r>
@@ -2476,6 +2612,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2494,6 +2631,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 3</t>
     </r>
@@ -2512,6 +2650,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Prototyping </t>
     </r>
@@ -2530,6 +2669,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2550,6 +2690,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Initial Data Set </t>
     </r>
@@ -2568,6 +2709,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2586,6 +2728,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -2604,6 +2747,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2622,6 +2766,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2632,6 +2777,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Prototyping </t>
     </r>
@@ -2650,6 +2796,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Coding Guideline </t>
     </r>
@@ -2673,6 +2820,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Android Studio </t>
     </r>
@@ -2691,6 +2839,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2709,6 +2858,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Setting, </t>
     </r>
@@ -2727,6 +2877,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2745,6 +2896,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2765,6 +2917,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Specification 1.0 </t>
     </r>
@@ -2783,6 +2936,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -2801,6 +2955,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2819,6 +2974,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2837,6 +2993,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2847,6 +3004,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Initial Data Set </t>
     </r>
@@ -2865,6 +3023,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -2883,6 +3042,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -2901,6 +3061,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2919,6 +3080,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -2937,6 +3099,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2955,6 +3118,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2975,6 +3139,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2993,6 +3158,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3011,6 +3177,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Data Creation </t>
     </r>
@@ -3029,6 +3196,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3047,6 +3215,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3065,6 +3234,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3083,6 +3253,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3103,6 +3274,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Entity Class Diagram </t>
     </r>
@@ -3121,6 +3293,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -3139,6 +3312,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3157,6 +3331,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3175,6 +3350,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3193,6 +3369,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3203,6 +3380,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">UC Diagram + UC Spec </t>
     </r>
@@ -3221,6 +3399,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -3239,6 +3418,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3257,6 +3437,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3275,6 +3456,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3293,6 +3475,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, UC </t>
     </r>
@@ -3311,6 +3494,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">), Entity Diagram </t>
     </r>
@@ -3331,6 +3515,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Target App Ideation (2</t>
     </r>
@@ -3349,6 +3534,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3367,6 +3553,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3385,6 +3572,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3395,6 +3583,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Entity Class Diagram </t>
     </r>
@@ -3413,6 +3602,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -3431,6 +3621,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3449,6 +3640,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3459,6 +3651,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SRS 1.0 </t>
     </r>
@@ -3477,6 +3670,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3495,6 +3689,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3513,6 +3708,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3531,6 +3727,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3549,6 +3746,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -3567,6 +3765,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3580,6 +3779,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ListView</t>
     </r>
@@ -3598,6 +3798,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3616,6 +3817,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> DB </t>
     </r>
@@ -3634,6 +3836,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3652,6 +3855,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3670,6 +3874,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3706,6 +3911,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3724,6 +3930,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3742,6 +3949,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3760,6 +3968,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -3778,6 +3987,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3796,6 +4006,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">), PMP </t>
     </r>
@@ -3816,6 +4027,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Initial Data Set </t>
     </r>
@@ -3834,6 +4046,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -3852,6 +4065,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3870,6 +4084,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3883,6 +4098,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Sequence Diagram 구상</t>
     </r>
@@ -3903,6 +4119,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">GridView, SQLite </t>
     </r>
@@ -3921,6 +4138,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Read </t>
     </r>
@@ -3944,6 +4162,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Initial Data Set(</t>
     </r>
@@ -3962,6 +4181,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -3980,6 +4200,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -3998,6 +4219,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>,</t>
     </r>
@@ -4016,6 +4238,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
@@ -4036,6 +4259,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SRS 1.0 </t>
     </r>
@@ -4054,6 +4278,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -4072,6 +4297,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4090,6 +4316,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, XD </t>
     </r>
@@ -4108,6 +4335,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -4118,6 +4346,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Target App Ideation (1</t>
     </r>
@@ -4136,6 +4365,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4154,6 +4384,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4172,6 +4403,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -4188,6 +4420,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Target App Ideation (3</t>
     </r>
@@ -4206,6 +4439,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4224,6 +4458,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4242,6 +4477,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -4252,6 +4488,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Specificaiton </t>
     </r>
@@ -4285,6 +4522,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Prototyping Sample </t>
     </r>
@@ -4303,6 +4541,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4326,6 +4565,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Diagram </t>
     </r>
@@ -4344,6 +4584,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -4362,6 +4603,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4380,6 +4622,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -4390,6 +4633,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Prototyping </t>
     </r>
@@ -4408,6 +4652,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4428,6 +4673,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GridView 세부</t>
     </r>
@@ -4448,6 +4694,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">UC Spec </t>
     </r>
@@ -4466,6 +4713,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> GUI </t>
     </r>
@@ -4486,6 +4734,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Application </t>
     </r>
@@ -4504,6 +4753,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> DB </t>
     </r>
@@ -4524,6 +4774,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Cae Outline </t>
     </r>
@@ -4544,6 +4795,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Diagram </t>
     </r>
@@ -4567,6 +4819,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -4587,6 +4840,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Code Refactoring </t>
     </r>
@@ -4610,6 +4864,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SQLite </t>
     </r>
@@ -4628,6 +4883,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> DB </t>
     </r>
@@ -4658,6 +4914,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, PMP </t>
     </r>
@@ -4676,6 +4933,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4696,6 +4954,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>SAD - Create 부분</t>
     </r>
@@ -4716,6 +4975,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SRS 1.0 </t>
     </r>
@@ -4734,6 +4994,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -4752,6 +5013,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4770,6 +5032,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -4780,6 +5043,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>클래스</t>
     </r>
@@ -4800,6 +5064,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Code Refactoring (C&amp;R 1차</t>
     </r>
@@ -4820,6 +5085,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Initial Data Set </t>
     </r>
@@ -4838,6 +5104,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (200</t>
     </r>
@@ -4856,6 +5123,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4874,6 +5142,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4892,6 +5161,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -4910,6 +5180,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -4920,6 +5191,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Initial Data Set </t>
     </r>
@@ -4938,6 +5210,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -4956,6 +5229,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Output </t>
     </r>
@@ -4974,6 +5248,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -4992,6 +5267,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -5002,6 +5278,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GUI 샘플</t>
     </r>
@@ -5028,6 +5305,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Initial Data Set </t>
     </r>
@@ -5046,6 +5324,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5064,6 +5343,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -5082,6 +5362,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5100,6 +5381,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5118,6 +5400,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -5136,6 +5419,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -5149,6 +5433,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -5167,6 +5452,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -5185,6 +5471,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5203,6 +5490,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5221,6 +5509,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5239,6 +5528,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> UC </t>
     </r>
@@ -5257,6 +5547,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -5270,6 +5561,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -5288,6 +5580,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -5306,6 +5599,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5324,6 +5618,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5342,6 +5637,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5360,6 +5656,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> UC </t>
     </r>
@@ -5378,6 +5675,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -5388,6 +5686,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -5406,6 +5705,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -5424,6 +5724,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5442,6 +5743,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5460,6 +5762,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> UC </t>
     </r>
@@ -5478,6 +5781,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -5491,6 +5795,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GridView, ListView</t>
     </r>
@@ -5511,6 +5816,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">GridView, SQLite </t>
     </r>
@@ -5529,6 +5835,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Read </t>
     </r>
@@ -5547,6 +5854,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -5565,6 +5873,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5583,6 +5892,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -5593,6 +5903,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Code Refactoring(Databases Class </t>
     </r>
@@ -5611,6 +5922,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, DatabaseController </t>
     </r>
@@ -5630,6 +5942,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">DB Read </t>
     </r>
@@ -5648,6 +5961,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, Create </t>
     </r>
@@ -5666,6 +5980,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Read </t>
     </r>
@@ -5684,6 +5999,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, Coding Guideline </t>
     </r>
@@ -5710,6 +6026,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Entity Class Diagram, Table Design </t>
     </r>
@@ -5728,6 +6045,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5748,6 +6066,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Initial Data Set </t>
     </r>
@@ -5766,6 +6085,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -5784,6 +6104,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Output </t>
     </r>
@@ -5802,6 +6123,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5820,6 +6142,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>7,8,9)</t>
     </r>
@@ -5830,6 +6153,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>E</t>
     </r>
@@ -5838,6 +6162,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">ntity Class Diagram, Table Design </t>
     </r>
@@ -5856,6 +6181,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -5882,6 +6208,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>추천</t>
     </r>
@@ -5917,6 +6244,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">PMP, PSP </t>
     </r>
@@ -5937,6 +6265,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SAD 1.0 </t>
     </r>
@@ -5969,6 +6298,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -5990,6 +6320,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -6008,6 +6339,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 25</t>
     </r>
@@ -6026,6 +6358,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6048,6 +6381,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -6081,6 +6415,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -6114,6 +6449,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -6147,6 +6483,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -6180,6 +6517,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> : </t>
     </r>
@@ -6211,6 +6549,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6229,6 +6568,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6259,6 +6599,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6277,6 +6618,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6295,6 +6637,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6315,6 +6658,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Initial Data Set </t>
     </r>
@@ -6333,6 +6677,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6351,6 +6696,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -6369,6 +6715,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6387,6 +6734,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6405,6 +6753,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -6423,6 +6772,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6441,6 +6791,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -6451,6 +6802,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">UC Diagram + UC Spec </t>
     </r>
@@ -6469,6 +6821,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -6487,6 +6840,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6505,6 +6859,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> UC Spec </t>
     </r>
@@ -6523,6 +6878,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -6543,6 +6899,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6561,6 +6918,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6579,6 +6937,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6597,6 +6956,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -6615,6 +6975,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6633,6 +6994,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6651,6 +7013,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6669,6 +7032,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -6679,6 +7043,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">API </t>
     </r>
@@ -6697,6 +7062,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6715,6 +7081,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6748,6 +7115,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6766,6 +7134,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6784,6 +7153,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6802,6 +7172,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6822,6 +7193,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Specification 1.0 </t>
     </r>
@@ -6840,6 +7212,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (1</t>
     </r>
@@ -6858,6 +7231,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6876,6 +7250,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6894,6 +7269,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - </t>
     </r>
@@ -6912,6 +7288,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -6930,6 +7307,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -6940,6 +7318,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">UC Diagram + UC Spec </t>
     </r>
@@ -6958,6 +7337,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -6976,6 +7356,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -6994,6 +7375,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7012,6 +7394,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7030,6 +7413,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, UC </t>
     </r>
@@ -7048,6 +7432,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -7066,6 +7451,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7084,6 +7470,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -7104,6 +7491,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7122,6 +7510,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7140,6 +7529,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7158,6 +7548,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -7176,6 +7567,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7194,6 +7586,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -7212,6 +7605,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7230,6 +7624,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7248,6 +7643,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -7266,6 +7662,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7284,6 +7681,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7302,6 +7700,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -7322,6 +7721,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7342,6 +7742,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -7360,6 +7761,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 28</t>
     </r>
@@ -7383,6 +7785,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -7425,6 +7828,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -7443,6 +7847,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 19</t>
     </r>
@@ -7487,6 +7892,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -7505,6 +7911,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 1</t>
     </r>
@@ -7525,6 +7932,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -7543,6 +7951,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 27</t>
     </r>
@@ -7563,6 +7972,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -7581,6 +7991,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 25</t>
     </r>
@@ -7601,6 +8012,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -7619,6 +8031,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 7</t>
     </r>
@@ -7639,6 +8052,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>11</t>
     </r>
@@ -7657,6 +8071,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 2</t>
     </r>
@@ -7677,6 +8092,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -7695,6 +8111,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 12</t>
     </r>
@@ -7718,6 +8135,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>10</t>
     </r>
@@ -7736,6 +8154,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 26</t>
     </r>
@@ -7756,6 +8175,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -7774,6 +8194,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 24</t>
     </r>
@@ -7804,6 +8225,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7824,6 +8246,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>9</t>
     </r>
@@ -7842,6 +8265,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 20</t>
     </r>
@@ -7862,6 +8286,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>11</t>
     </r>
@@ -7880,6 +8305,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 5</t>
     </r>
@@ -7912,6 +8338,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">RelativeLayout </t>
     </r>
@@ -7930,6 +8357,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7950,6 +8378,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>GridView</t>
     </r>
@@ -7968,6 +8397,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7986,6 +8416,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Read </t>
     </r>
@@ -8006,6 +8437,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Prototyping - Read </t>
     </r>
@@ -8042,6 +8474,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8060,6 +8493,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8078,6 +8512,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8096,6 +8531,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -8114,6 +8550,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8132,6 +8569,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -8142,6 +8580,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Table Design (</t>
     </r>
@@ -8160,6 +8599,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8178,6 +8618,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -8198,6 +8639,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8216,6 +8658,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8234,6 +8677,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8252,6 +8696,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -8270,6 +8715,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8288,6 +8734,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8306,6 +8753,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -8325,6 +8773,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Initial Data Set 중식</t>
     </r>
@@ -8345,6 +8794,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Specification </t>
     </r>
@@ -8363,6 +8813,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -8381,6 +8832,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -8401,6 +8853,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8419,6 +8872,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8437,6 +8891,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8455,6 +8910,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -8473,6 +8929,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8491,6 +8948,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8509,6 +8967,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8527,6 +8986,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8545,6 +9005,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -8555,6 +9016,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Outline </t>
     </r>
@@ -8573,6 +9035,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -8591,6 +9054,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8609,6 +9073,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -8619,6 +9084,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SRS 1.0 </t>
     </r>
@@ -8637,6 +9103,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8655,6 +9122,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8673,6 +9141,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -8691,6 +9160,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> SRS </t>
     </r>
@@ -8709,6 +9179,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -8729,6 +9200,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8747,6 +9219,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -8765,6 +9238,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> ui </t>
     </r>
@@ -8783,6 +9257,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8801,6 +9276,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8819,6 +9295,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8837,6 +9314,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8857,6 +9335,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SRS 1.0 </t>
     </r>
@@ -8875,6 +9354,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8893,6 +9373,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8911,6 +9392,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8929,6 +9411,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8949,6 +9432,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Use Case Specification </t>
     </r>
@@ -8988,6 +9472,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -9025,6 +9510,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -9039,6 +9525,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">ntity Class Diagram, Table Design </t>
     </r>
@@ -9057,6 +9544,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -9091,6 +9579,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -9128,6 +9617,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -9215,6 +9705,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -9233,6 +9724,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -9462,13 +9954,58 @@
   </si>
   <si>
     <t>회원가입/로그인/회원정보관리 개발</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SAD 1.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>준비</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -9485,18 +10022,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF800080"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -9524,6 +10064,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -9613,7 +10154,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -9854,16 +10395,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -10180,23 +10725,23 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="87" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="51" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="87" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="51" customWidth="1"/>
     <col min="3" max="3" width="7" style="51" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="58" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" style="39" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="58" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" style="39" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="96" t="s">
         <v>41</v>
       </c>
@@ -10209,10 +10754,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="97" t="s">
         <v>127</v>
       </c>
@@ -10223,8 +10768,8 @@
       <c r="E3" s="77"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="98" t="s">
         <v>129</v>
       </c>
@@ -10247,7 +10792,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="87">
         <v>43714</v>
       </c>
@@ -10271,7 +10816,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="95">
         <v>43714</v>
       </c>
@@ -10295,7 +10840,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="87">
         <v>43715</v>
       </c>
@@ -10319,7 +10864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="87">
         <v>43716</v>
       </c>
@@ -10343,7 +10888,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="95">
         <v>43717</v>
       </c>
@@ -10367,7 +10912,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="88">
         <v>43727</v>
       </c>
@@ -10391,7 +10936,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="87">
         <v>43727</v>
       </c>
@@ -10415,7 +10960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="88">
         <v>43728</v>
       </c>
@@ -10439,7 +10984,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="87">
         <v>43728</v>
       </c>
@@ -10463,7 +11008,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="87">
         <v>43729</v>
       </c>
@@ -10487,7 +11032,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="87">
         <v>43732</v>
       </c>
@@ -10511,7 +11056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="87">
         <v>43736</v>
       </c>
@@ -10535,7 +11080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="87">
         <v>43737</v>
       </c>
@@ -10559,7 +11104,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="87">
         <v>43739</v>
       </c>
@@ -10583,7 +11128,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="89">
         <v>43742</v>
       </c>
@@ -10607,7 +11152,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="89">
         <v>43742</v>
       </c>
@@ -10631,7 +11176,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="89">
         <v>43746</v>
       </c>
@@ -10655,7 +11200,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="89">
         <v>43748</v>
       </c>
@@ -10679,7 +11224,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="95">
         <v>43749</v>
       </c>
@@ -10703,7 +11248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="89">
         <v>43751</v>
       </c>
@@ -10727,7 +11272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="89">
         <v>43755</v>
       </c>
@@ -10751,7 +11296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="89">
         <v>43755</v>
       </c>
@@ -10775,7 +11320,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="89">
         <v>43755</v>
       </c>
@@ -10799,7 +11344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="89">
         <v>43761</v>
       </c>
@@ -10823,7 +11368,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="89">
         <v>43762</v>
       </c>
@@ -10847,7 +11392,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="89">
         <v>43762</v>
       </c>
@@ -10871,7 +11416,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="89">
         <v>43763</v>
       </c>
@@ -10895,7 +11440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="89">
         <v>43763</v>
       </c>
@@ -10919,7 +11464,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="89">
         <v>43764</v>
       </c>
@@ -10943,7 +11488,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="89">
         <v>43764</v>
       </c>
@@ -10967,7 +11512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="89">
         <v>43764</v>
       </c>
@@ -10991,7 +11536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="89">
         <v>43765</v>
       </c>
@@ -11015,7 +11560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="89">
         <v>43765</v>
       </c>
@@ -11039,7 +11584,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="95">
         <v>43766</v>
       </c>
@@ -11063,7 +11608,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="95">
         <v>43767</v>
       </c>
@@ -11087,7 +11632,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="95">
         <v>43769</v>
       </c>
@@ -11111,7 +11656,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="95">
         <v>43769</v>
       </c>
@@ -11135,7 +11680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="95">
         <v>43769</v>
       </c>
@@ -11159,7 +11704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="87">
         <v>43770</v>
       </c>
@@ -11183,7 +11728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="87">
         <v>43770</v>
       </c>
@@ -11207,7 +11752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="87">
         <v>43770</v>
       </c>
@@ -11231,7 +11776,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="87">
         <v>43770</v>
       </c>
@@ -11255,7 +11800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="95" t="s">
         <v>138</v>
       </c>
@@ -11279,7 +11824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="99" t="s">
         <v>138</v>
       </c>
@@ -11303,7 +11848,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="87">
         <v>43774</v>
       </c>
@@ -11327,7 +11872,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="87">
         <v>43774</v>
       </c>
@@ -11351,7 +11896,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="87">
         <v>43775</v>
       </c>
@@ -11375,7 +11920,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="87">
         <v>43776</v>
       </c>
@@ -11399,7 +11944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="87">
         <v>43776</v>
       </c>
@@ -11423,7 +11968,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="87">
         <v>43778</v>
       </c>
@@ -11447,7 +11992,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="87">
         <v>43779</v>
       </c>
@@ -11471,7 +12016,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="87">
         <v>43780</v>
       </c>
@@ -11495,7 +12040,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="87">
         <v>43781</v>
       </c>
@@ -11519,7 +12064,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="87">
         <v>43781</v>
       </c>
@@ -11543,7 +12088,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="87">
         <v>43781</v>
       </c>
@@ -11567,7 +12112,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="87">
         <v>43782</v>
       </c>
@@ -11591,11 +12136,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="87">
         <v>43782</v>
       </c>
-      <c r="B62" s="112">
+      <c r="B62" s="110">
         <v>1.0138888888888888</v>
       </c>
       <c r="C62" s="51">
@@ -11615,7 +12160,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N72" s="107">
         <v>43783</v>
       </c>
@@ -11640,17 +12185,17 @@
       <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -11663,10 +12208,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -11677,8 +12222,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:10" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -11701,7 +12246,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="87" t="s">
         <v>137</v>
       </c>
@@ -11725,7 +12270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="88" t="s">
         <v>125</v>
       </c>
@@ -11749,7 +12294,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="87" t="s">
         <v>125</v>
       </c>
@@ -11773,7 +12318,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="87" t="s">
         <v>144</v>
       </c>
@@ -11797,7 +12342,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="87" t="s">
         <v>142</v>
       </c>
@@ -11821,7 +12366,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="87" t="s">
         <v>118</v>
       </c>
@@ -11845,7 +12390,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="89" t="s">
         <v>120</v>
       </c>
@@ -11870,7 +12415,7 @@
       </c>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="89" t="s">
         <v>124</v>
       </c>
@@ -11894,7 +12439,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="89" t="s">
         <v>131</v>
       </c>
@@ -11918,7 +12463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -11942,7 +12487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -11966,7 +12511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -11990,7 +12535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="50">
         <v>43749</v>
       </c>
@@ -12014,7 +12559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="47">
         <v>43755</v>
       </c>
@@ -12038,7 +12583,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="47">
         <v>43755</v>
       </c>
@@ -12062,7 +12607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="87" t="s">
         <v>121</v>
       </c>
@@ -12086,7 +12631,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="47">
         <v>43764</v>
       </c>
@@ -12110,7 +12655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="47">
         <v>43765</v>
       </c>
@@ -12134,7 +12679,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50">
         <v>43767</v>
       </c>
@@ -12158,7 +12703,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -12182,7 +12727,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50">
         <v>43769</v>
       </c>
@@ -12206,7 +12751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A27" s="99" t="s">
         <v>145</v>
       </c>
@@ -12230,7 +12775,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="87">
         <v>43779</v>
       </c>
@@ -12254,7 +12799,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="87">
         <v>43782</v>
       </c>
@@ -12264,7 +12809,7 @@
       <c r="C29" s="51">
         <v>0.75</v>
       </c>
-      <c r="D29" s="113">
+      <c r="D29" s="111">
         <v>0</v>
       </c>
       <c r="E29" s="58">
@@ -12278,7 +12823,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="87"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -12287,7 +12832,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="87"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -12296,7 +12841,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="87"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -12305,7 +12850,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="87"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -12314,7 +12859,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="87"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -12323,7 +12868,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="87"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -12332,7 +12877,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="87"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -12341,7 +12886,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="87"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -12350,7 +12895,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="87"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -12359,7 +12904,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="87"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -12368,7 +12913,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="87"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -12377,7 +12922,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="87"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -12386,7 +12931,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="87"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -12395,7 +12940,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="87"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -12404,7 +12949,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="91"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -12413,7 +12958,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="91"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -12442,17 +12987,17 @@
       <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -12465,10 +13010,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>127</v>
       </c>
@@ -12479,8 +13024,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>129</v>
       </c>
@@ -12503,7 +13048,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>43715</v>
       </c>
@@ -12527,7 +13072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>43727</v>
       </c>
@@ -12551,7 +13096,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>43727</v>
       </c>
@@ -12575,7 +13120,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>43728</v>
       </c>
@@ -12599,7 +13144,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35">
         <v>43732</v>
       </c>
@@ -12623,7 +13168,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>43735</v>
       </c>
@@ -12647,7 +13192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>43736</v>
       </c>
@@ -12671,7 +13216,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>43737</v>
       </c>
@@ -12695,7 +13240,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>43739</v>
       </c>
@@ -12719,7 +13264,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
         <v>43739</v>
       </c>
@@ -12743,7 +13288,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
         <v>43743</v>
       </c>
@@ -12767,7 +13312,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35">
         <v>43744</v>
       </c>
@@ -12791,7 +13336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35">
         <v>43745</v>
       </c>
@@ -12815,7 +13360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -12839,7 +13384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -12863,7 +13408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -12887,7 +13432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -12911,7 +13456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>43750</v>
       </c>
@@ -12935,7 +13480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
         <v>43751</v>
       </c>
@@ -12959,7 +13504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35">
         <v>43751</v>
       </c>
@@ -12983,7 +13528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
         <v>43753</v>
       </c>
@@ -13007,7 +13552,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="47">
         <v>43755</v>
       </c>
@@ -13031,7 +13576,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="47">
         <v>43755</v>
       </c>
@@ -13055,7 +13600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>43760</v>
       </c>
@@ -13079,7 +13624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="47">
         <v>43764</v>
       </c>
@@ -13103,7 +13648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>43765</v>
       </c>
@@ -13127,7 +13672,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="50">
         <v>43767</v>
       </c>
@@ -13151,7 +13696,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="50">
         <v>43769</v>
       </c>
@@ -13175,7 +13720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="35">
         <v>43770</v>
       </c>
@@ -13199,7 +13744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>43771</v>
       </c>
@@ -13223,7 +13768,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>43772</v>
       </c>
@@ -13247,7 +13792,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>43775</v>
       </c>
@@ -13271,7 +13816,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>43777</v>
       </c>
@@ -13295,7 +13840,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>43778</v>
       </c>
@@ -13319,7 +13864,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>43779</v>
       </c>
@@ -13343,7 +13888,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>43779</v>
       </c>
@@ -13367,7 +13912,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="87">
         <v>43779</v>
       </c>
@@ -13391,7 +13936,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>43780</v>
       </c>
@@ -13415,7 +13960,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="87">
         <v>43782</v>
       </c>
@@ -13425,7 +13970,7 @@
       <c r="C44" s="51">
         <v>0.75</v>
       </c>
-      <c r="D44" s="113">
+      <c r="D44" s="111">
         <v>0</v>
       </c>
       <c r="E44" s="58">
@@ -13439,7 +13984,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -13448,7 +13993,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="39"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -13457,7 +14002,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="39"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -13466,7 +14011,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="39"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="39"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -13475,7 +14020,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="39"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="39"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -13484,7 +14029,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="39"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="39"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -13493,7 +14038,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="39"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="39"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -13502,7 +14047,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="39"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="39"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -13511,7 +14056,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="39"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="39"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -13520,7 +14065,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="39"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="39"/>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
@@ -13529,7 +14074,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="39"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="39"/>
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
@@ -13538,7 +14083,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="39"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="39"/>
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
@@ -13547,7 +14092,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="39"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="39"/>
       <c r="B57" s="51"/>
       <c r="C57" s="51"/>
@@ -13556,7 +14101,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="39"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="39"/>
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
@@ -13565,7 +14110,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="39"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="39"/>
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
@@ -13574,7 +14119,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="39"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="39"/>
       <c r="B60" s="51"/>
       <c r="C60" s="51"/>
@@ -13583,7 +14128,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="39"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="39"/>
       <c r="B61" s="51"/>
       <c r="C61" s="51"/>
@@ -13592,7 +14137,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="39"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="39"/>
       <c r="B62" s="51"/>
       <c r="C62" s="51"/>
@@ -13621,17 +14166,17 @@
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="65" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="65" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -13644,10 +14189,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -13658,8 +14203,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -13682,7 +14227,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="88" t="s">
         <v>125</v>
       </c>
@@ -13706,7 +14251,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="87" t="s">
         <v>125</v>
       </c>
@@ -13730,7 +14275,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="87" t="s">
         <v>144</v>
       </c>
@@ -13754,7 +14299,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="87" t="s">
         <v>142</v>
       </c>
@@ -13778,7 +14323,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="87" t="s">
         <v>118</v>
       </c>
@@ -13802,7 +14347,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="87" t="s">
         <v>134</v>
       </c>
@@ -13826,7 +14371,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="89">
         <v>43746</v>
       </c>
@@ -13850,7 +14395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="89">
         <v>43748</v>
       </c>
@@ -13874,7 +14419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="87">
         <v>43749</v>
       </c>
@@ -13898,7 +14443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="50">
         <v>43749</v>
       </c>
@@ -13922,7 +14467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94" t="s">
         <v>139</v>
       </c>
@@ -13946,7 +14491,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="47">
         <v>43755</v>
       </c>
@@ -13970,7 +14515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="47">
         <v>43762</v>
       </c>
@@ -13994,7 +14539,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="s">
         <v>136</v>
       </c>
@@ -14018,7 +14563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="94" t="s">
         <v>141</v>
       </c>
@@ -14042,7 +14587,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="47">
         <v>43764</v>
       </c>
@@ -14066,7 +14611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="87" t="s">
         <v>130</v>
       </c>
@@ -14090,7 +14635,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="50">
         <v>43767</v>
       </c>
@@ -14114,7 +14659,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50">
         <v>43769</v>
       </c>
@@ -14138,7 +14683,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -14162,7 +14707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
         <v>43770</v>
       </c>
@@ -14186,7 +14731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="87">
         <v>43779</v>
       </c>
@@ -14210,7 +14755,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="87"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -14219,7 +14764,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="87"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -14228,7 +14773,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="87"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -14237,7 +14782,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="87"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -14246,7 +14791,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="87"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -14255,7 +14800,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="87"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -14264,7 +14809,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="87"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -14273,7 +14818,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="87"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -14282,7 +14827,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="87"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -14291,7 +14836,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="87"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -14300,7 +14845,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="87"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -14309,7 +14854,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="87"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -14318,7 +14863,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="87"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -14327,7 +14872,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="87"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -14336,7 +14881,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="87"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -14345,7 +14890,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="91"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -14354,7 +14899,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="91"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -14379,21 +14924,21 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="85" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -14406,10 +14951,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="83"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="84" t="s">
         <v>127</v>
       </c>
@@ -14420,8 +14965,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -14444,7 +14989,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="87">
         <v>43715</v>
       </c>
@@ -14458,7 +15003,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="68">
-        <f t="shared" ref="E6:E48" si="0">C6-B6-(D6/24/60)</f>
+        <f t="shared" ref="E6:E49" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -14468,7 +15013,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="88">
         <v>43727</v>
       </c>
@@ -14492,7 +15037,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="87">
         <v>43727</v>
       </c>
@@ -14516,7 +15061,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="87">
         <v>43728</v>
       </c>
@@ -14540,7 +15085,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="87" t="s">
         <v>142</v>
       </c>
@@ -14564,7 +15109,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="87">
         <v>43735</v>
       </c>
@@ -14588,7 +15133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="87">
         <v>43737</v>
       </c>
@@ -14612,7 +15157,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="87">
         <v>43738</v>
       </c>
@@ -14636,7 +15181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="87">
         <v>43739</v>
       </c>
@@ -14660,7 +15205,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="89">
         <v>43739</v>
       </c>
@@ -14684,7 +15229,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="87">
         <v>43744</v>
       </c>
@@ -14708,7 +15253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="87">
         <v>43744</v>
       </c>
@@ -14732,7 +15277,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="87">
         <v>43744</v>
       </c>
@@ -14756,7 +15301,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -14780,7 +15325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -14804,7 +15349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -14828,7 +15373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -14852,7 +15397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="87">
         <v>43751</v>
       </c>
@@ -14876,7 +15421,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A24" s="87">
         <v>43751</v>
       </c>
@@ -14900,7 +15445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="87">
         <v>43752</v>
       </c>
@@ -14924,7 +15469,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="87">
         <v>43752</v>
       </c>
@@ -14948,7 +15493,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="87">
         <v>43753</v>
       </c>
@@ -14972,7 +15517,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="90">
         <v>43753</v>
       </c>
@@ -14996,7 +15541,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="90">
         <v>43754</v>
       </c>
@@ -15020,7 +15565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="90">
         <v>43754</v>
       </c>
@@ -15044,7 +15589,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="90">
         <v>43755</v>
       </c>
@@ -15068,7 +15613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="47">
         <v>43755</v>
       </c>
@@ -15092,7 +15637,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="90">
         <v>43755</v>
       </c>
@@ -15116,7 +15661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="47">
         <v>43755</v>
       </c>
@@ -15140,7 +15685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="87">
         <v>43760</v>
       </c>
@@ -15164,7 +15709,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="87">
         <v>43762</v>
       </c>
@@ -15188,7 +15733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="47">
         <v>43764</v>
       </c>
@@ -15212,7 +15757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="87">
         <v>43765</v>
       </c>
@@ -15236,7 +15781,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="50">
         <v>43767</v>
       </c>
@@ -15260,7 +15805,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="87">
         <v>43768</v>
       </c>
@@ -15284,7 +15829,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="87">
         <v>43768</v>
       </c>
@@ -15308,7 +15853,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="50">
         <v>43769</v>
       </c>
@@ -15332,7 +15877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="35">
         <v>43770</v>
       </c>
@@ -15356,7 +15901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="35">
         <v>43770</v>
       </c>
@@ -15380,7 +15925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="35">
         <v>43772</v>
       </c>
@@ -15400,11 +15945,11 @@
       <c r="F45" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="110" t="s">
+      <c r="G45" s="112" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="35">
         <v>43772</v>
       </c>
@@ -15424,9 +15969,9 @@
       <c r="F46" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="111"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="G46" s="113"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="87">
         <v>43779</v>
       </c>
@@ -15450,7 +15995,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="87">
         <v>43782</v>
       </c>
@@ -15474,16 +16019,31 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="49"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="35">
+        <v>43783</v>
+      </c>
+      <c r="B49" s="51">
+        <v>0.4375</v>
+      </c>
+      <c r="C49" s="51">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D49" s="32">
+        <v>0</v>
+      </c>
+      <c r="E49" s="58">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="F49" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" s="115" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="35"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -15492,7 +16052,7 @@
       <c r="F50" s="44"/>
       <c r="G50" s="49"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="35"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -15501,7 +16061,7 @@
       <c r="F51" s="44"/>
       <c r="G51" s="49"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="35"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -15510,7 +16070,7 @@
       <c r="F52" s="44"/>
       <c r="G52" s="49"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="35"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -15519,7 +16079,7 @@
       <c r="F53" s="44"/>
       <c r="G53" s="49"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="35"/>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
@@ -15528,7 +16088,7 @@
       <c r="F54" s="44"/>
       <c r="G54" s="49"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="35"/>
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
@@ -15537,7 +16097,7 @@
       <c r="F55" s="44"/>
       <c r="G55" s="49"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="35"/>
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
@@ -15546,7 +16106,7 @@
       <c r="F56" s="44"/>
       <c r="G56" s="49"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="35"/>
       <c r="B57" s="51"/>
       <c r="C57" s="51"/>
@@ -15555,7 +16115,7 @@
       <c r="F57" s="44"/>
       <c r="G57" s="49"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="35"/>
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
@@ -15564,7 +16124,7 @@
       <c r="F58" s="44"/>
       <c r="G58" s="49"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="35"/>
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
@@ -15573,7 +16133,7 @@
       <c r="F59" s="44"/>
       <c r="G59" s="49"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="35"/>
       <c r="B60" s="51"/>
       <c r="C60" s="51"/>
@@ -15582,7 +16142,7 @@
       <c r="F60" s="44"/>
       <c r="G60" s="49"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="35"/>
       <c r="B61" s="51"/>
       <c r="C61" s="51"/>
@@ -15591,7 +16151,7 @@
       <c r="F61" s="44"/>
       <c r="G61" s="49"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="35"/>
       <c r="B62" s="51"/>
       <c r="C62" s="51"/>
@@ -15600,7 +16160,7 @@
       <c r="F62" s="44"/>
       <c r="G62" s="49"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="35"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
@@ -15609,7 +16169,7 @@
       <c r="F63" s="44"/>
       <c r="G63" s="49"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="35"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
@@ -15618,7 +16178,7 @@
       <c r="F64" s="44"/>
       <c r="G64" s="49"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="35"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
@@ -15627,7 +16187,7 @@
       <c r="F65" s="44"/>
       <c r="G65" s="49"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="35"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
@@ -15636,7 +16196,7 @@
       <c r="F66" s="44"/>
       <c r="G66" s="49"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="35"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
@@ -15645,7 +16205,7 @@
       <c r="F67" s="44"/>
       <c r="G67" s="49"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="35"/>
       <c r="B68" s="51"/>
       <c r="C68" s="51"/>
@@ -15654,7 +16214,7 @@
       <c r="F68" s="44"/>
       <c r="G68" s="49"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="35"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
@@ -15663,7 +16223,7 @@
       <c r="F69" s="44"/>
       <c r="G69" s="49"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="35"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
@@ -15672,7 +16232,7 @@
       <c r="F70" s="44"/>
       <c r="G70" s="49"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="35"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
@@ -15681,7 +16241,7 @@
       <c r="F71" s="44"/>
       <c r="G71" s="49"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="35"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
@@ -15690,7 +16250,7 @@
       <c r="F72" s="44"/>
       <c r="G72" s="49"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="35"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
@@ -15699,7 +16259,7 @@
       <c r="F73" s="44"/>
       <c r="G73" s="49"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="35"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
@@ -15708,7 +16268,7 @@
       <c r="F74" s="44"/>
       <c r="G74" s="49"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="35"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
@@ -15717,7 +16277,7 @@
       <c r="F75" s="44"/>
       <c r="G75" s="49"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="35"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
@@ -15726,7 +16286,7 @@
       <c r="F76" s="44"/>
       <c r="G76" s="49"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="35"/>
       <c r="B77" s="51"/>
       <c r="C77" s="51"/>
@@ -15735,7 +16295,7 @@
       <c r="F77" s="44"/>
       <c r="G77" s="49"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="35"/>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
@@ -15744,7 +16304,7 @@
       <c r="F78" s="44"/>
       <c r="G78" s="49"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="35"/>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
@@ -15753,7 +16313,7 @@
       <c r="F79" s="44"/>
       <c r="G79" s="49"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="35"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
@@ -15762,7 +16322,7 @@
       <c r="F80" s="44"/>
       <c r="G80" s="49"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="35"/>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
@@ -15771,7 +16331,7 @@
       <c r="F81" s="44"/>
       <c r="G81" s="49"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="35"/>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
@@ -15780,7 +16340,7 @@
       <c r="F82" s="44"/>
       <c r="G82" s="49"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="35"/>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
@@ -15789,7 +16349,7 @@
       <c r="F83" s="44"/>
       <c r="G83" s="49"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="35"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
@@ -15798,7 +16358,7 @@
       <c r="F84" s="44"/>
       <c r="G84" s="49"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="35"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
@@ -15807,7 +16367,7 @@
       <c r="F85" s="44"/>
       <c r="G85" s="49"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="35"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
@@ -15816,7 +16376,7 @@
       <c r="F86" s="44"/>
       <c r="G86" s="49"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="35"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
@@ -15825,7 +16385,7 @@
       <c r="F87" s="44"/>
       <c r="G87" s="49"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="35"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
@@ -15834,7 +16394,7 @@
       <c r="F88" s="44"/>
       <c r="G88" s="49"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="35"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
@@ -15843,7 +16403,7 @@
       <c r="F89" s="44"/>
       <c r="G89" s="49"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="35"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
@@ -15852,7 +16412,7 @@
       <c r="F90" s="44"/>
       <c r="G90" s="49"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="35"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
@@ -15861,7 +16421,7 @@
       <c r="F91" s="44"/>
       <c r="G91" s="49"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="35"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
@@ -15870,7 +16430,7 @@
       <c r="F92" s="44"/>
       <c r="G92" s="49"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="35"/>
       <c r="B93" s="51"/>
       <c r="C93" s="51"/>
@@ -15879,7 +16439,7 @@
       <c r="F93" s="44"/>
       <c r="G93" s="49"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="35"/>
       <c r="B94" s="51"/>
       <c r="C94" s="51"/>
@@ -15888,7 +16448,7 @@
       <c r="F94" s="44"/>
       <c r="G94" s="49"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="35"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51"/>
@@ -15897,7 +16457,7 @@
       <c r="F95" s="44"/>
       <c r="G95" s="49"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="35"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51"/>
@@ -15906,7 +16466,7 @@
       <c r="F96" s="44"/>
       <c r="G96" s="49"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="35"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51"/>
@@ -15915,7 +16475,7 @@
       <c r="F97" s="44"/>
       <c r="G97" s="49"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="35"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51"/>
@@ -15924,7 +16484,7 @@
       <c r="F98" s="44"/>
       <c r="G98" s="49"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="35"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51"/>
@@ -15933,7 +16493,7 @@
       <c r="F99" s="44"/>
       <c r="G99" s="49"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="35"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51"/>
@@ -15965,17 +16525,17 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -15988,10 +16548,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -16002,8 +16562,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -16026,7 +16586,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="87" t="s">
         <v>137</v>
       </c>
@@ -16050,7 +16610,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="88" t="s">
         <v>125</v>
       </c>
@@ -16074,7 +16634,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="87" t="s">
         <v>125</v>
       </c>
@@ -16098,7 +16658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="87" t="s">
         <v>144</v>
       </c>
@@ -16122,7 +16682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="87" t="s">
         <v>142</v>
       </c>
@@ -16146,7 +16706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="88" t="s">
         <v>135</v>
       </c>
@@ -16170,7 +16730,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="87" t="s">
         <v>134</v>
       </c>
@@ -16194,7 +16754,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="87" t="s">
         <v>128</v>
       </c>
@@ -16218,7 +16778,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="87" t="s">
         <v>131</v>
       </c>
@@ -16242,7 +16802,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -16266,7 +16826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -16290,7 +16850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -16314,7 +16874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="95">
         <v>43749</v>
       </c>
@@ -16338,7 +16898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="87" t="s">
         <v>133</v>
       </c>
@@ -16362,7 +16922,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="87" t="s">
         <v>123</v>
       </c>
@@ -16386,7 +16946,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="47">
         <v>43755</v>
       </c>
@@ -16410,7 +16970,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="47">
         <v>43755</v>
       </c>
@@ -16434,7 +16994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="47">
         <v>43762</v>
       </c>
@@ -16458,7 +17018,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="95" t="s">
         <v>100</v>
       </c>
@@ -16482,7 +17042,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="47">
         <v>43764</v>
       </c>
@@ -16506,7 +17066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="87" t="s">
         <v>130</v>
       </c>
@@ -16530,7 +17090,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="50">
         <v>43767</v>
       </c>
@@ -16554,7 +17114,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="50">
         <v>43769</v>
       </c>
@@ -16578,7 +17138,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="50">
         <v>43769</v>
       </c>
@@ -16602,7 +17162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="87" t="s">
         <v>140</v>
       </c>
@@ -16626,7 +17186,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="87" t="s">
         <v>146</v>
       </c>
@@ -16649,7 +17209,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="87" t="s">
         <v>147</v>
       </c>
@@ -16672,7 +17232,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="87">
         <v>43782</v>
       </c>
@@ -16682,21 +17242,21 @@
       <c r="C33" s="51">
         <v>0.75</v>
       </c>
-      <c r="D33" s="113">
+      <c r="D33" s="111">
         <v>0</v>
       </c>
       <c r="E33" s="58">
         <f t="shared" ref="E33" si="1">C33-B33-(D33/24/60)</f>
         <v>6.25E-2</v>
       </c>
-      <c r="F33" s="113" t="s">
+      <c r="F33" s="111" t="s">
         <v>177</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="87"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -16705,7 +17265,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="87"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -16714,7 +17274,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="87"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -16723,7 +17283,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="87"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -16732,7 +17292,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="87"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -16741,7 +17301,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="87"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -16750,7 +17310,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="87"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -16759,7 +17319,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="87"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -16768,7 +17328,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="87"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -16777,7 +17337,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="87"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -16786,7 +17346,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="87"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -16795,7 +17355,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="91"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -16804,7 +17364,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="91"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최재영\Desktop\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389E18F6-5B46-49C6-B2A8-406A359B3EF4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26835" windowHeight="12015" activeTab="4"/>
+    <workbookView xWindow="2490" yWindow="1860" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,25 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -206,12 +215,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -225,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -388,12 +397,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -407,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -570,12 +579,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -589,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -752,12 +761,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -771,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -934,12 +943,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -953,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="184">
   <si>
     <r>
       <rPr>
@@ -10000,12 +10009,208 @@
       <t>준비</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software Architecture Document 1.0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고도화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문서화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -10154,7 +10359,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -10399,23 +10604,26 @@
     <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3"/>
+    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10721,7 +10929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N72"/>
   <sheetViews>
@@ -12177,12 +12385,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12260,7 +12468,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="68">
-        <f t="shared" ref="E6:E29" si="0">C6-B6-(D6/24/60)</f>
+        <f t="shared" ref="E6:E30" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -12816,21 +13024,35 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F29" s="102" t="s">
-        <v>14</v>
+      <c r="F29" s="112" t="s">
+        <v>182</v>
       </c>
       <c r="G29" s="37" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="87"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="2"/>
+    <row r="30" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="116" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="51">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C30" s="51">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D30" s="32">
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
+        <v>90</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="37" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="87"/>
@@ -12979,7 +13201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
@@ -14158,11 +14380,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
@@ -14920,12 +15142,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15945,7 +16167,7 @@
       <c r="F45" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="112" t="s">
+      <c r="G45" s="114" t="s">
         <v>83</v>
       </c>
     </row>
@@ -15969,7 +16191,7 @@
       <c r="F46" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="113"/>
+      <c r="G46" s="115"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="87">
@@ -16036,10 +16258,10 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F49" s="114" t="s">
+      <c r="F49" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="G49" s="115" t="s">
+      <c r="G49" s="113" t="s">
         <v>180</v>
       </c>
     </row>
@@ -16517,11 +16739,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389E18F6-5B46-49C6-B2A8-406A359B3EF4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424917A8-BAFE-4DD3-83EA-A0CC1DB0FE06}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1860" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="186">
   <si>
     <r>
       <rPr>
@@ -10058,6 +10058,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -10076,6 +10077,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -10094,6 +10096,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -10112,6 +10115,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -10130,6 +10134,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -10148,6 +10153,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -10166,6 +10172,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -10184,6 +10191,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -10202,9 +10210,30 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>Software Architecture Document 1.0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SAD - Coding Guideline 파트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 작성</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10359,7 +10388,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -10608,14 +10637,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10937,19 +10969,19 @@
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="87" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="51" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="87" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="51" customWidth="1"/>
     <col min="3" max="3" width="7" style="51" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="58" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" style="39" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="58" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" style="39" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="96" t="s">
         <v>41</v>
       </c>
@@ -10962,10 +10994,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
         <v>127</v>
       </c>
@@ -10976,8 +11008,8 @@
       <c r="E3" s="77"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="98" t="s">
         <v>129</v>
       </c>
@@ -11000,7 +11032,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="87">
         <v>43714</v>
       </c>
@@ -11024,7 +11056,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="95">
         <v>43714</v>
       </c>
@@ -11048,7 +11080,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="87">
         <v>43715</v>
       </c>
@@ -11072,7 +11104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87">
         <v>43716</v>
       </c>
@@ -11096,7 +11128,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="95">
         <v>43717</v>
       </c>
@@ -11120,7 +11152,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="88">
         <v>43727</v>
       </c>
@@ -11144,7 +11176,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="87">
         <v>43727</v>
       </c>
@@ -11168,7 +11200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="88">
         <v>43728</v>
       </c>
@@ -11192,7 +11224,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="87">
         <v>43728</v>
       </c>
@@ -11216,7 +11248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="87">
         <v>43729</v>
       </c>
@@ -11240,7 +11272,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="87">
         <v>43732</v>
       </c>
@@ -11264,7 +11296,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="87">
         <v>43736</v>
       </c>
@@ -11288,7 +11320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="87">
         <v>43737</v>
       </c>
@@ -11312,7 +11344,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="87">
         <v>43739</v>
       </c>
@@ -11336,7 +11368,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="89">
         <v>43742</v>
       </c>
@@ -11360,7 +11392,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="89">
         <v>43742</v>
       </c>
@@ -11384,7 +11416,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="89">
         <v>43746</v>
       </c>
@@ -11408,7 +11440,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="89">
         <v>43748</v>
       </c>
@@ -11432,7 +11464,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="95">
         <v>43749</v>
       </c>
@@ -11456,7 +11488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="89">
         <v>43751</v>
       </c>
@@ -11480,7 +11512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="89">
         <v>43755</v>
       </c>
@@ -11504,7 +11536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="89">
         <v>43755</v>
       </c>
@@ -11528,7 +11560,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="89">
         <v>43755</v>
       </c>
@@ -11552,7 +11584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="89">
         <v>43761</v>
       </c>
@@ -11576,7 +11608,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="89">
         <v>43762</v>
       </c>
@@ -11600,7 +11632,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="89">
         <v>43762</v>
       </c>
@@ -11624,7 +11656,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="89">
         <v>43763</v>
       </c>
@@ -11648,7 +11680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="89">
         <v>43763</v>
       </c>
@@ -11672,7 +11704,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="89">
         <v>43764</v>
       </c>
@@ -11696,7 +11728,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="89">
         <v>43764</v>
       </c>
@@ -11720,7 +11752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="89">
         <v>43764</v>
       </c>
@@ -11744,7 +11776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="89">
         <v>43765</v>
       </c>
@@ -11768,7 +11800,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="89">
         <v>43765</v>
       </c>
@@ -11792,7 +11824,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="95">
         <v>43766</v>
       </c>
@@ -11816,7 +11848,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="95">
         <v>43767</v>
       </c>
@@ -11840,7 +11872,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="95">
         <v>43769</v>
       </c>
@@ -11864,7 +11896,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="95">
         <v>43769</v>
       </c>
@@ -11888,7 +11920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="95">
         <v>43769</v>
       </c>
@@ -11912,7 +11944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="87">
         <v>43770</v>
       </c>
@@ -11936,7 +11968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="87">
         <v>43770</v>
       </c>
@@ -11960,7 +11992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="87">
         <v>43770</v>
       </c>
@@ -11984,7 +12016,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="87">
         <v>43770</v>
       </c>
@@ -12008,7 +12040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="95" t="s">
         <v>138</v>
       </c>
@@ -12032,7 +12064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="99" t="s">
         <v>138</v>
       </c>
@@ -12056,7 +12088,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="87">
         <v>43774</v>
       </c>
@@ -12080,7 +12112,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="87">
         <v>43774</v>
       </c>
@@ -12104,7 +12136,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="87">
         <v>43775</v>
       </c>
@@ -12128,7 +12160,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="87">
         <v>43776</v>
       </c>
@@ -12152,7 +12184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="87">
         <v>43776</v>
       </c>
@@ -12176,7 +12208,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="87">
         <v>43778</v>
       </c>
@@ -12200,7 +12232,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="87">
         <v>43779</v>
       </c>
@@ -12224,7 +12256,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="87">
         <v>43780</v>
       </c>
@@ -12248,7 +12280,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="87">
         <v>43781</v>
       </c>
@@ -12272,7 +12304,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="87">
         <v>43781</v>
       </c>
@@ -12296,7 +12328,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="87">
         <v>43781</v>
       </c>
@@ -12320,7 +12352,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="87">
         <v>43782</v>
       </c>
@@ -12344,7 +12376,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="87">
         <v>43782</v>
       </c>
@@ -12368,7 +12400,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N72" s="107">
         <v>43783</v>
       </c>
@@ -12389,21 +12421,21 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="55.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -12416,10 +12448,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -12430,8 +12462,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:10" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -12454,7 +12486,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="87" t="s">
         <v>137</v>
       </c>
@@ -12468,7 +12500,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="68">
-        <f t="shared" ref="E6:E30" si="0">C6-B6-(D6/24/60)</f>
+        <f t="shared" ref="E6:E29" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -12478,7 +12510,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="88" t="s">
         <v>125</v>
       </c>
@@ -12502,7 +12534,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
         <v>125</v>
       </c>
@@ -12526,7 +12558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87" t="s">
         <v>144</v>
       </c>
@@ -12550,7 +12582,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="87" t="s">
         <v>142</v>
       </c>
@@ -12574,7 +12606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="87" t="s">
         <v>118</v>
       </c>
@@ -12598,7 +12630,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="89" t="s">
         <v>120</v>
       </c>
@@ -12623,7 +12655,7 @@
       </c>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="89" t="s">
         <v>124</v>
       </c>
@@ -12647,7 +12679,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="89" t="s">
         <v>131</v>
       </c>
@@ -12671,7 +12703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -12695,7 +12727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -12719,7 +12751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -12743,7 +12775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="50">
         <v>43749</v>
       </c>
@@ -12767,7 +12799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="47">
         <v>43755</v>
       </c>
@@ -12791,7 +12823,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="47">
         <v>43755</v>
       </c>
@@ -12815,7 +12847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="87" t="s">
         <v>121</v>
       </c>
@@ -12839,7 +12871,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47">
         <v>43764</v>
       </c>
@@ -12863,7 +12895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47">
         <v>43765</v>
       </c>
@@ -12887,7 +12919,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50">
         <v>43767</v>
       </c>
@@ -12911,7 +12943,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -12935,7 +12967,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50">
         <v>43769</v>
       </c>
@@ -12959,7 +12991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="99" t="s">
         <v>145</v>
       </c>
@@ -12983,7 +13015,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="87">
         <v>43779</v>
       </c>
@@ -13007,7 +13039,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="87">
         <v>43782</v>
       </c>
@@ -13031,8 +13063,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="116" t="s">
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A30" s="114" t="s">
         <v>181</v>
       </c>
       <c r="B30" s="51">
@@ -13054,7 +13086,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="87"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -13063,7 +13095,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="87"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -13072,7 +13104,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="87"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -13081,7 +13113,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="87"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -13090,7 +13122,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="87"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -13099,7 +13131,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="87"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -13108,7 +13140,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="87"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -13117,7 +13149,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="87"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -13126,7 +13158,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="87"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -13135,7 +13167,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="87"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -13144,7 +13176,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="87"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -13153,7 +13185,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="87"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -13162,7 +13194,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="87"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -13171,7 +13203,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="91"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -13180,7 +13212,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="91"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -13205,21 +13237,21 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -13232,10 +13264,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>127</v>
       </c>
@@ -13246,8 +13278,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>129</v>
       </c>
@@ -13270,7 +13302,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>43715</v>
       </c>
@@ -13284,7 +13316,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="68">
-        <f t="shared" ref="E6:E44" si="0">C6-B6-(D6/24/60)</f>
+        <f t="shared" ref="E6:E45" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -13294,7 +13326,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>43727</v>
       </c>
@@ -13318,7 +13350,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>43727</v>
       </c>
@@ -13342,7 +13374,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>43728</v>
       </c>
@@ -13366,7 +13398,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>43732</v>
       </c>
@@ -13390,7 +13422,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>43735</v>
       </c>
@@ -13414,7 +13446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>43736</v>
       </c>
@@ -13438,7 +13470,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>43737</v>
       </c>
@@ -13462,7 +13494,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>43739</v>
       </c>
@@ -13486,7 +13518,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>43739</v>
       </c>
@@ -13510,7 +13542,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>43743</v>
       </c>
@@ -13534,7 +13566,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>43744</v>
       </c>
@@ -13558,7 +13590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>43745</v>
       </c>
@@ -13582,7 +13614,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -13606,7 +13638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -13630,7 +13662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -13654,7 +13686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -13678,7 +13710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="35">
         <v>43750</v>
       </c>
@@ -13702,7 +13734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35">
         <v>43751</v>
       </c>
@@ -13726,7 +13758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>43751</v>
       </c>
@@ -13750,7 +13782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35">
         <v>43753</v>
       </c>
@@ -13774,7 +13806,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="47">
         <v>43755</v>
       </c>
@@ -13798,7 +13830,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="47">
         <v>43755</v>
       </c>
@@ -13822,7 +13854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>43760</v>
       </c>
@@ -13846,7 +13878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47">
         <v>43764</v>
       </c>
@@ -13870,7 +13902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>43765</v>
       </c>
@@ -13894,7 +13926,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50">
         <v>43767</v>
       </c>
@@ -13918,7 +13950,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="50">
         <v>43769</v>
       </c>
@@ -13942,7 +13974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="35">
         <v>43770</v>
       </c>
@@ -13966,7 +13998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>43771</v>
       </c>
@@ -13990,7 +14022,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>43772</v>
       </c>
@@ -14014,7 +14046,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>43775</v>
       </c>
@@ -14038,7 +14070,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>43777</v>
       </c>
@@ -14062,7 +14094,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>43778</v>
       </c>
@@ -14086,7 +14118,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>43779</v>
       </c>
@@ -14110,7 +14142,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>43779</v>
       </c>
@@ -14134,7 +14166,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="87">
         <v>43779</v>
       </c>
@@ -14158,7 +14190,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>43780</v>
       </c>
@@ -14182,7 +14214,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="87">
         <v>43782</v>
       </c>
@@ -14206,17 +14238,32 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="87">
+        <v>43782</v>
+      </c>
+      <c r="B45" s="51">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C45" s="51">
+        <v>0.9375</v>
+      </c>
+      <c r="D45" s="32">
+        <v>50</v>
+      </c>
+      <c r="E45" s="58">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444406E-2</v>
+      </c>
+      <c r="F45" s="117" t="s">
+        <v>184</v>
+      </c>
+      <c r="G45" s="113" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="87"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
       <c r="D46" s="32"/>
@@ -14224,7 +14271,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -14233,7 +14280,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="39"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -14242,7 +14289,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="39"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="39"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -14251,7 +14298,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="39"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -14260,7 +14307,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="39"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -14269,7 +14316,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="39"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="39"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -14278,7 +14325,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="39"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -14287,7 +14334,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="39"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="39"/>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
@@ -14296,7 +14343,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="39"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
@@ -14305,7 +14352,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="39"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
@@ -14314,7 +14361,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="39"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="51"/>
       <c r="C57" s="51"/>
@@ -14323,7 +14370,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="39"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
@@ -14332,7 +14379,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="39"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
@@ -14341,7 +14388,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="39"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="51"/>
       <c r="C60" s="51"/>
@@ -14350,7 +14397,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="39"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="51"/>
       <c r="C61" s="51"/>
@@ -14359,7 +14406,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="39"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="51"/>
       <c r="C62" s="51"/>
@@ -14388,17 +14435,17 @@
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="65" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="65" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -14411,10 +14458,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -14425,8 +14472,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -14449,7 +14496,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="88" t="s">
         <v>125</v>
       </c>
@@ -14473,7 +14520,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="87" t="s">
         <v>125</v>
       </c>
@@ -14497,7 +14544,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
         <v>144</v>
       </c>
@@ -14521,7 +14568,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87" t="s">
         <v>142</v>
       </c>
@@ -14545,7 +14592,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="87" t="s">
         <v>118</v>
       </c>
@@ -14569,7 +14616,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="87" t="s">
         <v>134</v>
       </c>
@@ -14593,7 +14640,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="89">
         <v>43746</v>
       </c>
@@ -14617,7 +14664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="89">
         <v>43748</v>
       </c>
@@ -14641,7 +14688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="87">
         <v>43749</v>
       </c>
@@ -14665,7 +14712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="50">
         <v>43749</v>
       </c>
@@ -14689,7 +14736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="94" t="s">
         <v>139</v>
       </c>
@@ -14713,7 +14760,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="47">
         <v>43755</v>
       </c>
@@ -14737,7 +14784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47">
         <v>43762</v>
       </c>
@@ -14761,7 +14808,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="94" t="s">
         <v>136</v>
       </c>
@@ -14785,7 +14832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="94" t="s">
         <v>141</v>
       </c>
@@ -14809,7 +14856,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47">
         <v>43764</v>
       </c>
@@ -14833,7 +14880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="87" t="s">
         <v>130</v>
       </c>
@@ -14857,7 +14904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50">
         <v>43767</v>
       </c>
@@ -14881,7 +14928,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50">
         <v>43769</v>
       </c>
@@ -14905,7 +14952,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -14929,7 +14976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="35">
         <v>43770</v>
       </c>
@@ -14953,7 +15000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="87">
         <v>43779</v>
       </c>
@@ -14977,7 +15024,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="87"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -14986,7 +15033,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="87"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -14995,7 +15042,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="87"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -15004,7 +15051,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="87"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -15013,7 +15060,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="87"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -15022,7 +15069,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="87"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -15031,7 +15078,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="87"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -15040,7 +15087,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="87"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -15049,7 +15096,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="87"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -15058,7 +15105,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="87"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -15067,7 +15114,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="87"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -15076,7 +15123,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="87"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -15085,7 +15132,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="87"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -15094,7 +15141,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="87"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -15103,7 +15150,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="87"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -15112,7 +15159,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="91"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -15121,7 +15168,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="91"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -15150,17 +15197,17 @@
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="85" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -15173,10 +15220,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="83"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>127</v>
       </c>
@@ -15187,8 +15234,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -15211,7 +15258,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="87">
         <v>43715</v>
       </c>
@@ -15235,7 +15282,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="88">
         <v>43727</v>
       </c>
@@ -15259,7 +15306,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="87">
         <v>43727</v>
       </c>
@@ -15283,7 +15330,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="87">
         <v>43728</v>
       </c>
@@ -15307,7 +15354,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="87" t="s">
         <v>142</v>
       </c>
@@ -15331,7 +15378,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="87">
         <v>43735</v>
       </c>
@@ -15355,7 +15402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="87">
         <v>43737</v>
       </c>
@@ -15379,7 +15426,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="87">
         <v>43738</v>
       </c>
@@ -15403,7 +15450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="87">
         <v>43739</v>
       </c>
@@ -15427,7 +15474,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="89">
         <v>43739</v>
       </c>
@@ -15451,7 +15498,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="87">
         <v>43744</v>
       </c>
@@ -15475,7 +15522,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="87">
         <v>43744</v>
       </c>
@@ -15499,7 +15546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="87">
         <v>43744</v>
       </c>
@@ -15523,7 +15570,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -15547,7 +15594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -15571,7 +15618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -15595,7 +15642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -15619,7 +15666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="87">
         <v>43751</v>
       </c>
@@ -15643,7 +15690,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="87">
         <v>43751</v>
       </c>
@@ -15667,7 +15714,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="87">
         <v>43752</v>
       </c>
@@ -15691,7 +15738,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="87">
         <v>43752</v>
       </c>
@@ -15715,7 +15762,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="87">
         <v>43753</v>
       </c>
@@ -15739,7 +15786,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="90">
         <v>43753</v>
       </c>
@@ -15763,7 +15810,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="90">
         <v>43754</v>
       </c>
@@ -15787,7 +15834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="90">
         <v>43754</v>
       </c>
@@ -15811,7 +15858,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="90">
         <v>43755</v>
       </c>
@@ -15835,7 +15882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="47">
         <v>43755</v>
       </c>
@@ -15859,7 +15906,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="90">
         <v>43755</v>
       </c>
@@ -15883,7 +15930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="47">
         <v>43755</v>
       </c>
@@ -15907,7 +15954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="87">
         <v>43760</v>
       </c>
@@ -15931,7 +15978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="87">
         <v>43762</v>
       </c>
@@ -15955,7 +16002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47">
         <v>43764</v>
       </c>
@@ -15979,7 +16026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="87">
         <v>43765</v>
       </c>
@@ -16003,7 +16050,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50">
         <v>43767</v>
       </c>
@@ -16027,7 +16074,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="87">
         <v>43768</v>
       </c>
@@ -16051,7 +16098,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="87">
         <v>43768</v>
       </c>
@@ -16075,7 +16122,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50">
         <v>43769</v>
       </c>
@@ -16099,7 +16146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>43770</v>
       </c>
@@ -16123,7 +16170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>43770</v>
       </c>
@@ -16147,7 +16194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>43772</v>
       </c>
@@ -16167,11 +16214,11 @@
       <c r="F45" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="114" t="s">
+      <c r="G45" s="115" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="35">
         <v>43772</v>
       </c>
@@ -16191,9 +16238,9 @@
       <c r="F46" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="115"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G46" s="116"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="87">
         <v>43779</v>
       </c>
@@ -16217,7 +16264,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="87">
         <v>43782</v>
       </c>
@@ -16241,7 +16288,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>43783</v>
       </c>
@@ -16265,7 +16312,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="35"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -16274,7 +16321,7 @@
       <c r="F50" s="44"/>
       <c r="G50" s="49"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="35"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -16283,7 +16330,7 @@
       <c r="F51" s="44"/>
       <c r="G51" s="49"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -16292,7 +16339,7 @@
       <c r="F52" s="44"/>
       <c r="G52" s="49"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -16301,7 +16348,7 @@
       <c r="F53" s="44"/>
       <c r="G53" s="49"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
@@ -16310,7 +16357,7 @@
       <c r="F54" s="44"/>
       <c r="G54" s="49"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
@@ -16319,7 +16366,7 @@
       <c r="F55" s="44"/>
       <c r="G55" s="49"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
@@ -16328,7 +16375,7 @@
       <c r="F56" s="44"/>
       <c r="G56" s="49"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
       <c r="B57" s="51"/>
       <c r="C57" s="51"/>
@@ -16337,7 +16384,7 @@
       <c r="F57" s="44"/>
       <c r="G57" s="49"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
@@ -16346,7 +16393,7 @@
       <c r="F58" s="44"/>
       <c r="G58" s="49"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="35"/>
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
@@ -16355,7 +16402,7 @@
       <c r="F59" s="44"/>
       <c r="G59" s="49"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
       <c r="B60" s="51"/>
       <c r="C60" s="51"/>
@@ -16364,7 +16411,7 @@
       <c r="F60" s="44"/>
       <c r="G60" s="49"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="35"/>
       <c r="B61" s="51"/>
       <c r="C61" s="51"/>
@@ -16373,7 +16420,7 @@
       <c r="F61" s="44"/>
       <c r="G61" s="49"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="35"/>
       <c r="B62" s="51"/>
       <c r="C62" s="51"/>
@@ -16382,7 +16429,7 @@
       <c r="F62" s="44"/>
       <c r="G62" s="49"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
@@ -16391,7 +16438,7 @@
       <c r="F63" s="44"/>
       <c r="G63" s="49"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="35"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
@@ -16400,7 +16447,7 @@
       <c r="F64" s="44"/>
       <c r="G64" s="49"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="35"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
@@ -16409,7 +16456,7 @@
       <c r="F65" s="44"/>
       <c r="G65" s="49"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="35"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
@@ -16418,7 +16465,7 @@
       <c r="F66" s="44"/>
       <c r="G66" s="49"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="35"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
@@ -16427,7 +16474,7 @@
       <c r="F67" s="44"/>
       <c r="G67" s="49"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="35"/>
       <c r="B68" s="51"/>
       <c r="C68" s="51"/>
@@ -16436,7 +16483,7 @@
       <c r="F68" s="44"/>
       <c r="G68" s="49"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="35"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
@@ -16445,7 +16492,7 @@
       <c r="F69" s="44"/>
       <c r="G69" s="49"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="35"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
@@ -16454,7 +16501,7 @@
       <c r="F70" s="44"/>
       <c r="G70" s="49"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="35"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
@@ -16463,7 +16510,7 @@
       <c r="F71" s="44"/>
       <c r="G71" s="49"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="35"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
@@ -16472,7 +16519,7 @@
       <c r="F72" s="44"/>
       <c r="G72" s="49"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="35"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
@@ -16481,7 +16528,7 @@
       <c r="F73" s="44"/>
       <c r="G73" s="49"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="35"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
@@ -16490,7 +16537,7 @@
       <c r="F74" s="44"/>
       <c r="G74" s="49"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="35"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
@@ -16499,7 +16546,7 @@
       <c r="F75" s="44"/>
       <c r="G75" s="49"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="35"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
@@ -16508,7 +16555,7 @@
       <c r="F76" s="44"/>
       <c r="G76" s="49"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="35"/>
       <c r="B77" s="51"/>
       <c r="C77" s="51"/>
@@ -16517,7 +16564,7 @@
       <c r="F77" s="44"/>
       <c r="G77" s="49"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="35"/>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
@@ -16526,7 +16573,7 @@
       <c r="F78" s="44"/>
       <c r="G78" s="49"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="35"/>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
@@ -16535,7 +16582,7 @@
       <c r="F79" s="44"/>
       <c r="G79" s="49"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="35"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
@@ -16544,7 +16591,7 @@
       <c r="F80" s="44"/>
       <c r="G80" s="49"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="35"/>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
@@ -16553,7 +16600,7 @@
       <c r="F81" s="44"/>
       <c r="G81" s="49"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="35"/>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
@@ -16562,7 +16609,7 @@
       <c r="F82" s="44"/>
       <c r="G82" s="49"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="35"/>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
@@ -16571,7 +16618,7 @@
       <c r="F83" s="44"/>
       <c r="G83" s="49"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="35"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
@@ -16580,7 +16627,7 @@
       <c r="F84" s="44"/>
       <c r="G84" s="49"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="35"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
@@ -16589,7 +16636,7 @@
       <c r="F85" s="44"/>
       <c r="G85" s="49"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="35"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
@@ -16598,7 +16645,7 @@
       <c r="F86" s="44"/>
       <c r="G86" s="49"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="35"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
@@ -16607,7 +16654,7 @@
       <c r="F87" s="44"/>
       <c r="G87" s="49"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="35"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
@@ -16616,7 +16663,7 @@
       <c r="F88" s="44"/>
       <c r="G88" s="49"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="35"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
@@ -16625,7 +16672,7 @@
       <c r="F89" s="44"/>
       <c r="G89" s="49"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="35"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
@@ -16634,7 +16681,7 @@
       <c r="F90" s="44"/>
       <c r="G90" s="49"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="35"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
@@ -16643,7 +16690,7 @@
       <c r="F91" s="44"/>
       <c r="G91" s="49"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="35"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
@@ -16652,7 +16699,7 @@
       <c r="F92" s="44"/>
       <c r="G92" s="49"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="35"/>
       <c r="B93" s="51"/>
       <c r="C93" s="51"/>
@@ -16661,7 +16708,7 @@
       <c r="F93" s="44"/>
       <c r="G93" s="49"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="35"/>
       <c r="B94" s="51"/>
       <c r="C94" s="51"/>
@@ -16670,7 +16717,7 @@
       <c r="F94" s="44"/>
       <c r="G94" s="49"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="35"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51"/>
@@ -16679,7 +16726,7 @@
       <c r="F95" s="44"/>
       <c r="G95" s="49"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="35"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51"/>
@@ -16688,7 +16735,7 @@
       <c r="F96" s="44"/>
       <c r="G96" s="49"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="35"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51"/>
@@ -16697,7 +16744,7 @@
       <c r="F97" s="44"/>
       <c r="G97" s="49"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="35"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51"/>
@@ -16706,7 +16753,7 @@
       <c r="F98" s="44"/>
       <c r="G98" s="49"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="35"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51"/>
@@ -16715,7 +16762,7 @@
       <c r="F99" s="44"/>
       <c r="G99" s="49"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="35"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51"/>
@@ -16747,17 +16794,17 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -16770,10 +16817,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -16784,8 +16831,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -16808,7 +16855,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="87" t="s">
         <v>137</v>
       </c>
@@ -16832,7 +16879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="88" t="s">
         <v>125</v>
       </c>
@@ -16856,7 +16903,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
         <v>125</v>
       </c>
@@ -16880,7 +16927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87" t="s">
         <v>144</v>
       </c>
@@ -16904,7 +16951,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="87" t="s">
         <v>142</v>
       </c>
@@ -16928,7 +16975,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="88" t="s">
         <v>135</v>
       </c>
@@ -16952,7 +16999,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="87" t="s">
         <v>134</v>
       </c>
@@ -16976,7 +17023,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="87" t="s">
         <v>128</v>
       </c>
@@ -17000,7 +17047,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="87" t="s">
         <v>131</v>
       </c>
@@ -17024,7 +17071,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -17048,7 +17095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -17072,7 +17119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -17096,7 +17143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="95">
         <v>43749</v>
       </c>
@@ -17120,7 +17167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="87" t="s">
         <v>133</v>
       </c>
@@ -17144,7 +17191,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="87" t="s">
         <v>123</v>
       </c>
@@ -17168,7 +17215,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="47">
         <v>43755</v>
       </c>
@@ -17192,7 +17239,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="47">
         <v>43755</v>
       </c>
@@ -17216,7 +17263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47">
         <v>43762</v>
       </c>
@@ -17240,7 +17287,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="95" t="s">
         <v>100</v>
       </c>
@@ -17264,7 +17311,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47">
         <v>43764</v>
       </c>
@@ -17288,7 +17335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="87" t="s">
         <v>130</v>
       </c>
@@ -17312,7 +17359,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50">
         <v>43767</v>
       </c>
@@ -17336,7 +17383,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50">
         <v>43769</v>
       </c>
@@ -17360,7 +17407,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50">
         <v>43769</v>
       </c>
@@ -17384,7 +17431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="87" t="s">
         <v>140</v>
       </c>
@@ -17408,7 +17455,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="87" t="s">
         <v>146</v>
       </c>
@@ -17431,7 +17478,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="87" t="s">
         <v>147</v>
       </c>
@@ -17454,7 +17501,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="87">
         <v>43782</v>
       </c>
@@ -17478,7 +17525,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="87"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -17487,7 +17534,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="87"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -17496,7 +17543,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="87"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -17505,7 +17552,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="87"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -17514,7 +17561,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="87"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -17523,7 +17570,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="87"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -17532,7 +17579,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="87"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -17541,7 +17588,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="87"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -17550,7 +17597,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="87"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -17559,7 +17606,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="87"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -17568,7 +17615,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="87"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -17577,7 +17624,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="91"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -17586,7 +17633,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="91"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424917A8-BAFE-4DD3-83EA-A0CC1DB0FE06}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,12 +214,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -397,12 +396,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -579,12 +578,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -598,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -761,12 +760,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -780,7 +779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -943,12 +942,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -962,7 +961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="191">
   <si>
     <r>
       <rPr>
@@ -10232,6 +10231,216 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 작성</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project Documentation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업데이트</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>종강까지 스케줄 공유 자료</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SAD 1.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>준비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천로직</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도큐먼트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Project Documentation (SRS,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> SAD) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업데이트</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10239,7 +10448,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -10388,7 +10597,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -10640,22 +10849,25 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="백분율 2" xfId="4"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="표준 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10961,12 +11173,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11814,7 +12026,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="58">
-        <f t="shared" ref="E38:E62" si="1">C38-B38-(D38/24/60)</f>
+        <f t="shared" ref="E38:E64" si="1">C38-B38-(D38/24/60)</f>
         <v>9.7222222220605337E-2</v>
       </c>
       <c r="F38" s="32" t="s">
@@ -12373,7 +12585,7 @@
         <v>14</v>
       </c>
       <c r="G61" s="37" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
@@ -12398,6 +12610,54 @@
       </c>
       <c r="G62" s="37" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="87">
+        <v>43785</v>
+      </c>
+      <c r="B63" s="51">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C63" s="51">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D63" s="32">
+        <v>10</v>
+      </c>
+      <c r="E63" s="58">
+        <f t="shared" si="1"/>
+        <v>3.4722222222222182E-2</v>
+      </c>
+      <c r="F63" s="118" t="s">
+        <v>187</v>
+      </c>
+      <c r="G63" s="37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="87">
+        <v>43785</v>
+      </c>
+      <c r="B64" s="51">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C64" s="51">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D64" s="32">
+        <v>20</v>
+      </c>
+      <c r="E64" s="58">
+        <f t="shared" si="1"/>
+        <v>0.13888888888888878</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G64" s="113" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="14:14" x14ac:dyDescent="0.25">
@@ -12417,7 +12677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
@@ -13233,12 +13493,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14255,7 +14515,7 @@
         <f t="shared" si="0"/>
         <v>6.9444444444444406E-2</v>
       </c>
-      <c r="F45" s="117" t="s">
+      <c r="F45" s="115" t="s">
         <v>184</v>
       </c>
       <c r="G45" s="113" t="s">
@@ -14427,7 +14687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -15189,7 +15449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
@@ -16214,7 +16474,7 @@
       <c r="F45" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="115" t="s">
+      <c r="G45" s="116" t="s">
         <v>83</v>
       </c>
     </row>
@@ -16238,7 +16498,7 @@
       <c r="F46" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="116"/>
+      <c r="G46" s="117"/>
     </row>
     <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="87">
@@ -16786,7 +17046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1124,7 +1124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="191">
   <si>
     <r>
       <rPr>
@@ -10852,14 +10852,14 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -11177,8 +11177,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12026,7 +12026,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="58">
-        <f t="shared" ref="E38:E64" si="1">C38-B38-(D38/24/60)</f>
+        <f t="shared" ref="E38:E66" si="1">C38-B38-(D38/24/60)</f>
         <v>9.7222222220605337E-2</v>
       </c>
       <c r="F38" s="32" t="s">
@@ -12629,7 +12629,7 @@
         <f t="shared" si="1"/>
         <v>3.4722222222222182E-2</v>
       </c>
-      <c r="F63" s="118" t="s">
+      <c r="F63" s="116" t="s">
         <v>187</v>
       </c>
       <c r="G63" s="37" t="s">
@@ -12660,7 +12660,55 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A65" s="87">
+        <v>43785</v>
+      </c>
+      <c r="B65" s="51">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C65" s="51">
+        <v>1.1180555555555556</v>
+      </c>
+      <c r="D65" s="32">
+        <v>30</v>
+      </c>
+      <c r="E65" s="58">
+        <f t="shared" si="1"/>
+        <v>0.11805555555555562</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G65" s="113" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A66" s="87">
+        <v>43786</v>
+      </c>
+      <c r="B66" s="51">
+        <v>1.0138888888888888</v>
+      </c>
+      <c r="C66" s="51">
+        <v>1.125</v>
+      </c>
+      <c r="D66" s="32">
+        <v>0</v>
+      </c>
+      <c r="E66" s="58">
+        <f t="shared" si="1"/>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G66" s="113" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N72" s="107">
         <v>43783</v>
       </c>
@@ -16474,7 +16522,7 @@
       <c r="F45" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="116" t="s">
+      <c r="G45" s="117" t="s">
         <v>83</v>
       </c>
     </row>
@@ -16498,7 +16546,7 @@
       <c r="F46" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="117"/>
+      <c r="G46" s="118"/>
     </row>
     <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="87">

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinwo\Desktop\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1129F68-8D19-4F05-97EC-F72D8F4B0D2D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -214,12 +215,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -396,12 +397,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -578,12 +579,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -597,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -760,12 +761,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -779,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -942,12 +943,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -961,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="192">
   <si>
     <r>
       <rPr>
@@ -10441,6 +10442,22 @@
         <charset val="129"/>
       </rPr>
       <t>업데이트</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11 월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 15일</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10448,7 +10465,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -10864,10 +10881,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3"/>
+    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11173,12 +11190,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B45" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView topLeftCell="B45" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12725,7 +12742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
@@ -13541,7 +13558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
@@ -14735,7 +14752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -15497,7 +15514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
@@ -17094,12 +17111,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17833,14 +17850,28 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="87"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="2"/>
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="114" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="51">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C34" s="51">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D34" s="32">
+        <v>30</v>
+      </c>
+      <c r="E34" s="116">
+        <v>150</v>
+      </c>
+      <c r="F34" s="111" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="87"/>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinwo\Desktop\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1129F68-8D19-4F05-97EC-F72D8F4B0D2D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,12 +214,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -397,12 +396,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -579,12 +578,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -598,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -761,12 +760,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -780,7 +779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -943,12 +942,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -962,7 +961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="193">
   <si>
     <r>
       <rPr>
@@ -10458,6 +10457,49 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 15일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Project Documentation (SRS,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> SAD) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10465,7 +10507,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -10881,10 +10923,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="백분율 2" xfId="4"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="표준 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11190,12 +11232,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView topLeftCell="B45" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A48" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12043,7 +12085,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="58">
-        <f t="shared" ref="E38:E66" si="1">C38-B38-(D38/24/60)</f>
+        <f t="shared" ref="E38:E67" si="1">C38-B38-(D38/24/60)</f>
         <v>9.7222222220605337E-2</v>
       </c>
       <c r="F38" s="32" t="s">
@@ -12725,10 +12767,32 @@
         <v>190</v>
       </c>
     </row>
+    <row r="67" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A67" s="87">
+        <v>43788</v>
+      </c>
+      <c r="B67" s="51">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="C67" s="51">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D67" s="32">
+        <v>20</v>
+      </c>
+      <c r="E67" s="58">
+        <f t="shared" si="1"/>
+        <v>0.2708333333333332</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G67" s="113" t="s">
+        <v>192</v>
+      </c>
+    </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N72" s="107">
-        <v>43783</v>
-      </c>
+      <c r="N72" s="107"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -12742,7 +12806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
@@ -13558,7 +13622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
@@ -14752,7 +14816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -15514,7 +15578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
@@ -17111,12 +17175,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinwo\Desktop\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D338C67-B2E4-4BCF-AB56-772BB9F3CC83}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -214,12 +215,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -396,12 +397,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -578,12 +579,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -597,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -760,12 +761,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -779,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -942,12 +943,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -961,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="194">
   <si>
     <r>
       <rPr>
@@ -10500,6 +10501,22 @@
         <charset val="129"/>
       </rPr>
       <t>수정</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 19일</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10507,7 +10524,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -10923,10 +10940,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3"/>
+    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11232,7 +11249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N72"/>
   <sheetViews>
@@ -12806,7 +12823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
@@ -13622,7 +13639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
@@ -14816,7 +14833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -15578,7 +15595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
@@ -17175,12 +17192,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17938,13 +17955,27 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="87"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="2"/>
+      <c r="A35" s="114" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="51">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C35" s="51">
+        <v>0.8125</v>
+      </c>
+      <c r="D35" s="32">
+        <v>30</v>
+      </c>
+      <c r="E35" s="116">
+        <v>120</v>
+      </c>
+      <c r="F35" s="111" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="87"/>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinwo\Desktop\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choijaeyoung/Desktop/babalzza-master/Project Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D338C67-B2E4-4BCF-AB56-772BB9F3CC83}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FE7190-A0F6-234E-BFD5-4E4C96A071DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22080" windowHeight="13180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="196">
   <si>
     <r>
       <rPr>
@@ -10254,6 +10254,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Data Set </t>
     </r>
@@ -10430,6 +10431,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> SAD) </t>
     </r>
@@ -10470,6 +10472,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> SAD) </t>
     </r>
@@ -10518,6 +10521,14 @@
       </rPr>
       <t xml:space="preserve"> 19일</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 개발</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>식재료 관리(UD Database method 생성)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10531,7 +10542,7 @@
     <numFmt numFmtId="178" formatCode="h:mm;@"/>
     <numFmt numFmtId="179" formatCode="[m]"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -11257,19 +11268,19 @@
       <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="87" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="87" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="51" customWidth="1"/>
     <col min="3" max="3" width="7" style="51" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="58" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="46.5" style="39" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>41</v>
       </c>
@@ -11282,10 +11293,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="97" t="s">
         <v>127</v>
       </c>
@@ -11296,8 +11307,8 @@
       <c r="E3" s="77"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="98" t="s">
         <v>129</v>
       </c>
@@ -11320,7 +11331,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="87">
         <v>43714</v>
       </c>
@@ -11344,7 +11355,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="95">
         <v>43714</v>
       </c>
@@ -11368,7 +11379,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="87">
         <v>43715</v>
       </c>
@@ -11392,7 +11403,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="87">
         <v>43716</v>
       </c>
@@ -11416,7 +11427,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="95">
         <v>43717</v>
       </c>
@@ -11440,7 +11451,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="88">
         <v>43727</v>
       </c>
@@ -11464,7 +11475,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12" s="87">
         <v>43727</v>
       </c>
@@ -11488,7 +11499,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" s="88">
         <v>43728</v>
       </c>
@@ -11512,7 +11523,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14">
       <c r="A14" s="87">
         <v>43728</v>
       </c>
@@ -11536,7 +11547,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="A15" s="87">
         <v>43729</v>
       </c>
@@ -11560,7 +11571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="A16" s="87">
         <v>43732</v>
       </c>
@@ -11584,7 +11595,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="87">
         <v>43736</v>
       </c>
@@ -11608,7 +11619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="87">
         <v>43737</v>
       </c>
@@ -11632,7 +11643,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14">
       <c r="A19" s="87">
         <v>43739</v>
       </c>
@@ -11656,7 +11667,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1">
       <c r="A20" s="89">
         <v>43742</v>
       </c>
@@ -11680,7 +11691,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1">
       <c r="A21" s="89">
         <v>43742</v>
       </c>
@@ -11704,7 +11715,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1">
       <c r="A22" s="89">
         <v>43746</v>
       </c>
@@ -11728,7 +11739,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14">
       <c r="A23" s="89">
         <v>43748</v>
       </c>
@@ -11752,7 +11763,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14">
       <c r="A24" s="95">
         <v>43749</v>
       </c>
@@ -11776,7 +11787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="89">
         <v>43751</v>
       </c>
@@ -11800,7 +11811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14">
       <c r="A26" s="89">
         <v>43755</v>
       </c>
@@ -11824,7 +11835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14">
       <c r="A27" s="89">
         <v>43755</v>
       </c>
@@ -11848,7 +11859,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14">
       <c r="A28" s="89">
         <v>43755</v>
       </c>
@@ -11872,7 +11883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14">
       <c r="A29" s="89">
         <v>43761</v>
       </c>
@@ -11896,7 +11907,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="89">
         <v>43762</v>
       </c>
@@ -11920,7 +11931,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="89">
         <v>43762</v>
       </c>
@@ -11944,7 +11955,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32" s="89">
         <v>43763</v>
       </c>
@@ -11968,7 +11979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1">
       <c r="A33" s="89">
         <v>43763</v>
       </c>
@@ -11992,7 +12003,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1">
       <c r="A34" s="89">
         <v>43764</v>
       </c>
@@ -12016,7 +12027,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="89">
         <v>43764</v>
       </c>
@@ -12040,7 +12051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="89">
         <v>43764</v>
       </c>
@@ -12064,7 +12075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1">
       <c r="A37" s="89">
         <v>43765</v>
       </c>
@@ -12088,7 +12099,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="89">
         <v>43765</v>
       </c>
@@ -12112,7 +12123,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="95">
         <v>43766</v>
       </c>
@@ -12136,7 +12147,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="14.5" customHeight="1">
       <c r="A40" s="95">
         <v>43767</v>
       </c>
@@ -12160,7 +12171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="14.5" customHeight="1">
       <c r="A41" s="95">
         <v>43769</v>
       </c>
@@ -12184,7 +12195,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1">
       <c r="A42" s="95">
         <v>43769</v>
       </c>
@@ -12208,7 +12219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" s="95">
         <v>43769</v>
       </c>
@@ -12232,7 +12243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1">
       <c r="A44" s="87">
         <v>43770</v>
       </c>
@@ -12256,7 +12267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1">
       <c r="A45" s="87">
         <v>43770</v>
       </c>
@@ -12280,7 +12291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="14">
       <c r="A46" s="87">
         <v>43770</v>
       </c>
@@ -12304,7 +12315,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="14">
       <c r="A47" s="87">
         <v>43770</v>
       </c>
@@ -12328,7 +12339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="14">
       <c r="A48" s="95" t="s">
         <v>138</v>
       </c>
@@ -12352,7 +12363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="14">
       <c r="A49" s="99" t="s">
         <v>138</v>
       </c>
@@ -12376,7 +12387,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="14">
       <c r="A50" s="87">
         <v>43774</v>
       </c>
@@ -12400,7 +12411,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="14">
       <c r="A51" s="87">
         <v>43774</v>
       </c>
@@ -12424,7 +12435,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="14">
       <c r="A52" s="87">
         <v>43775</v>
       </c>
@@ -12448,7 +12459,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="14">
       <c r="A53" s="87">
         <v>43776</v>
       </c>
@@ -12472,7 +12483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="14">
       <c r="A54" s="87">
         <v>43776</v>
       </c>
@@ -12496,7 +12507,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="14">
       <c r="A55" s="87">
         <v>43778</v>
       </c>
@@ -12520,7 +12531,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="14">
       <c r="A56" s="87">
         <v>43779</v>
       </c>
@@ -12544,7 +12555,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="14">
       <c r="A57" s="87">
         <v>43780</v>
       </c>
@@ -12568,7 +12579,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="14">
       <c r="A58" s="87">
         <v>43781</v>
       </c>
@@ -12592,7 +12603,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="14">
       <c r="A59" s="87">
         <v>43781</v>
       </c>
@@ -12616,7 +12627,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="14">
       <c r="A60" s="87">
         <v>43781</v>
       </c>
@@ -12640,7 +12651,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="14">
       <c r="A61" s="87">
         <v>43782</v>
       </c>
@@ -12664,7 +12675,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="14">
       <c r="A62" s="87">
         <v>43782</v>
       </c>
@@ -12688,7 +12699,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="14">
       <c r="A63" s="87">
         <v>43785</v>
       </c>
@@ -12712,7 +12723,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="14">
       <c r="A64" s="87">
         <v>43785</v>
       </c>
@@ -12736,7 +12747,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="14">
       <c r="A65" s="87">
         <v>43785</v>
       </c>
@@ -12760,7 +12771,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="14">
       <c r="A66" s="87">
         <v>43786</v>
       </c>
@@ -12784,7 +12795,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="14">
       <c r="A67" s="87">
         <v>43788</v>
       </c>
@@ -12808,7 +12819,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14">
       <c r="N72" s="107"/>
     </row>
   </sheetData>
@@ -12831,17 +12842,17 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -12854,10 +12865,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="11.75" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="11.75" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -12868,8 +12879,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:10" s="7" customFormat="1" ht="28">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -12892,7 +12903,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" s="87" t="s">
         <v>137</v>
       </c>
@@ -12916,7 +12927,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="88" t="s">
         <v>125</v>
       </c>
@@ -12940,7 +12951,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="87" t="s">
         <v>125</v>
       </c>
@@ -12964,7 +12975,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" s="87" t="s">
         <v>144</v>
       </c>
@@ -12988,7 +12999,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="87" t="s">
         <v>142</v>
       </c>
@@ -13012,7 +13023,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" s="87" t="s">
         <v>118</v>
       </c>
@@ -13036,7 +13047,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" s="89" t="s">
         <v>120</v>
       </c>
@@ -13061,7 +13072,7 @@
       </c>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="89" t="s">
         <v>124</v>
       </c>
@@ -13085,7 +13096,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="89" t="s">
         <v>131</v>
       </c>
@@ -13109,7 +13120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -13133,7 +13144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -13157,7 +13168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -13181,7 +13192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14">
       <c r="A18" s="50">
         <v>43749</v>
       </c>
@@ -13205,7 +13216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14">
       <c r="A19" s="47">
         <v>43755</v>
       </c>
@@ -13229,7 +13240,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="14">
       <c r="A20" s="47">
         <v>43755</v>
       </c>
@@ -13253,7 +13264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1">
       <c r="A21" s="87" t="s">
         <v>121</v>
       </c>
@@ -13277,7 +13288,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1">
       <c r="A22" s="47">
         <v>43764</v>
       </c>
@@ -13301,7 +13312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="47">
         <v>43765</v>
       </c>
@@ -13325,7 +13336,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="50">
         <v>43767</v>
       </c>
@@ -13349,7 +13360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="14.5" customHeight="1">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -13373,7 +13384,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1">
       <c r="A26" s="50">
         <v>43769</v>
       </c>
@@ -13397,7 +13408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15">
       <c r="A27" s="99" t="s">
         <v>145</v>
       </c>
@@ -13421,7 +13432,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14">
       <c r="A28" s="87">
         <v>43779</v>
       </c>
@@ -13445,7 +13456,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14">
       <c r="A29" s="87">
         <v>43782</v>
       </c>
@@ -13469,7 +13480,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="15">
       <c r="A30" s="114" t="s">
         <v>181</v>
       </c>
@@ -13492,7 +13503,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="87"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -13501,7 +13512,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="87"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -13510,7 +13521,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="87"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -13519,7 +13530,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1">
       <c r="A34" s="87"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -13528,7 +13539,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="87"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -13537,7 +13548,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="87"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -13546,7 +13557,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1">
       <c r="A37" s="87"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -13555,7 +13566,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="87"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -13564,7 +13575,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="87"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -13573,7 +13584,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="87"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -13582,7 +13593,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="87"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -13591,7 +13602,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1">
       <c r="A42" s="87"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -13600,7 +13611,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" s="87"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -13609,7 +13620,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -13618,7 +13629,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -13647,17 +13658,17 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -13670,10 +13681,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>127</v>
       </c>
@@ -13684,8 +13695,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="8" t="s">
         <v>129</v>
       </c>
@@ -13708,7 +13719,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="10">
         <v>43715</v>
       </c>
@@ -13732,7 +13743,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="11">
         <v>43727</v>
       </c>
@@ -13756,7 +13767,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="10">
         <v>43727</v>
       </c>
@@ -13780,7 +13791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="10">
         <v>43728</v>
       </c>
@@ -13804,7 +13815,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="35">
         <v>43732</v>
       </c>
@@ -13828,7 +13839,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="20">
         <v>43735</v>
       </c>
@@ -13852,7 +13863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12" s="21">
         <v>43736</v>
       </c>
@@ -13876,7 +13887,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" s="20">
         <v>43737</v>
       </c>
@@ -13900,7 +13911,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14">
       <c r="A14" s="10">
         <v>43739</v>
       </c>
@@ -13924,7 +13935,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14">
       <c r="A15" s="35">
         <v>43739</v>
       </c>
@@ -13948,7 +13959,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="A16" s="35">
         <v>43743</v>
       </c>
@@ -13972,7 +13983,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="35">
         <v>43744</v>
       </c>
@@ -13996,7 +14007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="35">
         <v>43745</v>
       </c>
@@ -14020,7 +14031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -14044,7 +14055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -14068,7 +14079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -14092,7 +14103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -14116,7 +14127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="35">
         <v>43750</v>
       </c>
@@ -14140,7 +14151,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="35">
         <v>43751</v>
       </c>
@@ -14164,7 +14175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="35">
         <v>43751</v>
       </c>
@@ -14188,7 +14199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1">
       <c r="A26" s="35">
         <v>43753</v>
       </c>
@@ -14212,7 +14223,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14">
       <c r="A27" s="47">
         <v>43755</v>
       </c>
@@ -14236,7 +14247,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14">
       <c r="A28" s="47">
         <v>43755</v>
       </c>
@@ -14260,7 +14271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14">
       <c r="A29" s="10">
         <v>43760</v>
       </c>
@@ -14284,7 +14295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="47">
         <v>43764</v>
       </c>
@@ -14308,7 +14319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="10">
         <v>43765</v>
       </c>
@@ -14332,7 +14343,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32" s="50">
         <v>43767</v>
       </c>
@@ -14356,7 +14367,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1">
       <c r="A33" s="50">
         <v>43769</v>
       </c>
@@ -14380,7 +14391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14">
       <c r="A34" s="35">
         <v>43770</v>
       </c>
@@ -14404,7 +14415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="10">
         <v>43771</v>
       </c>
@@ -14428,7 +14439,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="10">
         <v>43772</v>
       </c>
@@ -14452,7 +14463,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1">
       <c r="A37" s="10">
         <v>43775</v>
       </c>
@@ -14476,7 +14487,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="10">
         <v>43777</v>
       </c>
@@ -14500,7 +14511,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="10">
         <v>43778</v>
       </c>
@@ -14524,7 +14535,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="10">
         <v>43779</v>
       </c>
@@ -14548,7 +14559,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="10">
         <v>43779</v>
       </c>
@@ -14572,7 +14583,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="14">
       <c r="A42" s="87">
         <v>43779</v>
       </c>
@@ -14596,7 +14607,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" s="10">
         <v>43780</v>
       </c>
@@ -14620,7 +14631,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14">
       <c r="A44" s="87">
         <v>43782</v>
       </c>
@@ -14644,7 +14655,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1">
       <c r="A45" s="87">
         <v>43782</v>
       </c>
@@ -14668,7 +14679,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="87"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -14677,7 +14688,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="39"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -14686,7 +14697,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="39"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="39"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -14695,7 +14706,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="39"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="39"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -14704,7 +14715,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="39"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="39"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -14713,7 +14724,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="39"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="39"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -14722,7 +14733,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="39"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="39"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -14731,7 +14742,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="39"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="39"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -14740,7 +14751,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="39"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="39"/>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
@@ -14749,7 +14760,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="39"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="39"/>
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
@@ -14758,7 +14769,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="39"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="39"/>
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
@@ -14767,7 +14778,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="39"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="39"/>
       <c r="B57" s="51"/>
       <c r="C57" s="51"/>
@@ -14776,7 +14787,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="39"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="39"/>
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
@@ -14785,7 +14796,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="39"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="39"/>
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
@@ -14794,7 +14805,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="39"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="39"/>
       <c r="B60" s="51"/>
       <c r="C60" s="51"/>
@@ -14803,7 +14814,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="39"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="39"/>
       <c r="B61" s="51"/>
       <c r="C61" s="51"/>
@@ -14812,7 +14823,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="39"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="39"/>
       <c r="B62" s="51"/>
       <c r="C62" s="51"/>
@@ -14841,17 +14852,17 @@
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="65" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="65" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -14864,10 +14875,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -14878,8 +14889,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -14902,7 +14913,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="88" t="s">
         <v>125</v>
       </c>
@@ -14926,7 +14937,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="87" t="s">
         <v>125</v>
       </c>
@@ -14950,7 +14961,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="87" t="s">
         <v>144</v>
       </c>
@@ -14974,7 +14985,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="87" t="s">
         <v>142</v>
       </c>
@@ -14998,7 +15009,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="87" t="s">
         <v>118</v>
       </c>
@@ -15022,7 +15033,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="87" t="s">
         <v>134</v>
       </c>
@@ -15046,7 +15057,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="89">
         <v>43746</v>
       </c>
@@ -15070,7 +15081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" s="89">
         <v>43748</v>
       </c>
@@ -15094,7 +15105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15">
       <c r="A14" s="87">
         <v>43749</v>
       </c>
@@ -15118,7 +15129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14">
       <c r="A15" s="50">
         <v>43749</v>
       </c>
@@ -15142,7 +15153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="A16" s="94" t="s">
         <v>139</v>
       </c>
@@ -15166,7 +15177,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14">
       <c r="A17" s="47">
         <v>43755</v>
       </c>
@@ -15190,7 +15201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="47">
         <v>43762</v>
       </c>
@@ -15214,7 +15225,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" s="94" t="s">
         <v>136</v>
       </c>
@@ -15238,7 +15249,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="94" t="s">
         <v>141</v>
       </c>
@@ -15262,7 +15273,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1">
       <c r="A21" s="47">
         <v>43764</v>
       </c>
@@ -15286,7 +15297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1">
       <c r="A22" s="87" t="s">
         <v>130</v>
       </c>
@@ -15310,7 +15321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="50">
         <v>43767</v>
       </c>
@@ -15334,7 +15345,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" customHeight="1">
       <c r="A24" s="50">
         <v>43769</v>
       </c>
@@ -15358,7 +15369,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -15382,7 +15393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14">
       <c r="A26" s="35">
         <v>43770</v>
       </c>
@@ -15406,7 +15417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14">
       <c r="A27" s="87">
         <v>43779</v>
       </c>
@@ -15430,7 +15441,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1">
       <c r="A28" s="87"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -15439,7 +15450,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="87"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -15448,7 +15459,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="87"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -15457,7 +15468,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="87"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -15466,7 +15477,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="87"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -15475,7 +15486,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1">
       <c r="A33" s="87"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -15484,7 +15495,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1">
       <c r="A34" s="87"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -15493,7 +15504,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="87"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -15502,7 +15513,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="87"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -15511,7 +15522,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1">
       <c r="A37" s="87"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -15520,7 +15531,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="87"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -15529,7 +15540,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="87"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -15538,7 +15549,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="87"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -15547,7 +15558,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="87"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -15556,7 +15567,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1">
       <c r="A42" s="87"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -15565,7 +15576,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" s="91"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -15574,7 +15585,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -15599,21 +15610,21 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
     <col min="6" max="6" width="38.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -15626,10 +15637,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="83"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="84" t="s">
         <v>127</v>
       </c>
@@ -15640,8 +15651,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -15664,7 +15675,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14">
       <c r="A6" s="87">
         <v>43715</v>
       </c>
@@ -15678,7 +15689,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="68">
-        <f t="shared" ref="E6:E49" si="0">C6-B6-(D6/24/60)</f>
+        <f t="shared" ref="E6:E50" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -15688,7 +15699,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14">
       <c r="A7" s="88">
         <v>43727</v>
       </c>
@@ -15712,7 +15723,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14">
       <c r="A8" s="87">
         <v>43727</v>
       </c>
@@ -15736,7 +15747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14">
       <c r="A9" s="87">
         <v>43728</v>
       </c>
@@ -15760,7 +15771,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="87" t="s">
         <v>142</v>
       </c>
@@ -15784,7 +15795,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14">
       <c r="A11" s="87">
         <v>43735</v>
       </c>
@@ -15808,7 +15819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14">
       <c r="A12" s="87">
         <v>43737</v>
       </c>
@@ -15832,7 +15843,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14">
       <c r="A13" s="87">
         <v>43738</v>
       </c>
@@ -15856,7 +15867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14">
       <c r="A14" s="87">
         <v>43739</v>
       </c>
@@ -15880,7 +15891,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14">
       <c r="A15" s="89">
         <v>43739</v>
       </c>
@@ -15904,7 +15915,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14">
       <c r="A16" s="87">
         <v>43744</v>
       </c>
@@ -15928,7 +15939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14">
       <c r="A17" s="87">
         <v>43744</v>
       </c>
@@ -15952,7 +15963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14">
       <c r="A18" s="87">
         <v>43744</v>
       </c>
@@ -15976,7 +15987,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -16000,7 +16011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -16024,7 +16035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -16048,7 +16059,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -16072,7 +16083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14">
       <c r="A23" s="87">
         <v>43751</v>
       </c>
@@ -16096,7 +16107,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="87">
         <v>43751</v>
       </c>
@@ -16120,7 +16131,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="87">
         <v>43752</v>
       </c>
@@ -16144,7 +16155,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="87">
         <v>43752</v>
       </c>
@@ -16168,7 +16179,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14">
       <c r="A27" s="87">
         <v>43753</v>
       </c>
@@ -16192,7 +16203,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1">
       <c r="A28" s="90">
         <v>43753</v>
       </c>
@@ -16216,7 +16227,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14">
       <c r="A29" s="90">
         <v>43754</v>
       </c>
@@ -16240,7 +16251,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="14">
       <c r="A30" s="90">
         <v>43754</v>
       </c>
@@ -16264,7 +16275,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="90">
         <v>43755</v>
       </c>
@@ -16288,7 +16299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14">
       <c r="A32" s="47">
         <v>43755</v>
       </c>
@@ -16312,7 +16323,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14.5" customHeight="1">
       <c r="A33" s="90">
         <v>43755</v>
       </c>
@@ -16336,7 +16347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14">
       <c r="A34" s="47">
         <v>43755</v>
       </c>
@@ -16360,7 +16371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="87">
         <v>43760</v>
       </c>
@@ -16384,7 +16395,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="87">
         <v>43762</v>
       </c>
@@ -16408,7 +16419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1">
       <c r="A37" s="47">
         <v>43764</v>
       </c>
@@ -16432,7 +16443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="87">
         <v>43765</v>
       </c>
@@ -16456,7 +16467,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="50">
         <v>43767</v>
       </c>
@@ -16480,7 +16491,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="87">
         <v>43768</v>
       </c>
@@ -16504,7 +16515,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="87">
         <v>43768</v>
       </c>
@@ -16528,7 +16539,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1">
       <c r="A42" s="50">
         <v>43769</v>
       </c>
@@ -16552,7 +16563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" s="35">
         <v>43770</v>
       </c>
@@ -16576,7 +16587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14">
       <c r="A44" s="35">
         <v>43770</v>
       </c>
@@ -16600,7 +16611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="35">
         <v>43772</v>
       </c>
@@ -16624,7 +16635,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="14">
       <c r="A46" s="35">
         <v>43772</v>
       </c>
@@ -16646,7 +16657,7 @@
       </c>
       <c r="G46" s="118"/>
     </row>
-    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="14">
       <c r="A47" s="87">
         <v>43779</v>
       </c>
@@ -16670,7 +16681,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="14">
       <c r="A48" s="87">
         <v>43782</v>
       </c>
@@ -16694,7 +16705,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="14">
       <c r="A49" s="35">
         <v>43783</v>
       </c>
@@ -16718,16 +16729,31 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="49"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
+      <c r="A50" s="35">
+        <v>43791</v>
+      </c>
+      <c r="B50" s="51">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C50" s="51">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D50" s="32">
+        <v>0</v>
+      </c>
+      <c r="E50" s="58">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F50" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="G50" s="113" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="35"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -16736,7 +16762,7 @@
       <c r="F51" s="44"/>
       <c r="G51" s="49"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="35"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -16745,7 +16771,7 @@
       <c r="F52" s="44"/>
       <c r="G52" s="49"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="35"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -16754,7 +16780,7 @@
       <c r="F53" s="44"/>
       <c r="G53" s="49"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="35"/>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
@@ -16763,7 +16789,7 @@
       <c r="F54" s="44"/>
       <c r="G54" s="49"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="35"/>
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
@@ -16772,7 +16798,7 @@
       <c r="F55" s="44"/>
       <c r="G55" s="49"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="35"/>
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
@@ -16781,7 +16807,7 @@
       <c r="F56" s="44"/>
       <c r="G56" s="49"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="35"/>
       <c r="B57" s="51"/>
       <c r="C57" s="51"/>
@@ -16790,7 +16816,7 @@
       <c r="F57" s="44"/>
       <c r="G57" s="49"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="35"/>
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
@@ -16799,7 +16825,7 @@
       <c r="F58" s="44"/>
       <c r="G58" s="49"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="35"/>
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
@@ -16808,7 +16834,7 @@
       <c r="F59" s="44"/>
       <c r="G59" s="49"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="35"/>
       <c r="B60" s="51"/>
       <c r="C60" s="51"/>
@@ -16817,7 +16843,7 @@
       <c r="F60" s="44"/>
       <c r="G60" s="49"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="35"/>
       <c r="B61" s="51"/>
       <c r="C61" s="51"/>
@@ -16826,7 +16852,7 @@
       <c r="F61" s="44"/>
       <c r="G61" s="49"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="35"/>
       <c r="B62" s="51"/>
       <c r="C62" s="51"/>
@@ -16835,7 +16861,7 @@
       <c r="F62" s="44"/>
       <c r="G62" s="49"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="35"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
@@ -16844,7 +16870,7 @@
       <c r="F63" s="44"/>
       <c r="G63" s="49"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="35"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
@@ -16853,7 +16879,7 @@
       <c r="F64" s="44"/>
       <c r="G64" s="49"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="35"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
@@ -16862,7 +16888,7 @@
       <c r="F65" s="44"/>
       <c r="G65" s="49"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="35"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
@@ -16871,7 +16897,7 @@
       <c r="F66" s="44"/>
       <c r="G66" s="49"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="35"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
@@ -16880,7 +16906,7 @@
       <c r="F67" s="44"/>
       <c r="G67" s="49"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="35"/>
       <c r="B68" s="51"/>
       <c r="C68" s="51"/>
@@ -16889,7 +16915,7 @@
       <c r="F68" s="44"/>
       <c r="G68" s="49"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="35"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
@@ -16898,7 +16924,7 @@
       <c r="F69" s="44"/>
       <c r="G69" s="49"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="35"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
@@ -16907,7 +16933,7 @@
       <c r="F70" s="44"/>
       <c r="G70" s="49"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="35"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
@@ -16916,7 +16942,7 @@
       <c r="F71" s="44"/>
       <c r="G71" s="49"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="35"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
@@ -16925,7 +16951,7 @@
       <c r="F72" s="44"/>
       <c r="G72" s="49"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="35"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
@@ -16934,7 +16960,7 @@
       <c r="F73" s="44"/>
       <c r="G73" s="49"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="35"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
@@ -16943,7 +16969,7 @@
       <c r="F74" s="44"/>
       <c r="G74" s="49"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="35"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
@@ -16952,7 +16978,7 @@
       <c r="F75" s="44"/>
       <c r="G75" s="49"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="35"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
@@ -16961,7 +16987,7 @@
       <c r="F76" s="44"/>
       <c r="G76" s="49"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="35"/>
       <c r="B77" s="51"/>
       <c r="C77" s="51"/>
@@ -16970,7 +16996,7 @@
       <c r="F77" s="44"/>
       <c r="G77" s="49"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="35"/>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
@@ -16979,7 +17005,7 @@
       <c r="F78" s="44"/>
       <c r="G78" s="49"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="35"/>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
@@ -16988,7 +17014,7 @@
       <c r="F79" s="44"/>
       <c r="G79" s="49"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="35"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
@@ -16997,7 +17023,7 @@
       <c r="F80" s="44"/>
       <c r="G80" s="49"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="35"/>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
@@ -17006,7 +17032,7 @@
       <c r="F81" s="44"/>
       <c r="G81" s="49"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="35"/>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
@@ -17015,7 +17041,7 @@
       <c r="F82" s="44"/>
       <c r="G82" s="49"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="35"/>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
@@ -17024,7 +17050,7 @@
       <c r="F83" s="44"/>
       <c r="G83" s="49"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="35"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
@@ -17033,7 +17059,7 @@
       <c r="F84" s="44"/>
       <c r="G84" s="49"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="35"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
@@ -17042,7 +17068,7 @@
       <c r="F85" s="44"/>
       <c r="G85" s="49"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="35"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
@@ -17051,7 +17077,7 @@
       <c r="F86" s="44"/>
       <c r="G86" s="49"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="35"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
@@ -17060,7 +17086,7 @@
       <c r="F87" s="44"/>
       <c r="G87" s="49"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="35"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
@@ -17069,7 +17095,7 @@
       <c r="F88" s="44"/>
       <c r="G88" s="49"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="35"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
@@ -17078,7 +17104,7 @@
       <c r="F89" s="44"/>
       <c r="G89" s="49"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="35"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
@@ -17087,7 +17113,7 @@
       <c r="F90" s="44"/>
       <c r="G90" s="49"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="35"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
@@ -17096,7 +17122,7 @@
       <c r="F91" s="44"/>
       <c r="G91" s="49"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="35"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
@@ -17105,7 +17131,7 @@
       <c r="F92" s="44"/>
       <c r="G92" s="49"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="35"/>
       <c r="B93" s="51"/>
       <c r="C93" s="51"/>
@@ -17114,7 +17140,7 @@
       <c r="F93" s="44"/>
       <c r="G93" s="49"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="35"/>
       <c r="B94" s="51"/>
       <c r="C94" s="51"/>
@@ -17123,7 +17149,7 @@
       <c r="F94" s="44"/>
       <c r="G94" s="49"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="35"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51"/>
@@ -17132,7 +17158,7 @@
       <c r="F95" s="44"/>
       <c r="G95" s="49"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="35"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51"/>
@@ -17141,7 +17167,7 @@
       <c r="F96" s="44"/>
       <c r="G96" s="49"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="35"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51"/>
@@ -17150,7 +17176,7 @@
       <c r="F97" s="44"/>
       <c r="G97" s="49"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="35"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51"/>
@@ -17159,7 +17185,7 @@
       <c r="F98" s="44"/>
       <c r="G98" s="49"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="35"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51"/>
@@ -17168,7 +17194,7 @@
       <c r="F99" s="44"/>
       <c r="G99" s="49"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="35"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51"/>
@@ -17196,21 +17222,21 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.5546875" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -17223,10 +17249,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -17237,8 +17263,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.85" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -17261,7 +17287,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="87" t="s">
         <v>137</v>
       </c>
@@ -17285,7 +17311,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="88" t="s">
         <v>125</v>
       </c>
@@ -17309,7 +17335,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="87" t="s">
         <v>125</v>
       </c>
@@ -17333,7 +17359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="87" t="s">
         <v>144</v>
       </c>
@@ -17357,7 +17383,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="87" t="s">
         <v>142</v>
       </c>
@@ -17381,7 +17407,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="88" t="s">
         <v>135</v>
       </c>
@@ -17405,7 +17431,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14">
       <c r="A12" s="87" t="s">
         <v>134</v>
       </c>
@@ -17429,7 +17455,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" s="87" t="s">
         <v>128</v>
       </c>
@@ -17453,7 +17479,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="87" t="s">
         <v>131</v>
       </c>
@@ -17477,7 +17503,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -17501,7 +17527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -17525,7 +17551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -17549,7 +17575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14">
       <c r="A18" s="95">
         <v>43749</v>
       </c>
@@ -17573,7 +17599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1">
       <c r="A19" s="87" t="s">
         <v>133</v>
       </c>
@@ -17597,7 +17623,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="87" t="s">
         <v>123</v>
       </c>
@@ -17621,7 +17647,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14">
       <c r="A21" s="47">
         <v>43755</v>
       </c>
@@ -17645,7 +17671,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14">
       <c r="A22" s="47">
         <v>43755</v>
       </c>
@@ -17669,7 +17695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="47">
         <v>43762</v>
       </c>
@@ -17693,7 +17719,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="95" t="s">
         <v>100</v>
       </c>
@@ -17717,7 +17743,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="47">
         <v>43764</v>
       </c>
@@ -17741,7 +17767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1">
       <c r="A26" s="87" t="s">
         <v>130</v>
       </c>
@@ -17765,7 +17791,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1">
       <c r="A27" s="50">
         <v>43767</v>
       </c>
@@ -17789,7 +17815,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14.5" customHeight="1">
       <c r="A28" s="50">
         <v>43769</v>
       </c>
@@ -17813,7 +17839,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1">
       <c r="A29" s="50">
         <v>43769</v>
       </c>
@@ -17837,7 +17863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="87" t="s">
         <v>140</v>
       </c>
@@ -17861,7 +17887,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="87" t="s">
         <v>146</v>
       </c>
@@ -17884,7 +17910,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32" s="87" t="s">
         <v>147</v>
       </c>
@@ -17907,7 +17933,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14">
       <c r="A33" s="87">
         <v>43782</v>
       </c>
@@ -17931,7 +17957,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14">
       <c r="A34" s="114" t="s">
         <v>191</v>
       </c>
@@ -17954,7 +17980,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="114" t="s">
         <v>193</v>
       </c>
@@ -17977,7 +18003,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="87"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -17986,7 +18012,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1">
       <c r="A37" s="87"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -17995,7 +18021,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="87"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -18004,7 +18030,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="87"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -18013,7 +18039,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="87"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -18022,7 +18048,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="87"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -18031,7 +18057,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1">
       <c r="A42" s="87"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -18040,7 +18066,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" s="87"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -18049,7 +18075,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1">
       <c r="A44" s="87"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -18058,7 +18084,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -18067,7 +18093,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15" customHeight="1">
       <c r="A46" s="91"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choijaeyoung/Desktop/babalzza-master/Project Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FE7190-A0F6-234E-BFD5-4E4C96A071DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22080" windowHeight="13180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="22080" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,12 +214,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -397,12 +396,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -579,12 +578,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -598,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -761,12 +760,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -780,7 +779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -943,12 +942,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -962,7 +961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="196">
   <si>
     <r>
       <rPr>
@@ -10535,14 +10534,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="h:mm;@"/>
     <numFmt numFmtId="179" formatCode="[m]"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -10951,10 +10950,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="백분율 2" xfId="4"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="표준 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11260,27 +11259,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="87" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="87" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="51" customWidth="1"/>
     <col min="3" max="3" width="7" style="51" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="58" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="58" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="46.5" style="39" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" style="39" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="96" t="s">
         <v>41</v>
       </c>
@@ -11293,10 +11292,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
         <v>127</v>
       </c>
@@ -11307,8 +11306,8 @@
       <c r="E3" s="77"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="98" t="s">
         <v>129</v>
       </c>
@@ -11331,7 +11330,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="87">
         <v>43714</v>
       </c>
@@ -11355,7 +11354,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="95">
         <v>43714</v>
       </c>
@@ -11379,7 +11378,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="87">
         <v>43715</v>
       </c>
@@ -11403,7 +11402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87">
         <v>43716</v>
       </c>
@@ -11427,7 +11426,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="95">
         <v>43717</v>
       </c>
@@ -11451,7 +11450,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="88">
         <v>43727</v>
       </c>
@@ -11475,7 +11474,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="87">
         <v>43727</v>
       </c>
@@ -11499,7 +11498,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="88">
         <v>43728</v>
       </c>
@@ -11523,7 +11522,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="87">
         <v>43728</v>
       </c>
@@ -11547,7 +11546,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="87">
         <v>43729</v>
       </c>
@@ -11571,7 +11570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="87">
         <v>43732</v>
       </c>
@@ -11595,7 +11594,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="87">
         <v>43736</v>
       </c>
@@ -11619,7 +11618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="87">
         <v>43737</v>
       </c>
@@ -11643,7 +11642,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="87">
         <v>43739</v>
       </c>
@@ -11667,7 +11666,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="89">
         <v>43742</v>
       </c>
@@ -11691,7 +11690,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="89">
         <v>43742</v>
       </c>
@@ -11715,7 +11714,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="89">
         <v>43746</v>
       </c>
@@ -11739,7 +11738,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14">
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="89">
         <v>43748</v>
       </c>
@@ -11763,7 +11762,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14">
+    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="95">
         <v>43749</v>
       </c>
@@ -11787,7 +11786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="89">
         <v>43751</v>
       </c>
@@ -11811,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="89">
         <v>43755</v>
       </c>
@@ -11835,7 +11834,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14">
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="89">
         <v>43755</v>
       </c>
@@ -11859,7 +11858,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14">
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="89">
         <v>43755</v>
       </c>
@@ -11883,7 +11882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14">
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="89">
         <v>43761</v>
       </c>
@@ -11907,7 +11906,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="89">
         <v>43762</v>
       </c>
@@ -11931,7 +11930,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="89">
         <v>43762</v>
       </c>
@@ -11955,7 +11954,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="89">
         <v>43763</v>
       </c>
@@ -11979,7 +11978,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="89">
         <v>43763</v>
       </c>
@@ -12003,7 +12002,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="89">
         <v>43764</v>
       </c>
@@ -12027,7 +12026,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="89">
         <v>43764</v>
       </c>
@@ -12051,7 +12050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="89">
         <v>43764</v>
       </c>
@@ -12075,7 +12074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="89">
         <v>43765</v>
       </c>
@@ -12099,7 +12098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="89">
         <v>43765</v>
       </c>
@@ -12113,7 +12112,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="58">
-        <f t="shared" ref="E38:E67" si="1">C38-B38-(D38/24/60)</f>
+        <f t="shared" ref="E38:E68" si="1">C38-B38-(D38/24/60)</f>
         <v>9.7222222220605337E-2</v>
       </c>
       <c r="F38" s="32" t="s">
@@ -12123,7 +12122,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="95">
         <v>43766</v>
       </c>
@@ -12147,7 +12146,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.5" customHeight="1">
+    <row r="40" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="95">
         <v>43767</v>
       </c>
@@ -12171,7 +12170,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.5" customHeight="1">
+    <row r="41" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="95">
         <v>43769</v>
       </c>
@@ -12195,7 +12194,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="95">
         <v>43769</v>
       </c>
@@ -12219,7 +12218,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="95">
         <v>43769</v>
       </c>
@@ -12243,7 +12242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="87">
         <v>43770</v>
       </c>
@@ -12267,7 +12266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="87">
         <v>43770</v>
       </c>
@@ -12291,7 +12290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14">
+    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="87">
         <v>43770</v>
       </c>
@@ -12315,7 +12314,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14">
+    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="87">
         <v>43770</v>
       </c>
@@ -12339,7 +12338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14">
+    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="95" t="s">
         <v>138</v>
       </c>
@@ -12363,7 +12362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14">
+    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="99" t="s">
         <v>138</v>
       </c>
@@ -12387,7 +12386,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14">
+    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="87">
         <v>43774</v>
       </c>
@@ -12411,7 +12410,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14">
+    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="87">
         <v>43774</v>
       </c>
@@ -12435,7 +12434,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14">
+    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="87">
         <v>43775</v>
       </c>
@@ -12459,7 +12458,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14">
+    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="87">
         <v>43776</v>
       </c>
@@ -12483,7 +12482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14">
+    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="87">
         <v>43776</v>
       </c>
@@ -12507,7 +12506,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14">
+    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="87">
         <v>43778</v>
       </c>
@@ -12531,7 +12530,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14">
+    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="87">
         <v>43779</v>
       </c>
@@ -12555,7 +12554,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14">
+    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="87">
         <v>43780</v>
       </c>
@@ -12579,7 +12578,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14">
+    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="87">
         <v>43781</v>
       </c>
@@ -12603,7 +12602,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14">
+    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="87">
         <v>43781</v>
       </c>
@@ -12627,7 +12626,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14">
+    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="87">
         <v>43781</v>
       </c>
@@ -12651,7 +12650,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14">
+    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="87">
         <v>43782</v>
       </c>
@@ -12675,7 +12674,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14">
+    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="87">
         <v>43782</v>
       </c>
@@ -12699,7 +12698,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="14">
+    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="87">
         <v>43785</v>
       </c>
@@ -12723,7 +12722,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14">
+    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" s="87">
         <v>43785</v>
       </c>
@@ -12747,7 +12746,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="14">
+    <row r="65" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A65" s="87">
         <v>43785</v>
       </c>
@@ -12771,7 +12770,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="14">
+    <row r="66" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A66" s="87">
         <v>43786</v>
       </c>
@@ -12795,7 +12794,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="14">
+    <row r="67" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A67" s="87">
         <v>43788</v>
       </c>
@@ -12819,7 +12818,31 @@
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="68" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A68" s="87">
+        <v>43791</v>
+      </c>
+      <c r="B68" s="51">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C68" s="51">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D68" s="32">
+        <v>0</v>
+      </c>
+      <c r="E68" s="58">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G68" s="113" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N72" s="107"/>
     </row>
   </sheetData>
@@ -12834,7 +12857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
@@ -12842,17 +12865,17 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="55.5" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.75" customHeight="1">
+    <row r="1" spans="1:10" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -12865,10 +12888,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.75" customHeight="1">
+    <row r="2" spans="1:10" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:10" ht="11.75" customHeight="1">
+    <row r="3" spans="1:10" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -12879,8 +12902,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:10" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:10" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -12903,7 +12926,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="87" t="s">
         <v>137</v>
       </c>
@@ -12927,7 +12950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="88" t="s">
         <v>125</v>
       </c>
@@ -12951,7 +12974,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
         <v>125</v>
       </c>
@@ -12975,7 +12998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87" t="s">
         <v>144</v>
       </c>
@@ -12999,7 +13022,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="87" t="s">
         <v>142</v>
       </c>
@@ -13023,7 +13046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="87" t="s">
         <v>118</v>
       </c>
@@ -13047,7 +13070,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="89" t="s">
         <v>120</v>
       </c>
@@ -13072,7 +13095,7 @@
       </c>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="89" t="s">
         <v>124</v>
       </c>
@@ -13096,7 +13119,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="89" t="s">
         <v>131</v>
       </c>
@@ -13120,7 +13143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -13144,7 +13167,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -13168,7 +13191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -13192,7 +13215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="50">
         <v>43749</v>
       </c>
@@ -13216,7 +13239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14">
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="47">
         <v>43755</v>
       </c>
@@ -13240,7 +13263,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14">
+    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="47">
         <v>43755</v>
       </c>
@@ -13264,7 +13287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="87" t="s">
         <v>121</v>
       </c>
@@ -13288,7 +13311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47">
         <v>43764</v>
       </c>
@@ -13312,7 +13335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47">
         <v>43765</v>
       </c>
@@ -13336,7 +13359,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50">
         <v>43767</v>
       </c>
@@ -13360,7 +13383,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.5" customHeight="1">
+    <row r="25" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -13384,7 +13407,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50">
         <v>43769</v>
       </c>
@@ -13408,7 +13431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15">
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="99" t="s">
         <v>145</v>
       </c>
@@ -13432,7 +13455,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14">
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="87">
         <v>43779</v>
       </c>
@@ -13456,7 +13479,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14">
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="87">
         <v>43782</v>
       </c>
@@ -13480,7 +13503,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15">
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="114" t="s">
         <v>181</v>
       </c>
@@ -13503,7 +13526,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="87"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -13512,7 +13535,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="87"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -13521,7 +13544,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="87"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -13530,7 +13553,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="87"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -13539,7 +13562,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="87"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -13548,7 +13571,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="87"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -13557,7 +13580,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="87"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -13566,7 +13589,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="87"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -13575,7 +13598,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="87"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -13584,7 +13607,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="87"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -13593,7 +13616,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="87"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -13602,7 +13625,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="87"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -13611,7 +13634,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="87"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -13620,7 +13643,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="91"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -13629,7 +13652,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="91"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -13650,7 +13673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
@@ -13658,17 +13681,17 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" style="5" customWidth="1"/>
     <col min="7" max="7" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -13681,10 +13704,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>127</v>
       </c>
@@ -13695,8 +13718,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>129</v>
       </c>
@@ -13719,7 +13742,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>43715</v>
       </c>
@@ -13743,7 +13766,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>43727</v>
       </c>
@@ -13767,7 +13790,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>43727</v>
       </c>
@@ -13791,7 +13814,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>43728</v>
       </c>
@@ -13815,7 +13838,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
         <v>43732</v>
       </c>
@@ -13839,7 +13862,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>43735</v>
       </c>
@@ -13863,7 +13886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>43736</v>
       </c>
@@ -13887,7 +13910,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>43737</v>
       </c>
@@ -13911,7 +13934,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>43739</v>
       </c>
@@ -13935,7 +13958,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14">
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
         <v>43739</v>
       </c>
@@ -13959,7 +13982,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="35">
         <v>43743</v>
       </c>
@@ -13983,7 +14006,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
         <v>43744</v>
       </c>
@@ -14007,7 +14030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35">
         <v>43745</v>
       </c>
@@ -14031,7 +14054,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -14055,7 +14078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -14079,7 +14102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -14103,7 +14126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14">
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -14127,7 +14150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="35">
         <v>43750</v>
       </c>
@@ -14151,7 +14174,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35">
         <v>43751</v>
       </c>
@@ -14175,7 +14198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>43751</v>
       </c>
@@ -14199,7 +14222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35">
         <v>43753</v>
       </c>
@@ -14223,7 +14246,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14">
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="47">
         <v>43755</v>
       </c>
@@ -14247,7 +14270,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14">
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="47">
         <v>43755</v>
       </c>
@@ -14271,7 +14294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14">
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>43760</v>
       </c>
@@ -14295,7 +14318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47">
         <v>43764</v>
       </c>
@@ -14319,7 +14342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>43765</v>
       </c>
@@ -14343,7 +14366,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50">
         <v>43767</v>
       </c>
@@ -14367,7 +14390,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="50">
         <v>43769</v>
       </c>
@@ -14391,7 +14414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="35">
         <v>43770</v>
       </c>
@@ -14415,7 +14438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>43771</v>
       </c>
@@ -14439,7 +14462,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>43772</v>
       </c>
@@ -14463,7 +14486,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>43775</v>
       </c>
@@ -14487,7 +14510,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>43777</v>
       </c>
@@ -14511,7 +14534,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>43778</v>
       </c>
@@ -14535,7 +14558,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>43779</v>
       </c>
@@ -14559,7 +14582,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>43779</v>
       </c>
@@ -14583,7 +14606,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14">
+    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="87">
         <v>43779</v>
       </c>
@@ -14607,7 +14630,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>43780</v>
       </c>
@@ -14631,7 +14654,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="87">
         <v>43782</v>
       </c>
@@ -14655,7 +14678,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="87">
         <v>43782</v>
       </c>
@@ -14679,7 +14702,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="87"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -14688,7 +14711,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="39"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -14697,7 +14720,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="39"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -14706,7 +14729,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="39"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="39"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -14715,7 +14738,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="39"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -14724,7 +14747,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="39"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -14733,7 +14756,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="39"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="39"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -14742,7 +14765,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="39"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -14751,7 +14774,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="39"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="39"/>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
@@ -14760,7 +14783,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="39"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
@@ -14769,7 +14792,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="39"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
@@ -14778,7 +14801,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="39"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="51"/>
       <c r="C57" s="51"/>
@@ -14787,7 +14810,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="39"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
@@ -14796,7 +14819,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="39"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
@@ -14805,7 +14828,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="39"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="51"/>
       <c r="C60" s="51"/>
@@ -14814,7 +14837,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="39"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="51"/>
       <c r="C61" s="51"/>
@@ -14823,7 +14846,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="39"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="51"/>
       <c r="C62" s="51"/>
@@ -14844,7 +14867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -14852,17 +14875,17 @@
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="65" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="65" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.5" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -14875,10 +14898,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -14889,8 +14912,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -14913,7 +14936,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="88" t="s">
         <v>125</v>
       </c>
@@ -14937,7 +14960,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="87" t="s">
         <v>125</v>
       </c>
@@ -14961,7 +14984,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
         <v>144</v>
       </c>
@@ -14985,7 +15008,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87" t="s">
         <v>142</v>
       </c>
@@ -15009,7 +15032,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="87" t="s">
         <v>118</v>
       </c>
@@ -15033,7 +15056,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="87" t="s">
         <v>134</v>
       </c>
@@ -15057,7 +15080,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="89">
         <v>43746</v>
       </c>
@@ -15081,7 +15104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="89">
         <v>43748</v>
       </c>
@@ -15105,7 +15128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="87">
         <v>43749</v>
       </c>
@@ -15129,7 +15152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14">
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="50">
         <v>43749</v>
       </c>
@@ -15153,7 +15176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="94" t="s">
         <v>139</v>
       </c>
@@ -15177,7 +15200,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14">
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="47">
         <v>43755</v>
       </c>
@@ -15201,7 +15224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47">
         <v>43762</v>
       </c>
@@ -15225,7 +15248,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="94" t="s">
         <v>136</v>
       </c>
@@ -15249,7 +15272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="94" t="s">
         <v>141</v>
       </c>
@@ -15273,7 +15296,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47">
         <v>43764</v>
       </c>
@@ -15297,7 +15320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="87" t="s">
         <v>130</v>
       </c>
@@ -15321,7 +15344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50">
         <v>43767</v>
       </c>
@@ -15345,7 +15368,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.5" customHeight="1">
+    <row r="24" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50">
         <v>43769</v>
       </c>
@@ -15369,7 +15392,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -15393,7 +15416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14">
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="35">
         <v>43770</v>
       </c>
@@ -15417,7 +15440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14">
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="87">
         <v>43779</v>
       </c>
@@ -15441,7 +15464,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="87"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -15450,7 +15473,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="87"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -15459,7 +15482,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="87"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -15468,7 +15491,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="87"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -15477,7 +15500,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="87"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -15486,7 +15509,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="87"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -15495,7 +15518,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="87"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -15504,7 +15527,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="87"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -15513,7 +15536,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="87"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -15522,7 +15545,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="87"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -15531,7 +15554,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="87"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -15540,7 +15563,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="87"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -15549,7 +15572,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="87"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -15558,7 +15581,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="87"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -15567,7 +15590,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="87"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -15576,7 +15599,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="91"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -15585,7 +15608,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="91"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -15606,25 +15629,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
     <col min="6" max="6" width="38.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -15637,10 +15660,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="83"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>127</v>
       </c>
@@ -15651,8 +15674,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -15675,7 +15698,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14">
+    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="87">
         <v>43715</v>
       </c>
@@ -15699,7 +15722,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14">
+    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="88">
         <v>43727</v>
       </c>
@@ -15723,7 +15746,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14">
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="87">
         <v>43727</v>
       </c>
@@ -15747,7 +15770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14">
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="87">
         <v>43728</v>
       </c>
@@ -15771,7 +15794,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="87" t="s">
         <v>142</v>
       </c>
@@ -15795,7 +15818,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14">
+    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="87">
         <v>43735</v>
       </c>
@@ -15819,7 +15842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14">
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="87">
         <v>43737</v>
       </c>
@@ -15843,7 +15866,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14">
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="87">
         <v>43738</v>
       </c>
@@ -15867,7 +15890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14">
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="87">
         <v>43739</v>
       </c>
@@ -15891,7 +15914,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14">
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="89">
         <v>43739</v>
       </c>
@@ -15915,7 +15938,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14">
+    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="87">
         <v>43744</v>
       </c>
@@ -15939,7 +15962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14">
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="87">
         <v>43744</v>
       </c>
@@ -15963,7 +15986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="87">
         <v>43744</v>
       </c>
@@ -15987,7 +16010,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -16011,7 +16034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -16035,7 +16058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -16059,7 +16082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14">
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -16083,7 +16106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14">
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="87">
         <v>43751</v>
       </c>
@@ -16107,7 +16130,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="87">
         <v>43751</v>
       </c>
@@ -16131,7 +16154,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="87">
         <v>43752</v>
       </c>
@@ -16155,7 +16178,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="87">
         <v>43752</v>
       </c>
@@ -16179,7 +16202,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14">
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="87">
         <v>43753</v>
       </c>
@@ -16203,7 +16226,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="90">
         <v>43753</v>
       </c>
@@ -16227,7 +16250,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14">
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="90">
         <v>43754</v>
       </c>
@@ -16251,7 +16274,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14">
+    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="90">
         <v>43754</v>
       </c>
@@ -16275,7 +16298,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="90">
         <v>43755</v>
       </c>
@@ -16299,7 +16322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14">
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="47">
         <v>43755</v>
       </c>
@@ -16323,7 +16346,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.5" customHeight="1">
+    <row r="33" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="90">
         <v>43755</v>
       </c>
@@ -16347,7 +16370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="47">
         <v>43755</v>
       </c>
@@ -16371,7 +16394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="87">
         <v>43760</v>
       </c>
@@ -16395,7 +16418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="87">
         <v>43762</v>
       </c>
@@ -16419,7 +16442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="47">
         <v>43764</v>
       </c>
@@ -16443,7 +16466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="87">
         <v>43765</v>
       </c>
@@ -16467,7 +16490,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50">
         <v>43767</v>
       </c>
@@ -16491,7 +16514,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="87">
         <v>43768</v>
       </c>
@@ -16515,7 +16538,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="87">
         <v>43768</v>
       </c>
@@ -16539,7 +16562,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50">
         <v>43769</v>
       </c>
@@ -16563,7 +16586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <v>43770</v>
       </c>
@@ -16587,7 +16610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14">
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <v>43770</v>
       </c>
@@ -16611,7 +16634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <v>43772</v>
       </c>
@@ -16635,7 +16658,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14">
+    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="35">
         <v>43772</v>
       </c>
@@ -16657,7 +16680,7 @@
       </c>
       <c r="G46" s="118"/>
     </row>
-    <row r="47" spans="1:7" ht="14">
+    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="87">
         <v>43779</v>
       </c>
@@ -16681,7 +16704,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14">
+    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="87">
         <v>43782</v>
       </c>
@@ -16705,7 +16728,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14">
+    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>43783</v>
       </c>
@@ -16729,7 +16752,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="35">
         <v>43791</v>
       </c>
@@ -16753,7 +16776,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="35"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -16762,7 +16785,7 @@
       <c r="F51" s="44"/>
       <c r="G51" s="49"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -16771,7 +16794,7 @@
       <c r="F52" s="44"/>
       <c r="G52" s="49"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -16780,7 +16803,7 @@
       <c r="F53" s="44"/>
       <c r="G53" s="49"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
@@ -16789,7 +16812,7 @@
       <c r="F54" s="44"/>
       <c r="G54" s="49"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
@@ -16798,7 +16821,7 @@
       <c r="F55" s="44"/>
       <c r="G55" s="49"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
@@ -16807,7 +16830,7 @@
       <c r="F56" s="44"/>
       <c r="G56" s="49"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
       <c r="B57" s="51"/>
       <c r="C57" s="51"/>
@@ -16816,7 +16839,7 @@
       <c r="F57" s="44"/>
       <c r="G57" s="49"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
@@ -16825,7 +16848,7 @@
       <c r="F58" s="44"/>
       <c r="G58" s="49"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="35"/>
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
@@ -16834,7 +16857,7 @@
       <c r="F59" s="44"/>
       <c r="G59" s="49"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
       <c r="B60" s="51"/>
       <c r="C60" s="51"/>
@@ -16843,7 +16866,7 @@
       <c r="F60" s="44"/>
       <c r="G60" s="49"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="35"/>
       <c r="B61" s="51"/>
       <c r="C61" s="51"/>
@@ -16852,7 +16875,7 @@
       <c r="F61" s="44"/>
       <c r="G61" s="49"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="35"/>
       <c r="B62" s="51"/>
       <c r="C62" s="51"/>
@@ -16861,7 +16884,7 @@
       <c r="F62" s="44"/>
       <c r="G62" s="49"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
@@ -16870,7 +16893,7 @@
       <c r="F63" s="44"/>
       <c r="G63" s="49"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="35"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
@@ -16879,7 +16902,7 @@
       <c r="F64" s="44"/>
       <c r="G64" s="49"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="35"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
@@ -16888,7 +16911,7 @@
       <c r="F65" s="44"/>
       <c r="G65" s="49"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="35"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
@@ -16897,7 +16920,7 @@
       <c r="F66" s="44"/>
       <c r="G66" s="49"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="35"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
@@ -16906,7 +16929,7 @@
       <c r="F67" s="44"/>
       <c r="G67" s="49"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="35"/>
       <c r="B68" s="51"/>
       <c r="C68" s="51"/>
@@ -16915,7 +16938,7 @@
       <c r="F68" s="44"/>
       <c r="G68" s="49"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="35"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
@@ -16924,7 +16947,7 @@
       <c r="F69" s="44"/>
       <c r="G69" s="49"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="35"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
@@ -16933,7 +16956,7 @@
       <c r="F70" s="44"/>
       <c r="G70" s="49"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="35"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
@@ -16942,7 +16965,7 @@
       <c r="F71" s="44"/>
       <c r="G71" s="49"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="35"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
@@ -16951,7 +16974,7 @@
       <c r="F72" s="44"/>
       <c r="G72" s="49"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="35"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
@@ -16960,7 +16983,7 @@
       <c r="F73" s="44"/>
       <c r="G73" s="49"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="35"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
@@ -16969,7 +16992,7 @@
       <c r="F74" s="44"/>
       <c r="G74" s="49"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="35"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
@@ -16978,7 +17001,7 @@
       <c r="F75" s="44"/>
       <c r="G75" s="49"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="35"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
@@ -16987,7 +17010,7 @@
       <c r="F76" s="44"/>
       <c r="G76" s="49"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="35"/>
       <c r="B77" s="51"/>
       <c r="C77" s="51"/>
@@ -16996,7 +17019,7 @@
       <c r="F77" s="44"/>
       <c r="G77" s="49"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="35"/>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
@@ -17005,7 +17028,7 @@
       <c r="F78" s="44"/>
       <c r="G78" s="49"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="35"/>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
@@ -17014,7 +17037,7 @@
       <c r="F79" s="44"/>
       <c r="G79" s="49"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="35"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
@@ -17023,7 +17046,7 @@
       <c r="F80" s="44"/>
       <c r="G80" s="49"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="35"/>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
@@ -17032,7 +17055,7 @@
       <c r="F81" s="44"/>
       <c r="G81" s="49"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="35"/>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
@@ -17041,7 +17064,7 @@
       <c r="F82" s="44"/>
       <c r="G82" s="49"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="35"/>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
@@ -17050,7 +17073,7 @@
       <c r="F83" s="44"/>
       <c r="G83" s="49"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="35"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
@@ -17059,7 +17082,7 @@
       <c r="F84" s="44"/>
       <c r="G84" s="49"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="35"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
@@ -17068,7 +17091,7 @@
       <c r="F85" s="44"/>
       <c r="G85" s="49"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="35"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
@@ -17077,7 +17100,7 @@
       <c r="F86" s="44"/>
       <c r="G86" s="49"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="35"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
@@ -17086,7 +17109,7 @@
       <c r="F87" s="44"/>
       <c r="G87" s="49"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="35"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
@@ -17095,7 +17118,7 @@
       <c r="F88" s="44"/>
       <c r="G88" s="49"/>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="35"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
@@ -17104,7 +17127,7 @@
       <c r="F89" s="44"/>
       <c r="G89" s="49"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="35"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
@@ -17113,7 +17136,7 @@
       <c r="F90" s="44"/>
       <c r="G90" s="49"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="35"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
@@ -17122,7 +17145,7 @@
       <c r="F91" s="44"/>
       <c r="G91" s="49"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="35"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
@@ -17131,7 +17154,7 @@
       <c r="F92" s="44"/>
       <c r="G92" s="49"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="35"/>
       <c r="B93" s="51"/>
       <c r="C93" s="51"/>
@@ -17140,7 +17163,7 @@
       <c r="F93" s="44"/>
       <c r="G93" s="49"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="35"/>
       <c r="B94" s="51"/>
       <c r="C94" s="51"/>
@@ -17149,7 +17172,7 @@
       <c r="F94" s="44"/>
       <c r="G94" s="49"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="35"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51"/>
@@ -17158,7 +17181,7 @@
       <c r="F95" s="44"/>
       <c r="G95" s="49"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="35"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51"/>
@@ -17167,7 +17190,7 @@
       <c r="F96" s="44"/>
       <c r="G96" s="49"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="35"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51"/>
@@ -17176,7 +17199,7 @@
       <c r="F97" s="44"/>
       <c r="G97" s="49"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="35"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51"/>
@@ -17185,7 +17208,7 @@
       <c r="F98" s="44"/>
       <c r="G98" s="49"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="35"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51"/>
@@ -17194,7 +17217,7 @@
       <c r="F99" s="44"/>
       <c r="G99" s="49"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="35"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51"/>
@@ -17218,7 +17241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
@@ -17226,17 +17249,17 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.5" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -17249,10 +17272,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -17263,8 +17286,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -17287,7 +17310,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="87" t="s">
         <v>137</v>
       </c>
@@ -17311,7 +17334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="88" t="s">
         <v>125</v>
       </c>
@@ -17335,7 +17358,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
         <v>125</v>
       </c>
@@ -17359,7 +17382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87" t="s">
         <v>144</v>
       </c>
@@ -17383,7 +17406,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="87" t="s">
         <v>142</v>
       </c>
@@ -17407,7 +17430,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="88" t="s">
         <v>135</v>
       </c>
@@ -17431,7 +17454,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14">
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="87" t="s">
         <v>134</v>
       </c>
@@ -17455,7 +17478,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="87" t="s">
         <v>128</v>
       </c>
@@ -17479,7 +17502,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="87" t="s">
         <v>131</v>
       </c>
@@ -17503,7 +17526,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -17527,7 +17550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -17551,7 +17574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -17575,7 +17598,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14">
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="95">
         <v>43749</v>
       </c>
@@ -17599,7 +17622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="87" t="s">
         <v>133</v>
       </c>
@@ -17623,7 +17646,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="87" t="s">
         <v>123</v>
       </c>
@@ -17647,7 +17670,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14">
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="47">
         <v>43755</v>
       </c>
@@ -17671,7 +17694,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14">
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="47">
         <v>43755</v>
       </c>
@@ -17695,7 +17718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47">
         <v>43762</v>
       </c>
@@ -17719,7 +17742,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="95" t="s">
         <v>100</v>
       </c>
@@ -17743,7 +17766,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47">
         <v>43764</v>
       </c>
@@ -17767,7 +17790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="87" t="s">
         <v>130</v>
       </c>
@@ -17791,7 +17814,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50">
         <v>43767</v>
       </c>
@@ -17815,7 +17838,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.5" customHeight="1">
+    <row r="28" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50">
         <v>43769</v>
       </c>
@@ -17839,7 +17862,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="50">
         <v>43769</v>
       </c>
@@ -17863,7 +17886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="87" t="s">
         <v>140</v>
       </c>
@@ -17887,7 +17910,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="87" t="s">
         <v>146</v>
       </c>
@@ -17910,7 +17933,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="87" t="s">
         <v>147</v>
       </c>
@@ -17933,7 +17956,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14">
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="87">
         <v>43782</v>
       </c>
@@ -17957,7 +17980,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14">
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="114" t="s">
         <v>191</v>
       </c>
@@ -17980,7 +18003,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="114" t="s">
         <v>193</v>
       </c>
@@ -18003,7 +18026,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="87"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -18012,7 +18035,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="87"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -18021,7 +18044,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="87"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -18030,7 +18053,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="87"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -18039,7 +18062,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="87"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -18048,7 +18071,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="87"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -18057,7 +18080,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="87"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -18066,7 +18089,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="87"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -18075,7 +18098,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="87"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -18084,7 +18107,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="91"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -18093,7 +18116,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="91"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinwo\Desktop\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6C881B-AC78-4168-8CB8-311453E47771}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="22080" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -214,12 +215,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -396,12 +397,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -578,12 +579,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -597,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -760,12 +761,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -779,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -942,12 +943,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -961,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="197">
   <si>
     <r>
       <rPr>
@@ -10528,13 +10529,29 @@
   </si>
   <si>
     <t>식재료 관리(UD Database method 생성)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 22일</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -10683,7 +10700,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -10947,13 +10964,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3"/>
+    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11259,11 +11279,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView topLeftCell="A56" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
@@ -12857,7 +12877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
@@ -13673,7 +13693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
@@ -14867,7 +14887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -15629,7 +15649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
@@ -17241,12 +17261,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18027,13 +18047,27 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="87"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="2"/>
+      <c r="A36" s="114" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="51">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C36" s="51">
+        <v>0.5625</v>
+      </c>
+      <c r="D36" s="32">
+        <v>0</v>
+      </c>
+      <c r="E36" s="19">
+        <v>120</v>
+      </c>
+      <c r="F36" s="119" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="87"/>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinwo\Desktop\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6C881B-AC78-4168-8CB8-311453E47771}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,12 +214,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -397,12 +396,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -579,12 +578,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -598,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -761,12 +760,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -780,7 +779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -943,12 +942,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -962,7 +961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="199">
   <si>
     <r>
       <rPr>
@@ -10545,13 +10544,163 @@
       </rPr>
       <t xml:space="preserve"> 22일</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>식재료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통기한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Initial data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로직변경에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -10958,22 +11107,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="백분율 2" xfId="4"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="표준 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11279,12 +11428,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12132,7 +12281,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="58">
-        <f t="shared" ref="E38:E68" si="1">C38-B38-(D38/24/60)</f>
+        <f t="shared" ref="E38:E69" si="1">C38-B38-(D38/24/60)</f>
         <v>9.7222222220605337E-2</v>
       </c>
       <c r="F38" s="32" t="s">
@@ -12862,8 +13011,37 @@
         <v>192</v>
       </c>
     </row>
+    <row r="69" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A69" s="87">
+        <v>43791</v>
+      </c>
+      <c r="B69" s="51">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C69" s="51">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D69" s="32">
+        <v>10</v>
+      </c>
+      <c r="E69" s="58">
+        <f t="shared" si="1"/>
+        <v>0.13888888888888881</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G69" s="113" t="s">
+        <v>197</v>
+      </c>
+    </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N72" s="107"/>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G85" s="113" t="s">
+        <v>198</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -12877,7 +13055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
@@ -13693,7 +13871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
@@ -14887,7 +15065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -15649,7 +15827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
@@ -16674,7 +16852,7 @@
       <c r="F45" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="117" t="s">
+      <c r="G45" s="118" t="s">
         <v>83</v>
       </c>
     </row>
@@ -16698,7 +16876,7 @@
       <c r="F46" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="118"/>
+      <c r="G46" s="119"/>
     </row>
     <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="87">
@@ -17261,11 +17439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
@@ -18062,7 +18240,7 @@
       <c r="E36" s="19">
         <v>120</v>
       </c>
-      <c r="F36" s="119" t="s">
+      <c r="F36" s="117" t="s">
         <v>194</v>
       </c>
       <c r="G36" s="37" t="s">

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choijaeyoung/Desktop/babalzza-master/Project Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C51ED57-97FF-AF4E-BB2E-A1097FF85234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22080" windowHeight="13180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -214,12 +215,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -396,12 +397,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -578,12 +579,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -597,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -760,12 +761,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -779,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -942,12 +943,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -961,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="201">
   <si>
     <r>
       <rPr>
@@ -10694,20 +10695,159 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>식재료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(UD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생성 및 연결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>식재료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Delete 구현)</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="h:mm;@"/>
     <numFmt numFmtId="179" formatCode="[m]"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -10780,6 +10920,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -10849,7 +11003,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -11116,13 +11270,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3"/>
+    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11428,27 +11584,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView topLeftCell="A56" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="87" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="87" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="51" customWidth="1"/>
     <col min="3" max="3" width="7" style="51" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="58" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="46.5" style="39" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>41</v>
       </c>
@@ -11461,10 +11617,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="97" t="s">
         <v>127</v>
       </c>
@@ -11475,8 +11631,8 @@
       <c r="E3" s="77"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="98" t="s">
         <v>129</v>
       </c>
@@ -11499,7 +11655,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="87">
         <v>43714</v>
       </c>
@@ -11523,7 +11679,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="95">
         <v>43714</v>
       </c>
@@ -11547,7 +11703,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="87">
         <v>43715</v>
       </c>
@@ -11571,7 +11727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="87">
         <v>43716</v>
       </c>
@@ -11595,7 +11751,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="95">
         <v>43717</v>
       </c>
@@ -11619,7 +11775,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="88">
         <v>43727</v>
       </c>
@@ -11643,7 +11799,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12" s="87">
         <v>43727</v>
       </c>
@@ -11667,7 +11823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" s="88">
         <v>43728</v>
       </c>
@@ -11691,7 +11847,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14">
       <c r="A14" s="87">
         <v>43728</v>
       </c>
@@ -11715,7 +11871,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="A15" s="87">
         <v>43729</v>
       </c>
@@ -11739,7 +11895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="A16" s="87">
         <v>43732</v>
       </c>
@@ -11763,7 +11919,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="87">
         <v>43736</v>
       </c>
@@ -11787,7 +11943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="87">
         <v>43737</v>
       </c>
@@ -11811,7 +11967,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14">
       <c r="A19" s="87">
         <v>43739</v>
       </c>
@@ -11835,7 +11991,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1">
       <c r="A20" s="89">
         <v>43742</v>
       </c>
@@ -11859,7 +12015,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1">
       <c r="A21" s="89">
         <v>43742</v>
       </c>
@@ -11883,7 +12039,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1">
       <c r="A22" s="89">
         <v>43746</v>
       </c>
@@ -11907,7 +12063,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14">
       <c r="A23" s="89">
         <v>43748</v>
       </c>
@@ -11931,7 +12087,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14">
       <c r="A24" s="95">
         <v>43749</v>
       </c>
@@ -11955,7 +12111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="89">
         <v>43751</v>
       </c>
@@ -11979,7 +12135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14">
       <c r="A26" s="89">
         <v>43755</v>
       </c>
@@ -12003,7 +12159,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14">
       <c r="A27" s="89">
         <v>43755</v>
       </c>
@@ -12027,7 +12183,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14">
       <c r="A28" s="89">
         <v>43755</v>
       </c>
@@ -12051,7 +12207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14">
       <c r="A29" s="89">
         <v>43761</v>
       </c>
@@ -12075,7 +12231,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="89">
         <v>43762</v>
       </c>
@@ -12099,7 +12255,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="89">
         <v>43762</v>
       </c>
@@ -12123,7 +12279,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32" s="89">
         <v>43763</v>
       </c>
@@ -12147,7 +12303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1">
       <c r="A33" s="89">
         <v>43763</v>
       </c>
@@ -12171,7 +12327,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1">
       <c r="A34" s="89">
         <v>43764</v>
       </c>
@@ -12195,7 +12351,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="89">
         <v>43764</v>
       </c>
@@ -12219,7 +12375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="89">
         <v>43764</v>
       </c>
@@ -12243,7 +12399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1">
       <c r="A37" s="89">
         <v>43765</v>
       </c>
@@ -12267,7 +12423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="89">
         <v>43765</v>
       </c>
@@ -12291,7 +12447,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="95">
         <v>43766</v>
       </c>
@@ -12315,7 +12471,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="14.5" customHeight="1">
       <c r="A40" s="95">
         <v>43767</v>
       </c>
@@ -12339,7 +12495,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="14.5" customHeight="1">
       <c r="A41" s="95">
         <v>43769</v>
       </c>
@@ -12363,7 +12519,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1">
       <c r="A42" s="95">
         <v>43769</v>
       </c>
@@ -12387,7 +12543,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" s="95">
         <v>43769</v>
       </c>
@@ -12411,7 +12567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1">
       <c r="A44" s="87">
         <v>43770</v>
       </c>
@@ -12435,7 +12591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1">
       <c r="A45" s="87">
         <v>43770</v>
       </c>
@@ -12459,7 +12615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="14">
       <c r="A46" s="87">
         <v>43770</v>
       </c>
@@ -12483,7 +12639,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="14">
       <c r="A47" s="87">
         <v>43770</v>
       </c>
@@ -12507,7 +12663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="14">
       <c r="A48" s="95" t="s">
         <v>138</v>
       </c>
@@ -12531,7 +12687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="14">
       <c r="A49" s="99" t="s">
         <v>138</v>
       </c>
@@ -12555,7 +12711,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="14">
       <c r="A50" s="87">
         <v>43774</v>
       </c>
@@ -12579,7 +12735,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="14">
       <c r="A51" s="87">
         <v>43774</v>
       </c>
@@ -12603,7 +12759,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="14">
       <c r="A52" s="87">
         <v>43775</v>
       </c>
@@ -12627,7 +12783,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="14">
       <c r="A53" s="87">
         <v>43776</v>
       </c>
@@ -12651,7 +12807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="14">
       <c r="A54" s="87">
         <v>43776</v>
       </c>
@@ -12675,7 +12831,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="14">
       <c r="A55" s="87">
         <v>43778</v>
       </c>
@@ -12699,7 +12855,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="14">
       <c r="A56" s="87">
         <v>43779</v>
       </c>
@@ -12723,7 +12879,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="14">
       <c r="A57" s="87">
         <v>43780</v>
       </c>
@@ -12747,7 +12903,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="14">
       <c r="A58" s="87">
         <v>43781</v>
       </c>
@@ -12771,7 +12927,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="14">
       <c r="A59" s="87">
         <v>43781</v>
       </c>
@@ -12795,7 +12951,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="14">
       <c r="A60" s="87">
         <v>43781</v>
       </c>
@@ -12819,7 +12975,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="14">
       <c r="A61" s="87">
         <v>43782</v>
       </c>
@@ -12843,7 +12999,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="14">
       <c r="A62" s="87">
         <v>43782</v>
       </c>
@@ -12867,7 +13023,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="14">
       <c r="A63" s="87">
         <v>43785</v>
       </c>
@@ -12891,7 +13047,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="14">
       <c r="A64" s="87">
         <v>43785</v>
       </c>
@@ -12915,7 +13071,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="14">
       <c r="A65" s="87">
         <v>43785</v>
       </c>
@@ -12939,7 +13095,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" ht="14">
       <c r="A66" s="87">
         <v>43786</v>
       </c>
@@ -12963,7 +13119,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="14">
       <c r="A67" s="87">
         <v>43788</v>
       </c>
@@ -12987,7 +13143,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" ht="14">
       <c r="A68" s="87">
         <v>43791</v>
       </c>
@@ -13011,7 +13167,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" ht="14">
       <c r="A69" s="87">
         <v>43791</v>
       </c>
@@ -13035,10 +13191,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14">
       <c r="N72" s="107"/>
     </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:7">
       <c r="G85" s="113" t="s">
         <v>198</v>
       </c>
@@ -13055,7 +13211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
@@ -13063,17 +13219,17 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -13086,10 +13242,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="11.75" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:10" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="11.75" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -13100,8 +13256,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:10" s="7" customFormat="1" ht="28">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -13124,7 +13280,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" s="87" t="s">
         <v>137</v>
       </c>
@@ -13148,7 +13304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="88" t="s">
         <v>125</v>
       </c>
@@ -13172,7 +13328,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="87" t="s">
         <v>125</v>
       </c>
@@ -13196,7 +13352,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" s="87" t="s">
         <v>144</v>
       </c>
@@ -13220,7 +13376,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="87" t="s">
         <v>142</v>
       </c>
@@ -13244,7 +13400,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" s="87" t="s">
         <v>118</v>
       </c>
@@ -13268,7 +13424,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" s="89" t="s">
         <v>120</v>
       </c>
@@ -13293,7 +13449,7 @@
       </c>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="89" t="s">
         <v>124</v>
       </c>
@@ -13317,7 +13473,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="89" t="s">
         <v>131</v>
       </c>
@@ -13341,7 +13497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -13365,7 +13521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -13389,7 +13545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -13413,7 +13569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14">
       <c r="A18" s="50">
         <v>43749</v>
       </c>
@@ -13437,7 +13593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14">
       <c r="A19" s="47">
         <v>43755</v>
       </c>
@@ -13461,7 +13617,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="14">
       <c r="A20" s="47">
         <v>43755</v>
       </c>
@@ -13485,7 +13641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1">
       <c r="A21" s="87" t="s">
         <v>121</v>
       </c>
@@ -13509,7 +13665,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1">
       <c r="A22" s="47">
         <v>43764</v>
       </c>
@@ -13533,7 +13689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="47">
         <v>43765</v>
       </c>
@@ -13557,7 +13713,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="50">
         <v>43767</v>
       </c>
@@ -13581,7 +13737,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="14.5" customHeight="1">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -13605,7 +13761,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1">
       <c r="A26" s="50">
         <v>43769</v>
       </c>
@@ -13629,7 +13785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15">
       <c r="A27" s="99" t="s">
         <v>145</v>
       </c>
@@ -13653,7 +13809,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14">
       <c r="A28" s="87">
         <v>43779</v>
       </c>
@@ -13677,7 +13833,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14">
       <c r="A29" s="87">
         <v>43782</v>
       </c>
@@ -13701,7 +13857,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="15">
       <c r="A30" s="114" t="s">
         <v>181</v>
       </c>
@@ -13724,7 +13880,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="87"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -13733,7 +13889,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="87"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -13742,7 +13898,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="87"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -13751,7 +13907,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1">
       <c r="A34" s="87"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -13760,7 +13916,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="87"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -13769,7 +13925,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="87"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -13778,7 +13934,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1">
       <c r="A37" s="87"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -13787,7 +13943,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="87"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -13796,7 +13952,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="87"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -13805,7 +13961,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="87"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -13814,7 +13970,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="87"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -13823,7 +13979,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1">
       <c r="A42" s="87"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -13832,7 +13988,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" s="87"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -13841,7 +13997,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -13850,7 +14006,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -13871,7 +14027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
@@ -13879,17 +14035,17 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -13902,10 +14058,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>127</v>
       </c>
@@ -13916,8 +14072,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="8" t="s">
         <v>129</v>
       </c>
@@ -13940,7 +14096,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="10">
         <v>43715</v>
       </c>
@@ -13964,7 +14120,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="11">
         <v>43727</v>
       </c>
@@ -13988,7 +14144,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="10">
         <v>43727</v>
       </c>
@@ -14012,7 +14168,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="10">
         <v>43728</v>
       </c>
@@ -14036,7 +14192,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="35">
         <v>43732</v>
       </c>
@@ -14060,7 +14216,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="20">
         <v>43735</v>
       </c>
@@ -14084,7 +14240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12" s="21">
         <v>43736</v>
       </c>
@@ -14108,7 +14264,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" s="20">
         <v>43737</v>
       </c>
@@ -14132,7 +14288,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14">
       <c r="A14" s="10">
         <v>43739</v>
       </c>
@@ -14156,7 +14312,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14">
       <c r="A15" s="35">
         <v>43739</v>
       </c>
@@ -14180,7 +14336,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="A16" s="35">
         <v>43743</v>
       </c>
@@ -14204,7 +14360,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="35">
         <v>43744</v>
       </c>
@@ -14228,7 +14384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="35">
         <v>43745</v>
       </c>
@@ -14252,7 +14408,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -14276,7 +14432,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -14300,7 +14456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -14324,7 +14480,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -14348,7 +14504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="35">
         <v>43750</v>
       </c>
@@ -14372,7 +14528,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="35">
         <v>43751</v>
       </c>
@@ -14396,7 +14552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="35">
         <v>43751</v>
       </c>
@@ -14420,7 +14576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1">
       <c r="A26" s="35">
         <v>43753</v>
       </c>
@@ -14444,7 +14600,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14">
       <c r="A27" s="47">
         <v>43755</v>
       </c>
@@ -14468,7 +14624,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14">
       <c r="A28" s="47">
         <v>43755</v>
       </c>
@@ -14492,7 +14648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14">
       <c r="A29" s="10">
         <v>43760</v>
       </c>
@@ -14516,7 +14672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="47">
         <v>43764</v>
       </c>
@@ -14540,7 +14696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="10">
         <v>43765</v>
       </c>
@@ -14564,7 +14720,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32" s="50">
         <v>43767</v>
       </c>
@@ -14588,7 +14744,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1">
       <c r="A33" s="50">
         <v>43769</v>
       </c>
@@ -14612,7 +14768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14">
       <c r="A34" s="35">
         <v>43770</v>
       </c>
@@ -14636,7 +14792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="10">
         <v>43771</v>
       </c>
@@ -14660,7 +14816,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="10">
         <v>43772</v>
       </c>
@@ -14684,7 +14840,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1">
       <c r="A37" s="10">
         <v>43775</v>
       </c>
@@ -14708,7 +14864,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="10">
         <v>43777</v>
       </c>
@@ -14732,7 +14888,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="10">
         <v>43778</v>
       </c>
@@ -14756,7 +14912,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="10">
         <v>43779</v>
       </c>
@@ -14780,7 +14936,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="10">
         <v>43779</v>
       </c>
@@ -14804,7 +14960,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="14">
       <c r="A42" s="87">
         <v>43779</v>
       </c>
@@ -14828,7 +14984,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" s="10">
         <v>43780</v>
       </c>
@@ -14852,7 +15008,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14">
       <c r="A44" s="87">
         <v>43782</v>
       </c>
@@ -14876,7 +15032,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1">
       <c r="A45" s="87">
         <v>43782</v>
       </c>
@@ -14900,7 +15056,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="87"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
@@ -14909,7 +15065,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="39"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="39"/>
       <c r="B47" s="51"/>
       <c r="C47" s="51"/>
@@ -14918,7 +15074,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="39"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="39"/>
       <c r="B48" s="51"/>
       <c r="C48" s="51"/>
@@ -14927,7 +15083,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="39"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="39"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -14936,7 +15092,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="39"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="39"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
@@ -14945,7 +15101,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="39"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="39"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
@@ -14954,7 +15110,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="39"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="39"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
@@ -14963,7 +15119,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="39"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="39"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -14972,7 +15128,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="39"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="39"/>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
@@ -14981,7 +15137,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="39"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="39"/>
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
@@ -14990,7 +15146,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="39"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="39"/>
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
@@ -14999,7 +15155,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="39"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="39"/>
       <c r="B57" s="51"/>
       <c r="C57" s="51"/>
@@ -15008,7 +15164,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="39"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="39"/>
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
@@ -15017,7 +15173,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="39"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="39"/>
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
@@ -15026,7 +15182,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="39"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="39"/>
       <c r="B60" s="51"/>
       <c r="C60" s="51"/>
@@ -15035,7 +15191,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="39"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="39"/>
       <c r="B61" s="51"/>
       <c r="C61" s="51"/>
@@ -15044,7 +15200,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="39"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="39"/>
       <c r="B62" s="51"/>
       <c r="C62" s="51"/>
@@ -15065,7 +15221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -15073,17 +15229,17 @@
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="65" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -15096,10 +15252,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -15110,8 +15266,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -15134,7 +15290,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="88" t="s">
         <v>125</v>
       </c>
@@ -15158,7 +15314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="87" t="s">
         <v>125</v>
       </c>
@@ -15182,7 +15338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="87" t="s">
         <v>144</v>
       </c>
@@ -15206,7 +15362,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="87" t="s">
         <v>142</v>
       </c>
@@ -15230,7 +15386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="87" t="s">
         <v>118</v>
       </c>
@@ -15254,7 +15410,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="87" t="s">
         <v>134</v>
       </c>
@@ -15278,7 +15434,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="89">
         <v>43746</v>
       </c>
@@ -15302,7 +15458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" s="89">
         <v>43748</v>
       </c>
@@ -15326,7 +15482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15">
       <c r="A14" s="87">
         <v>43749</v>
       </c>
@@ -15350,7 +15506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14">
       <c r="A15" s="50">
         <v>43749</v>
       </c>
@@ -15374,7 +15530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="A16" s="94" t="s">
         <v>139</v>
       </c>
@@ -15398,7 +15554,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14">
       <c r="A17" s="47">
         <v>43755</v>
       </c>
@@ -15422,7 +15578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="47">
         <v>43762</v>
       </c>
@@ -15446,7 +15602,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" s="94" t="s">
         <v>136</v>
       </c>
@@ -15470,7 +15626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="94" t="s">
         <v>141</v>
       </c>
@@ -15494,7 +15650,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1">
       <c r="A21" s="47">
         <v>43764</v>
       </c>
@@ -15518,7 +15674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1">
       <c r="A22" s="87" t="s">
         <v>130</v>
       </c>
@@ -15542,7 +15698,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="50">
         <v>43767</v>
       </c>
@@ -15566,7 +15722,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" customHeight="1">
       <c r="A24" s="50">
         <v>43769</v>
       </c>
@@ -15590,7 +15746,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -15614,7 +15770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14">
       <c r="A26" s="35">
         <v>43770</v>
       </c>
@@ -15638,7 +15794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14">
       <c r="A27" s="87">
         <v>43779</v>
       </c>
@@ -15662,7 +15818,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1">
       <c r="A28" s="87"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -15671,7 +15827,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="87"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -15680,7 +15836,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="87"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -15689,7 +15845,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="87"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -15698,7 +15854,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="87"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -15707,7 +15863,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1">
       <c r="A33" s="87"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -15716,7 +15872,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1">
       <c r="A34" s="87"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -15725,7 +15881,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="87"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -15734,7 +15890,7 @@
       <c r="F35" s="13"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="87"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -15743,7 +15899,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1">
       <c r="A37" s="87"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -15752,7 +15908,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="87"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -15761,7 +15917,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="87"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -15770,7 +15926,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="87"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -15779,7 +15935,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="87"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -15788,7 +15944,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1">
       <c r="A42" s="87"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -15797,7 +15953,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" s="91"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -15806,7 +15962,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -15827,25 +15983,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
     <col min="6" max="6" width="38.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -15858,10 +16014,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="83"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="84" t="s">
         <v>127</v>
       </c>
@@ -15872,8 +16028,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -15896,7 +16052,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14">
       <c r="A6" s="87">
         <v>43715</v>
       </c>
@@ -15910,7 +16066,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="68">
-        <f t="shared" ref="E6:E50" si="0">C6-B6-(D6/24/60)</f>
+        <f t="shared" ref="E6:E52" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -15920,7 +16076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14">
       <c r="A7" s="88">
         <v>43727</v>
       </c>
@@ -15944,7 +16100,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14">
       <c r="A8" s="87">
         <v>43727</v>
       </c>
@@ -15968,7 +16124,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14">
       <c r="A9" s="87">
         <v>43728</v>
       </c>
@@ -15992,7 +16148,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="87" t="s">
         <v>142</v>
       </c>
@@ -16016,7 +16172,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14">
       <c r="A11" s="87">
         <v>43735</v>
       </c>
@@ -16040,7 +16196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14">
       <c r="A12" s="87">
         <v>43737</v>
       </c>
@@ -16064,7 +16220,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14">
       <c r="A13" s="87">
         <v>43738</v>
       </c>
@@ -16088,7 +16244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14">
       <c r="A14" s="87">
         <v>43739</v>
       </c>
@@ -16112,7 +16268,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14">
       <c r="A15" s="89">
         <v>43739</v>
       </c>
@@ -16136,7 +16292,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14">
       <c r="A16" s="87">
         <v>43744</v>
       </c>
@@ -16160,7 +16316,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14">
       <c r="A17" s="87">
         <v>43744</v>
       </c>
@@ -16184,7 +16340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14">
       <c r="A18" s="87">
         <v>43744</v>
       </c>
@@ -16208,7 +16364,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -16232,7 +16388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -16256,7 +16412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -16280,7 +16436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -16304,7 +16460,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14">
       <c r="A23" s="87">
         <v>43751</v>
       </c>
@@ -16328,7 +16484,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="87">
         <v>43751</v>
       </c>
@@ -16352,7 +16508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="87">
         <v>43752</v>
       </c>
@@ -16376,7 +16532,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="87">
         <v>43752</v>
       </c>
@@ -16400,7 +16556,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14">
       <c r="A27" s="87">
         <v>43753</v>
       </c>
@@ -16424,7 +16580,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1">
       <c r="A28" s="90">
         <v>43753</v>
       </c>
@@ -16448,7 +16604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14">
       <c r="A29" s="90">
         <v>43754</v>
       </c>
@@ -16472,7 +16628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="14">
       <c r="A30" s="90">
         <v>43754</v>
       </c>
@@ -16496,7 +16652,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="90">
         <v>43755</v>
       </c>
@@ -16520,7 +16676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14">
       <c r="A32" s="47">
         <v>43755</v>
       </c>
@@ -16544,7 +16700,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14.5" customHeight="1">
       <c r="A33" s="90">
         <v>43755</v>
       </c>
@@ -16568,7 +16724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14">
       <c r="A34" s="47">
         <v>43755</v>
       </c>
@@ -16592,7 +16748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="87">
         <v>43760</v>
       </c>
@@ -16616,7 +16772,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="87">
         <v>43762</v>
       </c>
@@ -16640,7 +16796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1">
       <c r="A37" s="47">
         <v>43764</v>
       </c>
@@ -16664,7 +16820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="87">
         <v>43765</v>
       </c>
@@ -16688,7 +16844,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="50">
         <v>43767</v>
       </c>
@@ -16712,7 +16868,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="87">
         <v>43768</v>
       </c>
@@ -16736,7 +16892,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="87">
         <v>43768</v>
       </c>
@@ -16760,7 +16916,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1">
       <c r="A42" s="50">
         <v>43769</v>
       </c>
@@ -16784,7 +16940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" s="35">
         <v>43770</v>
       </c>
@@ -16808,7 +16964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="14">
       <c r="A44" s="35">
         <v>43770</v>
       </c>
@@ -16832,7 +16988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="35">
         <v>43772</v>
       </c>
@@ -16856,7 +17012,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="14">
       <c r="A46" s="35">
         <v>43772</v>
       </c>
@@ -16878,7 +17034,7 @@
       </c>
       <c r="G46" s="119"/>
     </row>
-    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="14">
       <c r="A47" s="87">
         <v>43779</v>
       </c>
@@ -16902,7 +17058,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="14">
       <c r="A48" s="87">
         <v>43782</v>
       </c>
@@ -16926,7 +17082,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="14">
       <c r="A49" s="35">
         <v>43783</v>
       </c>
@@ -16950,7 +17106,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="35">
         <v>43791</v>
       </c>
@@ -16974,25 +17130,55 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="49"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="35"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="49"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15">
+      <c r="A51" s="35">
+        <v>43791</v>
+      </c>
+      <c r="B51" s="120">
+        <v>0.625</v>
+      </c>
+      <c r="C51" s="51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D51" s="32">
+        <v>0</v>
+      </c>
+      <c r="E51" s="58">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F51" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="G51" s="121" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15">
+      <c r="A52" s="35">
+        <v>43792</v>
+      </c>
+      <c r="B52" s="51">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C52" s="51">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D52" s="32">
+        <v>30</v>
+      </c>
+      <c r="E52" s="58">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000042E-2</v>
+      </c>
+      <c r="F52" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="G52" s="121" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="35"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
@@ -17001,7 +17187,7 @@
       <c r="F53" s="44"/>
       <c r="G53" s="49"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="35"/>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
@@ -17010,7 +17196,7 @@
       <c r="F54" s="44"/>
       <c r="G54" s="49"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="35"/>
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
@@ -17019,7 +17205,7 @@
       <c r="F55" s="44"/>
       <c r="G55" s="49"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="35"/>
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
@@ -17028,7 +17214,7 @@
       <c r="F56" s="44"/>
       <c r="G56" s="49"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="35"/>
       <c r="B57" s="51"/>
       <c r="C57" s="51"/>
@@ -17037,7 +17223,7 @@
       <c r="F57" s="44"/>
       <c r="G57" s="49"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="35"/>
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
@@ -17046,7 +17232,7 @@
       <c r="F58" s="44"/>
       <c r="G58" s="49"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="35"/>
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
@@ -17055,7 +17241,7 @@
       <c r="F59" s="44"/>
       <c r="G59" s="49"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="35"/>
       <c r="B60" s="51"/>
       <c r="C60" s="51"/>
@@ -17064,7 +17250,7 @@
       <c r="F60" s="44"/>
       <c r="G60" s="49"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="35"/>
       <c r="B61" s="51"/>
       <c r="C61" s="51"/>
@@ -17073,7 +17259,7 @@
       <c r="F61" s="44"/>
       <c r="G61" s="49"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="35"/>
       <c r="B62" s="51"/>
       <c r="C62" s="51"/>
@@ -17082,7 +17268,7 @@
       <c r="F62" s="44"/>
       <c r="G62" s="49"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="35"/>
       <c r="B63" s="51"/>
       <c r="C63" s="51"/>
@@ -17091,7 +17277,7 @@
       <c r="F63" s="44"/>
       <c r="G63" s="49"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="35"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51"/>
@@ -17100,7 +17286,7 @@
       <c r="F64" s="44"/>
       <c r="G64" s="49"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="35"/>
       <c r="B65" s="51"/>
       <c r="C65" s="51"/>
@@ -17109,7 +17295,7 @@
       <c r="F65" s="44"/>
       <c r="G65" s="49"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="35"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51"/>
@@ -17118,7 +17304,7 @@
       <c r="F66" s="44"/>
       <c r="G66" s="49"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="35"/>
       <c r="B67" s="51"/>
       <c r="C67" s="51"/>
@@ -17127,7 +17313,7 @@
       <c r="F67" s="44"/>
       <c r="G67" s="49"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="35"/>
       <c r="B68" s="51"/>
       <c r="C68" s="51"/>
@@ -17136,7 +17322,7 @@
       <c r="F68" s="44"/>
       <c r="G68" s="49"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="35"/>
       <c r="B69" s="51"/>
       <c r="C69" s="51"/>
@@ -17145,7 +17331,7 @@
       <c r="F69" s="44"/>
       <c r="G69" s="49"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="35"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51"/>
@@ -17154,7 +17340,7 @@
       <c r="F70" s="44"/>
       <c r="G70" s="49"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="35"/>
       <c r="B71" s="51"/>
       <c r="C71" s="51"/>
@@ -17163,7 +17349,7 @@
       <c r="F71" s="44"/>
       <c r="G71" s="49"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="35"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51"/>
@@ -17172,7 +17358,7 @@
       <c r="F72" s="44"/>
       <c r="G72" s="49"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="35"/>
       <c r="B73" s="51"/>
       <c r="C73" s="51"/>
@@ -17181,7 +17367,7 @@
       <c r="F73" s="44"/>
       <c r="G73" s="49"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="35"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51"/>
@@ -17190,7 +17376,7 @@
       <c r="F74" s="44"/>
       <c r="G74" s="49"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="35"/>
       <c r="B75" s="51"/>
       <c r="C75" s="51"/>
@@ -17199,7 +17385,7 @@
       <c r="F75" s="44"/>
       <c r="G75" s="49"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="35"/>
       <c r="B76" s="51"/>
       <c r="C76" s="51"/>
@@ -17208,7 +17394,7 @@
       <c r="F76" s="44"/>
       <c r="G76" s="49"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="35"/>
       <c r="B77" s="51"/>
       <c r="C77" s="51"/>
@@ -17217,7 +17403,7 @@
       <c r="F77" s="44"/>
       <c r="G77" s="49"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="35"/>
       <c r="B78" s="51"/>
       <c r="C78" s="51"/>
@@ -17226,7 +17412,7 @@
       <c r="F78" s="44"/>
       <c r="G78" s="49"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="35"/>
       <c r="B79" s="51"/>
       <c r="C79" s="51"/>
@@ -17235,7 +17421,7 @@
       <c r="F79" s="44"/>
       <c r="G79" s="49"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="35"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51"/>
@@ -17244,7 +17430,7 @@
       <c r="F80" s="44"/>
       <c r="G80" s="49"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="35"/>
       <c r="B81" s="51"/>
       <c r="C81" s="51"/>
@@ -17253,7 +17439,7 @@
       <c r="F81" s="44"/>
       <c r="G81" s="49"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="35"/>
       <c r="B82" s="51"/>
       <c r="C82" s="51"/>
@@ -17262,7 +17448,7 @@
       <c r="F82" s="44"/>
       <c r="G82" s="49"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="35"/>
       <c r="B83" s="51"/>
       <c r="C83" s="51"/>
@@ -17271,7 +17457,7 @@
       <c r="F83" s="44"/>
       <c r="G83" s="49"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="35"/>
       <c r="B84" s="51"/>
       <c r="C84" s="51"/>
@@ -17280,7 +17466,7 @@
       <c r="F84" s="44"/>
       <c r="G84" s="49"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="35"/>
       <c r="B85" s="51"/>
       <c r="C85" s="51"/>
@@ -17289,7 +17475,7 @@
       <c r="F85" s="44"/>
       <c r="G85" s="49"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="35"/>
       <c r="B86" s="51"/>
       <c r="C86" s="51"/>
@@ -17298,7 +17484,7 @@
       <c r="F86" s="44"/>
       <c r="G86" s="49"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="35"/>
       <c r="B87" s="51"/>
       <c r="C87" s="51"/>
@@ -17307,7 +17493,7 @@
       <c r="F87" s="44"/>
       <c r="G87" s="49"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="35"/>
       <c r="B88" s="51"/>
       <c r="C88" s="51"/>
@@ -17316,7 +17502,7 @@
       <c r="F88" s="44"/>
       <c r="G88" s="49"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="35"/>
       <c r="B89" s="51"/>
       <c r="C89" s="51"/>
@@ -17325,7 +17511,7 @@
       <c r="F89" s="44"/>
       <c r="G89" s="49"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="35"/>
       <c r="B90" s="51"/>
       <c r="C90" s="51"/>
@@ -17334,7 +17520,7 @@
       <c r="F90" s="44"/>
       <c r="G90" s="49"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="35"/>
       <c r="B91" s="51"/>
       <c r="C91" s="51"/>
@@ -17343,7 +17529,7 @@
       <c r="F91" s="44"/>
       <c r="G91" s="49"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="35"/>
       <c r="B92" s="51"/>
       <c r="C92" s="51"/>
@@ -17352,7 +17538,7 @@
       <c r="F92" s="44"/>
       <c r="G92" s="49"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="35"/>
       <c r="B93" s="51"/>
       <c r="C93" s="51"/>
@@ -17361,7 +17547,7 @@
       <c r="F93" s="44"/>
       <c r="G93" s="49"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="35"/>
       <c r="B94" s="51"/>
       <c r="C94" s="51"/>
@@ -17370,7 +17556,7 @@
       <c r="F94" s="44"/>
       <c r="G94" s="49"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="35"/>
       <c r="B95" s="51"/>
       <c r="C95" s="51"/>
@@ -17379,7 +17565,7 @@
       <c r="F95" s="44"/>
       <c r="G95" s="49"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="35"/>
       <c r="B96" s="51"/>
       <c r="C96" s="51"/>
@@ -17388,7 +17574,7 @@
       <c r="F96" s="44"/>
       <c r="G96" s="49"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="35"/>
       <c r="B97" s="51"/>
       <c r="C97" s="51"/>
@@ -17397,7 +17583,7 @@
       <c r="F97" s="44"/>
       <c r="G97" s="49"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="35"/>
       <c r="B98" s="51"/>
       <c r="C98" s="51"/>
@@ -17406,7 +17592,7 @@
       <c r="F98" s="44"/>
       <c r="G98" s="49"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="35"/>
       <c r="B99" s="51"/>
       <c r="C99" s="51"/>
@@ -17415,7 +17601,7 @@
       <c r="F99" s="44"/>
       <c r="G99" s="49"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="35"/>
       <c r="B100" s="51"/>
       <c r="C100" s="51"/>
@@ -17439,7 +17625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
@@ -17447,17 +17633,17 @@
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -17470,10 +17656,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -17484,8 +17670,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -17508,7 +17694,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="87" t="s">
         <v>137</v>
       </c>
@@ -17532,7 +17718,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="88" t="s">
         <v>125</v>
       </c>
@@ -17556,7 +17742,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="87" t="s">
         <v>125</v>
       </c>
@@ -17580,7 +17766,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="87" t="s">
         <v>144</v>
       </c>
@@ -17604,7 +17790,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="87" t="s">
         <v>142</v>
       </c>
@@ -17628,7 +17814,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="88" t="s">
         <v>135</v>
       </c>
@@ -17652,7 +17838,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14">
       <c r="A12" s="87" t="s">
         <v>134</v>
       </c>
@@ -17676,7 +17862,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" s="87" t="s">
         <v>128</v>
       </c>
@@ -17700,7 +17886,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="87" t="s">
         <v>131</v>
       </c>
@@ -17724,7 +17910,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -17748,7 +17934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -17772,7 +17958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -17796,7 +17982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14">
       <c r="A18" s="95">
         <v>43749</v>
       </c>
@@ -17820,7 +18006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1">
       <c r="A19" s="87" t="s">
         <v>133</v>
       </c>
@@ -17844,7 +18030,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="87" t="s">
         <v>123</v>
       </c>
@@ -17868,7 +18054,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14">
       <c r="A21" s="47">
         <v>43755</v>
       </c>
@@ -17892,7 +18078,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14">
       <c r="A22" s="47">
         <v>43755</v>
       </c>
@@ -17916,7 +18102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="47">
         <v>43762</v>
       </c>
@@ -17940,7 +18126,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="95" t="s">
         <v>100</v>
       </c>
@@ -17964,7 +18150,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="47">
         <v>43764</v>
       </c>
@@ -17988,7 +18174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1">
       <c r="A26" s="87" t="s">
         <v>130</v>
       </c>
@@ -18012,7 +18198,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1">
       <c r="A27" s="50">
         <v>43767</v>
       </c>
@@ -18036,7 +18222,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14.5" customHeight="1">
       <c r="A28" s="50">
         <v>43769</v>
       </c>
@@ -18060,7 +18246,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1">
       <c r="A29" s="50">
         <v>43769</v>
       </c>
@@ -18084,7 +18270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="87" t="s">
         <v>140</v>
       </c>
@@ -18108,7 +18294,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="87" t="s">
         <v>146</v>
       </c>
@@ -18131,7 +18317,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32" s="87" t="s">
         <v>147</v>
       </c>
@@ -18154,7 +18340,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14">
       <c r="A33" s="87">
         <v>43782</v>
       </c>
@@ -18178,7 +18364,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14">
       <c r="A34" s="114" t="s">
         <v>191</v>
       </c>
@@ -18201,7 +18387,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="114" t="s">
         <v>193</v>
       </c>
@@ -18224,7 +18410,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="114" t="s">
         <v>196</v>
       </c>
@@ -18247,7 +18433,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15" customHeight="1">
       <c r="A37" s="87"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -18256,7 +18442,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="87"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -18265,7 +18451,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="87"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -18274,7 +18460,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="87"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -18283,7 +18469,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="87"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -18292,7 +18478,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" customHeight="1">
       <c r="A42" s="87"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -18301,7 +18487,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" s="87"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -18310,7 +18496,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" customHeight="1">
       <c r="A44" s="87"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -18319,7 +18505,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -18328,7 +18514,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15" customHeight="1">
       <c r="A46" s="91"/>
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choijaeyoung/Desktop/babalzza-master/Project Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinwo\Desktop\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C51ED57-97FF-AF4E-BB2E-A1097FF85234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AAB3F6-F22A-4719-8178-908D56D50D7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22080" windowHeight="13180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="202">
   <si>
     <r>
       <rPr>
@@ -10833,6 +10833,22 @@
         <family val="2"/>
       </rPr>
       <t>(Delete 구현)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 23일</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -11264,14 +11280,14 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -11592,19 +11608,19 @@
       <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="87" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="87" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="51" customWidth="1"/>
     <col min="3" max="3" width="7" style="51" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="58" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="58" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="46.5" style="39" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" style="39" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>41</v>
       </c>
@@ -11617,10 +11633,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="97" t="s">
         <v>127</v>
       </c>
@@ -11631,8 +11647,8 @@
       <c r="E3" s="77"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="98" t="s">
         <v>129</v>
       </c>
@@ -11847,7 +11863,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14">
+    <row r="14" spans="1:7" ht="13.8">
       <c r="A14" s="87">
         <v>43728</v>
       </c>
@@ -11967,7 +11983,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14">
+    <row r="19" spans="1:7" ht="13.8">
       <c r="A19" s="87">
         <v>43739</v>
       </c>
@@ -12063,7 +12079,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14">
+    <row r="23" spans="1:7" ht="13.8">
       <c r="A23" s="89">
         <v>43748</v>
       </c>
@@ -12087,7 +12103,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14">
+    <row r="24" spans="1:7" ht="13.8">
       <c r="A24" s="95">
         <v>43749</v>
       </c>
@@ -12135,7 +12151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14">
+    <row r="26" spans="1:7" ht="13.8">
       <c r="A26" s="89">
         <v>43755</v>
       </c>
@@ -12159,7 +12175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="89">
         <v>43755</v>
       </c>
@@ -12183,7 +12199,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14">
+    <row r="28" spans="1:7" ht="13.8">
       <c r="A28" s="89">
         <v>43755</v>
       </c>
@@ -12207,7 +12223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="89">
         <v>43761</v>
       </c>
@@ -12471,7 +12487,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.5" customHeight="1">
+    <row r="40" spans="1:7" ht="14.55" customHeight="1">
       <c r="A40" s="95">
         <v>43767</v>
       </c>
@@ -12495,7 +12511,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.5" customHeight="1">
+    <row r="41" spans="1:7" ht="14.55" customHeight="1">
       <c r="A41" s="95">
         <v>43769</v>
       </c>
@@ -12615,7 +12631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14">
+    <row r="46" spans="1:7" ht="13.8">
       <c r="A46" s="87">
         <v>43770</v>
       </c>
@@ -12639,7 +12655,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14">
+    <row r="47" spans="1:7" ht="13.8">
       <c r="A47" s="87">
         <v>43770</v>
       </c>
@@ -12663,7 +12679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14">
+    <row r="48" spans="1:7" ht="13.8">
       <c r="A48" s="95" t="s">
         <v>138</v>
       </c>
@@ -12687,7 +12703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14">
+    <row r="49" spans="1:7" ht="13.8">
       <c r="A49" s="99" t="s">
         <v>138</v>
       </c>
@@ -12711,7 +12727,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14">
+    <row r="50" spans="1:7" ht="13.8">
       <c r="A50" s="87">
         <v>43774</v>
       </c>
@@ -12735,7 +12751,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14">
+    <row r="51" spans="1:7" ht="13.8">
       <c r="A51" s="87">
         <v>43774</v>
       </c>
@@ -12759,7 +12775,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14">
+    <row r="52" spans="1:7" ht="13.8">
       <c r="A52" s="87">
         <v>43775</v>
       </c>
@@ -12783,7 +12799,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14">
+    <row r="53" spans="1:7" ht="13.8">
       <c r="A53" s="87">
         <v>43776</v>
       </c>
@@ -12807,7 +12823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14">
+    <row r="54" spans="1:7" ht="13.8">
       <c r="A54" s="87">
         <v>43776</v>
       </c>
@@ -12831,7 +12847,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14">
+    <row r="55" spans="1:7" ht="13.8">
       <c r="A55" s="87">
         <v>43778</v>
       </c>
@@ -12855,7 +12871,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14">
+    <row r="56" spans="1:7" ht="13.8">
       <c r="A56" s="87">
         <v>43779</v>
       </c>
@@ -12879,7 +12895,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14">
+    <row r="57" spans="1:7" ht="13.8">
       <c r="A57" s="87">
         <v>43780</v>
       </c>
@@ -12903,7 +12919,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14">
+    <row r="58" spans="1:7" ht="13.8">
       <c r="A58" s="87">
         <v>43781</v>
       </c>
@@ -12927,7 +12943,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14">
+    <row r="59" spans="1:7" ht="13.8">
       <c r="A59" s="87">
         <v>43781</v>
       </c>
@@ -12951,7 +12967,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14">
+    <row r="60" spans="1:7" ht="13.8">
       <c r="A60" s="87">
         <v>43781</v>
       </c>
@@ -12975,7 +12991,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14">
+    <row r="61" spans="1:7" ht="13.8">
       <c r="A61" s="87">
         <v>43782</v>
       </c>
@@ -12999,7 +13015,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14">
+    <row r="62" spans="1:7" ht="13.8">
       <c r="A62" s="87">
         <v>43782</v>
       </c>
@@ -13023,7 +13039,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="14">
+    <row r="63" spans="1:7" ht="13.8">
       <c r="A63" s="87">
         <v>43785</v>
       </c>
@@ -13047,7 +13063,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14">
+    <row r="64" spans="1:7" ht="13.8">
       <c r="A64" s="87">
         <v>43785</v>
       </c>
@@ -13071,7 +13087,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="14">
+    <row r="65" spans="1:14" ht="13.8">
       <c r="A65" s="87">
         <v>43785</v>
       </c>
@@ -13095,7 +13111,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="14">
+    <row r="66" spans="1:14" ht="13.8">
       <c r="A66" s="87">
         <v>43786</v>
       </c>
@@ -13119,7 +13135,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="14">
+    <row r="67" spans="1:14" ht="13.8">
       <c r="A67" s="87">
         <v>43788</v>
       </c>
@@ -13143,7 +13159,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="14">
+    <row r="68" spans="1:14" ht="13.8">
       <c r="A68" s="87">
         <v>43791</v>
       </c>
@@ -13167,7 +13183,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="14">
+    <row r="69" spans="1:14" ht="13.8">
       <c r="A69" s="87">
         <v>43791</v>
       </c>
@@ -13219,17 +13235,17 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="55.5" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.75" customHeight="1">
+    <row r="1" spans="1:10" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -13242,10 +13258,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.75" customHeight="1">
+    <row r="2" spans="1:10" ht="11.7" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:10" ht="11.75" customHeight="1">
+    <row r="3" spans="1:10" ht="11.7" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -13256,8 +13272,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:10" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:10" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:10" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -13473,7 +13489,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10" ht="15.6">
       <c r="A14" s="89" t="s">
         <v>131</v>
       </c>
@@ -13497,7 +13513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15">
+    <row r="15" spans="1:10" ht="15.6">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -13521,7 +13537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" ht="15.6">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -13545,7 +13561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15">
+    <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -13569,7 +13585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14">
+    <row r="18" spans="1:7" ht="13.8">
       <c r="A18" s="50">
         <v>43749</v>
       </c>
@@ -13593,7 +13609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14">
+    <row r="19" spans="1:7" ht="13.8">
       <c r="A19" s="47">
         <v>43755</v>
       </c>
@@ -13617,7 +13633,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14">
+    <row r="20" spans="1:7" ht="13.8">
       <c r="A20" s="47">
         <v>43755</v>
       </c>
@@ -13737,7 +13753,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.5" customHeight="1">
+    <row r="25" spans="1:7" ht="14.55" customHeight="1">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -13785,7 +13801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15">
+    <row r="27" spans="1:7" ht="15.6">
       <c r="A27" s="99" t="s">
         <v>145</v>
       </c>
@@ -13809,7 +13825,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14">
+    <row r="28" spans="1:7" ht="13.8">
       <c r="A28" s="87">
         <v>43779</v>
       </c>
@@ -13833,7 +13849,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="87">
         <v>43782</v>
       </c>
@@ -13857,7 +13873,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15">
+    <row r="30" spans="1:7" ht="15.6">
       <c r="A30" s="114" t="s">
         <v>181</v>
       </c>
@@ -14035,17 +14051,17 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" style="5" customWidth="1"/>
     <col min="7" max="7" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -14058,10 +14074,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>127</v>
       </c>
@@ -14072,8 +14088,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="8" t="s">
         <v>129</v>
       </c>
@@ -14288,7 +14304,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14">
+    <row r="14" spans="1:7" ht="13.8">
       <c r="A14" s="10">
         <v>43739</v>
       </c>
@@ -14312,7 +14328,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14">
+    <row r="15" spans="1:7" ht="13.8">
       <c r="A15" s="35">
         <v>43739</v>
       </c>
@@ -14408,7 +14424,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -14432,7 +14448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -14456,7 +14472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -14480,7 +14496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14">
+    <row r="22" spans="1:7" ht="13.8">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -14504,7 +14520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" ht="15.6">
       <c r="A23" s="35">
         <v>43750</v>
       </c>
@@ -14600,7 +14616,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="47">
         <v>43755</v>
       </c>
@@ -14624,7 +14640,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14">
+    <row r="28" spans="1:7" ht="13.8">
       <c r="A28" s="47">
         <v>43755</v>
       </c>
@@ -14648,7 +14664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="10">
         <v>43760</v>
       </c>
@@ -14768,7 +14784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14">
+    <row r="34" spans="1:7" ht="13.8">
       <c r="A34" s="35">
         <v>43770</v>
       </c>
@@ -14960,7 +14976,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14">
+    <row r="42" spans="1:7" ht="13.8">
       <c r="A42" s="87">
         <v>43779</v>
       </c>
@@ -15008,7 +15024,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14">
+    <row r="44" spans="1:7" ht="13.8">
       <c r="A44" s="87">
         <v>43782</v>
       </c>
@@ -15229,17 +15245,17 @@
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="65" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="65" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.5" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -15252,10 +15268,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -15266,8 +15282,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -15434,7 +15450,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="89">
         <v>43746</v>
       </c>
@@ -15458,7 +15474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="89">
         <v>43748</v>
       </c>
@@ -15482,7 +15498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="87">
         <v>43749</v>
       </c>
@@ -15506,7 +15522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14">
+    <row r="15" spans="1:7" ht="13.8">
       <c r="A15" s="50">
         <v>43749</v>
       </c>
@@ -15554,7 +15570,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14">
+    <row r="17" spans="1:7" ht="13.8">
       <c r="A17" s="47">
         <v>43755</v>
       </c>
@@ -15626,7 +15642,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="94" t="s">
         <v>141</v>
       </c>
@@ -15722,7 +15738,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.5" customHeight="1">
+    <row r="24" spans="1:7" ht="14.55" customHeight="1">
       <c r="A24" s="50">
         <v>43769</v>
       </c>
@@ -15770,7 +15786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14">
+    <row r="26" spans="1:7" ht="13.8">
       <c r="A26" s="35">
         <v>43770</v>
       </c>
@@ -15794,7 +15810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="87">
         <v>43779</v>
       </c>
@@ -15987,21 +16003,21 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
     <col min="6" max="6" width="38.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -16014,10 +16030,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="83"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="84" t="s">
         <v>127</v>
       </c>
@@ -16028,8 +16044,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -16052,7 +16068,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="87">
         <v>43715</v>
       </c>
@@ -16076,7 +16092,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14">
+    <row r="7" spans="1:7" ht="13.8">
       <c r="A7" s="88">
         <v>43727</v>
       </c>
@@ -16100,7 +16116,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14">
+    <row r="8" spans="1:7" ht="13.8">
       <c r="A8" s="87">
         <v>43727</v>
       </c>
@@ -16124,7 +16140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14">
+    <row r="9" spans="1:7" ht="13.8">
       <c r="A9" s="87">
         <v>43728</v>
       </c>
@@ -16172,7 +16188,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14">
+    <row r="11" spans="1:7" ht="13.8">
       <c r="A11" s="87">
         <v>43735</v>
       </c>
@@ -16196,7 +16212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14">
+    <row r="12" spans="1:7" ht="13.8">
       <c r="A12" s="87">
         <v>43737</v>
       </c>
@@ -16220,7 +16236,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14">
+    <row r="13" spans="1:7" ht="13.8">
       <c r="A13" s="87">
         <v>43738</v>
       </c>
@@ -16244,7 +16260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14">
+    <row r="14" spans="1:7" ht="13.8">
       <c r="A14" s="87">
         <v>43739</v>
       </c>
@@ -16268,7 +16284,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14">
+    <row r="15" spans="1:7" ht="13.8">
       <c r="A15" s="89">
         <v>43739</v>
       </c>
@@ -16292,7 +16308,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14">
+    <row r="16" spans="1:7" ht="13.8">
       <c r="A16" s="87">
         <v>43744</v>
       </c>
@@ -16316,7 +16332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14">
+    <row r="17" spans="1:7" ht="13.8">
       <c r="A17" s="87">
         <v>43744</v>
       </c>
@@ -16340,7 +16356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14">
+    <row r="18" spans="1:7" ht="13.8">
       <c r="A18" s="87">
         <v>43744</v>
       </c>
@@ -16364,7 +16380,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -16388,7 +16404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -16412,7 +16428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -16436,7 +16452,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14">
+    <row r="22" spans="1:7" ht="13.8">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -16460,7 +16476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14">
+    <row r="23" spans="1:7" ht="13.8">
       <c r="A23" s="87">
         <v>43751</v>
       </c>
@@ -16484,7 +16500,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="15.6">
       <c r="A24" s="87">
         <v>43751</v>
       </c>
@@ -16556,7 +16572,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="87">
         <v>43753</v>
       </c>
@@ -16604,7 +16620,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="90">
         <v>43754</v>
       </c>
@@ -16628,7 +16644,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14">
+    <row r="30" spans="1:7" ht="13.8">
       <c r="A30" s="90">
         <v>43754</v>
       </c>
@@ -16676,7 +16692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14">
+    <row r="32" spans="1:7" ht="13.8">
       <c r="A32" s="47">
         <v>43755</v>
       </c>
@@ -16700,7 +16716,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.5" customHeight="1">
+    <row r="33" spans="1:7" ht="14.55" customHeight="1">
       <c r="A33" s="90">
         <v>43755</v>
       </c>
@@ -16724,7 +16740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14">
+    <row r="34" spans="1:7" ht="13.8">
       <c r="A34" s="47">
         <v>43755</v>
       </c>
@@ -16964,7 +16980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14">
+    <row r="44" spans="1:7" ht="13.8">
       <c r="A44" s="35">
         <v>43770</v>
       </c>
@@ -17008,11 +17024,11 @@
       <c r="F45" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="118" t="s">
+      <c r="G45" s="120" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14">
+    <row r="46" spans="1:7" ht="13.8">
       <c r="A46" s="35">
         <v>43772</v>
       </c>
@@ -17032,9 +17048,9 @@
       <c r="F46" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="119"/>
-    </row>
-    <row r="47" spans="1:7" ht="14">
+      <c r="G46" s="121"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.8">
       <c r="A47" s="87">
         <v>43779</v>
       </c>
@@ -17058,7 +17074,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14">
+    <row r="48" spans="1:7" ht="13.8">
       <c r="A48" s="87">
         <v>43782</v>
       </c>
@@ -17082,7 +17098,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14">
+    <row r="49" spans="1:7" ht="13.8">
       <c r="A49" s="35">
         <v>43783</v>
       </c>
@@ -17130,11 +17146,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15">
+    <row r="51" spans="1:7" ht="15.6">
       <c r="A51" s="35">
         <v>43791</v>
       </c>
-      <c r="B51" s="120">
+      <c r="B51" s="118">
         <v>0.625</v>
       </c>
       <c r="C51" s="51">
@@ -17150,11 +17166,11 @@
       <c r="F51" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="G51" s="121" t="s">
+      <c r="G51" s="119" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15">
+    <row r="52" spans="1:7" ht="15.6">
       <c r="A52" s="35">
         <v>43792</v>
       </c>
@@ -17174,7 +17190,7 @@
       <c r="F52" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="G52" s="121" t="s">
+      <c r="G52" s="119" t="s">
         <v>200</v>
       </c>
     </row>
@@ -17629,21 +17645,21 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.5" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -17656,10 +17672,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -17670,8 +17686,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -17838,7 +17854,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14">
+    <row r="12" spans="1:7" ht="13.8">
       <c r="A12" s="87" t="s">
         <v>134</v>
       </c>
@@ -17910,7 +17926,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -17934,7 +17950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -17958,7 +17974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15">
+    <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -17982,7 +17998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14">
+    <row r="18" spans="1:7" ht="13.8">
       <c r="A18" s="95">
         <v>43749</v>
       </c>
@@ -18054,7 +18070,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14">
+    <row r="21" spans="1:7" ht="13.8">
       <c r="A21" s="47">
         <v>43755</v>
       </c>
@@ -18078,7 +18094,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14">
+    <row r="22" spans="1:7" ht="13.8">
       <c r="A22" s="47">
         <v>43755</v>
       </c>
@@ -18222,7 +18238,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.5" customHeight="1">
+    <row r="28" spans="1:7" ht="14.55" customHeight="1">
       <c r="A28" s="50">
         <v>43769</v>
       </c>
@@ -18340,7 +18356,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14">
+    <row r="33" spans="1:7" ht="13.8">
       <c r="A33" s="87">
         <v>43782</v>
       </c>
@@ -18364,7 +18380,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14">
+    <row r="34" spans="1:7" ht="13.8">
       <c r="A34" s="114" t="s">
         <v>191</v>
       </c>
@@ -18434,13 +18450,27 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1">
-      <c r="A37" s="87"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="2"/>
+      <c r="A37" s="114" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="51">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C37" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="32">
+        <v>30</v>
+      </c>
+      <c r="E37" s="19">
+        <v>270</v>
+      </c>
+      <c r="F37" s="117" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="87"/>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinwo\Desktop\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choijaeyoung/Desktop/babalzza-master/Project Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AAB3F6-F22A-4719-8178-908D56D50D7E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF3D9F1-4792-6143-A209-9A8958967EF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22080" windowHeight="13180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="203">
   <si>
     <r>
       <rPr>
@@ -10850,6 +10850,10 @@
       </rPr>
       <t xml:space="preserve"> 23일</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>식재료 관리(Update 구현)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -11608,19 +11612,19 @@
       <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="87" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="87" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="51" customWidth="1"/>
     <col min="3" max="3" width="7" style="51" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="58" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="46.5" style="39" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>41</v>
       </c>
@@ -11633,10 +11637,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="97" t="s">
         <v>127</v>
       </c>
@@ -11647,8 +11651,8 @@
       <c r="E3" s="77"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="98" t="s">
         <v>129</v>
       </c>
@@ -11863,7 +11867,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8">
+    <row r="14" spans="1:7" ht="14">
       <c r="A14" s="87">
         <v>43728</v>
       </c>
@@ -11983,7 +11987,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8">
+    <row r="19" spans="1:7" ht="14">
       <c r="A19" s="87">
         <v>43739</v>
       </c>
@@ -12079,7 +12083,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8">
+    <row r="23" spans="1:7" ht="14">
       <c r="A23" s="89">
         <v>43748</v>
       </c>
@@ -12103,7 +12107,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.8">
+    <row r="24" spans="1:7" ht="14">
       <c r="A24" s="95">
         <v>43749</v>
       </c>
@@ -12151,7 +12155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8">
+    <row r="26" spans="1:7" ht="14">
       <c r="A26" s="89">
         <v>43755</v>
       </c>
@@ -12175,7 +12179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7" ht="14">
       <c r="A27" s="89">
         <v>43755</v>
       </c>
@@ -12199,7 +12203,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8">
+    <row r="28" spans="1:7" ht="14">
       <c r="A28" s="89">
         <v>43755</v>
       </c>
@@ -12223,7 +12227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7" ht="14">
       <c r="A29" s="89">
         <v>43761</v>
       </c>
@@ -12487,7 +12491,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.55" customHeight="1">
+    <row r="40" spans="1:7" ht="14.5" customHeight="1">
       <c r="A40" s="95">
         <v>43767</v>
       </c>
@@ -12511,7 +12515,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.55" customHeight="1">
+    <row r="41" spans="1:7" ht="14.5" customHeight="1">
       <c r="A41" s="95">
         <v>43769</v>
       </c>
@@ -12631,7 +12635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.8">
+    <row r="46" spans="1:7" ht="14">
       <c r="A46" s="87">
         <v>43770</v>
       </c>
@@ -12655,7 +12659,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13.8">
+    <row r="47" spans="1:7" ht="14">
       <c r="A47" s="87">
         <v>43770</v>
       </c>
@@ -12679,7 +12683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8">
+    <row r="48" spans="1:7" ht="14">
       <c r="A48" s="95" t="s">
         <v>138</v>
       </c>
@@ -12703,7 +12707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.8">
+    <row r="49" spans="1:7" ht="14">
       <c r="A49" s="99" t="s">
         <v>138</v>
       </c>
@@ -12727,7 +12731,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13.8">
+    <row r="50" spans="1:7" ht="14">
       <c r="A50" s="87">
         <v>43774</v>
       </c>
@@ -12751,7 +12755,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13.8">
+    <row r="51" spans="1:7" ht="14">
       <c r="A51" s="87">
         <v>43774</v>
       </c>
@@ -12775,7 +12779,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="13.8">
+    <row r="52" spans="1:7" ht="14">
       <c r="A52" s="87">
         <v>43775</v>
       </c>
@@ -12799,7 +12803,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="13.8">
+    <row r="53" spans="1:7" ht="14">
       <c r="A53" s="87">
         <v>43776</v>
       </c>
@@ -12823,7 +12827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="13.8">
+    <row r="54" spans="1:7" ht="14">
       <c r="A54" s="87">
         <v>43776</v>
       </c>
@@ -12847,7 +12851,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="13.8">
+    <row r="55" spans="1:7" ht="14">
       <c r="A55" s="87">
         <v>43778</v>
       </c>
@@ -12871,7 +12875,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="13.8">
+    <row r="56" spans="1:7" ht="14">
       <c r="A56" s="87">
         <v>43779</v>
       </c>
@@ -12895,7 +12899,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="13.8">
+    <row r="57" spans="1:7" ht="14">
       <c r="A57" s="87">
         <v>43780</v>
       </c>
@@ -12919,7 +12923,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="13.8">
+    <row r="58" spans="1:7" ht="14">
       <c r="A58" s="87">
         <v>43781</v>
       </c>
@@ -12943,7 +12947,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13.8">
+    <row r="59" spans="1:7" ht="14">
       <c r="A59" s="87">
         <v>43781</v>
       </c>
@@ -12967,7 +12971,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="13.8">
+    <row r="60" spans="1:7" ht="14">
       <c r="A60" s="87">
         <v>43781</v>
       </c>
@@ -12991,7 +12995,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="13.8">
+    <row r="61" spans="1:7" ht="14">
       <c r="A61" s="87">
         <v>43782</v>
       </c>
@@ -13015,7 +13019,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13.8">
+    <row r="62" spans="1:7" ht="14">
       <c r="A62" s="87">
         <v>43782</v>
       </c>
@@ -13039,7 +13043,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13.8">
+    <row r="63" spans="1:7" ht="14">
       <c r="A63" s="87">
         <v>43785</v>
       </c>
@@ -13063,7 +13067,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="13.8">
+    <row r="64" spans="1:7" ht="14">
       <c r="A64" s="87">
         <v>43785</v>
       </c>
@@ -13087,7 +13091,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="13.8">
+    <row r="65" spans="1:14" ht="14">
       <c r="A65" s="87">
         <v>43785</v>
       </c>
@@ -13111,7 +13115,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="13.8">
+    <row r="66" spans="1:14" ht="14">
       <c r="A66" s="87">
         <v>43786</v>
       </c>
@@ -13135,7 +13139,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="13.8">
+    <row r="67" spans="1:14" ht="14">
       <c r="A67" s="87">
         <v>43788</v>
       </c>
@@ -13159,7 +13163,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="13.8">
+    <row r="68" spans="1:14" ht="14">
       <c r="A68" s="87">
         <v>43791</v>
       </c>
@@ -13183,7 +13187,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="13.8">
+    <row r="69" spans="1:14" ht="14">
       <c r="A69" s="87">
         <v>43791</v>
       </c>
@@ -13235,17 +13239,17 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.7" customHeight="1">
+    <row r="1" spans="1:10" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -13258,10 +13262,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.7" customHeight="1">
+    <row r="2" spans="1:10" ht="11.75" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:10" ht="11.7" customHeight="1">
+    <row r="3" spans="1:10" ht="11.75" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -13272,8 +13276,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:10" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:10" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:10" s="7" customFormat="1" ht="28">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -13489,7 +13493,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="89" t="s">
         <v>131</v>
       </c>
@@ -13513,7 +13517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6">
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -13537,7 +13541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -13561,7 +13565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6">
+    <row r="17" spans="1:7" ht="15">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -13585,7 +13589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8">
+    <row r="18" spans="1:7" ht="14">
       <c r="A18" s="50">
         <v>43749</v>
       </c>
@@ -13609,7 +13613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8">
+    <row r="19" spans="1:7" ht="14">
       <c r="A19" s="47">
         <v>43755</v>
       </c>
@@ -13633,7 +13637,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.8">
+    <row r="20" spans="1:7" ht="14">
       <c r="A20" s="47">
         <v>43755</v>
       </c>
@@ -13753,7 +13757,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.55" customHeight="1">
+    <row r="25" spans="1:7" ht="14.5" customHeight="1">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -13801,7 +13805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.6">
+    <row r="27" spans="1:7" ht="15">
       <c r="A27" s="99" t="s">
         <v>145</v>
       </c>
@@ -13825,7 +13829,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8">
+    <row r="28" spans="1:7" ht="14">
       <c r="A28" s="87">
         <v>43779</v>
       </c>
@@ -13849,7 +13853,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7" ht="14">
       <c r="A29" s="87">
         <v>43782</v>
       </c>
@@ -13873,7 +13877,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.6">
+    <row r="30" spans="1:7" ht="15">
       <c r="A30" s="114" t="s">
         <v>181</v>
       </c>
@@ -14051,17 +14055,17 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -14074,10 +14078,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>127</v>
       </c>
@@ -14088,8 +14092,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="8" t="s">
         <v>129</v>
       </c>
@@ -14304,7 +14308,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8">
+    <row r="14" spans="1:7" ht="14">
       <c r="A14" s="10">
         <v>43739</v>
       </c>
@@ -14328,7 +14332,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8">
+    <row r="15" spans="1:7" ht="14">
       <c r="A15" s="35">
         <v>43739</v>
       </c>
@@ -14424,7 +14428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6">
+    <row r="19" spans="1:7" ht="15">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -14448,7 +14452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -14472,7 +14476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6">
+    <row r="21" spans="1:7" ht="15">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -14496,7 +14500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8">
+    <row r="22" spans="1:7" ht="14">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -14520,7 +14524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.6">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="35">
         <v>43750</v>
       </c>
@@ -14616,7 +14620,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7" ht="14">
       <c r="A27" s="47">
         <v>43755</v>
       </c>
@@ -14640,7 +14644,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8">
+    <row r="28" spans="1:7" ht="14">
       <c r="A28" s="47">
         <v>43755</v>
       </c>
@@ -14664,7 +14668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7" ht="14">
       <c r="A29" s="10">
         <v>43760</v>
       </c>
@@ -14784,7 +14788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8">
+    <row r="34" spans="1:7" ht="14">
       <c r="A34" s="35">
         <v>43770</v>
       </c>
@@ -14976,7 +14980,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.8">
+    <row r="42" spans="1:7" ht="14">
       <c r="A42" s="87">
         <v>43779</v>
       </c>
@@ -15024,7 +15028,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8">
+    <row r="44" spans="1:7" ht="14">
       <c r="A44" s="87">
         <v>43782</v>
       </c>
@@ -15245,17 +15249,17 @@
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="65" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -15268,10 +15272,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -15282,8 +15286,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -15450,7 +15454,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="89">
         <v>43746</v>
       </c>
@@ -15474,7 +15478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" s="89">
         <v>43748</v>
       </c>
@@ -15498,7 +15502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6">
+    <row r="14" spans="1:7" ht="15">
       <c r="A14" s="87">
         <v>43749</v>
       </c>
@@ -15522,7 +15526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8">
+    <row r="15" spans="1:7" ht="14">
       <c r="A15" s="50">
         <v>43749</v>
       </c>
@@ -15570,7 +15574,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8">
+    <row r="17" spans="1:7" ht="14">
       <c r="A17" s="47">
         <v>43755</v>
       </c>
@@ -15642,7 +15646,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="94" t="s">
         <v>141</v>
       </c>
@@ -15738,7 +15742,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.55" customHeight="1">
+    <row r="24" spans="1:7" ht="14.5" customHeight="1">
       <c r="A24" s="50">
         <v>43769</v>
       </c>
@@ -15786,7 +15790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8">
+    <row r="26" spans="1:7" ht="14">
       <c r="A26" s="35">
         <v>43770</v>
       </c>
@@ -15810,7 +15814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7" ht="14">
       <c r="A27" s="87">
         <v>43779</v>
       </c>
@@ -16003,21 +16007,21 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
     <col min="6" max="6" width="38.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -16030,10 +16034,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="83"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="84" t="s">
         <v>127</v>
       </c>
@@ -16044,8 +16048,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -16068,7 +16072,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7" ht="14">
       <c r="A6" s="87">
         <v>43715</v>
       </c>
@@ -16082,7 +16086,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="68">
-        <f t="shared" ref="E6:E52" si="0">C6-B6-(D6/24/60)</f>
+        <f t="shared" ref="E6:E54" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -16092,7 +16096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8">
+    <row r="7" spans="1:7" ht="14">
       <c r="A7" s="88">
         <v>43727</v>
       </c>
@@ -16116,7 +16120,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.8">
+    <row r="8" spans="1:7" ht="14">
       <c r="A8" s="87">
         <v>43727</v>
       </c>
@@ -16140,7 +16144,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.8">
+    <row r="9" spans="1:7" ht="14">
       <c r="A9" s="87">
         <v>43728</v>
       </c>
@@ -16188,7 +16192,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.8">
+    <row r="11" spans="1:7" ht="14">
       <c r="A11" s="87">
         <v>43735</v>
       </c>
@@ -16212,7 +16216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8">
+    <row r="12" spans="1:7" ht="14">
       <c r="A12" s="87">
         <v>43737</v>
       </c>
@@ -16236,7 +16240,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8">
+    <row r="13" spans="1:7" ht="14">
       <c r="A13" s="87">
         <v>43738</v>
       </c>
@@ -16260,7 +16264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8">
+    <row r="14" spans="1:7" ht="14">
       <c r="A14" s="87">
         <v>43739</v>
       </c>
@@ -16284,7 +16288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8">
+    <row r="15" spans="1:7" ht="14">
       <c r="A15" s="89">
         <v>43739</v>
       </c>
@@ -16308,7 +16312,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.8">
+    <row r="16" spans="1:7" ht="14">
       <c r="A16" s="87">
         <v>43744</v>
       </c>
@@ -16332,7 +16336,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8">
+    <row r="17" spans="1:7" ht="14">
       <c r="A17" s="87">
         <v>43744</v>
       </c>
@@ -16356,7 +16360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8">
+    <row r="18" spans="1:7" ht="14">
       <c r="A18" s="87">
         <v>43744</v>
       </c>
@@ -16380,7 +16384,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6">
+    <row r="19" spans="1:7" ht="15">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -16404,7 +16408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -16428,7 +16432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6">
+    <row r="21" spans="1:7" ht="15">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -16452,7 +16456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8">
+    <row r="22" spans="1:7" ht="14">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -16476,7 +16480,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8">
+    <row r="23" spans="1:7" ht="14">
       <c r="A23" s="87">
         <v>43751</v>
       </c>
@@ -16500,7 +16504,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="87">
         <v>43751</v>
       </c>
@@ -16572,7 +16576,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7" ht="14">
       <c r="A27" s="87">
         <v>43753</v>
       </c>
@@ -16620,7 +16624,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7" ht="14">
       <c r="A29" s="90">
         <v>43754</v>
       </c>
@@ -16644,7 +16648,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.8">
+    <row r="30" spans="1:7" ht="14">
       <c r="A30" s="90">
         <v>43754</v>
       </c>
@@ -16692,7 +16696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8">
+    <row r="32" spans="1:7" ht="14">
       <c r="A32" s="47">
         <v>43755</v>
       </c>
@@ -16716,7 +16720,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.55" customHeight="1">
+    <row r="33" spans="1:7" ht="14.5" customHeight="1">
       <c r="A33" s="90">
         <v>43755</v>
       </c>
@@ -16740,7 +16744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8">
+    <row r="34" spans="1:7" ht="14">
       <c r="A34" s="47">
         <v>43755</v>
       </c>
@@ -16980,7 +16984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8">
+    <row r="44" spans="1:7" ht="14">
       <c r="A44" s="35">
         <v>43770</v>
       </c>
@@ -17028,7 +17032,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.8">
+    <row r="46" spans="1:7" ht="14">
       <c r="A46" s="35">
         <v>43772</v>
       </c>
@@ -17050,7 +17054,7 @@
       </c>
       <c r="G46" s="121"/>
     </row>
-    <row r="47" spans="1:7" ht="13.8">
+    <row r="47" spans="1:7" ht="14">
       <c r="A47" s="87">
         <v>43779</v>
       </c>
@@ -17074,7 +17078,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8">
+    <row r="48" spans="1:7" ht="14">
       <c r="A48" s="87">
         <v>43782</v>
       </c>
@@ -17098,7 +17102,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.8">
+    <row r="49" spans="1:7" ht="14">
       <c r="A49" s="35">
         <v>43783</v>
       </c>
@@ -17146,7 +17150,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.6">
+    <row r="51" spans="1:7" ht="15">
       <c r="A51" s="35">
         <v>43791</v>
       </c>
@@ -17170,7 +17174,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.6">
+    <row r="52" spans="1:7" ht="15">
       <c r="A52" s="35">
         <v>43792</v>
       </c>
@@ -17195,22 +17199,52 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="35"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="49"/>
+      <c r="A53" s="35">
+        <v>43792</v>
+      </c>
+      <c r="B53" s="51">
+        <v>0.875</v>
+      </c>
+      <c r="C53" s="51">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D53" s="32">
+        <v>0</v>
+      </c>
+      <c r="E53" s="58">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="F53" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="113" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="35"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="49"/>
+      <c r="A54" s="35">
+        <v>43793</v>
+      </c>
+      <c r="B54" s="51">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C54" s="51">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D54" s="32">
+        <v>0</v>
+      </c>
+      <c r="E54" s="58">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F54" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="G54" s="113" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="35"/>
@@ -17645,21 +17679,21 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -17672,10 +17706,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -17686,8 +17720,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -17854,7 +17888,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8">
+    <row r="12" spans="1:7" ht="14">
       <c r="A12" s="87" t="s">
         <v>134</v>
       </c>
@@ -17926,7 +17960,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6">
+    <row r="15" spans="1:7" ht="15">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -17950,7 +17984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6">
+    <row r="16" spans="1:7" ht="15">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -17974,7 +18008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6">
+    <row r="17" spans="1:7" ht="15">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -17998,7 +18032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8">
+    <row r="18" spans="1:7" ht="14">
       <c r="A18" s="95">
         <v>43749</v>
       </c>
@@ -18070,7 +18104,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.8">
+    <row r="21" spans="1:7" ht="14">
       <c r="A21" s="47">
         <v>43755</v>
       </c>
@@ -18094,7 +18128,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8">
+    <row r="22" spans="1:7" ht="14">
       <c r="A22" s="47">
         <v>43755</v>
       </c>
@@ -18238,7 +18272,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.55" customHeight="1">
+    <row r="28" spans="1:7" ht="14.5" customHeight="1">
       <c r="A28" s="50">
         <v>43769</v>
       </c>
@@ -18356,7 +18390,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8">
+    <row r="33" spans="1:7" ht="14">
       <c r="A33" s="87">
         <v>43782</v>
       </c>
@@ -18380,7 +18414,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8">
+    <row r="34" spans="1:7" ht="14">
       <c r="A34" s="114" t="s">
         <v>191</v>
       </c>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choijaeyoung/Desktop/babalzza-master/Project Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF3D9F1-4792-6143-A209-9A8958967EF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBDB47A-4E97-F545-8040-946D11567F4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22080" windowHeight="13180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="203">
   <si>
     <r>
       <rPr>
@@ -16008,7 +16008,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
@@ -16086,7 +16086,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="68">
-        <f t="shared" ref="E6:E54" si="0">C6-B6-(D6/24/60)</f>
+        <f t="shared" ref="E6:E55" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -17247,13 +17247,28 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="35"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="49"/>
+      <c r="A55" s="35">
+        <v>43793</v>
+      </c>
+      <c r="B55" s="51">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C55" s="51">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D55" s="32">
+        <v>0</v>
+      </c>
+      <c r="E55" s="58">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="F55" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="G55" s="113" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="35"/>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choijaeyoung/Desktop/babalzza-master/Project Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBDB47A-4E97-F545-8040-946D11567F4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22080" windowHeight="13180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="22080" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,12 +214,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -397,12 +396,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -579,12 +578,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -598,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -761,12 +760,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -780,7 +779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -943,12 +942,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -962,7 +961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="205">
   <si>
     <r>
       <rPr>
@@ -10854,13 +10853,58 @@
   </si>
   <si>
     <t>식재료 관리(Update 구현)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수량추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -11295,10 +11339,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="백분율 2" xfId="4"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="표준 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11604,27 +11648,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="87" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="87" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="51" customWidth="1"/>
     <col min="3" max="3" width="7" style="51" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="58" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="58" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="46.5" style="39" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" style="39" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>41</v>
       </c>
@@ -11637,10 +11681,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="97" t="s">
         <v>127</v>
       </c>
@@ -11651,8 +11695,8 @@
       <c r="E3" s="77"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="98" t="s">
         <v>129</v>
       </c>
@@ -11867,7 +11911,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14">
+    <row r="14" spans="1:7" ht="13.8">
       <c r="A14" s="87">
         <v>43728</v>
       </c>
@@ -11987,7 +12031,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14">
+    <row r="19" spans="1:7" ht="13.8">
       <c r="A19" s="87">
         <v>43739</v>
       </c>
@@ -12083,7 +12127,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14">
+    <row r="23" spans="1:7" ht="13.8">
       <c r="A23" s="89">
         <v>43748</v>
       </c>
@@ -12107,7 +12151,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14">
+    <row r="24" spans="1:7" ht="13.8">
       <c r="A24" s="95">
         <v>43749</v>
       </c>
@@ -12155,7 +12199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14">
+    <row r="26" spans="1:7" ht="13.8">
       <c r="A26" s="89">
         <v>43755</v>
       </c>
@@ -12179,7 +12223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="89">
         <v>43755</v>
       </c>
@@ -12203,7 +12247,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14">
+    <row r="28" spans="1:7" ht="13.8">
       <c r="A28" s="89">
         <v>43755</v>
       </c>
@@ -12227,7 +12271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="89">
         <v>43761</v>
       </c>
@@ -12457,7 +12501,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="58">
-        <f t="shared" ref="E38:E69" si="1">C38-B38-(D38/24/60)</f>
+        <f t="shared" ref="E38:E71" si="1">C38-B38-(D38/24/60)</f>
         <v>9.7222222220605337E-2</v>
       </c>
       <c r="F38" s="32" t="s">
@@ -12491,7 +12535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.5" customHeight="1">
+    <row r="40" spans="1:7" ht="14.55" customHeight="1">
       <c r="A40" s="95">
         <v>43767</v>
       </c>
@@ -12515,7 +12559,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.5" customHeight="1">
+    <row r="41" spans="1:7" ht="14.55" customHeight="1">
       <c r="A41" s="95">
         <v>43769</v>
       </c>
@@ -12635,7 +12679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14">
+    <row r="46" spans="1:7" ht="13.8">
       <c r="A46" s="87">
         <v>43770</v>
       </c>
@@ -12659,7 +12703,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14">
+    <row r="47" spans="1:7" ht="13.8">
       <c r="A47" s="87">
         <v>43770</v>
       </c>
@@ -12683,7 +12727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14">
+    <row r="48" spans="1:7" ht="13.8">
       <c r="A48" s="95" t="s">
         <v>138</v>
       </c>
@@ -12707,7 +12751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14">
+    <row r="49" spans="1:7" ht="13.8">
       <c r="A49" s="99" t="s">
         <v>138</v>
       </c>
@@ -12731,7 +12775,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14">
+    <row r="50" spans="1:7" ht="13.8">
       <c r="A50" s="87">
         <v>43774</v>
       </c>
@@ -12755,7 +12799,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14">
+    <row r="51" spans="1:7" ht="13.8">
       <c r="A51" s="87">
         <v>43774</v>
       </c>
@@ -12779,7 +12823,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14">
+    <row r="52" spans="1:7" ht="13.8">
       <c r="A52" s="87">
         <v>43775</v>
       </c>
@@ -12803,7 +12847,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14">
+    <row r="53" spans="1:7" ht="13.8">
       <c r="A53" s="87">
         <v>43776</v>
       </c>
@@ -12827,7 +12871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14">
+    <row r="54" spans="1:7" ht="13.8">
       <c r="A54" s="87">
         <v>43776</v>
       </c>
@@ -12851,7 +12895,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14">
+    <row r="55" spans="1:7" ht="13.8">
       <c r="A55" s="87">
         <v>43778</v>
       </c>
@@ -12875,7 +12919,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14">
+    <row r="56" spans="1:7" ht="13.8">
       <c r="A56" s="87">
         <v>43779</v>
       </c>
@@ -12899,7 +12943,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14">
+    <row r="57" spans="1:7" ht="13.8">
       <c r="A57" s="87">
         <v>43780</v>
       </c>
@@ -12923,7 +12967,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14">
+    <row r="58" spans="1:7" ht="13.8">
       <c r="A58" s="87">
         <v>43781</v>
       </c>
@@ -12947,7 +12991,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14">
+    <row r="59" spans="1:7" ht="13.8">
       <c r="A59" s="87">
         <v>43781</v>
       </c>
@@ -12971,7 +13015,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14">
+    <row r="60" spans="1:7" ht="13.8">
       <c r="A60" s="87">
         <v>43781</v>
       </c>
@@ -12995,7 +13039,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14">
+    <row r="61" spans="1:7" ht="13.8">
       <c r="A61" s="87">
         <v>43782</v>
       </c>
@@ -13019,7 +13063,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14">
+    <row r="62" spans="1:7" ht="13.8">
       <c r="A62" s="87">
         <v>43782</v>
       </c>
@@ -13043,7 +13087,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="14">
+    <row r="63" spans="1:7" ht="13.8">
       <c r="A63" s="87">
         <v>43785</v>
       </c>
@@ -13067,7 +13111,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14">
+    <row r="64" spans="1:7" ht="13.8">
       <c r="A64" s="87">
         <v>43785</v>
       </c>
@@ -13091,7 +13135,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="14">
+    <row r="65" spans="1:14" ht="13.8">
       <c r="A65" s="87">
         <v>43785</v>
       </c>
@@ -13115,7 +13159,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="14">
+    <row r="66" spans="1:14" ht="13.8">
       <c r="A66" s="87">
         <v>43786</v>
       </c>
@@ -13139,7 +13183,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="14">
+    <row r="67" spans="1:14" ht="13.8">
       <c r="A67" s="87">
         <v>43788</v>
       </c>
@@ -13163,7 +13207,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="14">
+    <row r="68" spans="1:14" ht="13.8">
       <c r="A68" s="87">
         <v>43791</v>
       </c>
@@ -13187,7 +13231,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="14">
+    <row r="69" spans="1:14" ht="13.8">
       <c r="A69" s="87">
         <v>43791</v>
       </c>
@@ -13211,8 +13255,61 @@
         <v>197</v>
       </c>
     </row>
+    <row r="70" spans="1:14" ht="13.8">
+      <c r="A70" s="87">
+        <v>43792</v>
+      </c>
+      <c r="B70" s="51">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="C70" s="51">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="D70" s="32">
+        <v>60</v>
+      </c>
+      <c r="E70" s="58">
+        <f t="shared" si="1"/>
+        <v>0.11805555555555566</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G70" s="39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="13.8">
+      <c r="A71" s="87">
+        <v>43792</v>
+      </c>
+      <c r="B71" s="51">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="C71" s="51">
+        <v>1.125</v>
+      </c>
+      <c r="D71" s="32">
+        <v>20</v>
+      </c>
+      <c r="E71" s="58">
+        <f t="shared" si="1"/>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G71" s="39" t="s">
+        <v>203</v>
+      </c>
+    </row>
     <row r="72" spans="1:14">
       <c r="N72" s="107"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="G77" s="113" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="85" spans="7:7">
       <c r="G85" s="113" t="s">
@@ -13231,7 +13328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
@@ -13239,17 +13336,17 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="55.5" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.75" customHeight="1">
+    <row r="1" spans="1:10" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -13262,10 +13359,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.75" customHeight="1">
+    <row r="2" spans="1:10" ht="11.7" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:10" ht="11.75" customHeight="1">
+    <row r="3" spans="1:10" ht="11.7" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -13276,8 +13373,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:10" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:10" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:10" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -13493,7 +13590,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10" ht="15.6">
       <c r="A14" s="89" t="s">
         <v>131</v>
       </c>
@@ -13517,7 +13614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15">
+    <row r="15" spans="1:10" ht="15.6">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -13541,7 +13638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" ht="15.6">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -13565,7 +13662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15">
+    <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -13589,7 +13686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14">
+    <row r="18" spans="1:7" ht="13.8">
       <c r="A18" s="50">
         <v>43749</v>
       </c>
@@ -13613,7 +13710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14">
+    <row r="19" spans="1:7" ht="13.8">
       <c r="A19" s="47">
         <v>43755</v>
       </c>
@@ -13637,7 +13734,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14">
+    <row r="20" spans="1:7" ht="13.8">
       <c r="A20" s="47">
         <v>43755</v>
       </c>
@@ -13757,7 +13854,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.5" customHeight="1">
+    <row r="25" spans="1:7" ht="14.55" customHeight="1">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -13805,7 +13902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15">
+    <row r="27" spans="1:7" ht="15.6">
       <c r="A27" s="99" t="s">
         <v>145</v>
       </c>
@@ -13829,7 +13926,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14">
+    <row r="28" spans="1:7" ht="13.8">
       <c r="A28" s="87">
         <v>43779</v>
       </c>
@@ -13853,7 +13950,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="87">
         <v>43782</v>
       </c>
@@ -13877,7 +13974,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15">
+    <row r="30" spans="1:7" ht="15.6">
       <c r="A30" s="114" t="s">
         <v>181</v>
       </c>
@@ -14047,7 +14144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
@@ -14055,17 +14152,17 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" style="5" customWidth="1"/>
     <col min="7" max="7" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -14078,10 +14175,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>127</v>
       </c>
@@ -14092,8 +14189,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="8" t="s">
         <v>129</v>
       </c>
@@ -14308,7 +14405,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14">
+    <row r="14" spans="1:7" ht="13.8">
       <c r="A14" s="10">
         <v>43739</v>
       </c>
@@ -14332,7 +14429,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14">
+    <row r="15" spans="1:7" ht="13.8">
       <c r="A15" s="35">
         <v>43739</v>
       </c>
@@ -14428,7 +14525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -14452,7 +14549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -14476,7 +14573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -14500,7 +14597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14">
+    <row r="22" spans="1:7" ht="13.8">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -14524,7 +14621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" ht="15.6">
       <c r="A23" s="35">
         <v>43750</v>
       </c>
@@ -14620,7 +14717,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="47">
         <v>43755</v>
       </c>
@@ -14644,7 +14741,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14">
+    <row r="28" spans="1:7" ht="13.8">
       <c r="A28" s="47">
         <v>43755</v>
       </c>
@@ -14668,7 +14765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="10">
         <v>43760</v>
       </c>
@@ -14788,7 +14885,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14">
+    <row r="34" spans="1:7" ht="13.8">
       <c r="A34" s="35">
         <v>43770</v>
       </c>
@@ -14980,7 +15077,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14">
+    <row r="42" spans="1:7" ht="13.8">
       <c r="A42" s="87">
         <v>43779</v>
       </c>
@@ -15028,7 +15125,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14">
+    <row r="44" spans="1:7" ht="13.8">
       <c r="A44" s="87">
         <v>43782</v>
       </c>
@@ -15241,7 +15338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -15249,17 +15346,17 @@
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="65" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="65" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.5" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -15272,10 +15369,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -15286,8 +15383,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -15454,7 +15551,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="89">
         <v>43746</v>
       </c>
@@ -15478,7 +15575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="89">
         <v>43748</v>
       </c>
@@ -15502,7 +15599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="87">
         <v>43749</v>
       </c>
@@ -15526,7 +15623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14">
+    <row r="15" spans="1:7" ht="13.8">
       <c r="A15" s="50">
         <v>43749</v>
       </c>
@@ -15574,7 +15671,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14">
+    <row r="17" spans="1:7" ht="13.8">
       <c r="A17" s="47">
         <v>43755</v>
       </c>
@@ -15646,7 +15743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="94" t="s">
         <v>141</v>
       </c>
@@ -15742,7 +15839,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.5" customHeight="1">
+    <row r="24" spans="1:7" ht="14.55" customHeight="1">
       <c r="A24" s="50">
         <v>43769</v>
       </c>
@@ -15790,7 +15887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14">
+    <row r="26" spans="1:7" ht="13.8">
       <c r="A26" s="35">
         <v>43770</v>
       </c>
@@ -15814,7 +15911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="87">
         <v>43779</v>
       </c>
@@ -16003,25 +16100,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
     <col min="6" max="6" width="38.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -16034,10 +16131,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="83"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="84" t="s">
         <v>127</v>
       </c>
@@ -16048,8 +16145,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -16072,7 +16169,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="87">
         <v>43715</v>
       </c>
@@ -16096,7 +16193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14">
+    <row r="7" spans="1:7" ht="13.8">
       <c r="A7" s="88">
         <v>43727</v>
       </c>
@@ -16120,7 +16217,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14">
+    <row r="8" spans="1:7" ht="13.8">
       <c r="A8" s="87">
         <v>43727</v>
       </c>
@@ -16144,7 +16241,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14">
+    <row r="9" spans="1:7" ht="13.8">
       <c r="A9" s="87">
         <v>43728</v>
       </c>
@@ -16192,7 +16289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14">
+    <row r="11" spans="1:7" ht="13.8">
       <c r="A11" s="87">
         <v>43735</v>
       </c>
@@ -16216,7 +16313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14">
+    <row r="12" spans="1:7" ht="13.8">
       <c r="A12" s="87">
         <v>43737</v>
       </c>
@@ -16240,7 +16337,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14">
+    <row r="13" spans="1:7" ht="13.8">
       <c r="A13" s="87">
         <v>43738</v>
       </c>
@@ -16264,7 +16361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14">
+    <row r="14" spans="1:7" ht="13.8">
       <c r="A14" s="87">
         <v>43739</v>
       </c>
@@ -16288,7 +16385,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14">
+    <row r="15" spans="1:7" ht="13.8">
       <c r="A15" s="89">
         <v>43739</v>
       </c>
@@ -16312,7 +16409,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14">
+    <row r="16" spans="1:7" ht="13.8">
       <c r="A16" s="87">
         <v>43744</v>
       </c>
@@ -16336,7 +16433,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14">
+    <row r="17" spans="1:7" ht="13.8">
       <c r="A17" s="87">
         <v>43744</v>
       </c>
@@ -16360,7 +16457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14">
+    <row r="18" spans="1:7" ht="13.8">
       <c r="A18" s="87">
         <v>43744</v>
       </c>
@@ -16384,7 +16481,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -16408,7 +16505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -16432,7 +16529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -16456,7 +16553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14">
+    <row r="22" spans="1:7" ht="13.8">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -16480,7 +16577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14">
+    <row r="23" spans="1:7" ht="13.8">
       <c r="A23" s="87">
         <v>43751</v>
       </c>
@@ -16504,7 +16601,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="15.6">
       <c r="A24" s="87">
         <v>43751</v>
       </c>
@@ -16576,7 +16673,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="87">
         <v>43753</v>
       </c>
@@ -16624,7 +16721,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="90">
         <v>43754</v>
       </c>
@@ -16648,7 +16745,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14">
+    <row r="30" spans="1:7" ht="13.8">
       <c r="A30" s="90">
         <v>43754</v>
       </c>
@@ -16696,7 +16793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14">
+    <row r="32" spans="1:7" ht="13.8">
       <c r="A32" s="47">
         <v>43755</v>
       </c>
@@ -16720,7 +16817,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.5" customHeight="1">
+    <row r="33" spans="1:7" ht="14.55" customHeight="1">
       <c r="A33" s="90">
         <v>43755</v>
       </c>
@@ -16744,7 +16841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14">
+    <row r="34" spans="1:7" ht="13.8">
       <c r="A34" s="47">
         <v>43755</v>
       </c>
@@ -16984,7 +17081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14">
+    <row r="44" spans="1:7" ht="13.8">
       <c r="A44" s="35">
         <v>43770</v>
       </c>
@@ -17032,7 +17129,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14">
+    <row r="46" spans="1:7" ht="13.8">
       <c r="A46" s="35">
         <v>43772</v>
       </c>
@@ -17054,7 +17151,7 @@
       </c>
       <c r="G46" s="121"/>
     </row>
-    <row r="47" spans="1:7" ht="14">
+    <row r="47" spans="1:7" ht="13.8">
       <c r="A47" s="87">
         <v>43779</v>
       </c>
@@ -17078,7 +17175,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14">
+    <row r="48" spans="1:7" ht="13.8">
       <c r="A48" s="87">
         <v>43782</v>
       </c>
@@ -17102,7 +17199,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14">
+    <row r="49" spans="1:7" ht="13.8">
       <c r="A49" s="35">
         <v>43783</v>
       </c>
@@ -17150,7 +17247,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15">
+    <row r="51" spans="1:7" ht="15.6">
       <c r="A51" s="35">
         <v>43791</v>
       </c>
@@ -17174,7 +17271,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15">
+    <row r="52" spans="1:7" ht="15.6">
       <c r="A52" s="35">
         <v>43792</v>
       </c>
@@ -17690,7 +17787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
@@ -17698,17 +17795,17 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.5" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -17721,10 +17818,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -17735,8 +17832,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -17903,7 +18000,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14">
+    <row r="12" spans="1:7" ht="13.8">
       <c r="A12" s="87" t="s">
         <v>134</v>
       </c>
@@ -17975,7 +18072,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -17999,7 +18096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -18023,7 +18120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15">
+    <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -18047,7 +18144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14">
+    <row r="18" spans="1:7" ht="13.8">
       <c r="A18" s="95">
         <v>43749</v>
       </c>
@@ -18119,7 +18216,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14">
+    <row r="21" spans="1:7" ht="13.8">
       <c r="A21" s="47">
         <v>43755</v>
       </c>
@@ -18143,7 +18240,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14">
+    <row r="22" spans="1:7" ht="13.8">
       <c r="A22" s="47">
         <v>43755</v>
       </c>
@@ -18287,7 +18384,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.5" customHeight="1">
+    <row r="28" spans="1:7" ht="14.55" customHeight="1">
       <c r="A28" s="50">
         <v>43769</v>
       </c>
@@ -18405,7 +18502,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14">
+    <row r="33" spans="1:7" ht="13.8">
       <c r="A33" s="87">
         <v>43782</v>
       </c>
@@ -18429,7 +18526,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14">
+    <row r="34" spans="1:7" ht="13.8">
       <c r="A34" s="114" t="s">
         <v>191</v>
       </c>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinwo\Desktop\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2155835D-6AF4-41A8-828F-77F0E11C1D41}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="22080" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -214,12 +215,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -396,12 +397,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -578,12 +579,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -597,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -760,12 +761,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -779,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -942,12 +943,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -961,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="206">
   <si>
     <r>
       <rPr>
@@ -10898,13 +10899,29 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 24일</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -11339,10 +11356,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3"/>
+    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -11648,11 +11665,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView topLeftCell="A56" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
@@ -13328,7 +13345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
@@ -14144,7 +14161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
@@ -15338,7 +15355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -16100,7 +16117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G100"/>
   <sheetViews>
@@ -17787,12 +17804,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -18619,22 +18636,50 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1">
-      <c r="A38" s="87"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="2"/>
+      <c r="A38" s="114" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="51">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C38" s="51">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D38" s="32">
+        <v>30</v>
+      </c>
+      <c r="E38" s="19">
+        <v>60</v>
+      </c>
+      <c r="F38" s="117" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1">
-      <c r="A39" s="87"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="2"/>
+      <c r="A39" s="114" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" s="51">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C39" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="32">
+        <v>0</v>
+      </c>
+      <c r="E39" s="19">
+        <v>210</v>
+      </c>
+      <c r="F39" s="117" t="s">
+        <v>194</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="87"/>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinwo\Desktop\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2155835D-6AF4-41A8-828F-77F0E11C1D41}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DEB980-1DFF-4A95-B0F9-9B44A595B63A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12330" yWindow="2565" windowWidth="13440" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="219">
   <si>
     <r>
       <rPr>
@@ -10875,6 +10875,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -10893,6 +10894,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -10916,6 +10918,442 @@
       <t xml:space="preserve"> 24일</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project Documentation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업데이트</t>
+    </r>
+  </si>
+  <si>
+    <t>식재료 유통기한 관련 리서치</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>식재료 유통기한 Initial data 수정</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>식재료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통기한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Initial data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project Documentation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업데이트</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>식재료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유통기한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Initial data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수량추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수량추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -11669,23 +12107,23 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView topLeftCell="A59" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="87" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="51" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="87" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="51" customWidth="1"/>
     <col min="3" max="3" width="7" style="51" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" style="39" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="58" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" style="39" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.65" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>41</v>
       </c>
@@ -11698,10 +12136,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.65" customHeight="1">
       <c r="A2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.65" customHeight="1">
       <c r="A3" s="97" t="s">
         <v>127</v>
       </c>
@@ -11712,8 +12150,8 @@
       <c r="E3" s="77"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="98" t="s">
         <v>129</v>
       </c>
@@ -11928,7 +12366,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8">
+    <row r="14" spans="1:7">
       <c r="A14" s="87">
         <v>43728</v>
       </c>
@@ -12048,7 +12486,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8">
+    <row r="19" spans="1:7">
       <c r="A19" s="87">
         <v>43739</v>
       </c>
@@ -12144,7 +12582,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8">
+    <row r="23" spans="1:7">
       <c r="A23" s="89">
         <v>43748</v>
       </c>
@@ -12168,7 +12606,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.8">
+    <row r="24" spans="1:7">
       <c r="A24" s="95">
         <v>43749</v>
       </c>
@@ -12216,7 +12654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8">
+    <row r="26" spans="1:7">
       <c r="A26" s="89">
         <v>43755</v>
       </c>
@@ -12240,7 +12678,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7">
       <c r="A27" s="89">
         <v>43755</v>
       </c>
@@ -12264,7 +12702,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8">
+    <row r="28" spans="1:7">
       <c r="A28" s="89">
         <v>43755</v>
       </c>
@@ -12288,7 +12726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7">
       <c r="A29" s="89">
         <v>43761</v>
       </c>
@@ -12552,7 +12990,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.55" customHeight="1">
+    <row r="40" spans="1:7" ht="14.65" customHeight="1">
       <c r="A40" s="95">
         <v>43767</v>
       </c>
@@ -12576,7 +13014,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.55" customHeight="1">
+    <row r="41" spans="1:7" ht="14.65" customHeight="1">
       <c r="A41" s="95">
         <v>43769</v>
       </c>
@@ -12696,7 +13134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.8">
+    <row r="46" spans="1:7">
       <c r="A46" s="87">
         <v>43770</v>
       </c>
@@ -12720,7 +13158,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13.8">
+    <row r="47" spans="1:7">
       <c r="A47" s="87">
         <v>43770</v>
       </c>
@@ -12744,7 +13182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8">
+    <row r="48" spans="1:7">
       <c r="A48" s="95" t="s">
         <v>138</v>
       </c>
@@ -12768,7 +13206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.8">
+    <row r="49" spans="1:7">
       <c r="A49" s="99" t="s">
         <v>138</v>
       </c>
@@ -12792,7 +13230,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13.8">
+    <row r="50" spans="1:7">
       <c r="A50" s="87">
         <v>43774</v>
       </c>
@@ -12816,7 +13254,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13.8">
+    <row r="51" spans="1:7">
       <c r="A51" s="87">
         <v>43774</v>
       </c>
@@ -12840,7 +13278,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="13.8">
+    <row r="52" spans="1:7">
       <c r="A52" s="87">
         <v>43775</v>
       </c>
@@ -12864,7 +13302,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="13.8">
+    <row r="53" spans="1:7">
       <c r="A53" s="87">
         <v>43776</v>
       </c>
@@ -12888,7 +13326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="13.8">
+    <row r="54" spans="1:7">
       <c r="A54" s="87">
         <v>43776</v>
       </c>
@@ -12912,7 +13350,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="13.8">
+    <row r="55" spans="1:7">
       <c r="A55" s="87">
         <v>43778</v>
       </c>
@@ -12936,7 +13374,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="13.8">
+    <row r="56" spans="1:7">
       <c r="A56" s="87">
         <v>43779</v>
       </c>
@@ -12960,7 +13398,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="13.8">
+    <row r="57" spans="1:7">
       <c r="A57" s="87">
         <v>43780</v>
       </c>
@@ -12984,7 +13422,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="13.8">
+    <row r="58" spans="1:7">
       <c r="A58" s="87">
         <v>43781</v>
       </c>
@@ -13008,7 +13446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13.8">
+    <row r="59" spans="1:7">
       <c r="A59" s="87">
         <v>43781</v>
       </c>
@@ -13032,7 +13470,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="13.8">
+    <row r="60" spans="1:7">
       <c r="A60" s="87">
         <v>43781</v>
       </c>
@@ -13056,7 +13494,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="13.8">
+    <row r="61" spans="1:7">
       <c r="A61" s="87">
         <v>43782</v>
       </c>
@@ -13080,7 +13518,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13.8">
+    <row r="62" spans="1:7">
       <c r="A62" s="87">
         <v>43782</v>
       </c>
@@ -13104,7 +13542,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13.8">
+    <row r="63" spans="1:7">
       <c r="A63" s="87">
         <v>43785</v>
       </c>
@@ -13128,7 +13566,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="13.8">
+    <row r="64" spans="1:7">
       <c r="A64" s="87">
         <v>43785</v>
       </c>
@@ -13152,7 +13590,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="13.8">
+    <row r="65" spans="1:14">
       <c r="A65" s="87">
         <v>43785</v>
       </c>
@@ -13176,7 +13614,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="13.8">
+    <row r="66" spans="1:14">
       <c r="A66" s="87">
         <v>43786</v>
       </c>
@@ -13200,7 +13638,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="13.8">
+    <row r="67" spans="1:14">
       <c r="A67" s="87">
         <v>43788</v>
       </c>
@@ -13224,7 +13662,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="13.8">
+    <row r="68" spans="1:14">
       <c r="A68" s="87">
         <v>43791</v>
       </c>
@@ -13248,7 +13686,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="13.8">
+    <row r="69" spans="1:14">
       <c r="A69" s="87">
         <v>43791</v>
       </c>
@@ -13272,7 +13710,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="13.8">
+    <row r="70" spans="1:14">
       <c r="A70" s="87">
         <v>43792</v>
       </c>
@@ -13296,7 +13734,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="13.8">
+    <row r="71" spans="1:14">
       <c r="A71" s="87">
         <v>43792</v>
       </c>
@@ -13316,8 +13754,8 @@
       <c r="F71" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="G71" s="39" t="s">
-        <v>203</v>
+      <c r="G71" s="113" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -13349,21 +13787,21 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.7" customHeight="1">
+    <row r="1" spans="1:10" ht="11.65" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -13376,10 +13814,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.7" customHeight="1">
+    <row r="2" spans="1:10" ht="11.65" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:10" ht="11.7" customHeight="1">
+    <row r="3" spans="1:10" ht="11.65" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -13390,8 +13828,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:10" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:10" ht="11.65" customHeight="1"/>
+    <row r="5" spans="1:10" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -13607,7 +14045,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6">
+    <row r="14" spans="1:10" ht="13.5">
       <c r="A14" s="89" t="s">
         <v>131</v>
       </c>
@@ -13631,7 +14069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6">
+    <row r="15" spans="1:10" ht="13.5">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -13655,7 +14093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6">
+    <row r="16" spans="1:10" ht="13.5">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -13679,7 +14117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -13703,7 +14141,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8">
+    <row r="18" spans="1:7">
       <c r="A18" s="50">
         <v>43749</v>
       </c>
@@ -13727,7 +14165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8">
+    <row r="19" spans="1:7">
       <c r="A19" s="47">
         <v>43755</v>
       </c>
@@ -13751,7 +14189,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.8">
+    <row r="20" spans="1:7">
       <c r="A20" s="47">
         <v>43755</v>
       </c>
@@ -13871,7 +14309,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.55" customHeight="1">
+    <row r="25" spans="1:7" ht="14.65" customHeight="1">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -13919,7 +14357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.6">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="99" t="s">
         <v>145</v>
       </c>
@@ -13943,7 +14381,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8">
+    <row r="28" spans="1:7">
       <c r="A28" s="87">
         <v>43779</v>
       </c>
@@ -13967,7 +14405,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7">
       <c r="A29" s="87">
         <v>43782</v>
       </c>
@@ -13991,7 +14429,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.6">
+    <row r="30" spans="1:7" ht="13.5">
       <c r="A30" s="114" t="s">
         <v>181</v>
       </c>
@@ -14015,49 +14453,119 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1">
-      <c r="A31" s="87"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="87"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="87"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="2"/>
+      <c r="A31" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="51">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C31" s="51">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D31" s="32">
+        <v>20</v>
+      </c>
+      <c r="E31" s="13">
+        <v>100</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="13.5">
+      <c r="A32" s="114" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="51">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C32" s="51">
+        <v>0.9375</v>
+      </c>
+      <c r="D32" s="32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13">
+        <v>120</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="13.5">
+      <c r="A33" s="114" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="51">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C33" s="51">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D33" s="32">
+        <v>20</v>
+      </c>
+      <c r="E33" s="13">
+        <v>220</v>
+      </c>
+      <c r="F33" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="2"/>
+      <c r="A34" s="114" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" s="51">
+        <v>0.625</v>
+      </c>
+      <c r="C34" s="51">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D34" s="32">
+        <v>0</v>
+      </c>
+      <c r="E34" s="13">
+        <v>60</v>
+      </c>
+      <c r="F34" s="112" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1">
-      <c r="A35" s="87"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="2"/>
+      <c r="A35" s="114" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" s="51">
+        <v>0.9375</v>
+      </c>
+      <c r="C35" s="51">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D35" s="32">
+        <v>0</v>
+      </c>
+      <c r="E35" s="13">
+        <v>180</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="87"/>
@@ -14169,17 +14677,17 @@
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.77734375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.65" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -14192,10 +14700,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.65" customHeight="1">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.65" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>127</v>
       </c>
@@ -14206,8 +14714,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="8" t="s">
         <v>129</v>
       </c>
@@ -14422,7 +14930,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8">
+    <row r="14" spans="1:7">
       <c r="A14" s="10">
         <v>43739</v>
       </c>
@@ -14446,7 +14954,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8">
+    <row r="15" spans="1:7">
       <c r="A15" s="35">
         <v>43739</v>
       </c>
@@ -14542,7 +15050,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -14566,7 +15074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -14590,7 +15098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -14614,7 +15122,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8">
+    <row r="22" spans="1:7">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -14638,7 +15146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.6">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="35">
         <v>43750</v>
       </c>
@@ -14734,7 +15242,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7">
       <c r="A27" s="47">
         <v>43755</v>
       </c>
@@ -14758,7 +15266,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8">
+    <row r="28" spans="1:7">
       <c r="A28" s="47">
         <v>43755</v>
       </c>
@@ -14782,7 +15290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7">
       <c r="A29" s="10">
         <v>43760</v>
       </c>
@@ -14902,7 +15410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8">
+    <row r="34" spans="1:7">
       <c r="A34" s="35">
         <v>43770</v>
       </c>
@@ -15094,7 +15602,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.8">
+    <row r="42" spans="1:7">
       <c r="A42" s="87">
         <v>43779</v>
       </c>
@@ -15142,7 +15650,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8">
+    <row r="44" spans="1:7">
       <c r="A44" s="87">
         <v>43782</v>
       </c>
@@ -15363,17 +15871,17 @@
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="65" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.65" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -15386,10 +15894,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.65" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.65" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -15400,8 +15908,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -15568,7 +16076,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6">
+    <row r="12" spans="1:7" ht="13.5">
       <c r="A12" s="89">
         <v>43746</v>
       </c>
@@ -15592,7 +16100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="89">
         <v>43748</v>
       </c>
@@ -15616,7 +16124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6">
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="87">
         <v>43749</v>
       </c>
@@ -15640,7 +16148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8">
+    <row r="15" spans="1:7">
       <c r="A15" s="50">
         <v>43749</v>
       </c>
@@ -15688,7 +16196,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8">
+    <row r="17" spans="1:7">
       <c r="A17" s="47">
         <v>43755</v>
       </c>
@@ -15760,7 +16268,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="94" t="s">
         <v>141</v>
       </c>
@@ -15856,7 +16364,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.55" customHeight="1">
+    <row r="24" spans="1:7" ht="14.65" customHeight="1">
       <c r="A24" s="50">
         <v>43769</v>
       </c>
@@ -15904,7 +16412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8">
+    <row r="26" spans="1:7">
       <c r="A26" s="35">
         <v>43770</v>
       </c>
@@ -15928,7 +16436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7">
       <c r="A27" s="87">
         <v>43779</v>
       </c>
@@ -16125,17 +16633,17 @@
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="85" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.65" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -16148,10 +16656,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.65" customHeight="1">
       <c r="A2" s="83"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.65" customHeight="1">
       <c r="A3" s="84" t="s">
         <v>127</v>
       </c>
@@ -16162,8 +16670,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -16186,7 +16694,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7">
       <c r="A6" s="87">
         <v>43715</v>
       </c>
@@ -16210,7 +16718,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8">
+    <row r="7" spans="1:7">
       <c r="A7" s="88">
         <v>43727</v>
       </c>
@@ -16234,7 +16742,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.8">
+    <row r="8" spans="1:7">
       <c r="A8" s="87">
         <v>43727</v>
       </c>
@@ -16258,7 +16766,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.8">
+    <row r="9" spans="1:7">
       <c r="A9" s="87">
         <v>43728</v>
       </c>
@@ -16306,7 +16814,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.8">
+    <row r="11" spans="1:7">
       <c r="A11" s="87">
         <v>43735</v>
       </c>
@@ -16330,7 +16838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8">
+    <row r="12" spans="1:7">
       <c r="A12" s="87">
         <v>43737</v>
       </c>
@@ -16354,7 +16862,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8">
+    <row r="13" spans="1:7">
       <c r="A13" s="87">
         <v>43738</v>
       </c>
@@ -16378,7 +16886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8">
+    <row r="14" spans="1:7">
       <c r="A14" s="87">
         <v>43739</v>
       </c>
@@ -16402,7 +16910,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8">
+    <row r="15" spans="1:7">
       <c r="A15" s="89">
         <v>43739</v>
       </c>
@@ -16426,7 +16934,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.8">
+    <row r="16" spans="1:7">
       <c r="A16" s="87">
         <v>43744</v>
       </c>
@@ -16450,7 +16958,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8">
+    <row r="17" spans="1:7">
       <c r="A17" s="87">
         <v>43744</v>
       </c>
@@ -16474,7 +16982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8">
+    <row r="18" spans="1:7">
       <c r="A18" s="87">
         <v>43744</v>
       </c>
@@ -16498,7 +17006,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -16522,7 +17030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -16546,7 +17054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -16570,7 +17078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8">
+    <row r="22" spans="1:7">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -16594,7 +17102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8">
+    <row r="23" spans="1:7">
       <c r="A23" s="87">
         <v>43751</v>
       </c>
@@ -16618,7 +17126,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="87">
         <v>43751</v>
       </c>
@@ -16690,7 +17198,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7">
       <c r="A27" s="87">
         <v>43753</v>
       </c>
@@ -16738,7 +17246,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7">
       <c r="A29" s="90">
         <v>43754</v>
       </c>
@@ -16762,7 +17270,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.8">
+    <row r="30" spans="1:7">
       <c r="A30" s="90">
         <v>43754</v>
       </c>
@@ -16810,7 +17318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8">
+    <row r="32" spans="1:7">
       <c r="A32" s="47">
         <v>43755</v>
       </c>
@@ -16834,7 +17342,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.55" customHeight="1">
+    <row r="33" spans="1:7" ht="14.65" customHeight="1">
       <c r="A33" s="90">
         <v>43755</v>
       </c>
@@ -16858,7 +17366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8">
+    <row r="34" spans="1:7">
       <c r="A34" s="47">
         <v>43755</v>
       </c>
@@ -17098,7 +17606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8">
+    <row r="44" spans="1:7">
       <c r="A44" s="35">
         <v>43770</v>
       </c>
@@ -17146,7 +17654,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.8">
+    <row r="46" spans="1:7">
       <c r="A46" s="35">
         <v>43772</v>
       </c>
@@ -17168,7 +17676,7 @@
       </c>
       <c r="G46" s="121"/>
     </row>
-    <row r="47" spans="1:7" ht="13.8">
+    <row r="47" spans="1:7">
       <c r="A47" s="87">
         <v>43779</v>
       </c>
@@ -17192,7 +17700,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8">
+    <row r="48" spans="1:7">
       <c r="A48" s="87">
         <v>43782</v>
       </c>
@@ -17216,7 +17724,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.8">
+    <row r="49" spans="1:7">
       <c r="A49" s="35">
         <v>43783</v>
       </c>
@@ -17264,7 +17772,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.6">
+    <row r="51" spans="1:7" ht="13.5">
       <c r="A51" s="35">
         <v>43791</v>
       </c>
@@ -17288,7 +17796,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.6">
+    <row r="52" spans="1:7" ht="13.5">
       <c r="A52" s="35">
         <v>43792</v>
       </c>
@@ -17808,21 +18316,21 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.65" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -17835,10 +18343,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.65" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.65" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -17849,8 +18357,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -18017,7 +18525,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8">
+    <row r="12" spans="1:7">
       <c r="A12" s="87" t="s">
         <v>134</v>
       </c>
@@ -18089,7 +18597,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6">
+    <row r="15" spans="1:7" ht="13.5">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -18113,7 +18621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -18137,7 +18645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -18161,7 +18669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8">
+    <row r="18" spans="1:7">
       <c r="A18" s="95">
         <v>43749</v>
       </c>
@@ -18233,7 +18741,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.8">
+    <row r="21" spans="1:7">
       <c r="A21" s="47">
         <v>43755</v>
       </c>
@@ -18257,7 +18765,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8">
+    <row r="22" spans="1:7">
       <c r="A22" s="47">
         <v>43755</v>
       </c>
@@ -18401,7 +18909,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.55" customHeight="1">
+    <row r="28" spans="1:7" ht="14.65" customHeight="1">
       <c r="A28" s="50">
         <v>43769</v>
       </c>
@@ -18519,7 +19027,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8">
+    <row r="33" spans="1:7">
       <c r="A33" s="87">
         <v>43782</v>
       </c>
@@ -18543,7 +19051,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8">
+    <row r="34" spans="1:7">
       <c r="A34" s="114" t="s">
         <v>191</v>
       </c>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DEB980-1DFF-4A95-B0F9-9B44A595B63A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9373EB9-14CB-4AB7-95ED-7B6325F23629}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12330" yWindow="2565" windowWidth="13440" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="225">
   <si>
     <r>
       <rPr>
@@ -10973,6 +10973,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Data Set </t>
     </r>
@@ -11086,6 +11087,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -11104,6 +11106,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Initial data </t>
     </r>
@@ -11172,6 +11175,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Data Set </t>
     </r>
@@ -11196,6 +11200,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -11214,6 +11219,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Initial data </t>
     </r>
@@ -11333,6 +11339,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -11351,9 +11358,110 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 개발</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 개발</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CSV 파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 안드로이드 데이터베이스 연동 구현</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Entity class refactoring &amp; 기능별</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 코드 저장 폴더 구축</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경 및 로직 회의, 프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 타임라인 회의</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>xml 디자인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 및 그리드뷰 데이터베이스 연동</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -11366,7 +11474,7 @@
     <numFmt numFmtId="178" formatCode="h:mm;@"/>
     <numFmt numFmtId="179" formatCode="[m]"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -11453,6 +11561,12 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -11522,7 +11636,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -11790,6 +11904,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -12111,19 +12232,19 @@
       <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="87" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="51" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="87" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="51" customWidth="1"/>
     <col min="3" max="3" width="7" style="51" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="58" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" style="39" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" style="39" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.65" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>41</v>
       </c>
@@ -12136,10 +12257,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.65" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="11.65" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="97" t="s">
         <v>127</v>
       </c>
@@ -12150,8 +12271,8 @@
       <c r="E3" s="77"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="98" t="s">
         <v>129</v>
       </c>
@@ -12366,7 +12487,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="13.8">
       <c r="A14" s="87">
         <v>43728</v>
       </c>
@@ -12486,7 +12607,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="13.8">
       <c r="A19" s="87">
         <v>43739</v>
       </c>
@@ -12582,7 +12703,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="13.8">
       <c r="A23" s="89">
         <v>43748</v>
       </c>
@@ -12606,7 +12727,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="13.8">
       <c r="A24" s="95">
         <v>43749</v>
       </c>
@@ -12654,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="13.8">
       <c r="A26" s="89">
         <v>43755</v>
       </c>
@@ -12678,7 +12799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="89">
         <v>43755</v>
       </c>
@@ -12702,7 +12823,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="13.8">
       <c r="A28" s="89">
         <v>43755</v>
       </c>
@@ -12726,7 +12847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="89">
         <v>43761</v>
       </c>
@@ -12990,7 +13111,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.65" customHeight="1">
+    <row r="40" spans="1:7" ht="14.7" customHeight="1">
       <c r="A40" s="95">
         <v>43767</v>
       </c>
@@ -13014,7 +13135,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.65" customHeight="1">
+    <row r="41" spans="1:7" ht="14.7" customHeight="1">
       <c r="A41" s="95">
         <v>43769</v>
       </c>
@@ -13134,7 +13255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="13.8">
       <c r="A46" s="87">
         <v>43770</v>
       </c>
@@ -13158,7 +13279,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="13.8">
       <c r="A47" s="87">
         <v>43770</v>
       </c>
@@ -13182,7 +13303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="13.8">
       <c r="A48" s="95" t="s">
         <v>138</v>
       </c>
@@ -13206,7 +13327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="13.8">
       <c r="A49" s="99" t="s">
         <v>138</v>
       </c>
@@ -13230,7 +13351,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" ht="13.8">
       <c r="A50" s="87">
         <v>43774</v>
       </c>
@@ -13254,7 +13375,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" ht="13.8">
       <c r="A51" s="87">
         <v>43774</v>
       </c>
@@ -13278,7 +13399,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" ht="13.8">
       <c r="A52" s="87">
         <v>43775</v>
       </c>
@@ -13302,7 +13423,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" ht="13.8">
       <c r="A53" s="87">
         <v>43776</v>
       </c>
@@ -13326,7 +13447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" ht="13.8">
       <c r="A54" s="87">
         <v>43776</v>
       </c>
@@ -13350,7 +13471,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" ht="13.8">
       <c r="A55" s="87">
         <v>43778</v>
       </c>
@@ -13374,7 +13495,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" ht="13.8">
       <c r="A56" s="87">
         <v>43779</v>
       </c>
@@ -13398,7 +13519,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" ht="13.8">
       <c r="A57" s="87">
         <v>43780</v>
       </c>
@@ -13422,7 +13543,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" ht="13.8">
       <c r="A58" s="87">
         <v>43781</v>
       </c>
@@ -13446,7 +13567,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" ht="13.8">
       <c r="A59" s="87">
         <v>43781</v>
       </c>
@@ -13470,7 +13591,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" ht="13.8">
       <c r="A60" s="87">
         <v>43781</v>
       </c>
@@ -13494,7 +13615,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" ht="13.8">
       <c r="A61" s="87">
         <v>43782</v>
       </c>
@@ -13518,7 +13639,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" ht="13.8">
       <c r="A62" s="87">
         <v>43782</v>
       </c>
@@ -13542,7 +13663,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" ht="13.8">
       <c r="A63" s="87">
         <v>43785</v>
       </c>
@@ -13566,7 +13687,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" ht="13.8">
       <c r="A64" s="87">
         <v>43785</v>
       </c>
@@ -13590,7 +13711,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" ht="13.8">
       <c r="A65" s="87">
         <v>43785</v>
       </c>
@@ -13614,7 +13735,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" ht="13.8">
       <c r="A66" s="87">
         <v>43786</v>
       </c>
@@ -13638,7 +13759,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" ht="13.8">
       <c r="A67" s="87">
         <v>43788</v>
       </c>
@@ -13662,7 +13783,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" ht="13.8">
       <c r="A68" s="87">
         <v>43791</v>
       </c>
@@ -13686,7 +13807,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" ht="13.8">
       <c r="A69" s="87">
         <v>43791</v>
       </c>
@@ -13710,7 +13831,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" ht="13.8">
       <c r="A70" s="87">
         <v>43792</v>
       </c>
@@ -13734,7 +13855,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" ht="13.8">
       <c r="A71" s="87">
         <v>43792</v>
       </c>
@@ -13787,21 +13908,21 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="55.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.65" customHeight="1">
+    <row r="1" spans="1:10" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -13814,10 +13935,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.65" customHeight="1">
+    <row r="2" spans="1:10" ht="11.7" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:10" ht="11.65" customHeight="1">
+    <row r="3" spans="1:10" ht="11.7" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -13828,8 +13949,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.65" customHeight="1"/>
-    <row r="5" spans="1:10" s="7" customFormat="1" ht="25.5">
+    <row r="4" spans="1:10" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:10" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -14045,7 +14166,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.5">
+    <row r="14" spans="1:10" ht="15.6">
       <c r="A14" s="89" t="s">
         <v>131</v>
       </c>
@@ -14069,7 +14190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.5">
+    <row r="15" spans="1:10" ht="15.6">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -14093,7 +14214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.5">
+    <row r="16" spans="1:10" ht="15.6">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -14117,7 +14238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.5">
+    <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -14141,7 +14262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="13.8">
       <c r="A18" s="50">
         <v>43749</v>
       </c>
@@ -14165,7 +14286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="13.8">
       <c r="A19" s="47">
         <v>43755</v>
       </c>
@@ -14189,7 +14310,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="13.8">
       <c r="A20" s="47">
         <v>43755</v>
       </c>
@@ -14309,7 +14430,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.65" customHeight="1">
+    <row r="25" spans="1:7" ht="14.7" customHeight="1">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -14357,7 +14478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.5">
+    <row r="27" spans="1:7" ht="15.6">
       <c r="A27" s="99" t="s">
         <v>145</v>
       </c>
@@ -14381,7 +14502,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="13.8">
       <c r="A28" s="87">
         <v>43779</v>
       </c>
@@ -14405,7 +14526,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="87">
         <v>43782</v>
       </c>
@@ -14429,7 +14550,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.5">
+    <row r="30" spans="1:7" ht="15.6">
       <c r="A30" s="114" t="s">
         <v>181</v>
       </c>
@@ -14475,7 +14596,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.5">
+    <row r="32" spans="1:7" ht="15.6">
       <c r="A32" s="114" t="s">
         <v>209</v>
       </c>
@@ -14498,7 +14619,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.5">
+    <row r="33" spans="1:7" ht="15.6">
       <c r="A33" s="114" t="s">
         <v>211</v>
       </c>
@@ -14673,21 +14794,21 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.65" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -14700,10 +14821,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.65" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="11.65" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>127</v>
       </c>
@@ -14714,8 +14835,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="8" t="s">
         <v>129</v>
       </c>
@@ -14752,7 +14873,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="68">
-        <f t="shared" ref="E6:E45" si="0">C6-B6-(D6/24/60)</f>
+        <f t="shared" ref="E6:E62" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -14930,7 +15051,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="13.8">
       <c r="A14" s="10">
         <v>43739</v>
       </c>
@@ -14954,7 +15075,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="13.8">
       <c r="A15" s="35">
         <v>43739</v>
       </c>
@@ -15050,7 +15171,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.5">
+    <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -15074,7 +15195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.5">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -15098,7 +15219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.5">
+    <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -15122,7 +15243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="13.8">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -15146,7 +15267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.5">
+    <row r="23" spans="1:7" ht="15.6">
       <c r="A23" s="35">
         <v>43750</v>
       </c>
@@ -15242,7 +15363,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="47">
         <v>43755</v>
       </c>
@@ -15266,7 +15387,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="13.8">
       <c r="A28" s="47">
         <v>43755</v>
       </c>
@@ -15290,7 +15411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="10">
         <v>43760</v>
       </c>
@@ -15410,7 +15531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="13.8">
       <c r="A34" s="35">
         <v>43770</v>
       </c>
@@ -15602,7 +15723,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" ht="13.8">
       <c r="A42" s="87">
         <v>43779</v>
       </c>
@@ -15650,7 +15771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="13.8">
       <c r="A44" s="87">
         <v>43782</v>
       </c>
@@ -15698,111 +15819,195 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="87"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="39"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="39"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="39"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="39"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="39"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="39"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="39"/>
+    <row r="46" spans="1:7" ht="15.6">
+      <c r="A46" s="87">
+        <v>43792</v>
+      </c>
+      <c r="B46" s="51">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C46" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="D46" s="32">
+        <v>60</v>
+      </c>
+      <c r="E46" s="58">
+        <f t="shared" si="0"/>
+        <v>0.12499999999999997</v>
+      </c>
+      <c r="F46" s="124" t="s">
+        <v>220</v>
+      </c>
+      <c r="G46" s="113" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.6">
+      <c r="A47" s="87">
+        <v>43793</v>
+      </c>
+      <c r="B47" s="51">
+        <v>0.5625</v>
+      </c>
+      <c r="C47" s="51">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D47" s="32">
+        <v>0</v>
+      </c>
+      <c r="E47" s="58">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F47" s="122" t="s">
+        <v>220</v>
+      </c>
+      <c r="G47" s="123" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="13.8">
+      <c r="A48" s="87">
+        <v>43793</v>
+      </c>
+      <c r="B48" s="51">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C48" s="51">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D48" s="32">
+        <v>20</v>
+      </c>
+      <c r="E48" s="58">
+        <f t="shared" si="0"/>
+        <v>0.15277777777777785</v>
+      </c>
+      <c r="F48" s="122" t="s">
+        <v>220</v>
+      </c>
+      <c r="G48" s="113" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="13.8">
+      <c r="A49" s="87">
+        <v>43794</v>
+      </c>
+      <c r="B49" s="51">
+        <v>0</v>
+      </c>
+      <c r="C49" s="51">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D49" s="32">
+        <v>0</v>
+      </c>
+      <c r="E49" s="58">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F49" s="115" t="s">
+        <v>219</v>
+      </c>
+      <c r="G49" s="113" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="39"/>
+      <c r="A50" s="87"/>
       <c r="B50" s="51"/>
       <c r="C50" s="51"/>
       <c r="D50" s="32"/>
-      <c r="E50" s="58"/>
+      <c r="E50" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F50" s="6"/>
       <c r="G50" s="39"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="39"/>
+      <c r="A51" s="87"/>
       <c r="B51" s="51"/>
       <c r="C51" s="51"/>
       <c r="D51" s="32"/>
-      <c r="E51" s="58"/>
+      <c r="E51" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F51" s="6"/>
       <c r="G51" s="39"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="39"/>
+      <c r="A52" s="87"/>
       <c r="B52" s="51"/>
       <c r="C52" s="51"/>
       <c r="D52" s="32"/>
-      <c r="E52" s="58"/>
+      <c r="E52" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F52" s="6"/>
       <c r="G52" s="39"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="39"/>
+      <c r="A53" s="87"/>
       <c r="B53" s="51"/>
       <c r="C53" s="51"/>
       <c r="D53" s="32"/>
-      <c r="E53" s="58"/>
+      <c r="E53" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F53" s="6"/>
       <c r="G53" s="39"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="39"/>
+      <c r="A54" s="87"/>
       <c r="B54" s="51"/>
       <c r="C54" s="51"/>
       <c r="D54" s="32"/>
-      <c r="E54" s="58"/>
+      <c r="E54" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F54" s="6"/>
       <c r="G54" s="39"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="39"/>
+      <c r="A55" s="87"/>
       <c r="B55" s="51"/>
       <c r="C55" s="51"/>
       <c r="D55" s="32"/>
-      <c r="E55" s="58"/>
+      <c r="E55" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F55" s="6"/>
       <c r="G55" s="39"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="39"/>
+      <c r="A56" s="87"/>
       <c r="B56" s="51"/>
       <c r="C56" s="51"/>
       <c r="D56" s="32"/>
-      <c r="E56" s="58"/>
+      <c r="E56" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F56" s="6"/>
       <c r="G56" s="39"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="39"/>
+      <c r="A57" s="87"/>
       <c r="B57" s="51"/>
       <c r="C57" s="51"/>
       <c r="D57" s="32"/>
-      <c r="E57" s="58"/>
+      <c r="E57" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F57" s="6"/>
       <c r="G57" s="39"/>
     </row>
@@ -15811,7 +16016,10 @@
       <c r="B58" s="51"/>
       <c r="C58" s="51"/>
       <c r="D58" s="32"/>
-      <c r="E58" s="58"/>
+      <c r="E58" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F58" s="6"/>
       <c r="G58" s="39"/>
     </row>
@@ -15820,7 +16028,10 @@
       <c r="B59" s="51"/>
       <c r="C59" s="51"/>
       <c r="D59" s="32"/>
-      <c r="E59" s="58"/>
+      <c r="E59" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F59" s="6"/>
       <c r="G59" s="39"/>
     </row>
@@ -15829,7 +16040,10 @@
       <c r="B60" s="51"/>
       <c r="C60" s="51"/>
       <c r="D60" s="32"/>
-      <c r="E60" s="58"/>
+      <c r="E60" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F60" s="6"/>
       <c r="G60" s="39"/>
     </row>
@@ -15838,7 +16052,10 @@
       <c r="B61" s="51"/>
       <c r="C61" s="51"/>
       <c r="D61" s="32"/>
-      <c r="E61" s="58"/>
+      <c r="E61" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F61" s="6"/>
       <c r="G61" s="39"/>
     </row>
@@ -15847,7 +16064,10 @@
       <c r="B62" s="51"/>
       <c r="C62" s="51"/>
       <c r="D62" s="32"/>
-      <c r="E62" s="58"/>
+      <c r="E62" s="58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F62" s="6"/>
       <c r="G62" s="39"/>
     </row>
@@ -15871,17 +16091,17 @@
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="65" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.65" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -15894,10 +16114,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.65" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.65" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -15908,8 +16128,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -16076,7 +16296,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5">
+    <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="89">
         <v>43746</v>
       </c>
@@ -16100,7 +16320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="89">
         <v>43748</v>
       </c>
@@ -16124,7 +16344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5">
+    <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="87">
         <v>43749</v>
       </c>
@@ -16148,7 +16368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="13.8">
       <c r="A15" s="50">
         <v>43749</v>
       </c>
@@ -16196,7 +16416,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="13.8">
       <c r="A17" s="47">
         <v>43755</v>
       </c>
@@ -16268,7 +16488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.5">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="94" t="s">
         <v>141</v>
       </c>
@@ -16364,7 +16584,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.65" customHeight="1">
+    <row r="24" spans="1:7" ht="14.7" customHeight="1">
       <c r="A24" s="50">
         <v>43769</v>
       </c>
@@ -16412,7 +16632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="13.8">
       <c r="A26" s="35">
         <v>43770</v>
       </c>
@@ -16436,7 +16656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="87">
         <v>43779</v>
       </c>
@@ -16633,17 +16853,17 @@
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="85" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.65" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -16656,10 +16876,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.65" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="83"/>
     </row>
-    <row r="3" spans="1:7" ht="11.65" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="84" t="s">
         <v>127</v>
       </c>
@@ -16670,8 +16890,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -16694,7 +16914,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="87">
         <v>43715</v>
       </c>
@@ -16718,7 +16938,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="13.8">
       <c r="A7" s="88">
         <v>43727</v>
       </c>
@@ -16742,7 +16962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="13.8">
       <c r="A8" s="87">
         <v>43727</v>
       </c>
@@ -16766,7 +16986,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="13.8">
       <c r="A9" s="87">
         <v>43728</v>
       </c>
@@ -16814,7 +17034,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="13.8">
       <c r="A11" s="87">
         <v>43735</v>
       </c>
@@ -16838,7 +17058,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="13.8">
       <c r="A12" s="87">
         <v>43737</v>
       </c>
@@ -16862,7 +17082,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="13.8">
       <c r="A13" s="87">
         <v>43738</v>
       </c>
@@ -16886,7 +17106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="13.8">
       <c r="A14" s="87">
         <v>43739</v>
       </c>
@@ -16910,7 +17130,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="13.8">
       <c r="A15" s="89">
         <v>43739</v>
       </c>
@@ -16934,7 +17154,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="13.8">
       <c r="A16" s="87">
         <v>43744</v>
       </c>
@@ -16958,7 +17178,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="13.8">
       <c r="A17" s="87">
         <v>43744</v>
       </c>
@@ -16982,7 +17202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="13.8">
       <c r="A18" s="87">
         <v>43744</v>
       </c>
@@ -17006,7 +17226,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.5">
+    <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -17030,7 +17250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.5">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -17054,7 +17274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.5">
+    <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -17078,7 +17298,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="13.8">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -17102,7 +17322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="13.8">
       <c r="A23" s="87">
         <v>43751</v>
       </c>
@@ -17126,7 +17346,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.5">
+    <row r="24" spans="1:7" ht="15.6">
       <c r="A24" s="87">
         <v>43751</v>
       </c>
@@ -17198,7 +17418,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="87">
         <v>43753</v>
       </c>
@@ -17246,7 +17466,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="90">
         <v>43754</v>
       </c>
@@ -17270,7 +17490,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="13.8">
       <c r="A30" s="90">
         <v>43754</v>
       </c>
@@ -17318,7 +17538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="13.8">
       <c r="A32" s="47">
         <v>43755</v>
       </c>
@@ -17342,7 +17562,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.65" customHeight="1">
+    <row r="33" spans="1:7" ht="14.7" customHeight="1">
       <c r="A33" s="90">
         <v>43755</v>
       </c>
@@ -17366,7 +17586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="13.8">
       <c r="A34" s="47">
         <v>43755</v>
       </c>
@@ -17606,7 +17826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="13.8">
       <c r="A44" s="35">
         <v>43770</v>
       </c>
@@ -17654,7 +17874,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="13.8">
       <c r="A46" s="35">
         <v>43772</v>
       </c>
@@ -17676,7 +17896,7 @@
       </c>
       <c r="G46" s="121"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="13.8">
       <c r="A47" s="87">
         <v>43779</v>
       </c>
@@ -17700,7 +17920,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="13.8">
       <c r="A48" s="87">
         <v>43782</v>
       </c>
@@ -17724,7 +17944,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="13.8">
       <c r="A49" s="35">
         <v>43783</v>
       </c>
@@ -17772,7 +17992,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13.5">
+    <row r="51" spans="1:7" ht="15.6">
       <c r="A51" s="35">
         <v>43791</v>
       </c>
@@ -17796,7 +18016,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="13.5">
+    <row r="52" spans="1:7" ht="15.6">
       <c r="A52" s="35">
         <v>43792</v>
       </c>
@@ -18320,17 +18540,17 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.65" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -18343,10 +18563,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.65" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.65" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -18357,8 +18577,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -18525,7 +18745,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="13.8">
       <c r="A12" s="87" t="s">
         <v>134</v>
       </c>
@@ -18597,7 +18817,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.5">
+    <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -18621,7 +18841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.5">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -18645,7 +18865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.5">
+    <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -18669,7 +18889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="13.8">
       <c r="A18" s="95">
         <v>43749</v>
       </c>
@@ -18741,7 +18961,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="13.8">
       <c r="A21" s="47">
         <v>43755</v>
       </c>
@@ -18765,7 +18985,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="13.8">
       <c r="A22" s="47">
         <v>43755</v>
       </c>
@@ -18909,7 +19129,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.65" customHeight="1">
+    <row r="28" spans="1:7" ht="14.7" customHeight="1">
       <c r="A28" s="50">
         <v>43769</v>
       </c>
@@ -19027,7 +19247,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="13.8">
       <c r="A33" s="87">
         <v>43782</v>
       </c>
@@ -19051,7 +19271,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="13.8">
       <c r="A34" s="114" t="s">
         <v>191</v>
       </c>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinwo\Desktop\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9373EB9-14CB-4AB7-95ED-7B6325F23629}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBCC77F-063C-4E1D-BDE8-88B0F0B68152}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="226">
   <si>
     <r>
       <rPr>
@@ -11460,6 +11460,32 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 및 그리드뷰 데이터베이스 연동</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 25일</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -11899,18 +11925,18 @@
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -14794,7 +14820,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
@@ -15836,7 +15862,7 @@
         <f t="shared" si="0"/>
         <v>0.12499999999999997</v>
       </c>
-      <c r="F46" s="124" t="s">
+      <c r="F46" s="122" t="s">
         <v>220</v>
       </c>
       <c r="G46" s="113" t="s">
@@ -15860,10 +15886,10 @@
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F47" s="122" t="s">
+      <c r="F47" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="G47" s="123" t="s">
+      <c r="G47" s="121" t="s">
         <v>223</v>
       </c>
     </row>
@@ -15884,7 +15910,7 @@
         <f t="shared" si="0"/>
         <v>0.15277777777777785</v>
       </c>
-      <c r="F48" s="122" t="s">
+      <c r="F48" s="120" t="s">
         <v>220</v>
       </c>
       <c r="G48" s="113" t="s">
@@ -17870,7 +17896,7 @@
       <c r="F45" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="120" t="s">
+      <c r="G45" s="123" t="s">
         <v>83</v>
       </c>
     </row>
@@ -17894,7 +17920,7 @@
       <c r="F46" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="121"/>
+      <c r="G46" s="124"/>
     </row>
     <row r="47" spans="1:7" ht="13.8">
       <c r="A47" s="87">
@@ -18536,8 +18562,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -19410,20 +19436,34 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1">
-      <c r="A40" s="87"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="2"/>
+      <c r="A40" s="114" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" s="51">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C40" s="51">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D40" s="32">
+        <v>0</v>
+      </c>
+      <c r="E40" s="19">
+        <v>240</v>
+      </c>
+      <c r="F40" s="117" t="s">
+        <v>194</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="87"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
       <c r="D41" s="32"/>
-      <c r="E41" s="58"/>
+      <c r="E41" s="19"/>
       <c r="F41" s="13"/>
       <c r="G41" s="2"/>
     </row>
@@ -19432,7 +19472,7 @@
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
       <c r="D42" s="32"/>
-      <c r="E42" s="58"/>
+      <c r="E42" s="19"/>
       <c r="F42" s="13"/>
       <c r="G42" s="2"/>
     </row>
@@ -19441,7 +19481,7 @@
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
       <c r="D43" s="32"/>
-      <c r="E43" s="58"/>
+      <c r="E43" s="19"/>
       <c r="F43" s="13"/>
       <c r="G43" s="2"/>
     </row>
@@ -19450,7 +19490,7 @@
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
       <c r="D44" s="32"/>
-      <c r="E44" s="58"/>
+      <c r="E44" s="19"/>
       <c r="F44" s="6"/>
       <c r="G44" s="2"/>
     </row>
@@ -19459,7 +19499,7 @@
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="32"/>
-      <c r="E45" s="58"/>
+      <c r="E45" s="19"/>
       <c r="F45" s="6"/>
       <c r="G45" s="2"/>
     </row>
@@ -19468,7 +19508,7 @@
       <c r="B46" s="51"/>
       <c r="C46" s="51"/>
       <c r="D46" s="32"/>
-      <c r="E46" s="58"/>
+      <c r="E46" s="19"/>
       <c r="F46" s="6"/>
       <c r="G46" s="2"/>
     </row>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinwo\Desktop\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBCC77F-063C-4E1D-BDE8-88B0F0B68152}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6C33F0-FE8F-434C-8362-91F1E5D13940}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="229">
   <si>
     <r>
       <rPr>
@@ -11486,6 +11486,133 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 25일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 개발</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CSV </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안드로이드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터베이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CSV </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트 저장 및 그리드뷰 연동</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -14820,8 +14947,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -15941,29 +16068,53 @@
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="87"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="32"/>
+    <row r="50" spans="1:7" ht="13.8">
+      <c r="A50" s="87">
+        <v>43794</v>
+      </c>
+      <c r="B50" s="51">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C50" s="51">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="D50" s="32">
+        <v>10</v>
+      </c>
       <c r="E50" s="58">
         <f t="shared" si="0"/>
+        <v>9.0277777777777873E-2</v>
+      </c>
+      <c r="F50" s="115" t="s">
+        <v>226</v>
+      </c>
+      <c r="G50" s="113" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="13.8">
+      <c r="A51" s="87">
+        <v>43795</v>
+      </c>
+      <c r="B51" s="51">
         <v>0</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="39"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="87"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="32"/>
+      <c r="C51" s="51">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D51" s="32">
+        <v>0</v>
+      </c>
       <c r="E51" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="39"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F51" s="120" t="s">
+        <v>226</v>
+      </c>
+      <c r="G51" s="113" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="87"/>
@@ -18562,7 +18713,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6C33F0-FE8F-434C-8362-91F1E5D13940}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,12 +214,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -397,12 +396,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -579,12 +578,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -598,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -761,12 +760,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -780,7 +779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -943,12 +942,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -962,7 +961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="231">
   <si>
     <r>
       <rPr>
@@ -11417,38 +11416,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">GUI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변경 및 로직 회의, 프로젝트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 타임라인 회의</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>xml 디자인</t>
     </r>
     <r>
@@ -11613,6 +11580,235 @@
         <charset val="129"/>
       </rPr>
       <t>리스트 저장 및 그리드뷰 연동</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현황</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공유</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> DB Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>피드백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타임라인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>논의</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -11620,7 +11816,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -11789,7 +11985,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -12055,7 +12251,6 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12068,10 +12263,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="백분율 2" xfId="4"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="표준 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12377,12 +12572,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -13230,7 +13425,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="58">
-        <f t="shared" ref="E38:E71" si="1">C38-B38-(D38/24/60)</f>
+        <f t="shared" ref="E38:E87" si="1">C38-B38-(D38/24/60)</f>
         <v>9.7222222220605337E-2</v>
       </c>
       <c r="F38" s="32" t="s">
@@ -14032,12 +14227,194 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" ht="13.8">
+      <c r="A72" s="87">
+        <v>43793</v>
+      </c>
+      <c r="B72" s="51">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C72" s="51">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D72" s="32">
+        <v>0</v>
+      </c>
+      <c r="E72" s="58">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F72" s="116" t="s">
+        <v>230</v>
+      </c>
+      <c r="G72" s="113" t="s">
+        <v>228</v>
+      </c>
       <c r="N72" s="107"/>
     </row>
+    <row r="73" spans="1:14" ht="13.8">
+      <c r="A73" s="87">
+        <v>43793</v>
+      </c>
+      <c r="B73" s="51">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C73" s="51">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D73" s="32">
+        <v>0</v>
+      </c>
+      <c r="E73" s="58">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G73" s="39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="13.8">
+      <c r="A74" s="87">
+        <v>43793</v>
+      </c>
+      <c r="B74" s="51">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C74" s="51">
+        <v>1.0138888888888888</v>
+      </c>
+      <c r="D74" s="32">
+        <v>40</v>
+      </c>
+      <c r="E74" s="58">
+        <f t="shared" si="1"/>
+        <v>0.13194444444444442</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G74" s="39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="13.8">
+      <c r="A75" s="87">
+        <v>43793</v>
+      </c>
+      <c r="B75" s="51">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="C75" s="51">
+        <v>1.0694444444444444</v>
+      </c>
+      <c r="D75" s="32">
+        <v>0</v>
+      </c>
+      <c r="E75" s="58">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="F75" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G75" s="39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="87">
+        <v>43794</v>
+      </c>
+      <c r="B76" s="51">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C76" s="51">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D76" s="32">
+        <v>20</v>
+      </c>
+      <c r="E76" s="58">
+        <f t="shared" si="1"/>
+        <v>0.1458333333333332</v>
+      </c>
+    </row>
     <row r="77" spans="1:14">
+      <c r="A77" s="87">
+        <v>43794</v>
+      </c>
+      <c r="B77" s="51">
+        <v>0.6875</v>
+      </c>
+      <c r="C77" s="51">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D77" s="32">
+        <v>20</v>
+      </c>
+      <c r="E77" s="58">
+        <f t="shared" si="1"/>
+        <v>0.24999999999999994</v>
+      </c>
       <c r="G77" s="113" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="87">
+        <v>43794</v>
+      </c>
+      <c r="B78" s="51">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="C78" s="51">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="D78" s="32">
+        <v>0</v>
+      </c>
+      <c r="E78" s="58">
+        <f t="shared" si="1"/>
+        <v>9.7222222222222099E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="87">
+        <v>43795</v>
+      </c>
+      <c r="B79" s="51">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="C79" s="51">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D79" s="32">
+        <v>0</v>
+      </c>
+      <c r="E79" s="58">
+        <f t="shared" si="1"/>
+        <v>0.2013888888888889</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="87">
+        <v>43795</v>
+      </c>
+      <c r="B80" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="C80" s="51">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D80" s="32">
+        <v>0</v>
+      </c>
+      <c r="E80" s="58">
+        <f t="shared" si="1"/>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="85" spans="7:7">
@@ -14057,9 +14434,9 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
@@ -14772,7 +15149,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.6">
+    <row r="33" spans="1:14" ht="15.6">
       <c r="A33" s="114" t="s">
         <v>211</v>
       </c>
@@ -14795,7 +15172,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1">
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="114" t="s">
         <v>213</v>
       </c>
@@ -14818,7 +15195,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1">
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="114" t="s">
         <v>216</v>
       </c>
@@ -14841,16 +15218,32 @@
         <v>218</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1">
-      <c r="A36" s="87"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1">
+    <row r="36" spans="1:14" ht="13.8">
+      <c r="A36" s="87">
+        <v>43793</v>
+      </c>
+      <c r="B36" s="51">
+        <v>0.5625</v>
+      </c>
+      <c r="C36" s="51">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D36" s="32">
+        <v>0</v>
+      </c>
+      <c r="E36" s="58">
+        <f t="shared" ref="E36" si="1">C36-B36-(D36/24/60)</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F36" s="116" t="s">
+        <v>229</v>
+      </c>
+      <c r="G36" s="113" t="s">
+        <v>228</v>
+      </c>
+      <c r="N36" s="107"/>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="87"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -14859,7 +15252,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
+    <row r="38" spans="1:14" ht="15" customHeight="1">
       <c r="A38" s="87"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -14868,7 +15261,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1">
+    <row r="39" spans="1:14" ht="15" customHeight="1">
       <c r="A39" s="87"/>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -14877,7 +15270,7 @@
       <c r="F39" s="13"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1">
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="87"/>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -14886,7 +15279,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1">
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="87"/>
       <c r="B41" s="51"/>
       <c r="C41" s="51"/>
@@ -14895,7 +15288,7 @@
       <c r="F41" s="13"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1">
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="87"/>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -14904,7 +15297,7 @@
       <c r="F42" s="13"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1">
+    <row r="43" spans="1:14" ht="15" customHeight="1">
       <c r="A43" s="87"/>
       <c r="B43" s="51"/>
       <c r="C43" s="51"/>
@@ -14913,7 +15306,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1">
+    <row r="44" spans="1:14" ht="15" customHeight="1">
       <c r="A44" s="91"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -14922,7 +15315,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1">
+    <row r="45" spans="1:14" ht="15" customHeight="1">
       <c r="A45" s="91"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -14943,12 +15336,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -15989,14 +16382,14 @@
         <f t="shared" si="0"/>
         <v>0.12499999999999997</v>
       </c>
-      <c r="F46" s="122" t="s">
+      <c r="F46" s="121" t="s">
         <v>220</v>
       </c>
       <c r="G46" s="113" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="13.8">
       <c r="A47" s="87">
         <v>43793</v>
       </c>
@@ -16016,8 +16409,8 @@
       <c r="F47" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="G47" s="121" t="s">
-        <v>223</v>
+      <c r="G47" s="113" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="13.8">
@@ -16086,10 +16479,10 @@
         <v>9.0277777777777873E-2</v>
       </c>
       <c r="F50" s="115" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" s="113" t="s">
         <v>226</v>
-      </c>
-      <c r="G50" s="113" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="13.8">
@@ -16110,10 +16503,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F51" s="120" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G51" s="113" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -16260,12 +16653,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -16343,7 +16736,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="69">
-        <f t="shared" ref="E6:E27" si="0">C6-B6-(D6/24/60)</f>
+        <f t="shared" ref="E6:E28" si="0">C6-B6-(D6/24/60)</f>
         <v>5.555555555555558E-2</v>
       </c>
       <c r="F6" s="14" t="s">
@@ -16857,14 +17250,29 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1">
-      <c r="A28" s="87"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="2"/>
+    <row r="28" spans="1:7" ht="13.8">
+      <c r="A28" s="87">
+        <v>43793</v>
+      </c>
+      <c r="B28" s="51">
+        <v>0.5625</v>
+      </c>
+      <c r="C28" s="51">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D28" s="32">
+        <v>0</v>
+      </c>
+      <c r="E28" s="58">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F28" s="120" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="113" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="87"/>
@@ -17022,12 +17430,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -17105,7 +17513,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="68">
-        <f t="shared" ref="E6:E55" si="0">C6-B6-(D6/24/60)</f>
+        <f t="shared" ref="E6:E56" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -18047,7 +18455,7 @@
       <c r="F45" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="123" t="s">
+      <c r="G45" s="122" t="s">
         <v>83</v>
       </c>
     </row>
@@ -18071,7 +18479,7 @@
       <c r="F46" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="124"/>
+      <c r="G46" s="123"/>
     </row>
     <row r="47" spans="1:7" ht="13.8">
       <c r="A47" s="87">
@@ -18265,38 +18673,53 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="35">
+    <row r="55" spans="1:7" ht="13.8">
+      <c r="A55" s="87">
         <v>43793</v>
       </c>
       <c r="B55" s="51">
+        <v>0.5625</v>
+      </c>
+      <c r="C55" s="51">
         <v>0.60416666666666663</v>
-      </c>
-      <c r="C55" s="51">
-        <v>0.64583333333333337</v>
       </c>
       <c r="D55" s="32">
         <v>0</v>
       </c>
       <c r="E55" s="58">
         <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F55" s="120" t="s">
+        <v>194</v>
+      </c>
+      <c r="G55" s="113" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="35">
+        <v>43793</v>
+      </c>
+      <c r="B56" s="51">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C56" s="51">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D56" s="32">
+        <v>0</v>
+      </c>
+      <c r="E56" s="58">
+        <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F55" s="112" t="s">
+      <c r="F56" s="112" t="s">
         <v>194</v>
       </c>
-      <c r="G55" s="113" t="s">
+      <c r="G56" s="113" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="35"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="49"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="35"/>
@@ -18693,6 +19116,15 @@
       <c r="E100" s="58"/>
       <c r="F100" s="44"/>
       <c r="G100" s="49"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="35"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="58"/>
+      <c r="F101" s="44"/>
+      <c r="G101" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -18709,12 +19141,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView topLeftCell="A26" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -19563,44 +19995,45 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1">
-      <c r="A39" s="114" t="s">
-        <v>205</v>
+    <row r="39" spans="1:7" ht="13.8">
+      <c r="A39" s="87">
+        <v>43793</v>
       </c>
       <c r="B39" s="51">
+        <v>0.5625</v>
+      </c>
+      <c r="C39" s="51">
         <v>0.60416666666666663</v>
-      </c>
-      <c r="C39" s="51">
-        <v>0.75</v>
       </c>
       <c r="D39" s="32">
         <v>0</v>
       </c>
-      <c r="E39" s="19">
-        <v>210</v>
-      </c>
-      <c r="F39" s="117" t="s">
+      <c r="E39" s="58">
+        <f t="shared" ref="E39" si="2">C39-B39-(D39/24/60)</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F39" s="120" t="s">
         <v>194</v>
       </c>
-      <c r="G39" s="37" t="s">
-        <v>178</v>
+      <c r="G39" s="113" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="114" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B40" s="51">
-        <v>0.54166666666666663</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="C40" s="51">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D40" s="32">
         <v>0</v>
       </c>
       <c r="E40" s="19">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="F40" s="117" t="s">
         <v>194</v>
@@ -19610,13 +20043,27 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1">
-      <c r="A41" s="87"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="2"/>
+      <c r="A41" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" s="51">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C41" s="51">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D41" s="32">
+        <v>0</v>
+      </c>
+      <c r="E41" s="19">
+        <v>240</v>
+      </c>
+      <c r="F41" s="117" t="s">
+        <v>194</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1">
       <c r="A42" s="87"/>
@@ -19642,11 +20089,11 @@
       <c r="C44" s="51"/>
       <c r="D44" s="32"/>
       <c r="E44" s="19"/>
-      <c r="F44" s="6"/>
+      <c r="F44" s="13"/>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1">
-      <c r="A45" s="91"/>
+      <c r="A45" s="87"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="32"/>
@@ -19662,6 +20109,15 @@
       <c r="E46" s="19"/>
       <c r="F46" s="6"/>
       <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1">
+      <c r="A47" s="91"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choijaeyoung/Desktop/babalzza-master/Project Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A24C9-2A0A-4144-B2E2-2B51B6EE86C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -214,12 +215,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -396,12 +397,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -578,12 +579,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -597,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -760,12 +761,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -779,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -942,12 +943,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -961,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="232">
   <si>
     <r>
       <rPr>
@@ -11479,6 +11480,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -11497,6 +11499,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -11515,6 +11518,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -11533,6 +11537,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -11810,13 +11815,17 @@
       </rPr>
       <t>개발</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>식재료 관리(sort Menu option 구현)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -12263,10 +12272,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3"/>
+    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12572,27 +12581,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView topLeftCell="A59" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="87" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="87" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="51" customWidth="1"/>
     <col min="3" max="3" width="7" style="51" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="58" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="46.5" style="39" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>41</v>
       </c>
@@ -12605,10 +12614,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="97" t="s">
         <v>127</v>
       </c>
@@ -12619,8 +12628,8 @@
       <c r="E3" s="77"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="98" t="s">
         <v>129</v>
       </c>
@@ -12835,7 +12844,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8">
+    <row r="14" spans="1:7" ht="14">
       <c r="A14" s="87">
         <v>43728</v>
       </c>
@@ -12955,7 +12964,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8">
+    <row r="19" spans="1:7" ht="14">
       <c r="A19" s="87">
         <v>43739</v>
       </c>
@@ -13051,7 +13060,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8">
+    <row r="23" spans="1:7" ht="14">
       <c r="A23" s="89">
         <v>43748</v>
       </c>
@@ -13075,7 +13084,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.8">
+    <row r="24" spans="1:7" ht="14">
       <c r="A24" s="95">
         <v>43749</v>
       </c>
@@ -13123,7 +13132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8">
+    <row r="26" spans="1:7" ht="14">
       <c r="A26" s="89">
         <v>43755</v>
       </c>
@@ -13147,7 +13156,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7" ht="14">
       <c r="A27" s="89">
         <v>43755</v>
       </c>
@@ -13171,7 +13180,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8">
+    <row r="28" spans="1:7" ht="14">
       <c r="A28" s="89">
         <v>43755</v>
       </c>
@@ -13195,7 +13204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7" ht="14">
       <c r="A29" s="89">
         <v>43761</v>
       </c>
@@ -13425,7 +13434,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="58">
-        <f t="shared" ref="E38:E87" si="1">C38-B38-(D38/24/60)</f>
+        <f t="shared" ref="E38:E80" si="1">C38-B38-(D38/24/60)</f>
         <v>9.7222222220605337E-2</v>
       </c>
       <c r="F38" s="32" t="s">
@@ -13459,7 +13468,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.7" customHeight="1">
+    <row r="40" spans="1:7" ht="14.75" customHeight="1">
       <c r="A40" s="95">
         <v>43767</v>
       </c>
@@ -13483,7 +13492,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.7" customHeight="1">
+    <row r="41" spans="1:7" ht="14.75" customHeight="1">
       <c r="A41" s="95">
         <v>43769</v>
       </c>
@@ -13603,7 +13612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.8">
+    <row r="46" spans="1:7" ht="14">
       <c r="A46" s="87">
         <v>43770</v>
       </c>
@@ -13627,7 +13636,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13.8">
+    <row r="47" spans="1:7" ht="14">
       <c r="A47" s="87">
         <v>43770</v>
       </c>
@@ -13651,7 +13660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8">
+    <row r="48" spans="1:7" ht="14">
       <c r="A48" s="95" t="s">
         <v>138</v>
       </c>
@@ -13675,7 +13684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.8">
+    <row r="49" spans="1:7" ht="14">
       <c r="A49" s="99" t="s">
         <v>138</v>
       </c>
@@ -13699,7 +13708,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13.8">
+    <row r="50" spans="1:7" ht="14">
       <c r="A50" s="87">
         <v>43774</v>
       </c>
@@ -13723,7 +13732,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13.8">
+    <row r="51" spans="1:7" ht="14">
       <c r="A51" s="87">
         <v>43774</v>
       </c>
@@ -13747,7 +13756,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="13.8">
+    <row r="52" spans="1:7" ht="14">
       <c r="A52" s="87">
         <v>43775</v>
       </c>
@@ -13771,7 +13780,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="13.8">
+    <row r="53" spans="1:7" ht="14">
       <c r="A53" s="87">
         <v>43776</v>
       </c>
@@ -13795,7 +13804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="13.8">
+    <row r="54" spans="1:7" ht="14">
       <c r="A54" s="87">
         <v>43776</v>
       </c>
@@ -13819,7 +13828,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="13.8">
+    <row r="55" spans="1:7" ht="14">
       <c r="A55" s="87">
         <v>43778</v>
       </c>
@@ -13843,7 +13852,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="13.8">
+    <row r="56" spans="1:7" ht="14">
       <c r="A56" s="87">
         <v>43779</v>
       </c>
@@ -13867,7 +13876,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="13.8">
+    <row r="57" spans="1:7" ht="14">
       <c r="A57" s="87">
         <v>43780</v>
       </c>
@@ -13891,7 +13900,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="13.8">
+    <row r="58" spans="1:7" ht="14">
       <c r="A58" s="87">
         <v>43781</v>
       </c>
@@ -13915,7 +13924,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13.8">
+    <row r="59" spans="1:7" ht="14">
       <c r="A59" s="87">
         <v>43781</v>
       </c>
@@ -13939,7 +13948,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="13.8">
+    <row r="60" spans="1:7" ht="14">
       <c r="A60" s="87">
         <v>43781</v>
       </c>
@@ -13963,7 +13972,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="13.8">
+    <row r="61" spans="1:7" ht="14">
       <c r="A61" s="87">
         <v>43782</v>
       </c>
@@ -13987,7 +13996,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13.8">
+    <row r="62" spans="1:7" ht="14">
       <c r="A62" s="87">
         <v>43782</v>
       </c>
@@ -14011,7 +14020,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13.8">
+    <row r="63" spans="1:7" ht="14">
       <c r="A63" s="87">
         <v>43785</v>
       </c>
@@ -14035,7 +14044,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="13.8">
+    <row r="64" spans="1:7" ht="14">
       <c r="A64" s="87">
         <v>43785</v>
       </c>
@@ -14059,7 +14068,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="13.8">
+    <row r="65" spans="1:14" ht="14">
       <c r="A65" s="87">
         <v>43785</v>
       </c>
@@ -14083,7 +14092,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="13.8">
+    <row r="66" spans="1:14" ht="14">
       <c r="A66" s="87">
         <v>43786</v>
       </c>
@@ -14107,7 +14116,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="13.8">
+    <row r="67" spans="1:14" ht="14">
       <c r="A67" s="87">
         <v>43788</v>
       </c>
@@ -14131,7 +14140,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="13.8">
+    <row r="68" spans="1:14" ht="14">
       <c r="A68" s="87">
         <v>43791</v>
       </c>
@@ -14155,7 +14164,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="13.8">
+    <row r="69" spans="1:14" ht="14">
       <c r="A69" s="87">
         <v>43791</v>
       </c>
@@ -14179,7 +14188,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="13.8">
+    <row r="70" spans="1:14" ht="14">
       <c r="A70" s="87">
         <v>43792</v>
       </c>
@@ -14203,7 +14212,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="13.8">
+    <row r="71" spans="1:14" ht="14">
       <c r="A71" s="87">
         <v>43792</v>
       </c>
@@ -14227,7 +14236,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="13.8">
+    <row r="72" spans="1:14" ht="14">
       <c r="A72" s="87">
         <v>43793</v>
       </c>
@@ -14252,7 +14261,7 @@
       </c>
       <c r="N72" s="107"/>
     </row>
-    <row r="73" spans="1:14" ht="13.8">
+    <row r="73" spans="1:14" ht="14">
       <c r="A73" s="87">
         <v>43793</v>
       </c>
@@ -14276,7 +14285,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="13.8">
+    <row r="74" spans="1:14" ht="14">
       <c r="A74" s="87">
         <v>43793</v>
       </c>
@@ -14300,7 +14309,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="13.8">
+    <row r="75" spans="1:14" ht="14">
       <c r="A75" s="87">
         <v>43793</v>
       </c>
@@ -14434,7 +14443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N45"/>
   <sheetViews>
@@ -14442,17 +14451,17 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.7" customHeight="1">
+    <row r="1" spans="1:10" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -14465,10 +14474,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.7" customHeight="1">
+    <row r="2" spans="1:10" ht="11.75" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:10" ht="11.7" customHeight="1">
+    <row r="3" spans="1:10" ht="11.75" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -14479,8 +14488,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:10" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:10" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:10" s="7" customFormat="1" ht="28">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -14696,7 +14705,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" s="89" t="s">
         <v>131</v>
       </c>
@@ -14720,7 +14729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6">
+    <row r="15" spans="1:10" ht="15">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -14744,7 +14753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6">
+    <row r="16" spans="1:10" ht="15">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -14768,7 +14777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6">
+    <row r="17" spans="1:7" ht="15">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -14792,7 +14801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8">
+    <row r="18" spans="1:7" ht="14">
       <c r="A18" s="50">
         <v>43749</v>
       </c>
@@ -14816,7 +14825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8">
+    <row r="19" spans="1:7" ht="14">
       <c r="A19" s="47">
         <v>43755</v>
       </c>
@@ -14840,7 +14849,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.8">
+    <row r="20" spans="1:7" ht="14">
       <c r="A20" s="47">
         <v>43755</v>
       </c>
@@ -14960,7 +14969,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.7" customHeight="1">
+    <row r="25" spans="1:7" ht="14.75" customHeight="1">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -15008,7 +15017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.6">
+    <row r="27" spans="1:7" ht="15">
       <c r="A27" s="99" t="s">
         <v>145</v>
       </c>
@@ -15032,7 +15041,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8">
+    <row r="28" spans="1:7" ht="14">
       <c r="A28" s="87">
         <v>43779</v>
       </c>
@@ -15056,7 +15065,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7" ht="14">
       <c r="A29" s="87">
         <v>43782</v>
       </c>
@@ -15080,7 +15089,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.6">
+    <row r="30" spans="1:7" ht="15">
       <c r="A30" s="114" t="s">
         <v>181</v>
       </c>
@@ -15126,7 +15135,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.6">
+    <row r="32" spans="1:7" ht="15">
       <c r="A32" s="114" t="s">
         <v>209</v>
       </c>
@@ -15149,7 +15158,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.6">
+    <row r="33" spans="1:14" ht="15">
       <c r="A33" s="114" t="s">
         <v>211</v>
       </c>
@@ -15218,7 +15227,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="13.8">
+    <row r="36" spans="1:14" ht="14">
       <c r="A36" s="87">
         <v>43793</v>
       </c>
@@ -15336,7 +15345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
@@ -15344,17 +15353,17 @@
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -15367,10 +15376,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>127</v>
       </c>
@@ -15381,8 +15390,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="8" t="s">
         <v>129</v>
       </c>
@@ -15597,7 +15606,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8">
+    <row r="14" spans="1:7" ht="14">
       <c r="A14" s="10">
         <v>43739</v>
       </c>
@@ -15621,7 +15630,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8">
+    <row r="15" spans="1:7" ht="14">
       <c r="A15" s="35">
         <v>43739</v>
       </c>
@@ -15717,7 +15726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6">
+    <row r="19" spans="1:7" ht="15">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -15741,7 +15750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -15765,7 +15774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6">
+    <row r="21" spans="1:7" ht="15">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -15789,7 +15798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8">
+    <row r="22" spans="1:7" ht="14">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -15813,7 +15822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.6">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="35">
         <v>43750</v>
       </c>
@@ -15909,7 +15918,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7" ht="14">
       <c r="A27" s="47">
         <v>43755</v>
       </c>
@@ -15933,7 +15942,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8">
+    <row r="28" spans="1:7" ht="14">
       <c r="A28" s="47">
         <v>43755</v>
       </c>
@@ -15957,7 +15966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7" ht="14">
       <c r="A29" s="10">
         <v>43760</v>
       </c>
@@ -16077,7 +16086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8">
+    <row r="34" spans="1:7" ht="14">
       <c r="A34" s="35">
         <v>43770</v>
       </c>
@@ -16269,7 +16278,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.8">
+    <row r="42" spans="1:7" ht="14">
       <c r="A42" s="87">
         <v>43779</v>
       </c>
@@ -16317,7 +16326,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8">
+    <row r="44" spans="1:7" ht="14">
       <c r="A44" s="87">
         <v>43782</v>
       </c>
@@ -16365,7 +16374,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.6">
+    <row r="46" spans="1:7" ht="15">
       <c r="A46" s="87">
         <v>43792</v>
       </c>
@@ -16389,7 +16398,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13.8">
+    <row r="47" spans="1:7" ht="14">
       <c r="A47" s="87">
         <v>43793</v>
       </c>
@@ -16413,7 +16422,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8">
+    <row r="48" spans="1:7" ht="14">
       <c r="A48" s="87">
         <v>43793</v>
       </c>
@@ -16437,7 +16446,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.8">
+    <row r="49" spans="1:7" ht="14">
       <c r="A49" s="87">
         <v>43794</v>
       </c>
@@ -16461,7 +16470,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13.8">
+    <row r="50" spans="1:7" ht="14">
       <c r="A50" s="87">
         <v>43794</v>
       </c>
@@ -16485,7 +16494,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13.8">
+    <row r="51" spans="1:7" ht="14">
       <c r="A51" s="87">
         <v>43795</v>
       </c>
@@ -16653,7 +16662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -16661,17 +16670,17 @@
       <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="65" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -16684,10 +16693,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -16698,8 +16707,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -16866,7 +16875,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="89">
         <v>43746</v>
       </c>
@@ -16890,7 +16899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" s="89">
         <v>43748</v>
       </c>
@@ -16914,7 +16923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6">
+    <row r="14" spans="1:7" ht="15">
       <c r="A14" s="87">
         <v>43749</v>
       </c>
@@ -16938,7 +16947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8">
+    <row r="15" spans="1:7" ht="14">
       <c r="A15" s="50">
         <v>43749</v>
       </c>
@@ -16986,7 +16995,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8">
+    <row r="17" spans="1:7" ht="14">
       <c r="A17" s="47">
         <v>43755</v>
       </c>
@@ -17058,7 +17067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="94" t="s">
         <v>141</v>
       </c>
@@ -17154,7 +17163,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.7" customHeight="1">
+    <row r="24" spans="1:7" ht="14.75" customHeight="1">
       <c r="A24" s="50">
         <v>43769</v>
       </c>
@@ -17202,7 +17211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8">
+    <row r="26" spans="1:7" ht="14">
       <c r="A26" s="35">
         <v>43770</v>
       </c>
@@ -17226,7 +17235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7" ht="14">
       <c r="A27" s="87">
         <v>43779</v>
       </c>
@@ -17250,7 +17259,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8">
+    <row r="28" spans="1:7" ht="14">
       <c r="A28" s="87">
         <v>43793</v>
       </c>
@@ -17430,25 +17439,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
     <col min="6" max="6" width="38.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -17461,10 +17470,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="83"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="84" t="s">
         <v>127</v>
       </c>
@@ -17475,8 +17484,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -17499,7 +17508,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7" ht="14">
       <c r="A6" s="87">
         <v>43715</v>
       </c>
@@ -17513,7 +17522,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="68">
-        <f t="shared" ref="E6:E56" si="0">C6-B6-(D6/24/60)</f>
+        <f t="shared" ref="E6:E57" si="0">C6-B6-(D6/24/60)</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -17523,7 +17532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8">
+    <row r="7" spans="1:7" ht="14">
       <c r="A7" s="88">
         <v>43727</v>
       </c>
@@ -17547,7 +17556,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.8">
+    <row r="8" spans="1:7" ht="14">
       <c r="A8" s="87">
         <v>43727</v>
       </c>
@@ -17571,7 +17580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.8">
+    <row r="9" spans="1:7" ht="14">
       <c r="A9" s="87">
         <v>43728</v>
       </c>
@@ -17619,7 +17628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.8">
+    <row r="11" spans="1:7" ht="14">
       <c r="A11" s="87">
         <v>43735</v>
       </c>
@@ -17643,7 +17652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8">
+    <row r="12" spans="1:7" ht="14">
       <c r="A12" s="87">
         <v>43737</v>
       </c>
@@ -17667,7 +17676,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8">
+    <row r="13" spans="1:7" ht="14">
       <c r="A13" s="87">
         <v>43738</v>
       </c>
@@ -17691,7 +17700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8">
+    <row r="14" spans="1:7" ht="14">
       <c r="A14" s="87">
         <v>43739</v>
       </c>
@@ -17715,7 +17724,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8">
+    <row r="15" spans="1:7" ht="14">
       <c r="A15" s="89">
         <v>43739</v>
       </c>
@@ -17739,7 +17748,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.8">
+    <row r="16" spans="1:7" ht="14">
       <c r="A16" s="87">
         <v>43744</v>
       </c>
@@ -17763,7 +17772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8">
+    <row r="17" spans="1:7" ht="14">
       <c r="A17" s="87">
         <v>43744</v>
       </c>
@@ -17787,7 +17796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8">
+    <row r="18" spans="1:7" ht="14">
       <c r="A18" s="87">
         <v>43744</v>
       </c>
@@ -17811,7 +17820,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6">
+    <row r="19" spans="1:7" ht="15">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -17835,7 +17844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -17859,7 +17868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6">
+    <row r="21" spans="1:7" ht="15">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -17883,7 +17892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8">
+    <row r="22" spans="1:7" ht="14">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -17907,7 +17916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8">
+    <row r="23" spans="1:7" ht="14">
       <c r="A23" s="87">
         <v>43751</v>
       </c>
@@ -17931,7 +17940,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="87">
         <v>43751</v>
       </c>
@@ -18003,7 +18012,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7" ht="14">
       <c r="A27" s="87">
         <v>43753</v>
       </c>
@@ -18051,7 +18060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7" ht="14">
       <c r="A29" s="90">
         <v>43754</v>
       </c>
@@ -18075,7 +18084,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.8">
+    <row r="30" spans="1:7" ht="14">
       <c r="A30" s="90">
         <v>43754</v>
       </c>
@@ -18123,7 +18132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8">
+    <row r="32" spans="1:7" ht="14">
       <c r="A32" s="47">
         <v>43755</v>
       </c>
@@ -18147,7 +18156,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.7" customHeight="1">
+    <row r="33" spans="1:7" ht="14.75" customHeight="1">
       <c r="A33" s="90">
         <v>43755</v>
       </c>
@@ -18171,7 +18180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8">
+    <row r="34" spans="1:7" ht="14">
       <c r="A34" s="47">
         <v>43755</v>
       </c>
@@ -18411,7 +18420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8">
+    <row r="44" spans="1:7" ht="14">
       <c r="A44" s="35">
         <v>43770</v>
       </c>
@@ -18459,7 +18468,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.8">
+    <row r="46" spans="1:7" ht="14">
       <c r="A46" s="35">
         <v>43772</v>
       </c>
@@ -18481,7 +18490,7 @@
       </c>
       <c r="G46" s="123"/>
     </row>
-    <row r="47" spans="1:7" ht="13.8">
+    <row r="47" spans="1:7" ht="14">
       <c r="A47" s="87">
         <v>43779</v>
       </c>
@@ -18505,7 +18514,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8">
+    <row r="48" spans="1:7" ht="14">
       <c r="A48" s="87">
         <v>43782</v>
       </c>
@@ -18529,7 +18538,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.8">
+    <row r="49" spans="1:7" ht="14">
       <c r="A49" s="35">
         <v>43783</v>
       </c>
@@ -18577,7 +18586,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.6">
+    <row r="51" spans="1:7" ht="15">
       <c r="A51" s="35">
         <v>43791</v>
       </c>
@@ -18601,7 +18610,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.6">
+    <row r="52" spans="1:7" ht="15">
       <c r="A52" s="35">
         <v>43792</v>
       </c>
@@ -18673,7 +18682,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="13.8">
+    <row r="55" spans="1:7" ht="14">
       <c r="A55" s="87">
         <v>43793</v>
       </c>
@@ -18722,13 +18731,28 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="35"/>
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="49"/>
+      <c r="A57" s="35">
+        <v>43794</v>
+      </c>
+      <c r="B57" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="C57" s="51">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D57" s="32">
+        <v>0</v>
+      </c>
+      <c r="E57" s="58">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F57" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="G57" s="113" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="35"/>
@@ -19141,7 +19165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -19149,17 +19173,17 @@
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -19172,10 +19196,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -19186,8 +19210,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -19354,7 +19378,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8">
+    <row r="12" spans="1:7" ht="14">
       <c r="A12" s="87" t="s">
         <v>134</v>
       </c>
@@ -19426,7 +19450,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6">
+    <row r="15" spans="1:7" ht="15">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -19450,7 +19474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6">
+    <row r="16" spans="1:7" ht="15">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -19474,7 +19498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6">
+    <row r="17" spans="1:7" ht="15">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -19498,7 +19522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8">
+    <row r="18" spans="1:7" ht="14">
       <c r="A18" s="95">
         <v>43749</v>
       </c>
@@ -19570,7 +19594,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.8">
+    <row r="21" spans="1:7" ht="14">
       <c r="A21" s="47">
         <v>43755</v>
       </c>
@@ -19594,7 +19618,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8">
+    <row r="22" spans="1:7" ht="14">
       <c r="A22" s="47">
         <v>43755</v>
       </c>
@@ -19738,7 +19762,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.7" customHeight="1">
+    <row r="28" spans="1:7" ht="14.75" customHeight="1">
       <c r="A28" s="50">
         <v>43769</v>
       </c>
@@ -19856,7 +19880,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8">
+    <row r="33" spans="1:7" ht="14">
       <c r="A33" s="87">
         <v>43782</v>
       </c>
@@ -19880,7 +19904,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8">
+    <row r="34" spans="1:7" ht="14">
       <c r="A34" s="114" t="s">
         <v>191</v>
       </c>
@@ -19995,7 +20019,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13.8">
+    <row r="39" spans="1:7" ht="14">
       <c r="A39" s="87">
         <v>43793</v>
       </c>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choijaeyoung/Desktop/babalzza-master/Project Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0A24C9-2A0A-4144-B2E2-2B51B6EE86C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,12 +214,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -397,12 +396,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -579,12 +578,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -598,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -761,12 +760,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -780,7 +779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -943,12 +942,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -962,7 +961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="236">
   <si>
     <r>
       <rPr>
@@ -10900,10 +10899,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>11월</t>
     </r>
@@ -11819,13 +11814,222 @@
   </si>
   <si>
     <t>식재료 관리(sort Menu option 구현)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>장보기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메모</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> CRUD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (C,R, DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스케줄링</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, PMP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업데이트</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -12272,10 +12476,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="백분율 2" xfId="4"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="표준 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12581,27 +12785,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="87" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="87" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="51" customWidth="1"/>
     <col min="3" max="3" width="7" style="51" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="58" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="58" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="46.5" style="39" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" style="39" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>41</v>
       </c>
@@ -12614,10 +12818,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="97" t="s">
         <v>127</v>
       </c>
@@ -12628,8 +12832,8 @@
       <c r="E3" s="77"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="98" t="s">
         <v>129</v>
       </c>
@@ -12844,7 +13048,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14">
+    <row r="14" spans="1:7" ht="13.8">
       <c r="A14" s="87">
         <v>43728</v>
       </c>
@@ -12964,7 +13168,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14">
+    <row r="19" spans="1:7" ht="13.8">
       <c r="A19" s="87">
         <v>43739</v>
       </c>
@@ -13060,7 +13264,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14">
+    <row r="23" spans="1:7" ht="13.8">
       <c r="A23" s="89">
         <v>43748</v>
       </c>
@@ -13084,7 +13288,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14">
+    <row r="24" spans="1:7" ht="13.8">
       <c r="A24" s="95">
         <v>43749</v>
       </c>
@@ -13132,7 +13336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14">
+    <row r="26" spans="1:7" ht="13.8">
       <c r="A26" s="89">
         <v>43755</v>
       </c>
@@ -13156,7 +13360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="89">
         <v>43755</v>
       </c>
@@ -13180,7 +13384,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14">
+    <row r="28" spans="1:7" ht="13.8">
       <c r="A28" s="89">
         <v>43755</v>
       </c>
@@ -13204,7 +13408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="89">
         <v>43761</v>
       </c>
@@ -13434,7 +13638,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="58">
-        <f t="shared" ref="E38:E80" si="1">C38-B38-(D38/24/60)</f>
+        <f t="shared" ref="E38:E81" si="1">C38-B38-(D38/24/60)</f>
         <v>9.7222222220605337E-2</v>
       </c>
       <c r="F38" s="32" t="s">
@@ -13468,7 +13672,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.75" customHeight="1">
+    <row r="40" spans="1:7" ht="14.7" customHeight="1">
       <c r="A40" s="95">
         <v>43767</v>
       </c>
@@ -13492,7 +13696,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.75" customHeight="1">
+    <row r="41" spans="1:7" ht="14.7" customHeight="1">
       <c r="A41" s="95">
         <v>43769</v>
       </c>
@@ -13612,7 +13816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14">
+    <row r="46" spans="1:7" ht="13.8">
       <c r="A46" s="87">
         <v>43770</v>
       </c>
@@ -13636,7 +13840,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14">
+    <row r="47" spans="1:7" ht="13.8">
       <c r="A47" s="87">
         <v>43770</v>
       </c>
@@ -13660,7 +13864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14">
+    <row r="48" spans="1:7" ht="13.8">
       <c r="A48" s="95" t="s">
         <v>138</v>
       </c>
@@ -13684,7 +13888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14">
+    <row r="49" spans="1:7" ht="13.8">
       <c r="A49" s="99" t="s">
         <v>138</v>
       </c>
@@ -13708,7 +13912,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14">
+    <row r="50" spans="1:7" ht="13.8">
       <c r="A50" s="87">
         <v>43774</v>
       </c>
@@ -13732,7 +13936,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14">
+    <row r="51" spans="1:7" ht="13.8">
       <c r="A51" s="87">
         <v>43774</v>
       </c>
@@ -13756,7 +13960,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14">
+    <row r="52" spans="1:7" ht="13.8">
       <c r="A52" s="87">
         <v>43775</v>
       </c>
@@ -13780,7 +13984,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14">
+    <row r="53" spans="1:7" ht="13.8">
       <c r="A53" s="87">
         <v>43776</v>
       </c>
@@ -13804,7 +14008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14">
+    <row r="54" spans="1:7" ht="13.8">
       <c r="A54" s="87">
         <v>43776</v>
       </c>
@@ -13828,7 +14032,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14">
+    <row r="55" spans="1:7" ht="13.8">
       <c r="A55" s="87">
         <v>43778</v>
       </c>
@@ -13852,7 +14056,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14">
+    <row r="56" spans="1:7" ht="13.8">
       <c r="A56" s="87">
         <v>43779</v>
       </c>
@@ -13876,7 +14080,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14">
+    <row r="57" spans="1:7" ht="13.8">
       <c r="A57" s="87">
         <v>43780</v>
       </c>
@@ -13900,7 +14104,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14">
+    <row r="58" spans="1:7" ht="13.8">
       <c r="A58" s="87">
         <v>43781</v>
       </c>
@@ -13924,7 +14128,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14">
+    <row r="59" spans="1:7" ht="13.8">
       <c r="A59" s="87">
         <v>43781</v>
       </c>
@@ -13948,7 +14152,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14">
+    <row r="60" spans="1:7" ht="13.8">
       <c r="A60" s="87">
         <v>43781</v>
       </c>
@@ -13972,7 +14176,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14">
+    <row r="61" spans="1:7" ht="13.8">
       <c r="A61" s="87">
         <v>43782</v>
       </c>
@@ -13996,7 +14200,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14">
+    <row r="62" spans="1:7" ht="13.8">
       <c r="A62" s="87">
         <v>43782</v>
       </c>
@@ -14020,7 +14224,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="14">
+    <row r="63" spans="1:7" ht="13.8">
       <c r="A63" s="87">
         <v>43785</v>
       </c>
@@ -14044,7 +14248,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14">
+    <row r="64" spans="1:7" ht="13.8">
       <c r="A64" s="87">
         <v>43785</v>
       </c>
@@ -14068,7 +14272,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="14">
+    <row r="65" spans="1:14" ht="13.8">
       <c r="A65" s="87">
         <v>43785</v>
       </c>
@@ -14092,7 +14296,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="14">
+    <row r="66" spans="1:14" ht="13.8">
       <c r="A66" s="87">
         <v>43786</v>
       </c>
@@ -14116,7 +14320,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="14">
+    <row r="67" spans="1:14" ht="13.8">
       <c r="A67" s="87">
         <v>43788</v>
       </c>
@@ -14140,7 +14344,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="14">
+    <row r="68" spans="1:14" ht="13.8">
       <c r="A68" s="87">
         <v>43791</v>
       </c>
@@ -14164,7 +14368,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="14">
+    <row r="69" spans="1:14" ht="13.8">
       <c r="A69" s="87">
         <v>43791</v>
       </c>
@@ -14188,7 +14392,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="14">
+    <row r="70" spans="1:14" ht="13.8">
       <c r="A70" s="87">
         <v>43792</v>
       </c>
@@ -14212,7 +14416,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="14">
+    <row r="71" spans="1:14" ht="13.8">
       <c r="A71" s="87">
         <v>43792</v>
       </c>
@@ -14233,10 +14437,10 @@
         <v>186</v>
       </c>
       <c r="G71" s="113" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="14">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="13.8">
       <c r="A72" s="87">
         <v>43793</v>
       </c>
@@ -14254,14 +14458,14 @@
         <v>6.25E-2</v>
       </c>
       <c r="F72" s="116" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G72" s="113" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N72" s="107"/>
     </row>
-    <row r="73" spans="1:14" ht="14">
+    <row r="73" spans="1:14" ht="13.8">
       <c r="A73" s="87">
         <v>43793</v>
       </c>
@@ -14281,11 +14485,11 @@
       <c r="F73" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="G73" s="39" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="14">
+      <c r="G73" s="113" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="13.8">
       <c r="A74" s="87">
         <v>43793</v>
       </c>
@@ -14309,7 +14513,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="14">
+    <row r="75" spans="1:14" ht="13.8">
       <c r="A75" s="87">
         <v>43793</v>
       </c>
@@ -14333,7 +14537,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" ht="13.8">
       <c r="A76" s="87">
         <v>43794</v>
       </c>
@@ -14350,8 +14554,14 @@
         <f t="shared" si="1"/>
         <v>0.1458333333333332</v>
       </c>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="F76" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G76" s="39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="13.8">
       <c r="A77" s="87">
         <v>43794</v>
       </c>
@@ -14368,11 +14578,14 @@
         <f t="shared" si="1"/>
         <v>0.24999999999999994</v>
       </c>
-      <c r="G77" s="113" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="F77" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G77" s="39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="13.8">
       <c r="A78" s="87">
         <v>43794</v>
       </c>
@@ -14389,8 +14602,14 @@
         <f t="shared" si="1"/>
         <v>9.7222222222222099E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="F78" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G78" s="39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="13.8">
       <c r="A79" s="87">
         <v>43795</v>
       </c>
@@ -14407,8 +14626,14 @@
         <f t="shared" si="1"/>
         <v>0.2013888888888889</v>
       </c>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="F79" s="116" t="s">
+        <v>232</v>
+      </c>
+      <c r="G79" s="37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="13.8">
       <c r="A80" s="87">
         <v>43795</v>
       </c>
@@ -14425,8 +14650,38 @@
         <f t="shared" si="1"/>
         <v>4.166666666666663E-2</v>
       </c>
-    </row>
-    <row r="85" spans="7:7">
+      <c r="F80" s="116" t="s">
+        <v>232</v>
+      </c>
+      <c r="G80" s="37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="13.8">
+      <c r="A81" s="87">
+        <v>43795</v>
+      </c>
+      <c r="B81" s="51">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C81" s="51">
+        <v>0.6875</v>
+      </c>
+      <c r="D81" s="32">
+        <v>0</v>
+      </c>
+      <c r="E81" s="58">
+        <f t="shared" si="1"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="F81" s="116" t="s">
+        <v>234</v>
+      </c>
+      <c r="G81" s="113" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="G85" s="113" t="s">
         <v>198</v>
       </c>
@@ -14443,7 +14698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N45"/>
   <sheetViews>
@@ -14451,17 +14706,17 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="55.5" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.75" customHeight="1">
+    <row r="1" spans="1:10" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -14474,10 +14729,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.75" customHeight="1">
+    <row r="2" spans="1:10" ht="11.7" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:10" ht="11.75" customHeight="1">
+    <row r="3" spans="1:10" ht="11.7" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -14488,8 +14743,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:10" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:10" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:10" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -14705,7 +14960,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10" ht="15.6">
       <c r="A14" s="89" t="s">
         <v>131</v>
       </c>
@@ -14729,7 +14984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15">
+    <row r="15" spans="1:10" ht="15.6">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -14753,7 +15008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" ht="15.6">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -14777,7 +15032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15">
+    <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -14801,7 +15056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14">
+    <row r="18" spans="1:7" ht="13.8">
       <c r="A18" s="50">
         <v>43749</v>
       </c>
@@ -14825,7 +15080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14">
+    <row r="19" spans="1:7" ht="13.8">
       <c r="A19" s="47">
         <v>43755</v>
       </c>
@@ -14849,7 +15104,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14">
+    <row r="20" spans="1:7" ht="13.8">
       <c r="A20" s="47">
         <v>43755</v>
       </c>
@@ -14969,7 +15224,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.75" customHeight="1">
+    <row r="25" spans="1:7" ht="14.7" customHeight="1">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -15017,7 +15272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15">
+    <row r="27" spans="1:7" ht="15.6">
       <c r="A27" s="99" t="s">
         <v>145</v>
       </c>
@@ -15041,7 +15296,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14">
+    <row r="28" spans="1:7" ht="13.8">
       <c r="A28" s="87">
         <v>43779</v>
       </c>
@@ -15065,7 +15320,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="87">
         <v>43782</v>
       </c>
@@ -15089,7 +15344,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15">
+    <row r="30" spans="1:7" ht="15.6">
       <c r="A30" s="114" t="s">
         <v>181</v>
       </c>
@@ -15114,7 +15369,7 @@
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B31" s="51">
         <v>0.83333333333333337</v>
@@ -15129,15 +15384,15 @@
         <v>100</v>
       </c>
       <c r="F31" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="G31" s="37" t="s">
+    </row>
+    <row r="32" spans="1:7" ht="15.6">
+      <c r="A32" s="114" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15">
-      <c r="A32" s="114" t="s">
-        <v>209</v>
       </c>
       <c r="B32" s="51">
         <v>0.85416666666666663</v>
@@ -15152,15 +15407,15 @@
         <v>120</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G32" s="37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.6">
+      <c r="A33" s="114" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15">
-      <c r="A33" s="114" t="s">
-        <v>211</v>
       </c>
       <c r="B33" s="51">
         <v>4.1666666666666664E-2</v>
@@ -15175,15 +15430,15 @@
         <v>220</v>
       </c>
       <c r="F33" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="37" t="s">
         <v>214</v>
-      </c>
-      <c r="G33" s="37" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="114" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B34" s="51">
         <v>0.625</v>
@@ -15198,15 +15453,15 @@
         <v>60</v>
       </c>
       <c r="F34" s="112" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B35" s="51">
         <v>0.9375</v>
@@ -15221,13 +15476,13 @@
         <v>180</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="14">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="13.8">
       <c r="A36" s="87">
         <v>43793</v>
       </c>
@@ -15245,10 +15500,10 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F36" s="116" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G36" s="113" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N36" s="107"/>
     </row>
@@ -15345,7 +15600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
@@ -15353,17 +15608,17 @@
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -15376,10 +15631,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>127</v>
       </c>
@@ -15390,8 +15645,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="8" t="s">
         <v>129</v>
       </c>
@@ -15606,7 +15861,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14">
+    <row r="14" spans="1:7" ht="13.8">
       <c r="A14" s="10">
         <v>43739</v>
       </c>
@@ -15630,7 +15885,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14">
+    <row r="15" spans="1:7" ht="13.8">
       <c r="A15" s="35">
         <v>43739</v>
       </c>
@@ -15726,7 +15981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -15750,7 +16005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -15774,7 +16029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -15798,7 +16053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14">
+    <row r="22" spans="1:7" ht="13.8">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -15822,7 +16077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" ht="15.6">
       <c r="A23" s="35">
         <v>43750</v>
       </c>
@@ -15918,7 +16173,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="47">
         <v>43755</v>
       </c>
@@ -15942,7 +16197,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14">
+    <row r="28" spans="1:7" ht="13.8">
       <c r="A28" s="47">
         <v>43755</v>
       </c>
@@ -15966,7 +16221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="10">
         <v>43760</v>
       </c>
@@ -16086,7 +16341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14">
+    <row r="34" spans="1:7" ht="13.8">
       <c r="A34" s="35">
         <v>43770</v>
       </c>
@@ -16278,7 +16533,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14">
+    <row r="42" spans="1:7" ht="13.8">
       <c r="A42" s="87">
         <v>43779</v>
       </c>
@@ -16326,7 +16581,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14">
+    <row r="44" spans="1:7" ht="13.8">
       <c r="A44" s="87">
         <v>43782</v>
       </c>
@@ -16374,7 +16629,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15">
+    <row r="46" spans="1:7" ht="15.6">
       <c r="A46" s="87">
         <v>43792</v>
       </c>
@@ -16392,13 +16647,13 @@
         <v>0.12499999999999997</v>
       </c>
       <c r="F46" s="121" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G46" s="113" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="14">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="13.8">
       <c r="A47" s="87">
         <v>43793</v>
       </c>
@@ -16416,13 +16671,13 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F47" s="120" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G47" s="113" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="14">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="13.8">
       <c r="A48" s="87">
         <v>43793</v>
       </c>
@@ -16440,13 +16695,13 @@
         <v>0.15277777777777785</v>
       </c>
       <c r="F48" s="120" t="s">
+        <v>219</v>
+      </c>
+      <c r="G48" s="113" t="s">
         <v>220</v>
       </c>
-      <c r="G48" s="113" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="14">
+    </row>
+    <row r="49" spans="1:7" ht="13.8">
       <c r="A49" s="87">
         <v>43794</v>
       </c>
@@ -16464,13 +16719,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F49" s="115" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G49" s="113" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="14">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="13.8">
       <c r="A50" s="87">
         <v>43794</v>
       </c>
@@ -16488,13 +16743,13 @@
         <v>9.0277777777777873E-2</v>
       </c>
       <c r="F50" s="115" t="s">
+        <v>224</v>
+      </c>
+      <c r="G50" s="113" t="s">
         <v>225</v>
       </c>
-      <c r="G50" s="113" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="14">
+    </row>
+    <row r="51" spans="1:7" ht="13.8">
       <c r="A51" s="87">
         <v>43795</v>
       </c>
@@ -16512,10 +16767,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F51" s="120" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G51" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -16662,7 +16917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -16670,17 +16925,17 @@
       <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="65" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="65" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.5" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -16693,10 +16948,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -16707,8 +16962,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -16875,7 +17130,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="89">
         <v>43746</v>
       </c>
@@ -16899,7 +17154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="89">
         <v>43748</v>
       </c>
@@ -16923,7 +17178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="87">
         <v>43749</v>
       </c>
@@ -16947,7 +17202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14">
+    <row r="15" spans="1:7" ht="13.8">
       <c r="A15" s="50">
         <v>43749</v>
       </c>
@@ -16995,7 +17250,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14">
+    <row r="17" spans="1:7" ht="13.8">
       <c r="A17" s="47">
         <v>43755</v>
       </c>
@@ -17067,7 +17322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="94" t="s">
         <v>141</v>
       </c>
@@ -17163,7 +17418,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.75" customHeight="1">
+    <row r="24" spans="1:7" ht="14.7" customHeight="1">
       <c r="A24" s="50">
         <v>43769</v>
       </c>
@@ -17211,7 +17466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14">
+    <row r="26" spans="1:7" ht="13.8">
       <c r="A26" s="35">
         <v>43770</v>
       </c>
@@ -17235,7 +17490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="87">
         <v>43779</v>
       </c>
@@ -17259,7 +17514,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14">
+    <row r="28" spans="1:7" ht="13.8">
       <c r="A28" s="87">
         <v>43793</v>
       </c>
@@ -17280,7 +17535,7 @@
         <v>194</v>
       </c>
       <c r="G28" s="113" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -17439,25 +17694,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
     <col min="6" max="6" width="38.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -17470,10 +17725,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="83"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="84" t="s">
         <v>127</v>
       </c>
@@ -17484,8 +17739,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -17508,7 +17763,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="87">
         <v>43715</v>
       </c>
@@ -17532,7 +17787,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14">
+    <row r="7" spans="1:7" ht="13.8">
       <c r="A7" s="88">
         <v>43727</v>
       </c>
@@ -17556,7 +17811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14">
+    <row r="8" spans="1:7" ht="13.8">
       <c r="A8" s="87">
         <v>43727</v>
       </c>
@@ -17580,7 +17835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14">
+    <row r="9" spans="1:7" ht="13.8">
       <c r="A9" s="87">
         <v>43728</v>
       </c>
@@ -17628,7 +17883,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14">
+    <row r="11" spans="1:7" ht="13.8">
       <c r="A11" s="87">
         <v>43735</v>
       </c>
@@ -17652,7 +17907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14">
+    <row r="12" spans="1:7" ht="13.8">
       <c r="A12" s="87">
         <v>43737</v>
       </c>
@@ -17676,7 +17931,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14">
+    <row r="13" spans="1:7" ht="13.8">
       <c r="A13" s="87">
         <v>43738</v>
       </c>
@@ -17700,7 +17955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14">
+    <row r="14" spans="1:7" ht="13.8">
       <c r="A14" s="87">
         <v>43739</v>
       </c>
@@ -17724,7 +17979,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14">
+    <row r="15" spans="1:7" ht="13.8">
       <c r="A15" s="89">
         <v>43739</v>
       </c>
@@ -17748,7 +18003,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14">
+    <row r="16" spans="1:7" ht="13.8">
       <c r="A16" s="87">
         <v>43744</v>
       </c>
@@ -17772,7 +18027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14">
+    <row r="17" spans="1:7" ht="13.8">
       <c r="A17" s="87">
         <v>43744</v>
       </c>
@@ -17796,7 +18051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14">
+    <row r="18" spans="1:7" ht="13.8">
       <c r="A18" s="87">
         <v>43744</v>
       </c>
@@ -17820,7 +18075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -17844,7 +18099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -17868,7 +18123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -17892,7 +18147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14">
+    <row r="22" spans="1:7" ht="13.8">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -17916,7 +18171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14">
+    <row r="23" spans="1:7" ht="13.8">
       <c r="A23" s="87">
         <v>43751</v>
       </c>
@@ -17940,7 +18195,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="15.6">
       <c r="A24" s="87">
         <v>43751</v>
       </c>
@@ -18012,7 +18267,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="87">
         <v>43753</v>
       </c>
@@ -18060,7 +18315,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="90">
         <v>43754</v>
       </c>
@@ -18084,7 +18339,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14">
+    <row r="30" spans="1:7" ht="13.8">
       <c r="A30" s="90">
         <v>43754</v>
       </c>
@@ -18132,7 +18387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14">
+    <row r="32" spans="1:7" ht="13.8">
       <c r="A32" s="47">
         <v>43755</v>
       </c>
@@ -18156,7 +18411,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.75" customHeight="1">
+    <row r="33" spans="1:7" ht="14.7" customHeight="1">
       <c r="A33" s="90">
         <v>43755</v>
       </c>
@@ -18180,7 +18435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14">
+    <row r="34" spans="1:7" ht="13.8">
       <c r="A34" s="47">
         <v>43755</v>
       </c>
@@ -18420,7 +18675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14">
+    <row r="44" spans="1:7" ht="13.8">
       <c r="A44" s="35">
         <v>43770</v>
       </c>
@@ -18468,7 +18723,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14">
+    <row r="46" spans="1:7" ht="13.8">
       <c r="A46" s="35">
         <v>43772</v>
       </c>
@@ -18490,7 +18745,7 @@
       </c>
       <c r="G46" s="123"/>
     </row>
-    <row r="47" spans="1:7" ht="14">
+    <row r="47" spans="1:7" ht="13.8">
       <c r="A47" s="87">
         <v>43779</v>
       </c>
@@ -18514,7 +18769,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14">
+    <row r="48" spans="1:7" ht="13.8">
       <c r="A48" s="87">
         <v>43782</v>
       </c>
@@ -18538,7 +18793,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14">
+    <row r="49" spans="1:7" ht="13.8">
       <c r="A49" s="35">
         <v>43783</v>
       </c>
@@ -18586,7 +18841,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15">
+    <row r="51" spans="1:7" ht="15.6">
       <c r="A51" s="35">
         <v>43791</v>
       </c>
@@ -18610,7 +18865,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15">
+    <row r="52" spans="1:7" ht="15.6">
       <c r="A52" s="35">
         <v>43792</v>
       </c>
@@ -18682,7 +18937,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14">
+    <row r="55" spans="1:7" ht="13.8">
       <c r="A55" s="87">
         <v>43793</v>
       </c>
@@ -18703,7 +18958,7 @@
         <v>194</v>
       </c>
       <c r="G55" s="113" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -18751,7 +19006,7 @@
         <v>194</v>
       </c>
       <c r="G57" s="113" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -19165,7 +19420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -19173,17 +19428,17 @@
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="60" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
     <col min="6" max="6" width="29.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.5" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.75" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -19196,10 +19451,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.75" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.75" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -19210,8 +19465,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="28">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -19378,7 +19633,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14">
+    <row r="12" spans="1:7" ht="13.8">
       <c r="A12" s="87" t="s">
         <v>134</v>
       </c>
@@ -19450,7 +19705,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -19474,7 +19729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -19498,7 +19753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15">
+    <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -19522,7 +19777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14">
+    <row r="18" spans="1:7" ht="13.8">
       <c r="A18" s="95">
         <v>43749</v>
       </c>
@@ -19594,7 +19849,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14">
+    <row r="21" spans="1:7" ht="13.8">
       <c r="A21" s="47">
         <v>43755</v>
       </c>
@@ -19618,7 +19873,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14">
+    <row r="22" spans="1:7" ht="13.8">
       <c r="A22" s="47">
         <v>43755</v>
       </c>
@@ -19762,7 +20017,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.75" customHeight="1">
+    <row r="28" spans="1:7" ht="14.7" customHeight="1">
       <c r="A28" s="50">
         <v>43769</v>
       </c>
@@ -19880,7 +20135,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14">
+    <row r="33" spans="1:7" ht="13.8">
       <c r="A33" s="87">
         <v>43782</v>
       </c>
@@ -19904,7 +20159,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14">
+    <row r="34" spans="1:7" ht="13.8">
       <c r="A34" s="114" t="s">
         <v>191</v>
       </c>
@@ -19998,7 +20253,7 @@
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="114" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B38" s="51">
         <v>0.47916666666666669</v>
@@ -20019,7 +20274,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14">
+    <row r="39" spans="1:7" ht="13.8">
       <c r="A39" s="87">
         <v>43793</v>
       </c>
@@ -20040,12 +20295,12 @@
         <v>194</v>
       </c>
       <c r="G39" s="113" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="114" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B40" s="51">
         <v>0.60416666666666663</v>
@@ -20068,7 +20323,7 @@
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="114" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B41" s="51">
         <v>0.54166666666666663</v>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이효준\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="23250" windowHeight="12570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -12029,7 +12029,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -12789,23 +12789,23 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView topLeftCell="A59" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="87" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="51" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="87" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="51" customWidth="1"/>
     <col min="3" max="3" width="7" style="51" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" style="39" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="58" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" style="39" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.65" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>41</v>
       </c>
@@ -12818,10 +12818,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.65" customHeight="1">
       <c r="A2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.65" customHeight="1">
       <c r="A3" s="97" t="s">
         <v>127</v>
       </c>
@@ -12832,8 +12832,8 @@
       <c r="E3" s="77"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="98" t="s">
         <v>129</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8">
+    <row r="14" spans="1:7">
       <c r="A14" s="87">
         <v>43728</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8">
+    <row r="19" spans="1:7">
       <c r="A19" s="87">
         <v>43739</v>
       </c>
@@ -13264,7 +13264,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8">
+    <row r="23" spans="1:7">
       <c r="A23" s="89">
         <v>43748</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.8">
+    <row r="24" spans="1:7">
       <c r="A24" s="95">
         <v>43749</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8">
+    <row r="26" spans="1:7">
       <c r="A26" s="89">
         <v>43755</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7">
       <c r="A27" s="89">
         <v>43755</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8">
+    <row r="28" spans="1:7">
       <c r="A28" s="89">
         <v>43755</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7">
       <c r="A29" s="89">
         <v>43761</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.7" customHeight="1">
+    <row r="40" spans="1:7" ht="14.65" customHeight="1">
       <c r="A40" s="95">
         <v>43767</v>
       </c>
@@ -13696,7 +13696,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.7" customHeight="1">
+    <row r="41" spans="1:7" ht="14.65" customHeight="1">
       <c r="A41" s="95">
         <v>43769</v>
       </c>
@@ -13816,7 +13816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.8">
+    <row r="46" spans="1:7">
       <c r="A46" s="87">
         <v>43770</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13.8">
+    <row r="47" spans="1:7">
       <c r="A47" s="87">
         <v>43770</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8">
+    <row r="48" spans="1:7">
       <c r="A48" s="95" t="s">
         <v>138</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.8">
+    <row r="49" spans="1:7">
       <c r="A49" s="99" t="s">
         <v>138</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13.8">
+    <row r="50" spans="1:7">
       <c r="A50" s="87">
         <v>43774</v>
       </c>
@@ -13936,7 +13936,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13.8">
+    <row r="51" spans="1:7">
       <c r="A51" s="87">
         <v>43774</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="13.8">
+    <row r="52" spans="1:7">
       <c r="A52" s="87">
         <v>43775</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="13.8">
+    <row r="53" spans="1:7">
       <c r="A53" s="87">
         <v>43776</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="13.8">
+    <row r="54" spans="1:7">
       <c r="A54" s="87">
         <v>43776</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="13.8">
+    <row r="55" spans="1:7">
       <c r="A55" s="87">
         <v>43778</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="13.8">
+    <row r="56" spans="1:7">
       <c r="A56" s="87">
         <v>43779</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="13.8">
+    <row r="57" spans="1:7">
       <c r="A57" s="87">
         <v>43780</v>
       </c>
@@ -14104,7 +14104,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="13.8">
+    <row r="58" spans="1:7">
       <c r="A58" s="87">
         <v>43781</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13.8">
+    <row r="59" spans="1:7">
       <c r="A59" s="87">
         <v>43781</v>
       </c>
@@ -14152,7 +14152,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="13.8">
+    <row r="60" spans="1:7">
       <c r="A60" s="87">
         <v>43781</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="13.8">
+    <row r="61" spans="1:7">
       <c r="A61" s="87">
         <v>43782</v>
       </c>
@@ -14200,7 +14200,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13.8">
+    <row r="62" spans="1:7">
       <c r="A62" s="87">
         <v>43782</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13.8">
+    <row r="63" spans="1:7">
       <c r="A63" s="87">
         <v>43785</v>
       </c>
@@ -14248,7 +14248,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="13.8">
+    <row r="64" spans="1:7">
       <c r="A64" s="87">
         <v>43785</v>
       </c>
@@ -14272,7 +14272,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="13.8">
+    <row r="65" spans="1:14">
       <c r="A65" s="87">
         <v>43785</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="13.8">
+    <row r="66" spans="1:14">
       <c r="A66" s="87">
         <v>43786</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="13.8">
+    <row r="67" spans="1:14">
       <c r="A67" s="87">
         <v>43788</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="13.8">
+    <row r="68" spans="1:14">
       <c r="A68" s="87">
         <v>43791</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="13.8">
+    <row r="69" spans="1:14">
       <c r="A69" s="87">
         <v>43791</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="13.8">
+    <row r="70" spans="1:14">
       <c r="A70" s="87">
         <v>43792</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="13.8">
+    <row r="71" spans="1:14">
       <c r="A71" s="87">
         <v>43792</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="13.8">
+    <row r="72" spans="1:14">
       <c r="A72" s="87">
         <v>43793</v>
       </c>
@@ -14465,7 +14465,7 @@
       </c>
       <c r="N72" s="107"/>
     </row>
-    <row r="73" spans="1:14" ht="13.8">
+    <row r="73" spans="1:14">
       <c r="A73" s="87">
         <v>43793</v>
       </c>
@@ -14489,7 +14489,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="13.8">
+    <row r="74" spans="1:14">
       <c r="A74" s="87">
         <v>43793</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="13.8">
+    <row r="75" spans="1:14">
       <c r="A75" s="87">
         <v>43793</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="13.8">
+    <row r="76" spans="1:14">
       <c r="A76" s="87">
         <v>43794</v>
       </c>
@@ -14561,7 +14561,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="13.8">
+    <row r="77" spans="1:14">
       <c r="A77" s="87">
         <v>43794</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="13.8">
+    <row r="78" spans="1:14">
       <c r="A78" s="87">
         <v>43794</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="13.8">
+    <row r="79" spans="1:14">
       <c r="A79" s="87">
         <v>43795</v>
       </c>
@@ -14633,7 +14633,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="13.8">
+    <row r="80" spans="1:14">
       <c r="A80" s="87">
         <v>43795</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="13.8">
+    <row r="81" spans="1:7">
       <c r="A81" s="87">
         <v>43795</v>
       </c>
@@ -14706,17 +14706,17 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.7" customHeight="1">
+    <row r="1" spans="1:10" ht="11.65" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -14729,10 +14729,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.7" customHeight="1">
+    <row r="2" spans="1:10" ht="11.65" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:10" ht="11.7" customHeight="1">
+    <row r="3" spans="1:10" ht="11.65" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -14743,8 +14743,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:10" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:10" ht="11.65" customHeight="1"/>
+    <row r="5" spans="1:10" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6">
+    <row r="14" spans="1:10" ht="13.5">
       <c r="A14" s="89" t="s">
         <v>131</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6">
+    <row r="15" spans="1:10" ht="13.5">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -15008,7 +15008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6">
+    <row r="16" spans="1:10" ht="13.5">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -15032,7 +15032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8">
+    <row r="18" spans="1:7">
       <c r="A18" s="50">
         <v>43749</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8">
+    <row r="19" spans="1:7">
       <c r="A19" s="47">
         <v>43755</v>
       </c>
@@ -15104,7 +15104,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.8">
+    <row r="20" spans="1:7">
       <c r="A20" s="47">
         <v>43755</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.7" customHeight="1">
+    <row r="25" spans="1:7" ht="14.65" customHeight="1">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.6">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="99" t="s">
         <v>145</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8">
+    <row r="28" spans="1:7">
       <c r="A28" s="87">
         <v>43779</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7">
       <c r="A29" s="87">
         <v>43782</v>
       </c>
@@ -15344,7 +15344,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.6">
+    <row r="30" spans="1:7" ht="13.5">
       <c r="A30" s="114" t="s">
         <v>181</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.6">
+    <row r="32" spans="1:7" ht="13.5">
       <c r="A32" s="114" t="s">
         <v>208</v>
       </c>
@@ -15413,7 +15413,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.6">
+    <row r="33" spans="1:14" ht="13.5">
       <c r="A33" s="114" t="s">
         <v>210</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="13.8">
+    <row r="36" spans="1:14">
       <c r="A36" s="87">
         <v>43793</v>
       </c>
@@ -15608,17 +15608,17 @@
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.65" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -15631,10 +15631,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.65" customHeight="1">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.65" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>127</v>
       </c>
@@ -15645,8 +15645,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="8" t="s">
         <v>129</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8">
+    <row r="14" spans="1:7">
       <c r="A14" s="10">
         <v>43739</v>
       </c>
@@ -15885,7 +15885,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8">
+    <row r="15" spans="1:7">
       <c r="A15" s="35">
         <v>43739</v>
       </c>
@@ -15981,7 +15981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -16005,7 +16005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -16053,7 +16053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8">
+    <row r="22" spans="1:7">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.6">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="35">
         <v>43750</v>
       </c>
@@ -16173,7 +16173,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7">
       <c r="A27" s="47">
         <v>43755</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8">
+    <row r="28" spans="1:7">
       <c r="A28" s="47">
         <v>43755</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7">
       <c r="A29" s="10">
         <v>43760</v>
       </c>
@@ -16341,7 +16341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8">
+    <row r="34" spans="1:7">
       <c r="A34" s="35">
         <v>43770</v>
       </c>
@@ -16533,7 +16533,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.8">
+    <row r="42" spans="1:7">
       <c r="A42" s="87">
         <v>43779</v>
       </c>
@@ -16581,7 +16581,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8">
+    <row r="44" spans="1:7">
       <c r="A44" s="87">
         <v>43782</v>
       </c>
@@ -16629,7 +16629,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.6">
+    <row r="46" spans="1:7" ht="13.5">
       <c r="A46" s="87">
         <v>43792</v>
       </c>
@@ -16653,7 +16653,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13.8">
+    <row r="47" spans="1:7">
       <c r="A47" s="87">
         <v>43793</v>
       </c>
@@ -16677,7 +16677,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8">
+    <row r="48" spans="1:7">
       <c r="A48" s="87">
         <v>43793</v>
       </c>
@@ -16701,7 +16701,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.8">
+    <row r="49" spans="1:7">
       <c r="A49" s="87">
         <v>43794</v>
       </c>
@@ -16725,7 +16725,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13.8">
+    <row r="50" spans="1:7">
       <c r="A50" s="87">
         <v>43794</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13.8">
+    <row r="51" spans="1:7">
       <c r="A51" s="87">
         <v>43795</v>
       </c>
@@ -16921,21 +16921,21 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="65" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.65" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -16948,10 +16948,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.65" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.65" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -16962,8 +16962,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -17130,7 +17130,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6">
+    <row r="12" spans="1:7" ht="13.5">
       <c r="A12" s="89">
         <v>43746</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="89">
         <v>43748</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6">
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="87">
         <v>43749</v>
       </c>
@@ -17202,7 +17202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8">
+    <row r="15" spans="1:7">
       <c r="A15" s="50">
         <v>43749</v>
       </c>
@@ -17250,7 +17250,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8">
+    <row r="17" spans="1:7">
       <c r="A17" s="47">
         <v>43755</v>
       </c>
@@ -17322,7 +17322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="94" t="s">
         <v>141</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.7" customHeight="1">
+    <row r="24" spans="1:7" ht="14.65" customHeight="1">
       <c r="A24" s="50">
         <v>43769</v>
       </c>
@@ -17466,7 +17466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8">
+    <row r="26" spans="1:7">
       <c r="A26" s="35">
         <v>43770</v>
       </c>
@@ -17490,7 +17490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7">
       <c r="A27" s="87">
         <v>43779</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8">
+    <row r="28" spans="1:7">
       <c r="A28" s="87">
         <v>43793</v>
       </c>
@@ -17539,7 +17539,9 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="87"/>
+      <c r="A29" s="87">
+        <v>12</v>
+      </c>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
       <c r="D29" s="32"/>
@@ -17702,17 +17704,17 @@
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="85" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.65" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -17725,10 +17727,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.65" customHeight="1">
       <c r="A2" s="83"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.65" customHeight="1">
       <c r="A3" s="84" t="s">
         <v>127</v>
       </c>
@@ -17739,8 +17741,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -17763,7 +17765,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7">
       <c r="A6" s="87">
         <v>43715</v>
       </c>
@@ -17787,7 +17789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8">
+    <row r="7" spans="1:7">
       <c r="A7" s="88">
         <v>43727</v>
       </c>
@@ -17811,7 +17813,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.8">
+    <row r="8" spans="1:7">
       <c r="A8" s="87">
         <v>43727</v>
       </c>
@@ -17835,7 +17837,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.8">
+    <row r="9" spans="1:7">
       <c r="A9" s="87">
         <v>43728</v>
       </c>
@@ -17883,7 +17885,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.8">
+    <row r="11" spans="1:7">
       <c r="A11" s="87">
         <v>43735</v>
       </c>
@@ -17907,7 +17909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8">
+    <row r="12" spans="1:7">
       <c r="A12" s="87">
         <v>43737</v>
       </c>
@@ -17931,7 +17933,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8">
+    <row r="13" spans="1:7">
       <c r="A13" s="87">
         <v>43738</v>
       </c>
@@ -17955,7 +17957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8">
+    <row r="14" spans="1:7">
       <c r="A14" s="87">
         <v>43739</v>
       </c>
@@ -17979,7 +17981,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8">
+    <row r="15" spans="1:7">
       <c r="A15" s="89">
         <v>43739</v>
       </c>
@@ -18003,7 +18005,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.8">
+    <row r="16" spans="1:7">
       <c r="A16" s="87">
         <v>43744</v>
       </c>
@@ -18027,7 +18029,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8">
+    <row r="17" spans="1:7">
       <c r="A17" s="87">
         <v>43744</v>
       </c>
@@ -18051,7 +18053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8">
+    <row r="18" spans="1:7">
       <c r="A18" s="87">
         <v>43744</v>
       </c>
@@ -18075,7 +18077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -18099,7 +18101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -18123,7 +18125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -18147,7 +18149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8">
+    <row r="22" spans="1:7">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -18171,7 +18173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8">
+    <row r="23" spans="1:7">
       <c r="A23" s="87">
         <v>43751</v>
       </c>
@@ -18195,7 +18197,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="87">
         <v>43751</v>
       </c>
@@ -18267,7 +18269,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7">
       <c r="A27" s="87">
         <v>43753</v>
       </c>
@@ -18315,7 +18317,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7">
       <c r="A29" s="90">
         <v>43754</v>
       </c>
@@ -18339,7 +18341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.8">
+    <row r="30" spans="1:7">
       <c r="A30" s="90">
         <v>43754</v>
       </c>
@@ -18387,7 +18389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8">
+    <row r="32" spans="1:7">
       <c r="A32" s="47">
         <v>43755</v>
       </c>
@@ -18411,7 +18413,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.7" customHeight="1">
+    <row r="33" spans="1:7" ht="14.65" customHeight="1">
       <c r="A33" s="90">
         <v>43755</v>
       </c>
@@ -18435,7 +18437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8">
+    <row r="34" spans="1:7">
       <c r="A34" s="47">
         <v>43755</v>
       </c>
@@ -18675,7 +18677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8">
+    <row r="44" spans="1:7">
       <c r="A44" s="35">
         <v>43770</v>
       </c>
@@ -18723,7 +18725,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.8">
+    <row r="46" spans="1:7">
       <c r="A46" s="35">
         <v>43772</v>
       </c>
@@ -18745,7 +18747,7 @@
       </c>
       <c r="G46" s="123"/>
     </row>
-    <row r="47" spans="1:7" ht="13.8">
+    <row r="47" spans="1:7">
       <c r="A47" s="87">
         <v>43779</v>
       </c>
@@ -18769,7 +18771,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8">
+    <row r="48" spans="1:7">
       <c r="A48" s="87">
         <v>43782</v>
       </c>
@@ -18793,7 +18795,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.8">
+    <row r="49" spans="1:7">
       <c r="A49" s="35">
         <v>43783</v>
       </c>
@@ -18841,7 +18843,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.6">
+    <row r="51" spans="1:7" ht="13.5">
       <c r="A51" s="35">
         <v>43791</v>
       </c>
@@ -18865,7 +18867,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.6">
+    <row r="52" spans="1:7" ht="13.5">
       <c r="A52" s="35">
         <v>43792</v>
       </c>
@@ -18937,7 +18939,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="13.8">
+    <row r="55" spans="1:7">
       <c r="A55" s="87">
         <v>43793</v>
       </c>
@@ -19428,17 +19430,17 @@
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.65" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -19451,10 +19453,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.65" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.65" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -19465,8 +19467,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -19633,7 +19635,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8">
+    <row r="12" spans="1:7">
       <c r="A12" s="87" t="s">
         <v>134</v>
       </c>
@@ -19705,7 +19707,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6">
+    <row r="15" spans="1:7" ht="13.5">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -19729,7 +19731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -19753,7 +19755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -19777,7 +19779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8">
+    <row r="18" spans="1:7">
       <c r="A18" s="95">
         <v>43749</v>
       </c>
@@ -19849,7 +19851,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.8">
+    <row r="21" spans="1:7">
       <c r="A21" s="47">
         <v>43755</v>
       </c>
@@ -19873,7 +19875,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8">
+    <row r="22" spans="1:7">
       <c r="A22" s="47">
         <v>43755</v>
       </c>
@@ -20017,7 +20019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.7" customHeight="1">
+    <row r="28" spans="1:7" ht="14.65" customHeight="1">
       <c r="A28" s="50">
         <v>43769</v>
       </c>
@@ -20135,7 +20137,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8">
+    <row r="33" spans="1:7">
       <c r="A33" s="87">
         <v>43782</v>
       </c>
@@ -20159,7 +20161,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8">
+    <row r="34" spans="1:7">
       <c r="A34" s="114" t="s">
         <v>191</v>
       </c>
@@ -20274,7 +20276,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13.8">
+    <row r="39" spans="1:7">
       <c r="A39" s="87">
         <v>43793</v>
       </c>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1124,7 +1124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="238">
   <si>
     <r>
       <rPr>
@@ -12023,6 +12023,42 @@
       </rPr>
       <t>업데이트</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>장보기 메모 팝업 만들기</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -12790,7 +12826,7 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView topLeftCell="A59" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="A77" sqref="A77:G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -16922,7 +16958,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -17000,7 +17036,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="69">
-        <f t="shared" ref="E6:E28" si="0">C6-B6-(D6/24/60)</f>
+        <f t="shared" ref="E6:E29" si="0">C6-B6-(D6/24/60)</f>
         <v>5.555555555555558E-2</v>
       </c>
       <c r="F6" s="14" t="s">
@@ -17540,14 +17576,27 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="87">
-        <v>12</v>
-      </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="2"/>
+        <v>43794</v>
+      </c>
+      <c r="B29" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="C29" s="51">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D29" s="32">
+        <v>10</v>
+      </c>
+      <c r="E29" s="58">
+        <f t="shared" si="0"/>
+        <v>0.13194444444444439</v>
+      </c>
+      <c r="F29" s="116" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="87"/>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이효준\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A359273-1E9B-4896-9989-2EB8246442CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="23250" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -214,12 +215,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -396,12 +397,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -578,12 +579,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -597,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -760,12 +761,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -779,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -942,12 +943,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -961,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="242">
   <si>
     <r>
       <rPr>
@@ -11835,6 +11836,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Data Set </t>
     </r>
@@ -11890,6 +11892,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -11908,6 +11911,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> CRUD </t>
     </r>
@@ -12059,13 +12063,119 @@
   </si>
   <si>
     <t>장보기 메모 팝업 만들기</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 개발</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CSV </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안드로이드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터베이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연동</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 개발</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Code Refactoring (B,C,E 분리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>), Entity class 수정</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -12512,10 +12622,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3"/>
+    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12821,7 +12931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N85"/>
   <sheetViews>
@@ -12829,19 +12939,19 @@
       <selection activeCell="A77" sqref="A77:G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="87" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="51" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="87" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="51" customWidth="1"/>
     <col min="3" max="3" width="7" style="51" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="58" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" style="39" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" style="39" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.65" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>41</v>
       </c>
@@ -12854,10 +12964,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.65" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="11.65" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="97" t="s">
         <v>127</v>
       </c>
@@ -12868,8 +12978,8 @@
       <c r="E3" s="77"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="98" t="s">
         <v>129</v>
       </c>
@@ -13084,7 +13194,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="13.8">
       <c r="A14" s="87">
         <v>43728</v>
       </c>
@@ -13204,7 +13314,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="13.8">
       <c r="A19" s="87">
         <v>43739</v>
       </c>
@@ -13300,7 +13410,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="13.8">
       <c r="A23" s="89">
         <v>43748</v>
       </c>
@@ -13324,7 +13434,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="13.8">
       <c r="A24" s="95">
         <v>43749</v>
       </c>
@@ -13372,7 +13482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="13.8">
       <c r="A26" s="89">
         <v>43755</v>
       </c>
@@ -13396,7 +13506,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="89">
         <v>43755</v>
       </c>
@@ -13420,7 +13530,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="13.8">
       <c r="A28" s="89">
         <v>43755</v>
       </c>
@@ -13444,7 +13554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="89">
         <v>43761</v>
       </c>
@@ -13708,7 +13818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.65" customHeight="1">
+    <row r="40" spans="1:7" ht="14.7" customHeight="1">
       <c r="A40" s="95">
         <v>43767</v>
       </c>
@@ -13732,7 +13842,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.65" customHeight="1">
+    <row r="41" spans="1:7" ht="14.7" customHeight="1">
       <c r="A41" s="95">
         <v>43769</v>
       </c>
@@ -13852,7 +13962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="13.8">
       <c r="A46" s="87">
         <v>43770</v>
       </c>
@@ -13876,7 +13986,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="13.8">
       <c r="A47" s="87">
         <v>43770</v>
       </c>
@@ -13900,7 +14010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="13.8">
       <c r="A48" s="95" t="s">
         <v>138</v>
       </c>
@@ -13924,7 +14034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="13.8">
       <c r="A49" s="99" t="s">
         <v>138</v>
       </c>
@@ -13948,7 +14058,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" ht="13.8">
       <c r="A50" s="87">
         <v>43774</v>
       </c>
@@ -13972,7 +14082,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" ht="13.8">
       <c r="A51" s="87">
         <v>43774</v>
       </c>
@@ -13996,7 +14106,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" ht="13.8">
       <c r="A52" s="87">
         <v>43775</v>
       </c>
@@ -14020,7 +14130,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" ht="13.8">
       <c r="A53" s="87">
         <v>43776</v>
       </c>
@@ -14044,7 +14154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" ht="13.8">
       <c r="A54" s="87">
         <v>43776</v>
       </c>
@@ -14068,7 +14178,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" ht="13.8">
       <c r="A55" s="87">
         <v>43778</v>
       </c>
@@ -14092,7 +14202,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" ht="13.8">
       <c r="A56" s="87">
         <v>43779</v>
       </c>
@@ -14116,7 +14226,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" ht="13.8">
       <c r="A57" s="87">
         <v>43780</v>
       </c>
@@ -14140,7 +14250,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" ht="13.8">
       <c r="A58" s="87">
         <v>43781</v>
       </c>
@@ -14164,7 +14274,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" ht="13.8">
       <c r="A59" s="87">
         <v>43781</v>
       </c>
@@ -14188,7 +14298,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" ht="13.8">
       <c r="A60" s="87">
         <v>43781</v>
       </c>
@@ -14212,7 +14322,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" ht="13.8">
       <c r="A61" s="87">
         <v>43782</v>
       </c>
@@ -14236,7 +14346,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" ht="13.8">
       <c r="A62" s="87">
         <v>43782</v>
       </c>
@@ -14260,7 +14370,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" ht="13.8">
       <c r="A63" s="87">
         <v>43785</v>
       </c>
@@ -14284,7 +14394,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" ht="13.8">
       <c r="A64" s="87">
         <v>43785</v>
       </c>
@@ -14308,7 +14418,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" ht="13.8">
       <c r="A65" s="87">
         <v>43785</v>
       </c>
@@ -14332,7 +14442,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" ht="13.8">
       <c r="A66" s="87">
         <v>43786</v>
       </c>
@@ -14356,7 +14466,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" ht="13.8">
       <c r="A67" s="87">
         <v>43788</v>
       </c>
@@ -14380,7 +14490,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" ht="13.8">
       <c r="A68" s="87">
         <v>43791</v>
       </c>
@@ -14404,7 +14514,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" ht="13.8">
       <c r="A69" s="87">
         <v>43791</v>
       </c>
@@ -14428,7 +14538,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" ht="13.8">
       <c r="A70" s="87">
         <v>43792</v>
       </c>
@@ -14452,7 +14562,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" ht="13.8">
       <c r="A71" s="87">
         <v>43792</v>
       </c>
@@ -14476,7 +14586,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" ht="13.8">
       <c r="A72" s="87">
         <v>43793</v>
       </c>
@@ -14501,7 +14611,7 @@
       </c>
       <c r="N72" s="107"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" ht="13.8">
       <c r="A73" s="87">
         <v>43793</v>
       </c>
@@ -14525,7 +14635,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" ht="13.8">
       <c r="A74" s="87">
         <v>43793</v>
       </c>
@@ -14549,7 +14659,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" ht="13.8">
       <c r="A75" s="87">
         <v>43793</v>
       </c>
@@ -14573,7 +14683,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" ht="13.8">
       <c r="A76" s="87">
         <v>43794</v>
       </c>
@@ -14597,7 +14707,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" ht="13.8">
       <c r="A77" s="87">
         <v>43794</v>
       </c>
@@ -14621,7 +14731,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" ht="13.8">
       <c r="A78" s="87">
         <v>43794</v>
       </c>
@@ -14645,7 +14755,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" ht="13.8">
       <c r="A79" s="87">
         <v>43795</v>
       </c>
@@ -14669,7 +14779,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" ht="13.8">
       <c r="A80" s="87">
         <v>43795</v>
       </c>
@@ -14693,7 +14803,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" ht="13.8">
       <c r="A81" s="87">
         <v>43795</v>
       </c>
@@ -14734,7 +14844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N45"/>
   <sheetViews>
@@ -14742,17 +14852,17 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="55.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="55.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.65" customHeight="1">
+    <row r="1" spans="1:10" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -14765,10 +14875,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.65" customHeight="1">
+    <row r="2" spans="1:10" ht="11.7" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:10" ht="11.65" customHeight="1">
+    <row r="3" spans="1:10" ht="11.7" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -14779,8 +14889,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.65" customHeight="1"/>
-    <row r="5" spans="1:10" s="7" customFormat="1" ht="25.5">
+    <row r="4" spans="1:10" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:10" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -14996,7 +15106,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.5">
+    <row r="14" spans="1:10" ht="15.6">
       <c r="A14" s="89" t="s">
         <v>131</v>
       </c>
@@ -15020,7 +15130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.5">
+    <row r="15" spans="1:10" ht="15.6">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -15044,7 +15154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.5">
+    <row r="16" spans="1:10" ht="15.6">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -15068,7 +15178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.5">
+    <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -15092,7 +15202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="13.8">
       <c r="A18" s="50">
         <v>43749</v>
       </c>
@@ -15116,7 +15226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="13.8">
       <c r="A19" s="47">
         <v>43755</v>
       </c>
@@ -15140,7 +15250,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="13.8">
       <c r="A20" s="47">
         <v>43755</v>
       </c>
@@ -15260,7 +15370,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.65" customHeight="1">
+    <row r="25" spans="1:7" ht="14.7" customHeight="1">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -15308,7 +15418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.5">
+    <row r="27" spans="1:7" ht="15.6">
       <c r="A27" s="99" t="s">
         <v>145</v>
       </c>
@@ -15332,7 +15442,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="13.8">
       <c r="A28" s="87">
         <v>43779</v>
       </c>
@@ -15356,7 +15466,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="87">
         <v>43782</v>
       </c>
@@ -15380,7 +15490,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.5">
+    <row r="30" spans="1:7" ht="15.6">
       <c r="A30" s="114" t="s">
         <v>181</v>
       </c>
@@ -15426,7 +15536,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.5">
+    <row r="32" spans="1:7" ht="15.6">
       <c r="A32" s="114" t="s">
         <v>208</v>
       </c>
@@ -15449,7 +15559,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="13.5">
+    <row r="33" spans="1:14" ht="15.6">
       <c r="A33" s="114" t="s">
         <v>210</v>
       </c>
@@ -15518,7 +15628,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" ht="13.8">
       <c r="A36" s="87">
         <v>43793</v>
       </c>
@@ -15636,25 +15746,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="61.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="61.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.65" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -15667,10 +15777,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.65" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="11.65" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>127</v>
       </c>
@@ -15681,8 +15791,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="8" t="s">
         <v>129</v>
       </c>
@@ -15897,7 +16007,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="13.8">
       <c r="A14" s="10">
         <v>43739</v>
       </c>
@@ -15921,7 +16031,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="13.8">
       <c r="A15" s="35">
         <v>43739</v>
       </c>
@@ -16017,7 +16127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.5">
+    <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -16041,7 +16151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.5">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -16065,7 +16175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.5">
+    <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -16089,7 +16199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="13.8">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -16113,7 +16223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.5">
+    <row r="23" spans="1:7" ht="15.6">
       <c r="A23" s="35">
         <v>43750</v>
       </c>
@@ -16209,7 +16319,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="47">
         <v>43755</v>
       </c>
@@ -16233,7 +16343,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="13.8">
       <c r="A28" s="47">
         <v>43755</v>
       </c>
@@ -16257,7 +16367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="10">
         <v>43760</v>
       </c>
@@ -16377,7 +16487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="13.8">
       <c r="A34" s="35">
         <v>43770</v>
       </c>
@@ -16569,7 +16679,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" ht="13.8">
       <c r="A42" s="87">
         <v>43779</v>
       </c>
@@ -16617,7 +16727,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="13.8">
       <c r="A44" s="87">
         <v>43782</v>
       </c>
@@ -16665,7 +16775,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.5">
+    <row r="46" spans="1:7" ht="15.6">
       <c r="A46" s="87">
         <v>43792</v>
       </c>
@@ -16689,7 +16799,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="13.8">
       <c r="A47" s="87">
         <v>43793</v>
       </c>
@@ -16713,7 +16823,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="13.8">
       <c r="A48" s="87">
         <v>43793</v>
       </c>
@@ -16737,7 +16847,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="13.8">
       <c r="A49" s="87">
         <v>43794</v>
       </c>
@@ -16761,7 +16871,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" ht="13.8">
       <c r="A50" s="87">
         <v>43794</v>
       </c>
@@ -16785,7 +16895,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" ht="13.8">
       <c r="A51" s="87">
         <v>43795</v>
       </c>
@@ -16809,29 +16919,53 @@
         <v>226</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="87"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="32"/>
+    <row r="52" spans="1:7" ht="13.8">
+      <c r="A52" s="87">
+        <v>43795</v>
+      </c>
+      <c r="B52" s="51">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C52" s="51">
+        <v>0.1875</v>
+      </c>
+      <c r="D52" s="32">
+        <v>0</v>
+      </c>
       <c r="E52" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="39"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="87"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="32"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F52" s="115" t="s">
+        <v>238</v>
+      </c>
+      <c r="G52" s="113" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="13.8">
+      <c r="A53" s="87">
+        <v>43795</v>
+      </c>
+      <c r="B53" s="51">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C53" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="D53" s="32">
+        <v>30</v>
+      </c>
       <c r="E53" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="39"/>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="F53" s="120" t="s">
+        <v>240</v>
+      </c>
+      <c r="G53" s="113" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="87"/>
@@ -16953,25 +17087,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="65" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.65" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -16984,10 +17118,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.65" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.65" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -16998,8 +17132,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -17166,7 +17300,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5">
+    <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="89">
         <v>43746</v>
       </c>
@@ -17190,7 +17324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="89">
         <v>43748</v>
       </c>
@@ -17214,7 +17348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5">
+    <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="87">
         <v>43749</v>
       </c>
@@ -17238,7 +17372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="13.8">
       <c r="A15" s="50">
         <v>43749</v>
       </c>
@@ -17286,7 +17420,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="13.8">
       <c r="A17" s="47">
         <v>43755</v>
       </c>
@@ -17358,7 +17492,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.5">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="94" t="s">
         <v>141</v>
       </c>
@@ -17454,7 +17588,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.65" customHeight="1">
+    <row r="24" spans="1:7" ht="14.7" customHeight="1">
       <c r="A24" s="50">
         <v>43769</v>
       </c>
@@ -17502,7 +17636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="13.8">
       <c r="A26" s="35">
         <v>43770</v>
       </c>
@@ -17526,7 +17660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="87">
         <v>43779</v>
       </c>
@@ -17550,7 +17684,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="13.8">
       <c r="A28" s="87">
         <v>43793</v>
       </c>
@@ -17574,7 +17708,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="87">
         <v>43794</v>
       </c>
@@ -17745,7 +17879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G101"/>
   <sheetViews>
@@ -17753,17 +17887,17 @@
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="85" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
-    <col min="6" max="6" width="38.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="38.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.65" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -17776,10 +17910,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.65" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="83"/>
     </row>
-    <row r="3" spans="1:7" ht="11.65" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="84" t="s">
         <v>127</v>
       </c>
@@ -17790,8 +17924,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -17814,7 +17948,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="87">
         <v>43715</v>
       </c>
@@ -17838,7 +17972,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="13.8">
       <c r="A7" s="88">
         <v>43727</v>
       </c>
@@ -17862,7 +17996,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="13.8">
       <c r="A8" s="87">
         <v>43727</v>
       </c>
@@ -17886,7 +18020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="13.8">
       <c r="A9" s="87">
         <v>43728</v>
       </c>
@@ -17934,7 +18068,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="13.8">
       <c r="A11" s="87">
         <v>43735</v>
       </c>
@@ -17958,7 +18092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="13.8">
       <c r="A12" s="87">
         <v>43737</v>
       </c>
@@ -17982,7 +18116,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="13.8">
       <c r="A13" s="87">
         <v>43738</v>
       </c>
@@ -18006,7 +18140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="13.8">
       <c r="A14" s="87">
         <v>43739</v>
       </c>
@@ -18030,7 +18164,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="13.8">
       <c r="A15" s="89">
         <v>43739</v>
       </c>
@@ -18054,7 +18188,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="13.8">
       <c r="A16" s="87">
         <v>43744</v>
       </c>
@@ -18078,7 +18212,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="13.8">
       <c r="A17" s="87">
         <v>43744</v>
       </c>
@@ -18102,7 +18236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="13.8">
       <c r="A18" s="87">
         <v>43744</v>
       </c>
@@ -18126,7 +18260,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.5">
+    <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -18150,7 +18284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.5">
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -18174,7 +18308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.5">
+    <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -18198,7 +18332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="13.8">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -18222,7 +18356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="13.8">
       <c r="A23" s="87">
         <v>43751</v>
       </c>
@@ -18246,7 +18380,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.5">
+    <row r="24" spans="1:7" ht="15.6">
       <c r="A24" s="87">
         <v>43751</v>
       </c>
@@ -18318,7 +18452,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="13.8">
       <c r="A27" s="87">
         <v>43753</v>
       </c>
@@ -18366,7 +18500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="13.8">
       <c r="A29" s="90">
         <v>43754</v>
       </c>
@@ -18390,7 +18524,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="13.8">
       <c r="A30" s="90">
         <v>43754</v>
       </c>
@@ -18438,7 +18572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="13.8">
       <c r="A32" s="47">
         <v>43755</v>
       </c>
@@ -18462,7 +18596,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.65" customHeight="1">
+    <row r="33" spans="1:7" ht="14.7" customHeight="1">
       <c r="A33" s="90">
         <v>43755</v>
       </c>
@@ -18486,7 +18620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="13.8">
       <c r="A34" s="47">
         <v>43755</v>
       </c>
@@ -18726,7 +18860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="13.8">
       <c r="A44" s="35">
         <v>43770</v>
       </c>
@@ -18774,7 +18908,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="13.8">
       <c r="A46" s="35">
         <v>43772</v>
       </c>
@@ -18796,7 +18930,7 @@
       </c>
       <c r="G46" s="123"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="13.8">
       <c r="A47" s="87">
         <v>43779</v>
       </c>
@@ -18820,7 +18954,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="13.8">
       <c r="A48" s="87">
         <v>43782</v>
       </c>
@@ -18844,7 +18978,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="13.8">
       <c r="A49" s="35">
         <v>43783</v>
       </c>
@@ -18892,7 +19026,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13.5">
+    <row r="51" spans="1:7" ht="15.6">
       <c r="A51" s="35">
         <v>43791</v>
       </c>
@@ -18916,7 +19050,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="13.5">
+    <row r="52" spans="1:7" ht="15.6">
       <c r="A52" s="35">
         <v>43792</v>
       </c>
@@ -18988,7 +19122,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" ht="13.8">
       <c r="A55" s="87">
         <v>43793</v>
       </c>
@@ -19471,7 +19605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -19479,17 +19613,17 @@
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.65" customHeight="1">
+    <row r="1" spans="1:7" ht="11.7" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -19502,10 +19636,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.65" customHeight="1">
+    <row r="2" spans="1:7" ht="11.7" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.65" customHeight="1">
+    <row r="3" spans="1:7" ht="11.7" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -19516,8 +19650,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
+    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -19684,7 +19818,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="13.8">
       <c r="A12" s="87" t="s">
         <v>134</v>
       </c>
@@ -19756,7 +19890,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.5">
+    <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -19780,7 +19914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.5">
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -19804,7 +19938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.5">
+    <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -19828,7 +19962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="13.8">
       <c r="A18" s="95">
         <v>43749</v>
       </c>
@@ -19900,7 +20034,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="13.8">
       <c r="A21" s="47">
         <v>43755</v>
       </c>
@@ -19924,7 +20058,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="13.8">
       <c r="A22" s="47">
         <v>43755</v>
       </c>
@@ -20068,7 +20202,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.65" customHeight="1">
+    <row r="28" spans="1:7" ht="14.7" customHeight="1">
       <c r="A28" s="50">
         <v>43769</v>
       </c>
@@ -20186,7 +20320,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="13.8">
       <c r="A33" s="87">
         <v>43782</v>
       </c>
@@ -20210,7 +20344,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="13.8">
       <c r="A34" s="114" t="s">
         <v>191</v>
       </c>
@@ -20325,7 +20459,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="13.8">
       <c r="A39" s="87">
         <v>43793</v>
       </c>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinwo\Desktop\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A359273-1E9B-4896-9989-2EB8246442CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E96CC5-41EF-4194-95A9-5C292856E63A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="243">
   <si>
     <r>
       <rPr>
@@ -12168,6 +12168,22 @@
         <charset val="129"/>
       </rPr>
       <t>), Entity class 수정</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11 월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 26일</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -15750,7 +15766,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
@@ -19609,8 +19625,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -20530,13 +20546,27 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1">
-      <c r="A42" s="87"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="2"/>
+      <c r="A42" s="114" t="s">
+        <v>242</v>
+      </c>
+      <c r="B42" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="C42" s="51">
+        <v>0.875</v>
+      </c>
+      <c r="D42" s="32">
+        <v>0</v>
+      </c>
+      <c r="E42" s="19">
+        <v>180</v>
+      </c>
+      <c r="F42" s="117" t="s">
+        <v>194</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" s="87"/>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A359273-1E9B-4896-9989-2EB8246442CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9274A6-1BE1-470F-B43F-0E428666245B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="10020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="244">
   <si>
     <r>
       <rPr>
@@ -12100,6 +12100,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -12118,6 +12119,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -12136,6 +12138,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -12168,6 +12171,26 @@
         <charset val="129"/>
       </rPr>
       <t>), Entity class 수정</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 개발</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 단일 데이터베이스 내 저장 및 Entity Class Refactoring</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -15750,8 +15773,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -16967,17 +16990,29 @@
         <v>241</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="87"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="32"/>
+    <row r="54" spans="1:7" ht="13.8">
+      <c r="A54" s="114">
+        <v>43796</v>
+      </c>
+      <c r="B54" s="51">
+        <v>0.625</v>
+      </c>
+      <c r="C54" s="51">
+        <v>0.8125</v>
+      </c>
+      <c r="D54" s="32">
+        <v>10</v>
+      </c>
       <c r="E54" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="39"/>
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="F54" s="115" t="s">
+        <v>242</v>
+      </c>
+      <c r="G54" s="113" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="87"/>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinwo\Desktop\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9274A6-1BE1-470F-B43F-0E428666245B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11B7C2D-2FCB-47FF-BA24-F44707FF7D03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="10020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="246">
   <si>
     <r>
       <rPr>
@@ -12191,6 +12191,38 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 단일 데이터베이스 내 저장 및 Entity Class Refactoring</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 26일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 27일</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -15773,7 +15805,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
@@ -19644,8 +19676,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -20565,22 +20597,50 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1">
-      <c r="A42" s="87"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="2"/>
+      <c r="A42" s="114" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="C42" s="51">
+        <v>0.875</v>
+      </c>
+      <c r="D42" s="32">
+        <v>0</v>
+      </c>
+      <c r="E42" s="19">
+        <v>180</v>
+      </c>
+      <c r="F42" s="117" t="s">
+        <v>194</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1">
-      <c r="A43" s="87"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="2"/>
+      <c r="A43" s="114" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" s="51">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C43" s="51">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D43" s="32">
+        <v>0</v>
+      </c>
+      <c r="E43" s="19">
+        <v>180</v>
+      </c>
+      <c r="F43" s="117" t="s">
+        <v>194</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1">
       <c r="A44" s="87"/>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinwo\Desktop\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11B7C2D-2FCB-47FF-BA24-F44707FF7D03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,12 +214,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -397,12 +396,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -579,12 +578,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -598,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -761,12 +760,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -780,7 +779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -943,12 +942,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="D5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -962,7 +961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="250">
   <si>
     <r>
       <rPr>
@@ -10424,31 +10423,6 @@
   </si>
   <si>
     <r>
-      <t>Project Documentation (SRS,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> SAD) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>업데이트</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>11 월</t>
     </r>
     <r>
@@ -10460,50 +10434,6 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 15일</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Project Documentation (SRS,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> SAD) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>업데이트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, GUI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10694,10 +10624,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -12223,6 +12149,383 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 27일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project Documentation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">SRS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project Documentation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (SRS, SAD) </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project Documentation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (SRS), GUI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project Documentation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">SRS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성준님</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>깃헙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해결</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project Documentation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업데이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">SRS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종본</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">), Test Case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test Case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>esting</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12230,7 +12533,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -12677,10 +12980,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="백분율 2" xfId="4"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="표준 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12986,12 +13289,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:G77"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -13839,7 +14142,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="58">
-        <f t="shared" ref="E38:E81" si="1">C38-B38-(D38/24/60)</f>
+        <f t="shared" ref="E38:E86" si="1">C38-B38-(D38/24/60)</f>
         <v>9.7222222220605337E-2</v>
       </c>
       <c r="F38" s="32" t="s">
@@ -14470,7 +14773,7 @@
         <v>186</v>
       </c>
       <c r="G64" s="113" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="13.8">
@@ -14494,7 +14797,7 @@
         <v>186</v>
       </c>
       <c r="G65" s="113" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="13.8">
@@ -14518,7 +14821,7 @@
         <v>186</v>
       </c>
       <c r="G66" s="113" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="13.8">
@@ -14542,7 +14845,7 @@
         <v>186</v>
       </c>
       <c r="G67" s="113" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="13.8">
@@ -14566,7 +14869,7 @@
         <v>186</v>
       </c>
       <c r="G68" s="113" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="13.8">
@@ -14590,7 +14893,7 @@
         <v>186</v>
       </c>
       <c r="G69" s="113" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="13.8">
@@ -14614,7 +14917,7 @@
         <v>186</v>
       </c>
       <c r="G70" s="39" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="13.8">
@@ -14638,7 +14941,7 @@
         <v>186</v>
       </c>
       <c r="G71" s="113" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="13.8">
@@ -14659,10 +14962,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="F72" s="116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G72" s="113" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N72" s="107"/>
     </row>
@@ -14687,7 +14990,7 @@
         <v>186</v>
       </c>
       <c r="G73" s="113" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="13.8">
@@ -14711,7 +15014,7 @@
         <v>186</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="13.8">
@@ -14735,7 +15038,7 @@
         <v>186</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="13.8">
@@ -14759,7 +15062,7 @@
         <v>186</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="13.8">
@@ -14783,7 +15086,7 @@
         <v>186</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="13.8">
@@ -14807,7 +15110,7 @@
         <v>186</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="13.8">
@@ -14828,10 +15131,10 @@
         <v>0.2013888888888889</v>
       </c>
       <c r="F79" s="116" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G79" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="13.8">
@@ -14852,10 +15155,10 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F80" s="116" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G80" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="13.8">
@@ -14876,15 +15179,130 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="F81" s="116" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G81" s="113" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="13.8">
+      <c r="A82" s="87">
+        <v>43795</v>
+      </c>
+      <c r="B82" s="51">
+        <v>0.6875</v>
+      </c>
+      <c r="C82" s="51">
+        <v>0.75</v>
+      </c>
+      <c r="D82" s="32">
+        <v>0</v>
+      </c>
+      <c r="E82" s="58">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G82" s="113" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="13.8">
+      <c r="A83" s="87">
+        <v>43795</v>
+      </c>
+      <c r="B83" s="51">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C83" s="51">
+        <v>0.9375</v>
+      </c>
+      <c r="D83" s="32">
+        <v>0</v>
+      </c>
+      <c r="E83" s="58">
+        <f t="shared" si="1"/>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G83" s="113" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="13.8">
+      <c r="A84" s="87">
+        <v>43796</v>
+      </c>
+      <c r="B84" s="51">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C84" s="51">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D84" s="32">
+        <v>40</v>
+      </c>
+      <c r="E84" s="58">
+        <f t="shared" si="1"/>
+        <v>0.11111111111111106</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G84" s="113" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="13.8">
+      <c r="A85" s="87">
+        <v>43796</v>
+      </c>
+      <c r="B85" s="51">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C85" s="51">
+        <v>0.9375</v>
+      </c>
+      <c r="D85" s="32">
+        <v>30</v>
+      </c>
+      <c r="E85" s="58">
+        <f t="shared" si="1"/>
+        <v>0.14583333333333329</v>
+      </c>
+      <c r="F85" s="116" t="s">
+        <v>249</v>
+      </c>
       <c r="G85" s="113" t="s">
-        <v>198</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="13.8">
+      <c r="A86" s="87">
+        <v>43796</v>
+      </c>
+      <c r="B86" s="51">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C86" s="51">
+        <v>1.1736111111111112</v>
+      </c>
+      <c r="D86" s="32">
+        <v>30</v>
+      </c>
+      <c r="E86" s="58">
+        <f t="shared" si="1"/>
+        <v>0.17361111111111119</v>
+      </c>
+      <c r="F86" s="116" t="s">
+        <v>249</v>
+      </c>
+      <c r="G86" s="39" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -14899,11 +15317,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="77" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -15570,7 +15988,7 @@
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="114" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B31" s="51">
         <v>0.83333333333333337</v>
@@ -15585,15 +16003,15 @@
         <v>100</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.6">
       <c r="A32" s="114" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B32" s="51">
         <v>0.85416666666666663</v>
@@ -15608,15 +16026,15 @@
         <v>120</v>
       </c>
       <c r="F32" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32" s="37" t="s">
         <v>206</v>
-      </c>
-      <c r="G32" s="37" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.6">
       <c r="A33" s="114" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B33" s="51">
         <v>4.1666666666666664E-2</v>
@@ -15631,15 +16049,15 @@
         <v>220</v>
       </c>
       <c r="F33" s="112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="114" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B34" s="51">
         <v>0.625</v>
@@ -15654,15 +16072,15 @@
         <v>60</v>
       </c>
       <c r="F34" s="112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="114" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B35" s="51">
         <v>0.9375</v>
@@ -15677,10 +16095,10 @@
         <v>180</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="13.8">
@@ -15701,10 +16119,10 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F36" s="116" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G36" s="113" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N36" s="107"/>
     </row>
@@ -15801,12 +16219,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="A45" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -16848,10 +17266,10 @@
         <v>0.12499999999999997</v>
       </c>
       <c r="F46" s="121" t="s">
+        <v>216</v>
+      </c>
+      <c r="G46" s="113" t="s">
         <v>219</v>
-      </c>
-      <c r="G46" s="113" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="13.8">
@@ -16872,10 +17290,10 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F47" s="120" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G47" s="113" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="13.8">
@@ -16896,10 +17314,10 @@
         <v>0.15277777777777785</v>
       </c>
       <c r="F48" s="120" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G48" s="113" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="13.8">
@@ -16920,10 +17338,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F49" s="115" t="s">
+        <v>215</v>
+      </c>
+      <c r="G49" s="113" t="s">
         <v>218</v>
-      </c>
-      <c r="G49" s="113" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="13.8">
@@ -16944,10 +17362,10 @@
         <v>9.0277777777777873E-2</v>
       </c>
       <c r="F50" s="115" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G50" s="113" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="13.8">
@@ -16968,10 +17386,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F51" s="120" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G51" s="113" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="13.8">
@@ -16992,10 +17410,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F52" s="115" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G52" s="113" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="13.8">
@@ -17016,10 +17434,10 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="F53" s="120" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G53" s="113" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="13.8">
@@ -17040,10 +17458,10 @@
         <v>0.18055555555555555</v>
       </c>
       <c r="F54" s="115" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G54" s="113" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -17154,7 +17572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -17769,10 +18187,10 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F28" s="120" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G28" s="113" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="13.8">
@@ -17793,10 +18211,10 @@
         <v>0.13194444444444439</v>
       </c>
       <c r="F29" s="116" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1">
@@ -17946,11 +18364,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
@@ -19087,10 +19505,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="F50" s="112" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G50" s="113" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.6">
@@ -19111,10 +19529,10 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F51" s="112" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G51" s="119" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.6">
@@ -19135,10 +19553,10 @@
         <v>6.2500000000000042E-2</v>
       </c>
       <c r="F52" s="112" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G52" s="119" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -19159,10 +19577,10 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="F53" s="112" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G53" s="113" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -19183,10 +19601,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="F54" s="112" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G54" s="113" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="13.8">
@@ -19207,10 +19625,10 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F55" s="120" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G55" s="113" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -19231,10 +19649,10 @@
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="F56" s="112" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G56" s="113" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -19255,10 +19673,10 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F57" s="112" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G57" s="113" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -19672,11 +20090,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -20413,7 +20831,7 @@
     </row>
     <row r="34" spans="1:7" ht="13.8">
       <c r="A34" s="114" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B34" s="51">
         <v>0.58333333333333337</v>
@@ -20436,7 +20854,7 @@
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="114" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B35" s="51">
         <v>0.70833333333333337</v>
@@ -20459,7 +20877,7 @@
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="114" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B36" s="51">
         <v>0.47916666666666669</v>
@@ -20474,7 +20892,7 @@
         <v>120</v>
       </c>
       <c r="F36" s="117" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>178</v>
@@ -20482,7 +20900,7 @@
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1">
       <c r="A37" s="114" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B37" s="51">
         <v>0.54166666666666663</v>
@@ -20497,7 +20915,7 @@
         <v>270</v>
       </c>
       <c r="F37" s="117" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>178</v>
@@ -20505,7 +20923,7 @@
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="114" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B38" s="51">
         <v>0.47916666666666669</v>
@@ -20520,7 +20938,7 @@
         <v>60</v>
       </c>
       <c r="F38" s="117" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>178</v>
@@ -20544,15 +20962,15 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F39" s="120" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G39" s="113" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="114" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B40" s="51">
         <v>0.60416666666666663</v>
@@ -20567,7 +20985,7 @@
         <v>210</v>
       </c>
       <c r="F40" s="117" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>178</v>
@@ -20575,7 +20993,7 @@
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="114" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B41" s="51">
         <v>0.54166666666666663</v>
@@ -20590,7 +21008,7 @@
         <v>240</v>
       </c>
       <c r="F41" s="117" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>178</v>
@@ -20598,7 +21016,7 @@
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1">
       <c r="A42" s="114" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B42" s="51">
         <v>0.75</v>
@@ -20613,7 +21031,7 @@
         <v>180</v>
       </c>
       <c r="F42" s="117" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>178</v>
@@ -20621,7 +21039,7 @@
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" s="114" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B43" s="51">
         <v>0.79166666666666663</v>
@@ -20636,7 +21054,7 @@
         <v>180</v>
       </c>
       <c r="F43" s="117" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>178</v>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85245168-425F-4551-B5CF-ED611A8DA1CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="최재영" sheetId="5" r:id="rId5"/>
     <sheet name="황보진우" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -214,12 +215,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -233,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -396,12 +397,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -578,12 +579,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -597,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -760,12 +761,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -779,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -942,12 +943,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -961,7 +962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1124,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="253">
   <si>
     <r>
       <rPr>
@@ -12180,6 +12181,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SRS </t>
     </r>
@@ -12198,6 +12200,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -12310,6 +12313,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SRS </t>
     </r>
@@ -12328,6 +12332,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -12447,6 +12452,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">SRS </t>
     </r>
@@ -12465,6 +12471,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -12527,13 +12534,25 @@
       </rPr>
       <t>esting</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 개발</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>안드로이드 데이터베이스 학습</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>식재료 관리 데이터베이스 구축 code 및 UI 호환 code 통합</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -12980,10 +12999,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
-    <cellStyle name="백분율 2" xfId="4"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="2"/>
+    <cellStyle name="백분율 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="3"/>
+    <cellStyle name="표준 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -13289,11 +13308,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScale="82" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
@@ -15317,7 +15336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N45"/>
   <sheetViews>
@@ -16219,12 +16238,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
@@ -17464,29 +17483,53 @@
         <v>240</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="87"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="32"/>
+    <row r="55" spans="1:7" ht="13.8">
+      <c r="A55" s="87">
+        <v>43797</v>
+      </c>
+      <c r="B55" s="51">
+        <v>0</v>
+      </c>
+      <c r="C55" s="51">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D55" s="32">
+        <v>0</v>
+      </c>
       <c r="E55" s="58">
         <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F55" s="115" t="s">
+        <v>250</v>
+      </c>
+      <c r="G55" s="37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="13.8">
+      <c r="A56" s="87">
+        <v>43797</v>
+      </c>
+      <c r="B56" s="51">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C56" s="51">
+        <v>0.4375</v>
+      </c>
+      <c r="D56" s="32">
         <v>0</v>
       </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="39"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="87"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="32"/>
       <c r="E56" s="58">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="39"/>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="F56" s="120" t="s">
+        <v>250</v>
+      </c>
+      <c r="G56" s="37" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="87"/>
@@ -17572,7 +17615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
@@ -18364,11 +18407,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
@@ -20090,7 +20133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G47"/>
   <sheetViews>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85245168-425F-4551-B5CF-ED611A8DA1CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F10DBA-8D70-45EA-ADC4-874EA972F504}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="263">
   <si>
     <r>
       <rPr>
@@ -11245,49 +11245,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Initial Data Set </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수량추가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>기능</t>
     </r>
     <r>
@@ -12546,6 +12503,303 @@
   </si>
   <si>
     <t>식재료 관리 데이터베이스 구축 code 및 UI 호환 code 통합</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project Documentation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업데이트</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Project Documentation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업데이트</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수량추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Initial Data Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수량추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>기능 개발</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>식단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Activity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>월</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월 25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월 26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월 27</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11월 28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -13316,19 +13570,19 @@
       <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="87" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="51" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="87" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="51" customWidth="1"/>
     <col min="3" max="3" width="7" style="51" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" style="39" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="58" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" style="39" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.65" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>41</v>
       </c>
@@ -13341,10 +13595,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.65" customHeight="1">
       <c r="A2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.65" customHeight="1">
       <c r="A3" s="97" t="s">
         <v>127</v>
       </c>
@@ -13355,8 +13609,8 @@
       <c r="E3" s="77"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="98" t="s">
         <v>129</v>
       </c>
@@ -13571,7 +13825,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8">
+    <row r="14" spans="1:7">
       <c r="A14" s="87">
         <v>43728</v>
       </c>
@@ -13691,7 +13945,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8">
+    <row r="19" spans="1:7">
       <c r="A19" s="87">
         <v>43739</v>
       </c>
@@ -13787,7 +14041,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8">
+    <row r="23" spans="1:7">
       <c r="A23" s="89">
         <v>43748</v>
       </c>
@@ -13811,7 +14065,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.8">
+    <row r="24" spans="1:7">
       <c r="A24" s="95">
         <v>43749</v>
       </c>
@@ -13859,7 +14113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8">
+    <row r="26" spans="1:7">
       <c r="A26" s="89">
         <v>43755</v>
       </c>
@@ -13883,7 +14137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7">
       <c r="A27" s="89">
         <v>43755</v>
       </c>
@@ -13907,7 +14161,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8">
+    <row r="28" spans="1:7">
       <c r="A28" s="89">
         <v>43755</v>
       </c>
@@ -13931,7 +14185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7">
       <c r="A29" s="89">
         <v>43761</v>
       </c>
@@ -14195,7 +14449,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.7" customHeight="1">
+    <row r="40" spans="1:7" ht="14.65" customHeight="1">
       <c r="A40" s="95">
         <v>43767</v>
       </c>
@@ -14219,7 +14473,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.7" customHeight="1">
+    <row r="41" spans="1:7" ht="14.65" customHeight="1">
       <c r="A41" s="95">
         <v>43769</v>
       </c>
@@ -14339,7 +14593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.8">
+    <row r="46" spans="1:7">
       <c r="A46" s="87">
         <v>43770</v>
       </c>
@@ -14363,7 +14617,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13.8">
+    <row r="47" spans="1:7">
       <c r="A47" s="87">
         <v>43770</v>
       </c>
@@ -14387,7 +14641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8">
+    <row r="48" spans="1:7">
       <c r="A48" s="95" t="s">
         <v>138</v>
       </c>
@@ -14411,7 +14665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.8">
+    <row r="49" spans="1:7">
       <c r="A49" s="99" t="s">
         <v>138</v>
       </c>
@@ -14435,7 +14689,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13.8">
+    <row r="50" spans="1:7">
       <c r="A50" s="87">
         <v>43774</v>
       </c>
@@ -14459,7 +14713,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13.8">
+    <row r="51" spans="1:7">
       <c r="A51" s="87">
         <v>43774</v>
       </c>
@@ -14483,7 +14737,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="13.8">
+    <row r="52" spans="1:7">
       <c r="A52" s="87">
         <v>43775</v>
       </c>
@@ -14507,7 +14761,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="13.8">
+    <row r="53" spans="1:7">
       <c r="A53" s="87">
         <v>43776</v>
       </c>
@@ -14531,7 +14785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="13.8">
+    <row r="54" spans="1:7">
       <c r="A54" s="87">
         <v>43776</v>
       </c>
@@ -14555,7 +14809,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="13.8">
+    <row r="55" spans="1:7">
       <c r="A55" s="87">
         <v>43778</v>
       </c>
@@ -14579,7 +14833,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="13.8">
+    <row r="56" spans="1:7">
       <c r="A56" s="87">
         <v>43779</v>
       </c>
@@ -14603,7 +14857,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="13.8">
+    <row r="57" spans="1:7">
       <c r="A57" s="87">
         <v>43780</v>
       </c>
@@ -14627,7 +14881,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="13.8">
+    <row r="58" spans="1:7">
       <c r="A58" s="87">
         <v>43781</v>
       </c>
@@ -14651,7 +14905,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13.8">
+    <row r="59" spans="1:7">
       <c r="A59" s="87">
         <v>43781</v>
       </c>
@@ -14675,7 +14929,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="13.8">
+    <row r="60" spans="1:7">
       <c r="A60" s="87">
         <v>43781</v>
       </c>
@@ -14699,7 +14953,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="13.8">
+    <row r="61" spans="1:7">
       <c r="A61" s="87">
         <v>43782</v>
       </c>
@@ -14723,7 +14977,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13.8">
+    <row r="62" spans="1:7">
       <c r="A62" s="87">
         <v>43782</v>
       </c>
@@ -14747,7 +15001,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13.8">
+    <row r="63" spans="1:7">
       <c r="A63" s="87">
         <v>43785</v>
       </c>
@@ -14771,7 +15025,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="13.8">
+    <row r="64" spans="1:7">
       <c r="A64" s="87">
         <v>43785</v>
       </c>
@@ -14792,10 +15046,10 @@
         <v>186</v>
       </c>
       <c r="G64" s="113" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="13.8">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="87">
         <v>43785</v>
       </c>
@@ -14816,10 +15070,10 @@
         <v>186</v>
       </c>
       <c r="G65" s="113" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="13.8">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="87">
         <v>43786</v>
       </c>
@@ -14840,10 +15094,10 @@
         <v>186</v>
       </c>
       <c r="G66" s="113" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="13.8">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="87">
         <v>43788</v>
       </c>
@@ -14864,10 +15118,10 @@
         <v>186</v>
       </c>
       <c r="G67" s="113" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="13.8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="87">
         <v>43791</v>
       </c>
@@ -14888,10 +15142,10 @@
         <v>186</v>
       </c>
       <c r="G68" s="113" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="13.8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="87">
         <v>43791</v>
       </c>
@@ -14915,7 +15169,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="13.8">
+    <row r="70" spans="1:14">
       <c r="A70" s="87">
         <v>43792</v>
       </c>
@@ -14939,7 +15193,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="13.8">
+    <row r="71" spans="1:14">
       <c r="A71" s="87">
         <v>43792</v>
       </c>
@@ -14963,7 +15217,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="13.8">
+    <row r="72" spans="1:14">
       <c r="A72" s="87">
         <v>43793</v>
       </c>
@@ -14981,14 +15235,14 @@
         <v>6.25E-2</v>
       </c>
       <c r="F72" s="116" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G72" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N72" s="107"/>
     </row>
-    <row r="73" spans="1:14" ht="13.8">
+    <row r="73" spans="1:14">
       <c r="A73" s="87">
         <v>43793</v>
       </c>
@@ -15009,10 +15263,10 @@
         <v>186</v>
       </c>
       <c r="G73" s="113" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="13.8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="87">
         <v>43793</v>
       </c>
@@ -15036,7 +15290,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="13.8">
+    <row r="75" spans="1:14">
       <c r="A75" s="87">
         <v>43793</v>
       </c>
@@ -15060,7 +15314,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="13.8">
+    <row r="76" spans="1:14">
       <c r="A76" s="87">
         <v>43794</v>
       </c>
@@ -15081,10 +15335,10 @@
         <v>186</v>
       </c>
       <c r="G76" s="39" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="13.8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="87">
         <v>43794</v>
       </c>
@@ -15105,10 +15359,10 @@
         <v>186</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="13.8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="87">
         <v>43794</v>
       </c>
@@ -15129,10 +15383,10 @@
         <v>186</v>
       </c>
       <c r="G78" s="39" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="13.8">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="87">
         <v>43795</v>
       </c>
@@ -15150,13 +15404,13 @@
         <v>0.2013888888888889</v>
       </c>
       <c r="F79" s="116" t="s">
+        <v>228</v>
+      </c>
+      <c r="G79" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="G79" s="37" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="13.8">
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="87">
         <v>43795</v>
       </c>
@@ -15174,13 +15428,13 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F80" s="116" t="s">
+        <v>228</v>
+      </c>
+      <c r="G80" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="G80" s="37" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="13.8">
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="87">
         <v>43795</v>
       </c>
@@ -15198,13 +15452,13 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="F81" s="116" t="s">
+        <v>230</v>
+      </c>
+      <c r="G81" s="113" t="s">
         <v>231</v>
       </c>
-      <c r="G81" s="113" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="13.8">
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="87">
         <v>43795</v>
       </c>
@@ -15225,10 +15479,10 @@
         <v>186</v>
       </c>
       <c r="G82" s="113" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="13.8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="87">
         <v>43795</v>
       </c>
@@ -15249,10 +15503,10 @@
         <v>186</v>
       </c>
       <c r="G83" s="113" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="13.8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="87">
         <v>43796</v>
       </c>
@@ -15273,10 +15527,10 @@
         <v>186</v>
       </c>
       <c r="G84" s="113" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="13.8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="87">
         <v>43796</v>
       </c>
@@ -15294,13 +15548,13 @@
         <v>0.14583333333333329</v>
       </c>
       <c r="F85" s="116" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G85" s="113" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="13.8">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="87">
         <v>43796</v>
       </c>
@@ -15318,10 +15572,10 @@
         <v>0.17361111111111119</v>
       </c>
       <c r="F86" s="116" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G86" s="39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -15340,21 +15594,21 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="77" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="55.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="55.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.7" customHeight="1">
+    <row r="1" spans="1:10" ht="11.65" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -15367,10 +15621,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="11.7" customHeight="1">
+    <row r="2" spans="1:10" ht="11.65" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:10" ht="11.7" customHeight="1">
+    <row r="3" spans="1:10" ht="11.65" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -15381,8 +15635,8 @@
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:10" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:10" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:10" ht="11.65" customHeight="1"/>
+    <row r="5" spans="1:10" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -15598,7 +15852,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6">
+    <row r="14" spans="1:10" ht="13.5">
       <c r="A14" s="89" t="s">
         <v>131</v>
       </c>
@@ -15622,7 +15876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.6">
+    <row r="15" spans="1:10" ht="13.5">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -15646,7 +15900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.6">
+    <row r="16" spans="1:10" ht="13.5">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -15670,7 +15924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -15694,7 +15948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8">
+    <row r="18" spans="1:7">
       <c r="A18" s="50">
         <v>43749</v>
       </c>
@@ -15718,7 +15972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13.8">
+    <row r="19" spans="1:7">
       <c r="A19" s="47">
         <v>43755</v>
       </c>
@@ -15742,7 +15996,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.8">
+    <row r="20" spans="1:7">
       <c r="A20" s="47">
         <v>43755</v>
       </c>
@@ -15862,7 +16116,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.7" customHeight="1">
+    <row r="25" spans="1:7" ht="14.65" customHeight="1">
       <c r="A25" s="50">
         <v>43769</v>
       </c>
@@ -15910,7 +16164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.6">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="99" t="s">
         <v>145</v>
       </c>
@@ -15934,7 +16188,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8">
+    <row r="28" spans="1:7">
       <c r="A28" s="87">
         <v>43779</v>
       </c>
@@ -15958,7 +16212,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7">
       <c r="A29" s="87">
         <v>43782</v>
       </c>
@@ -15982,7 +16236,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.6">
+    <row r="30" spans="1:7" ht="13.5">
       <c r="A30" s="114" t="s">
         <v>181</v>
       </c>
@@ -16028,7 +16282,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.6">
+    <row r="32" spans="1:7" ht="13.5">
       <c r="A32" s="114" t="s">
         <v>205</v>
       </c>
@@ -16051,7 +16305,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.6">
+    <row r="33" spans="1:14" ht="13.5">
       <c r="A33" s="114" t="s">
         <v>207</v>
       </c>
@@ -16113,14 +16367,14 @@
       <c r="E35" s="13">
         <v>180</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="13.8">
+      <c r="F35" s="112" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35" s="113" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="87">
         <v>43793</v>
       </c>
@@ -16138,66 +16392,150 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F36" s="116" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G36" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N36" s="107"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1">
-      <c r="A37" s="87"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="2"/>
+      <c r="A37" s="114" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" s="51">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C37" s="51">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D37" s="32">
+        <v>0</v>
+      </c>
+      <c r="E37" s="13">
+        <v>240</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1">
-      <c r="A38" s="87"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="2"/>
+      <c r="A38" s="114" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38" s="51">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C38" s="51">
+        <v>0.9375</v>
+      </c>
+      <c r="D38" s="32">
+        <v>20</v>
+      </c>
+      <c r="E38" s="13">
+        <v>130</v>
+      </c>
+      <c r="F38" s="117" t="s">
+        <v>256</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1">
-      <c r="A39" s="87"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="2"/>
+      <c r="A39" s="114" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" s="51">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C39" s="51">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D39" s="32">
+        <v>60</v>
+      </c>
+      <c r="E39" s="13">
+        <v>180</v>
+      </c>
+      <c r="F39" s="117" t="s">
+        <v>256</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1">
-      <c r="A40" s="87"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="2"/>
+      <c r="A40" s="114" t="s">
+        <v>261</v>
+      </c>
+      <c r="B40" s="51">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C40" s="51">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D40" s="32">
+        <v>30</v>
+      </c>
+      <c r="E40" s="13">
+        <v>150</v>
+      </c>
+      <c r="F40" s="117" t="s">
+        <v>256</v>
+      </c>
+      <c r="G40" s="37" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="41" spans="1:14" ht="15" customHeight="1">
-      <c r="A41" s="87"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="2"/>
+      <c r="A41" s="114" t="s">
+        <v>262</v>
+      </c>
+      <c r="B41" s="51">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C41" s="51">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D41" s="32">
+        <v>30</v>
+      </c>
+      <c r="E41" s="13">
+        <v>180</v>
+      </c>
+      <c r="F41" s="117" t="s">
+        <v>256</v>
+      </c>
+      <c r="G41" s="37" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1">
-      <c r="A42" s="87"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="2"/>
+      <c r="A42" s="114" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" s="51">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C42" s="51">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D42" s="32">
+        <v>20</v>
+      </c>
+      <c r="E42" s="13">
+        <v>90</v>
+      </c>
+      <c r="F42" s="117" t="s">
+        <v>256</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1">
       <c r="A43" s="87"/>
@@ -16242,21 +16580,21 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="61.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="61.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.65" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -16269,10 +16607,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.65" customHeight="1">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.65" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>127</v>
       </c>
@@ -16283,8 +16621,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="8" t="s">
         <v>129</v>
       </c>
@@ -16499,7 +16837,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8">
+    <row r="14" spans="1:7">
       <c r="A14" s="10">
         <v>43739</v>
       </c>
@@ -16523,7 +16861,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8">
+    <row r="15" spans="1:7">
       <c r="A15" s="35">
         <v>43739</v>
       </c>
@@ -16619,7 +16957,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -16643,7 +16981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -16667,7 +17005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -16691,7 +17029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8">
+    <row r="22" spans="1:7">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -16715,7 +17053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.6">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="35">
         <v>43750</v>
       </c>
@@ -16811,7 +17149,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7">
       <c r="A27" s="47">
         <v>43755</v>
       </c>
@@ -16835,7 +17173,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8">
+    <row r="28" spans="1:7">
       <c r="A28" s="47">
         <v>43755</v>
       </c>
@@ -16859,7 +17197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7">
       <c r="A29" s="10">
         <v>43760</v>
       </c>
@@ -16979,7 +17317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8">
+    <row r="34" spans="1:7">
       <c r="A34" s="35">
         <v>43770</v>
       </c>
@@ -17171,7 +17509,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13.8">
+    <row r="42" spans="1:7">
       <c r="A42" s="87">
         <v>43779</v>
       </c>
@@ -17219,7 +17557,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8">
+    <row r="44" spans="1:7">
       <c r="A44" s="87">
         <v>43782</v>
       </c>
@@ -17267,7 +17605,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.6">
+    <row r="46" spans="1:7" ht="13.5">
       <c r="A46" s="87">
         <v>43792</v>
       </c>
@@ -17285,13 +17623,13 @@
         <v>0.12499999999999997</v>
       </c>
       <c r="F46" s="121" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G46" s="113" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="13.8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="87">
         <v>43793</v>
       </c>
@@ -17309,13 +17647,13 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F47" s="120" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G47" s="113" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="13.8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="87">
         <v>43793</v>
       </c>
@@ -17333,13 +17671,13 @@
         <v>0.15277777777777785</v>
       </c>
       <c r="F48" s="120" t="s">
+        <v>215</v>
+      </c>
+      <c r="G48" s="113" t="s">
         <v>216</v>
       </c>
-      <c r="G48" s="113" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="13.8">
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="87">
         <v>43794</v>
       </c>
@@ -17357,13 +17695,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F49" s="115" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G49" s="113" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="13.8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="87">
         <v>43794</v>
       </c>
@@ -17381,13 +17719,13 @@
         <v>9.0277777777777873E-2</v>
       </c>
       <c r="F50" s="115" t="s">
+        <v>220</v>
+      </c>
+      <c r="G50" s="113" t="s">
         <v>221</v>
       </c>
-      <c r="G50" s="113" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="13.8">
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="87">
         <v>43795</v>
       </c>
@@ -17405,13 +17743,13 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="F51" s="120" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G51" s="113" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="13.8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="87">
         <v>43795</v>
       </c>
@@ -17429,13 +17767,13 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F52" s="115" t="s">
+        <v>234</v>
+      </c>
+      <c r="G52" s="113" t="s">
         <v>235</v>
       </c>
-      <c r="G52" s="113" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="13.8">
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="87">
         <v>43795</v>
       </c>
@@ -17453,13 +17791,13 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="F53" s="120" t="s">
+        <v>236</v>
+      </c>
+      <c r="G53" s="113" t="s">
         <v>237</v>
       </c>
-      <c r="G53" s="113" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="13.8">
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="114">
         <v>43796</v>
       </c>
@@ -17477,13 +17815,13 @@
         <v>0.18055555555555555</v>
       </c>
       <c r="F54" s="115" t="s">
+        <v>238</v>
+      </c>
+      <c r="G54" s="113" t="s">
         <v>239</v>
       </c>
-      <c r="G54" s="113" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="13.8">
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="87">
         <v>43797</v>
       </c>
@@ -17501,13 +17839,13 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="F55" s="115" t="s">
+        <v>249</v>
+      </c>
+      <c r="G55" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="G55" s="37" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="13.8">
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="87">
         <v>43797</v>
       </c>
@@ -17525,10 +17863,10 @@
         <v>0.10416666666666669</v>
       </c>
       <c r="F56" s="120" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -17623,17 +17961,17 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="65" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.65" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -17646,10 +17984,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.65" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.65" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -17660,8 +17998,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -17828,7 +18166,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6">
+    <row r="12" spans="1:7" ht="13.5">
       <c r="A12" s="89">
         <v>43746</v>
       </c>
@@ -17852,7 +18190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="89">
         <v>43748</v>
       </c>
@@ -17876,7 +18214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6">
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="87">
         <v>43749</v>
       </c>
@@ -17900,7 +18238,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8">
+    <row r="15" spans="1:7">
       <c r="A15" s="50">
         <v>43749</v>
       </c>
@@ -17948,7 +18286,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8">
+    <row r="17" spans="1:7">
       <c r="A17" s="47">
         <v>43755</v>
       </c>
@@ -18020,7 +18358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="94" t="s">
         <v>141</v>
       </c>
@@ -18116,7 +18454,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.7" customHeight="1">
+    <row r="24" spans="1:7" ht="14.65" customHeight="1">
       <c r="A24" s="50">
         <v>43769</v>
       </c>
@@ -18164,7 +18502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13.8">
+    <row r="26" spans="1:7">
       <c r="A26" s="35">
         <v>43770</v>
       </c>
@@ -18188,7 +18526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7">
       <c r="A27" s="87">
         <v>43779</v>
       </c>
@@ -18212,7 +18550,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13.8">
+    <row r="28" spans="1:7">
       <c r="A28" s="87">
         <v>43793</v>
       </c>
@@ -18233,10 +18571,10 @@
         <v>192</v>
       </c>
       <c r="G28" s="113" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="13.8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="87">
         <v>43794</v>
       </c>
@@ -18254,10 +18592,10 @@
         <v>0.13194444444444439</v>
       </c>
       <c r="F29" s="116" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" s="37" t="s">
         <v>233</v>
-      </c>
-      <c r="G29" s="37" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1">
@@ -18411,21 +18749,21 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="85" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
+    <col min="6" max="6" width="38.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.65" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -18438,10 +18776,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.65" customHeight="1">
       <c r="A2" s="83"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.65" customHeight="1">
       <c r="A3" s="84" t="s">
         <v>127</v>
       </c>
@@ -18452,8 +18790,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -18476,7 +18814,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7">
       <c r="A6" s="87">
         <v>43715</v>
       </c>
@@ -18500,7 +18838,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8">
+    <row r="7" spans="1:7">
       <c r="A7" s="88">
         <v>43727</v>
       </c>
@@ -18524,7 +18862,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.8">
+    <row r="8" spans="1:7">
       <c r="A8" s="87">
         <v>43727</v>
       </c>
@@ -18548,7 +18886,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.8">
+    <row r="9" spans="1:7">
       <c r="A9" s="87">
         <v>43728</v>
       </c>
@@ -18596,7 +18934,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.8">
+    <row r="11" spans="1:7">
       <c r="A11" s="87">
         <v>43735</v>
       </c>
@@ -18620,7 +18958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8">
+    <row r="12" spans="1:7">
       <c r="A12" s="87">
         <v>43737</v>
       </c>
@@ -18644,7 +18982,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8">
+    <row r="13" spans="1:7">
       <c r="A13" s="87">
         <v>43738</v>
       </c>
@@ -18668,7 +19006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.8">
+    <row r="14" spans="1:7">
       <c r="A14" s="87">
         <v>43739</v>
       </c>
@@ -18692,7 +19030,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8">
+    <row r="15" spans="1:7">
       <c r="A15" s="89">
         <v>43739</v>
       </c>
@@ -18716,7 +19054,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.8">
+    <row r="16" spans="1:7">
       <c r="A16" s="87">
         <v>43744</v>
       </c>
@@ -18740,7 +19078,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.8">
+    <row r="17" spans="1:7">
       <c r="A17" s="87">
         <v>43744</v>
       </c>
@@ -18764,7 +19102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8">
+    <row r="18" spans="1:7">
       <c r="A18" s="87">
         <v>43744</v>
       </c>
@@ -18788,7 +19126,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.6">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="89">
         <v>43746</v>
       </c>
@@ -18812,7 +19150,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="89">
         <v>43748</v>
       </c>
@@ -18836,7 +19174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.6">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="87">
         <v>43749</v>
       </c>
@@ -18860,7 +19198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8">
+    <row r="22" spans="1:7">
       <c r="A22" s="50">
         <v>43749</v>
       </c>
@@ -18884,7 +19222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8">
+    <row r="23" spans="1:7">
       <c r="A23" s="87">
         <v>43751</v>
       </c>
@@ -18908,7 +19246,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.6">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="87">
         <v>43751</v>
       </c>
@@ -18980,7 +19318,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13.8">
+    <row r="27" spans="1:7">
       <c r="A27" s="87">
         <v>43753</v>
       </c>
@@ -19028,7 +19366,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13.8">
+    <row r="29" spans="1:7">
       <c r="A29" s="90">
         <v>43754</v>
       </c>
@@ -19052,7 +19390,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13.8">
+    <row r="30" spans="1:7">
       <c r="A30" s="90">
         <v>43754</v>
       </c>
@@ -19100,7 +19438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13.8">
+    <row r="32" spans="1:7">
       <c r="A32" s="47">
         <v>43755</v>
       </c>
@@ -19124,7 +19462,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.7" customHeight="1">
+    <row r="33" spans="1:7" ht="14.65" customHeight="1">
       <c r="A33" s="90">
         <v>43755</v>
       </c>
@@ -19148,7 +19486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8">
+    <row r="34" spans="1:7">
       <c r="A34" s="47">
         <v>43755</v>
       </c>
@@ -19388,7 +19726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13.8">
+    <row r="44" spans="1:7">
       <c r="A44" s="35">
         <v>43770</v>
       </c>
@@ -19436,7 +19774,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.8">
+    <row r="46" spans="1:7">
       <c r="A46" s="35">
         <v>43772</v>
       </c>
@@ -19458,7 +19796,7 @@
       </c>
       <c r="G46" s="123"/>
     </row>
-    <row r="47" spans="1:7" ht="13.8">
+    <row r="47" spans="1:7">
       <c r="A47" s="87">
         <v>43779</v>
       </c>
@@ -19482,7 +19820,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13.8">
+    <row r="48" spans="1:7">
       <c r="A48" s="87">
         <v>43782</v>
       </c>
@@ -19506,7 +19844,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="13.8">
+    <row r="49" spans="1:7">
       <c r="A49" s="35">
         <v>43783</v>
       </c>
@@ -19554,7 +19892,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.6">
+    <row r="51" spans="1:7" ht="13.5">
       <c r="A51" s="35">
         <v>43791</v>
       </c>
@@ -19578,7 +19916,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.6">
+    <row r="52" spans="1:7" ht="13.5">
       <c r="A52" s="35">
         <v>43792</v>
       </c>
@@ -19650,7 +19988,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="13.8">
+    <row r="55" spans="1:7">
       <c r="A55" s="87">
         <v>43793</v>
       </c>
@@ -19671,7 +20009,7 @@
         <v>192</v>
       </c>
       <c r="G55" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -19719,7 +20057,7 @@
         <v>192</v>
       </c>
       <c r="G57" s="113" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -20137,21 +20475,21 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10" style="85" customWidth="1"/>
     <col min="2" max="3" width="7" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="65" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="65" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.7" customHeight="1">
+    <row r="1" spans="1:7" ht="11.65" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
@@ -20164,10 +20502,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.7" customHeight="1">
+    <row r="2" spans="1:7" ht="11.65" customHeight="1">
       <c r="A2" s="92"/>
     </row>
-    <row r="3" spans="1:7" ht="11.7" customHeight="1">
+    <row r="3" spans="1:7" ht="11.65" customHeight="1">
       <c r="A3" s="93" t="s">
         <v>127</v>
       </c>
@@ -20178,8 +20516,8 @@
       <c r="E3" s="66"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:7" ht="11.7" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="26.4">
+    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
       <c r="A5" s="86" t="s">
         <v>129</v>
       </c>
@@ -20346,7 +20684,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.8">
+    <row r="12" spans="1:7">
       <c r="A12" s="87" t="s">
         <v>134</v>
       </c>
@@ -20418,7 +20756,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.6">
+    <row r="15" spans="1:7" ht="13.5">
       <c r="A15" s="89">
         <v>43746</v>
       </c>
@@ -20442,7 +20780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="89">
         <v>43748</v>
       </c>
@@ -20466,7 +20804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="87">
         <v>43749</v>
       </c>
@@ -20490,7 +20828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.8">
+    <row r="18" spans="1:7">
       <c r="A18" s="95">
         <v>43749</v>
       </c>
@@ -20562,7 +20900,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.8">
+    <row r="21" spans="1:7">
       <c r="A21" s="47">
         <v>43755</v>
       </c>
@@ -20586,7 +20924,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.8">
+    <row r="22" spans="1:7">
       <c r="A22" s="47">
         <v>43755</v>
       </c>
@@ -20730,7 +21068,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.7" customHeight="1">
+    <row r="28" spans="1:7" ht="14.65" customHeight="1">
       <c r="A28" s="50">
         <v>43769</v>
       </c>
@@ -20848,7 +21186,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13.8">
+    <row r="33" spans="1:7">
       <c r="A33" s="87">
         <v>43782</v>
       </c>
@@ -20872,7 +21210,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13.8">
+    <row r="34" spans="1:7">
       <c r="A34" s="114" t="s">
         <v>190</v>
       </c>
@@ -20987,7 +21325,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13.8">
+    <row r="39" spans="1:7">
       <c r="A39" s="87">
         <v>43793</v>
       </c>
@@ -21008,7 +21346,7 @@
         <v>192</v>
       </c>
       <c r="G39" s="113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1">
@@ -21036,7 +21374,7 @@
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="114" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B41" s="51">
         <v>0.54166666666666663</v>
@@ -21059,7 +21397,7 @@
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1">
       <c r="A42" s="114" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B42" s="51">
         <v>0.75</v>
@@ -21082,7 +21420,7 @@
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" s="114" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B43" s="51">
         <v>0.79166666666666663</v>

--- a/Project Documentation/1_3_PSP_Sheet.xlsx
+++ b/Project Documentation/1_3_PSP_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh\Desktop\babalzza-master\babalzza-master\Project Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choijaeyoung/Desktop/babalzza-master/Project Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F10DBA-8D70-45EA-ADC4-874EA972F504}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C67889-886C-D546-AC8E-BD1A053213B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="백지수" sheetId="1" r:id="rId1"/>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="263">
   <si>
     <r>
       <rPr>
@@ -12559,6 +12559,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Data Set </t>
     </r>
@@ -12636,6 +12637,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
@@ -12654,6 +12656,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -12671,6 +12674,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -12689,6 +12693,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Activity </t>
     </r>
@@ -12975,7 +12980,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -13250,6 +13255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
@@ -13570,19 +13576,19 @@
       <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="87" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="51" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="87" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="51" customWidth="1"/>
     <col min="3" max="3" width="7" style="51" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="58" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="46.42578125" style="39" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="58" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="46.5" style="39" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="11.65" customHeight="1">
+    <row r="1" spans="1:7" ht="11.75" customHeight="1">
       <c r="A1" s="96" t="s">
         <v>41</v>
       </c>
@@ -13595,10 +13601,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="11.65" customHeight="1">
+    <row r="2" spans="1:7" ht="11.75" customHeight="1">
       <c r="A2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="11.65" customHeight="1">
+    <row r="3" spans="1:7" ht="11.75" customHeight="1">
       <c r="A3" s="97" t="s">
         <v>127</v>
       </c>
@@ -13609,8 +13615,8 @@
       <c r="E3" s="77"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:7" ht="11.65" customHeight="1"/>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="25.5">
+    <row r="4" spans="1:7" ht="11.75" customHeight="1"/>
+    <r